--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1547">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6827,10 +6827,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>重阳6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"60万","3000鱼币","抽奖券*1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6839,46 +6835,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>重阳20元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万","1万鱼币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"480万","3万鱼币","抽奖券*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>重阳98元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6887,171 +6851,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万鱼币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首冲6元加赠</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>620000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v4-v10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","5话费碎片","30～1000福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{40,50,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7115,6 +6919,129 @@
       </rPr>
       <t>" }</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万鱼币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万鱼币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>900000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>800000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7193,7 +7120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7248,6 +7175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7291,7 +7224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7442,23 +7375,17 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9910,13 +9837,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM424"/>
+  <dimension ref="A1:AM418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="T397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X421" sqref="X421"/>
+      <selection pane="bottomRight" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35694,1153 +35621,721 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="50">
+    <row r="408" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="52">
         <v>407</v>
       </c>
-      <c r="B408" s="50">
+      <c r="B408" s="52">
         <v>10324</v>
       </c>
-      <c r="F408" s="50">
-        <v>1</v>
-      </c>
-      <c r="G408" s="50" t="s">
+      <c r="F408" s="52">
+        <v>1</v>
+      </c>
+      <c r="G408" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I408" s="52" t="s">
         <v>1503</v>
       </c>
-      <c r="I408" s="50" t="s">
+      <c r="K408" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L408" s="52">
+        <v>0</v>
+      </c>
+      <c r="M408" s="52">
+        <v>0</v>
+      </c>
+      <c r="N408" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="O408" s="52">
+        <v>600</v>
+      </c>
+      <c r="P408" s="52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q408" s="53" t="s">
+        <v>1517</v>
+      </c>
+      <c r="V408" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W408" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X408" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y408" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z408" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="52">
+        <v>408</v>
+      </c>
+      <c r="B409" s="52">
+        <v>10325</v>
+      </c>
+      <c r="F409" s="52">
+        <v>1</v>
+      </c>
+      <c r="G409" s="52" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I409" s="52" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K409" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L409" s="52">
+        <v>0</v>
+      </c>
+      <c r="M409" s="52">
+        <v>0</v>
+      </c>
+      <c r="N409" s="52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="O409" s="52">
+        <v>2000</v>
+      </c>
+      <c r="P409" s="52" t="s">
         <v>1504</v>
       </c>
-      <c r="K408" s="50">
+      <c r="Q409" s="53" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V409" s="52" t="s">
+        <v>1521</v>
+      </c>
+      <c r="W409" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X409" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y409" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z409" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="52">
+        <v>409</v>
+      </c>
+      <c r="B410" s="52">
+        <v>10326</v>
+      </c>
+      <c r="F410" s="52">
+        <v>1</v>
+      </c>
+      <c r="G410" s="52" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I410" s="52" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K410" s="52">
         <v>-31</v>
       </c>
-      <c r="L408" s="50">
-        <v>0</v>
-      </c>
-      <c r="M408" s="50">
-        <v>0</v>
-      </c>
-      <c r="N408" s="50" t="s">
+      <c r="L410" s="52">
+        <v>0</v>
+      </c>
+      <c r="M410" s="52">
+        <v>0</v>
+      </c>
+      <c r="N410" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="O408" s="50">
+      <c r="O410" s="52">
+        <v>4800</v>
+      </c>
+      <c r="P410" s="52" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q410" s="53" t="s">
+        <v>1523</v>
+      </c>
+      <c r="V410" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W410" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X410" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y410" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z410" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="52">
+        <v>410</v>
+      </c>
+      <c r="B411" s="52">
+        <v>10327</v>
+      </c>
+      <c r="F411" s="52">
+        <v>1</v>
+      </c>
+      <c r="G411" s="52" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I411" s="52" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K411" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L411" s="52">
+        <v>0</v>
+      </c>
+      <c r="M411" s="52">
+        <v>0</v>
+      </c>
+      <c r="N411" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="O411" s="52">
+        <v>9800</v>
+      </c>
+      <c r="P411" s="52" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q411" s="53" t="s">
+        <v>1525</v>
+      </c>
+      <c r="V411" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W411" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X411" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y411" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z411" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="52">
+        <v>411</v>
+      </c>
+      <c r="B412" s="52">
+        <v>10328</v>
+      </c>
+      <c r="F412" s="52">
+        <v>1</v>
+      </c>
+      <c r="G412" s="52" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I412" s="52" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K412" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L412" s="52">
+        <v>0</v>
+      </c>
+      <c r="M412" s="52">
+        <v>0</v>
+      </c>
+      <c r="N412" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="O412" s="52">
+        <v>19800</v>
+      </c>
+      <c r="P412" s="52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q412" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="V412" s="52" t="s">
+        <v>1529</v>
+      </c>
+      <c r="W412" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X412" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y412" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z412" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="52">
+        <v>412</v>
+      </c>
+      <c r="B413" s="52">
+        <v>10329</v>
+      </c>
+      <c r="F413" s="52">
+        <v>1</v>
+      </c>
+      <c r="G413" s="52" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I413" s="52" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K413" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L413" s="52">
+        <v>0</v>
+      </c>
+      <c r="M413" s="52">
+        <v>0</v>
+      </c>
+      <c r="N413" s="52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="O413" s="52">
+        <v>49800</v>
+      </c>
+      <c r="P413" s="52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q413" s="53" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V413" s="52" t="s">
+        <v>1529</v>
+      </c>
+      <c r="W413" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X413" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y413" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z413" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="5">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5">
+        <v>10330</v>
+      </c>
+      <c r="D414" s="5">
+        <v>1</v>
+      </c>
+      <c r="F414" s="5">
+        <v>1</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K414" s="5">
+        <v>-4</v>
+      </c>
+      <c r="L414" s="5">
+        <v>0</v>
+      </c>
+      <c r="M414" s="5">
+        <v>0</v>
+      </c>
+      <c r="N414" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O414" s="5">
         <v>600</v>
       </c>
-      <c r="P408" s="50" t="s">
-        <v>1506</v>
-      </c>
-      <c r="Q408" s="51" t="s">
-        <v>1507</v>
-      </c>
-      <c r="V408" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W408" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X408" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y408" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z408" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL408" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="50">
-        <v>408</v>
-      </c>
-      <c r="B409" s="50">
-        <v>10325</v>
-      </c>
-      <c r="F409" s="50">
-        <v>1</v>
-      </c>
-      <c r="G409" s="50" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I409" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K409" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L409" s="50">
-        <v>0</v>
-      </c>
-      <c r="M409" s="50">
-        <v>0</v>
-      </c>
-      <c r="N409" s="50" t="s">
+      <c r="P414" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q414" s="10" t="s">
         <v>1510</v>
       </c>
-      <c r="O409" s="50">
-        <v>2000</v>
-      </c>
-      <c r="P409" s="50" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Q409" s="51" t="s">
-        <v>1449</v>
-      </c>
-      <c r="V409" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W409" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X409" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y409" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z409" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL409" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="50">
-        <v>409</v>
-      </c>
-      <c r="B410" s="50">
-        <v>10326</v>
-      </c>
-      <c r="F410" s="50">
-        <v>1</v>
-      </c>
-      <c r="G410" s="50" t="s">
-        <v>1512</v>
-      </c>
-      <c r="I410" s="50" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K410" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L410" s="50">
-        <v>0</v>
-      </c>
-      <c r="M410" s="50">
-        <v>0</v>
-      </c>
-      <c r="N410" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O410" s="50">
-        <v>4800</v>
-      </c>
-      <c r="P410" s="50" t="s">
-        <v>1506</v>
-      </c>
-      <c r="Q410" s="51" t="s">
-        <v>1514</v>
-      </c>
-      <c r="V410" s="50" t="s">
-        <v>1515</v>
-      </c>
-      <c r="W410" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X410" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y410" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z410" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL410" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="50">
-        <v>410</v>
-      </c>
-      <c r="B411" s="50">
-        <v>10327</v>
-      </c>
-      <c r="F411" s="50">
-        <v>1</v>
-      </c>
-      <c r="G411" s="50" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I411" s="50" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K411" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L411" s="50">
-        <v>0</v>
-      </c>
-      <c r="M411" s="50">
-        <v>0</v>
-      </c>
-      <c r="N411" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O411" s="50">
-        <v>9800</v>
-      </c>
-      <c r="P411" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Q411" s="51" t="s">
-        <v>1518</v>
-      </c>
-      <c r="V411" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W411" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X411" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y411" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z411" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL411" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="50">
-        <v>411</v>
-      </c>
-      <c r="B412" s="50">
-        <v>10328</v>
-      </c>
-      <c r="F412" s="50">
-        <v>1</v>
-      </c>
-      <c r="G412" s="50" t="s">
-        <v>1519</v>
-      </c>
-      <c r="I412" s="50" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K412" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L412" s="50">
-        <v>0</v>
-      </c>
-      <c r="M412" s="50">
-        <v>0</v>
-      </c>
-      <c r="N412" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O412" s="50">
-        <v>19800</v>
-      </c>
-      <c r="P412" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Q412" s="51" t="s">
-        <v>1521</v>
-      </c>
-      <c r="V412" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W412" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X412" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y412" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z412" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL412" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="50">
-        <v>412</v>
-      </c>
-      <c r="B413" s="50">
-        <v>10329</v>
-      </c>
-      <c r="F413" s="50">
-        <v>1</v>
-      </c>
-      <c r="G413" s="50" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I413" s="50" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K413" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L413" s="50">
-        <v>0</v>
-      </c>
-      <c r="M413" s="50">
-        <v>0</v>
-      </c>
-      <c r="N413" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O413" s="50">
-        <v>49800</v>
-      </c>
-      <c r="P413" s="50" t="s">
-        <v>1506</v>
-      </c>
-      <c r="Q413" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="V413" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W413" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X413" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y413" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z413" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL413" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="50">
-        <v>413</v>
-      </c>
-      <c r="B414" s="50">
-        <v>10330</v>
-      </c>
-      <c r="D414" s="50">
-        <v>1</v>
-      </c>
-      <c r="F414" s="50">
-        <v>1</v>
-      </c>
-      <c r="G414" s="50" t="s">
-        <v>1524</v>
-      </c>
-      <c r="K414" s="50">
-        <v>-4</v>
-      </c>
-      <c r="L414" s="50">
-        <v>0</v>
-      </c>
-      <c r="M414" s="50">
-        <v>0</v>
-      </c>
-      <c r="N414" s="50" t="s">
+      <c r="V414" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="W414" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X414" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AG414" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
+        <v>414</v>
+      </c>
+      <c r="B415" s="19">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="19">
+        <v>1</v>
+      </c>
+      <c r="G415" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H415" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I415" s="19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K415" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L415" s="19">
+        <v>0</v>
+      </c>
+      <c r="M415" s="19">
+        <v>0</v>
+      </c>
+      <c r="N415" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O414" s="50">
+      <c r="O415" s="19">
+        <v>100</v>
+      </c>
+      <c r="P415" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q415" s="40" t="s">
+        <v>1537</v>
+      </c>
+      <c r="V415" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="W415" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X415" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y415" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z415" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
+      <c r="B416" s="19">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="19">
+        <v>1</v>
+      </c>
+      <c r="G416" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H416" s="19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K416" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L416" s="19">
+        <v>0</v>
+      </c>
+      <c r="M416" s="19">
+        <v>0</v>
+      </c>
+      <c r="N416" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O416" s="19">
+        <v>300</v>
+      </c>
+      <c r="P416" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q416" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="V416" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W416" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X416" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y416" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z416" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="19">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="19">
+        <v>1</v>
+      </c>
+      <c r="G417" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H417" s="19" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I417" s="19" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K417" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L417" s="19">
+        <v>0</v>
+      </c>
+      <c r="M417" s="19">
+        <v>0</v>
+      </c>
+      <c r="N417" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O417" s="19">
         <v>600</v>
       </c>
-      <c r="P414" s="50" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q414" s="51" t="s">
-        <v>1525</v>
-      </c>
-      <c r="V414" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="W414" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="50">
+      <c r="P417" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q417" s="40" t="s">
+        <v>1543</v>
+      </c>
+      <c r="V417" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W417" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X417" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y417" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AG414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL414" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="50">
-        <v>414</v>
-      </c>
-      <c r="B415" s="50">
-        <v>10331</v>
-      </c>
-      <c r="F415" s="50">
-        <v>1</v>
-      </c>
-      <c r="G415" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H415" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I415" s="50" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K415" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L415" s="50">
-        <v>0</v>
-      </c>
-      <c r="M415" s="50">
-        <v>0</v>
-      </c>
-      <c r="N415" s="50" t="s">
+      <c r="Z417" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="19">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="19">
+        <v>1</v>
+      </c>
+      <c r="G418" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H418" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I418" s="19" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K418" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L418" s="19">
+        <v>0</v>
+      </c>
+      <c r="M418" s="19">
+        <v>0</v>
+      </c>
+      <c r="N418" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O415" s="50">
+      <c r="O418" s="19">
         <v>600</v>
       </c>
-      <c r="P415" s="50" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Q415" s="51" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V415" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="W415" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X415" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y415" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z415" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="50">
-        <v>415</v>
-      </c>
-      <c r="B416" s="50">
-        <v>10332</v>
-      </c>
-      <c r="F416" s="50">
-        <v>1</v>
-      </c>
-      <c r="G416" s="50" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H416" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I416" s="50" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K416" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L416" s="50">
-        <v>0</v>
-      </c>
-      <c r="M416" s="50">
-        <v>0</v>
-      </c>
-      <c r="N416" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O416" s="50">
-        <v>1800</v>
-      </c>
-      <c r="P416" s="50" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q416" s="51" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V416" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="W416" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X416" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y416" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z416" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="50">
-        <v>416</v>
-      </c>
-      <c r="B417" s="50">
-        <v>10333</v>
-      </c>
-      <c r="F417" s="50">
-        <v>1</v>
-      </c>
-      <c r="G417" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H417" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I417" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K417" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L417" s="50">
-        <v>0</v>
-      </c>
-      <c r="M417" s="50">
-        <v>0</v>
-      </c>
-      <c r="N417" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O417" s="50">
-        <v>4800</v>
-      </c>
-      <c r="P417" s="50" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q417" s="51" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V417" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W417" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X417" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y417" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z417" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="50">
-        <v>417</v>
-      </c>
-      <c r="B418" s="50">
-        <v>10334</v>
-      </c>
-      <c r="F418" s="50">
-        <v>1</v>
-      </c>
-      <c r="G418" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H418" s="50" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I418" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K418" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L418" s="50">
-        <v>0</v>
-      </c>
-      <c r="M418" s="50">
-        <v>0</v>
-      </c>
-      <c r="N418" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O418" s="50">
-        <v>9800</v>
-      </c>
-      <c r="P418" s="50" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Q418" s="51" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V418" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W418" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X418" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y418" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z418" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="50">
-        <v>418</v>
-      </c>
-      <c r="B419" s="50">
-        <v>10335</v>
-      </c>
-      <c r="F419" s="50">
-        <v>1</v>
-      </c>
-      <c r="G419" s="50" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H419" s="50" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I419" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K419" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L419" s="50">
-        <v>0</v>
-      </c>
-      <c r="M419" s="50">
-        <v>0</v>
-      </c>
-      <c r="N419" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O419" s="50">
-        <v>19800</v>
-      </c>
-      <c r="P419" s="50" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Q419" s="51" t="s">
-        <v>1196</v>
-      </c>
-      <c r="V419" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W419" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X419" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y419" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z419" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="50">
-        <v>419</v>
-      </c>
-      <c r="B420" s="50">
-        <v>10336</v>
-      </c>
-      <c r="F420" s="50">
-        <v>1</v>
-      </c>
-      <c r="G420" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H420" s="50" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I420" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K420" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L420" s="50">
-        <v>0</v>
-      </c>
-      <c r="M420" s="50">
-        <v>0</v>
-      </c>
-      <c r="N420" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O420" s="50">
-        <v>49800</v>
-      </c>
-      <c r="P420" s="50" t="s">
-        <v>1205</v>
-      </c>
-      <c r="Q420" s="51" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V420" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W420" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X420" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y420" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z420" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="50">
-        <v>420</v>
-      </c>
-      <c r="B421" s="50">
-        <v>10337</v>
-      </c>
-      <c r="F421" s="50">
-        <v>1</v>
-      </c>
-      <c r="G421" s="50" t="s">
+      <c r="P418" s="19" t="s">
         <v>1536</v>
       </c>
-      <c r="I421" s="50" t="s">
-        <v>1537</v>
-      </c>
-      <c r="K421" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L421" s="50">
-        <v>0</v>
-      </c>
-      <c r="M421" s="50">
-        <v>0</v>
-      </c>
-      <c r="N421" s="50" t="s">
-        <v>1538</v>
-      </c>
-      <c r="O421" s="50">
-        <v>1000</v>
-      </c>
-      <c r="P421" s="50" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Q421" s="51" t="s">
-        <v>1540</v>
-      </c>
-      <c r="V421" s="50" t="s">
-        <v>1057</v>
-      </c>
-      <c r="W421" s="50">
+      <c r="Q418" s="40" t="s">
+        <v>1546</v>
+      </c>
+      <c r="V418" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W418" s="19">
         <v>9999999</v>
       </c>
-      <c r="X421" s="50">
-        <v>1585609200</v>
-      </c>
-      <c r="Y421" s="50">
+      <c r="X418" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y418" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AA421" s="50" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AB421" s="50" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AG421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="50">
-        <v>421</v>
-      </c>
-      <c r="B422" s="50">
-        <v>10338</v>
-      </c>
-      <c r="F422" s="50">
-        <v>1</v>
-      </c>
-      <c r="G422" s="50" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H422" s="50" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I422" s="50" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K422" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L422" s="50">
-        <v>0</v>
-      </c>
-      <c r="M422" s="50">
-        <v>0</v>
-      </c>
-      <c r="N422" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O422" s="50">
-        <v>2000</v>
-      </c>
-      <c r="P422" s="50" t="s">
-        <v>1547</v>
-      </c>
-      <c r="Q422" s="51" t="s">
-        <v>1548</v>
-      </c>
-      <c r="V422" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="W422" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X422" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y422" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA422" s="50" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AB422" s="50" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AG422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="50">
-        <v>422</v>
-      </c>
-      <c r="B423" s="50">
-        <v>10339</v>
-      </c>
-      <c r="F423" s="50">
-        <v>1</v>
-      </c>
-      <c r="G423" s="50" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H423" s="50" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I423" s="50" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K423" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L423" s="50">
-        <v>0</v>
-      </c>
-      <c r="M423" s="50">
-        <v>0</v>
-      </c>
-      <c r="N423" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O423" s="50">
-        <v>5800</v>
-      </c>
-      <c r="P423" s="50" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Q423" s="51" t="s">
-        <v>1553</v>
-      </c>
-      <c r="V423" s="50" t="s">
-        <v>1057</v>
-      </c>
-      <c r="W423" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X423" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y423" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA423" s="50" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AB423" s="50" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AG423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="50">
-        <v>423</v>
-      </c>
-      <c r="B424" s="50">
-        <v>10340</v>
-      </c>
-      <c r="F424" s="50">
-        <v>1</v>
-      </c>
-      <c r="G424" s="50" t="s">
-        <v>1555</v>
-      </c>
-      <c r="H424" s="50" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I424" s="50" t="s">
-        <v>1557</v>
-      </c>
-      <c r="K424" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L424" s="50">
-        <v>0</v>
-      </c>
-      <c r="M424" s="50">
-        <v>0</v>
-      </c>
-      <c r="N424" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O424" s="50">
-        <v>12800</v>
-      </c>
-      <c r="P424" s="50" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Q424" s="51" t="s">
-        <v>1558</v>
-      </c>
-      <c r="V424" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="W424" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X424" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y424" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z424" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA424" s="50" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AB424" s="50" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AG424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="50">
+      <c r="Z418" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="19">
         <v>1</v>
       </c>
     </row>
@@ -36856,7 +36351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -37531,73 +37026,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54">
+    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
         <v>47</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="51" t="s">
         <v>1491</v>
       </c>
-      <c r="C48" s="54">
-        <v>1</v>
-      </c>
-      <c r="D48" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54">
+      <c r="C48" s="50">
+        <v>1</v>
+      </c>
+      <c r="D48" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50">
         <v>48</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C49" s="54">
-        <v>1</v>
-      </c>
-      <c r="D49" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54">
+      <c r="B49" s="51" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1</v>
+      </c>
+      <c r="D49" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50">
         <v>49</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C50" s="54">
-        <v>1</v>
-      </c>
-      <c r="D50" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54">
+      <c r="B50" s="51" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
         <v>50</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C51" s="54">
-        <v>1</v>
-      </c>
-      <c r="D51" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="B51" s="51" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1</v>
+      </c>
+      <c r="D51" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50">
         <v>51</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C52" s="54">
-        <v>1</v>
-      </c>
-      <c r="D52" s="54">
+      <c r="B52" s="51" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1</v>
+      </c>
+      <c r="D52" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6799,10 +6799,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2438888,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>4188888,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7042,6 +7038,10 @@
   </si>
   <si>
     <t>800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2488888,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9840,10 +9840,10 @@
   <dimension ref="A1:AM418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T397" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F412" sqref="F412"/>
+      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13713,7 +13713,7 @@
         <v>80</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1496</v>
+        <v>1546</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>528</v>
@@ -13769,7 +13769,7 @@
         <v>80</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>528</v>
@@ -13825,7 +13825,7 @@
         <v>80</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>528</v>
@@ -13881,7 +13881,7 @@
         <v>80</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>528</v>
@@ -17248,7 +17248,7 @@
         <v>80</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>528</v>
@@ -17304,7 +17304,7 @@
         <v>80</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>528</v>
@@ -26589,7 +26589,7 @@
         <v>80</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>528</v>
@@ -35632,10 +35632,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="52" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I408" s="52" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K408" s="52">
         <v>-31</v>
@@ -35653,10 +35653,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q408" s="53" t="s">
         <v>1516</v>
-      </c>
-      <c r="Q408" s="53" t="s">
-        <v>1517</v>
       </c>
       <c r="V408" s="52" t="s">
         <v>570</v>
@@ -35697,10 +35697,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="52" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I409" s="52" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="K409" s="52">
         <v>-31</v>
@@ -35712,19 +35712,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="52" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O409" s="52">
         <v>2000</v>
       </c>
       <c r="P409" s="52" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="Q409" s="53" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V409" s="52" t="s">
         <v>1520</v>
-      </c>
-      <c r="V409" s="52" t="s">
-        <v>1521</v>
       </c>
       <c r="W409" s="52">
         <v>99999999</v>
@@ -35762,10 +35762,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="52" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I410" s="52" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="K410" s="52">
         <v>-31</v>
@@ -35783,10 +35783,10 @@
         <v>4800</v>
       </c>
       <c r="P410" s="52" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="Q410" s="53" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="V410" s="52" t="s">
         <v>570</v>
@@ -35827,10 +35827,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="52" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I411" s="52" t="s">
         <v>1507</v>
-      </c>
-      <c r="I411" s="52" t="s">
-        <v>1508</v>
       </c>
       <c r="K411" s="52">
         <v>-31</v>
@@ -35848,10 +35848,10 @@
         <v>9800</v>
       </c>
       <c r="P411" s="52" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q411" s="53" t="s">
         <v>1524</v>
-      </c>
-      <c r="Q411" s="53" t="s">
-        <v>1525</v>
       </c>
       <c r="V411" s="52" t="s">
         <v>570</v>
@@ -35892,10 +35892,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="52" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I412" s="52" t="s">
         <v>1526</v>
-      </c>
-      <c r="I412" s="52" t="s">
-        <v>1527</v>
       </c>
       <c r="K412" s="52">
         <v>-31</v>
@@ -35913,13 +35913,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="52" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="Q412" s="53" t="s">
+        <v>1527</v>
+      </c>
+      <c r="V412" s="52" t="s">
         <v>1528</v>
-      </c>
-      <c r="V412" s="52" t="s">
-        <v>1529</v>
       </c>
       <c r="W412" s="52">
         <v>99999999</v>
@@ -35957,10 +35957,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="52" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I413" s="52" t="s">
         <v>1530</v>
-      </c>
-      <c r="I413" s="52" t="s">
-        <v>1531</v>
       </c>
       <c r="K413" s="52">
         <v>-31</v>
@@ -35972,19 +35972,19 @@
         <v>0</v>
       </c>
       <c r="N413" s="52" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O413" s="52">
         <v>49800</v>
       </c>
       <c r="P413" s="52" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="Q413" s="53" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="V413" s="52" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="W413" s="52">
         <v>99999999</v>
@@ -36025,7 +36025,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36046,7 +36046,7 @@
         <v>80</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>528</v>
@@ -36078,13 +36078,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H415" s="19" t="s">
         <v>1533</v>
       </c>
-      <c r="H415" s="19" t="s">
+      <c r="I415" s="19" t="s">
         <v>1534</v>
-      </c>
-      <c r="I415" s="19" t="s">
-        <v>1535</v>
       </c>
       <c r="K415" s="19">
         <v>-28</v>
@@ -36102,13 +36102,13 @@
         <v>100</v>
       </c>
       <c r="P415" s="19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q415" s="40" t="s">
         <v>1536</v>
       </c>
-      <c r="Q415" s="40" t="s">
-        <v>1537</v>
-      </c>
       <c r="V415" s="19" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="W415" s="19">
         <v>9999999</v>
@@ -36146,13 +36146,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="19" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H416" s="19" t="s">
         <v>1538</v>
       </c>
-      <c r="H416" s="19" t="s">
+      <c r="I416" s="19" t="s">
         <v>1539</v>
-      </c>
-      <c r="I416" s="19" t="s">
-        <v>1540</v>
       </c>
       <c r="K416" s="19">
         <v>-28</v>
@@ -36170,7 +36170,7 @@
         <v>300</v>
       </c>
       <c r="P416" s="19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="Q416" s="40" t="s">
         <v>727</v>
@@ -36214,13 +36214,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="19" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H417" s="19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I417" s="19" t="s">
         <v>1541</v>
-      </c>
-      <c r="I417" s="19" t="s">
-        <v>1542</v>
       </c>
       <c r="K417" s="19">
         <v>-28</v>
@@ -36238,10 +36238,10 @@
         <v>600</v>
       </c>
       <c r="P417" s="19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="Q417" s="40" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="V417" s="19" t="s">
         <v>531</v>
@@ -36282,13 +36282,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="19" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H418" s="19" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I418" s="19" t="s">
         <v>1544</v>
-      </c>
-      <c r="I418" s="19" t="s">
-        <v>1545</v>
       </c>
       <c r="K418" s="19">
         <v>-28</v>
@@ -36306,10 +36306,10 @@
         <v>600</v>
       </c>
       <c r="P418" s="19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="Q418" s="40" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="V418" s="19" t="s">
         <v>531</v>
@@ -37045,7 +37045,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C49" s="50">
         <v>1</v>
@@ -37059,7 +37059,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C50" s="50">
         <v>1</v>
@@ -37073,7 +37073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C51" s="50">
         <v>1</v>
@@ -37087,7 +37087,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C52" s="50">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3840,10 +3840,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
   </si>
   <si>
@@ -6488,14 +6484,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"10万金币","5福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,5,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7294,6 +7282,18 @@
   </si>
   <si>
     <t>12800000,15,15,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","5福利券","话费碎片*3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8051,16 +8051,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>1535</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1538</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8210,7 +8210,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8274,7 +8274,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -8304,14 +8304,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -8320,7 +8320,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -8386,14 +8386,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -8438,7 +8438,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -8468,14 +8468,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1111</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1112</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -8520,7 +8520,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -8550,14 +8550,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -8602,7 +8602,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -8632,14 +8632,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -8684,7 +8684,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -8714,14 +8714,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -8766,7 +8766,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -8796,14 +8796,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1116</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1117</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -8848,7 +8848,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -8878,13 +8878,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1118</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1118</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1119</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -8929,7 +8929,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -8959,13 +8959,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9012,7 +9012,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9093,7 +9093,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9174,7 +9174,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9255,7 +9255,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -9336,7 +9336,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -9417,7 +9417,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -9491,7 +9491,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -9521,10 +9521,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -9565,7 +9565,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -9595,10 +9595,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -9639,7 +9639,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -9669,10 +9669,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -9713,7 +9713,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -9743,10 +9743,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>1131</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -9787,7 +9787,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -9817,10 +9817,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -9861,7 +9861,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -9891,10 +9891,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -9935,7 +9935,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -9965,10 +9965,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10007,25 +10007,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10046,16 +10046,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>1097</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10107,10 +10107,10 @@
   <dimension ref="A1:AM433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H405" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H429" sqref="H429"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10172,10 +10172,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -10505,7 +10505,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>661</v>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -13206,7 +13206,7 @@
         <v>208</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>527</v>
@@ -13841,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -13924,7 +13924,7 @@
         <v>78</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>526</v>
@@ -13980,7 +13980,7 @@
         <v>78</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>526</v>
@@ -14036,7 +14036,7 @@
         <v>78</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>526</v>
@@ -14092,7 +14092,7 @@
         <v>78</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>526</v>
@@ -14148,7 +14148,7 @@
         <v>78</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>526</v>
@@ -14481,7 +14481,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1426</v>
+        <v>1603</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14499,10 +14499,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>968</v>
+        <v>1604</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1427</v>
+        <v>1605</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -14537,7 +14537,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14555,10 +14555,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -14576,10 +14576,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -14753,10 +14753,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -14771,10 +14771,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>688</v>
@@ -14927,7 +14927,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>689</v>
@@ -14983,10 +14983,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15089,10 +15089,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -15369,7 +15369,7 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q92" s="5" t="s">
         <v>693</v>
@@ -15649,13 +15649,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>258</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>259</v>
@@ -15711,13 +15711,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>261</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>262</v>
@@ -15773,13 +15773,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>264</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>265</v>
@@ -16459,13 +16459,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>274</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>275</v>
@@ -16521,13 +16521,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>277</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>278</v>
@@ -16583,13 +16583,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>280</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>281</v>
@@ -16757,7 +16757,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>288</v>
@@ -16813,13 +16813,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>290</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>291</v>
@@ -16875,13 +16875,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>261</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>262</v>
@@ -17515,7 +17515,7 @@
         <v>78</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>526</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -17571,7 +17571,7 @@
         <v>78</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>526</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18215,7 +18215,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -19973,7 +19973,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19991,10 +19991,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q168" s="19" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q168" s="19" t="s">
-        <v>1061</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20035,10 +20035,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20056,10 +20056,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20100,7 +20100,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20118,10 +20118,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20159,13 +20159,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -20183,7 +20183,7 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q171" s="19" t="s">
         <v>722</v>
@@ -20227,13 +20227,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -20251,7 +20251,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q172" s="19" t="s">
         <v>723</v>
@@ -20295,13 +20295,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -20319,7 +20319,7 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q173" s="19" t="s">
         <v>724</v>
@@ -20363,13 +20363,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -20387,7 +20387,7 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q174" s="19" t="s">
         <v>725</v>
@@ -20431,13 +20431,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -20455,10 +20455,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q175" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>529</v>
@@ -20499,13 +20499,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -20523,7 +20523,7 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q176" s="19" t="s">
         <v>726</v>
@@ -20567,13 +20567,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -20591,7 +20591,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q177" s="19" t="s">
         <v>727</v>
@@ -20635,13 +20635,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -20659,7 +20659,7 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q178" s="19" t="s">
         <v>728</v>
@@ -20703,13 +20703,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20727,7 +20727,7 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q179" s="19" t="s">
         <v>729</v>
@@ -20771,13 +20771,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20795,7 +20795,7 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q180" s="19" t="s">
         <v>728</v>
@@ -20839,13 +20839,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20863,7 +20863,7 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Q181" s="19" t="s">
         <v>730</v>
@@ -20907,13 +20907,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20931,7 +20931,7 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q182" s="19" t="s">
         <v>731</v>
@@ -20975,13 +20975,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20999,7 +20999,7 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q183" s="19" t="s">
         <v>729</v>
@@ -21043,13 +21043,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -21067,7 +21067,7 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q184" s="19" t="s">
         <v>732</v>
@@ -21111,13 +21111,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -21135,7 +21135,7 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q185" s="19" t="s">
         <v>733</v>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="H250" s="42"/>
       <c r="I250" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -25364,7 +25364,7 @@
         <v>446</v>
       </c>
       <c r="Q250" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>526</v>
@@ -25423,7 +25423,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -25594,7 +25594,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -26572,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -26856,7 +26856,7 @@
         <v>78</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>526</v>
@@ -27094,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27289,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -29778,10 +29778,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29834,7 +29834,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -29896,7 +29896,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -29961,11 +29961,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29984,10 +29984,10 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q323" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
@@ -30044,11 +30044,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -30067,7 +30067,7 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q324" s="19" t="s">
         <v>728</v>
@@ -30127,11 +30127,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -30150,7 +30150,7 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Q325" s="19" t="s">
         <v>729</v>
@@ -30207,10 +30207,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I326" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K326" s="40">
         <v>-4</v>
@@ -30222,13 +30222,13 @@
         <v>0</v>
       </c>
       <c r="N326" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O326" s="40">
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30240,13 +30240,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AB326" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AC326" s="41" t="s">
         <v>1013</v>
-      </c>
-      <c r="AC326" s="41" t="s">
-        <v>1014</v>
       </c>
       <c r="AG326" s="40">
         <v>1</v>
@@ -30266,10 +30266,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I327" s="43" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K327" s="43">
         <v>-31</v>
@@ -30281,19 +30281,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="43" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O327" s="43">
         <v>9900</v>
       </c>
       <c r="P327" s="43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q327" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V327" s="43" t="s">
         <v>1019</v>
-      </c>
-      <c r="Q327" s="43" t="s">
-        <v>1055</v>
-      </c>
-      <c r="V327" s="43" t="s">
-        <v>1020</v>
       </c>
       <c r="W327" s="43">
         <v>99999999</v>
@@ -30331,11 +30331,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30348,23 +30348,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q328" s="43" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1043</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -30413,11 +30413,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -30430,23 +30430,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -30495,11 +30495,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -30512,23 +30512,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -30577,11 +30577,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="43" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -30594,23 +30594,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -30659,11 +30659,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="43" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -30676,23 +30676,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -30741,11 +30741,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -30758,23 +30758,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -30823,11 +30823,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -30840,23 +30840,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -30905,11 +30905,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -30922,23 +30922,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -30987,11 +30987,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31004,23 +31004,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31069,11 +31069,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31086,23 +31086,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31148,10 +31148,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31169,10 +31169,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31187,10 +31187,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31223,7 +31223,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31242,10 +31242,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31265,10 +31265,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31303,11 +31303,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31326,10 +31326,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31349,10 +31349,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -31384,11 +31384,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -31400,19 +31400,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q341" s="10" t="s">
         <v>1265</v>
       </c>
-      <c r="Q341" s="10" t="s">
+      <c r="V341" s="5" t="s">
         <v>1266</v>
-      </c>
-      <c r="V341" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31427,10 +31427,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AB341" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="AB341" s="5" t="s">
-        <v>1269</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -31456,10 +31456,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I342" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="I342" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -31471,19 +31471,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31498,10 +31498,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31527,10 +31527,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I343" s="5" t="s">
         <v>1273</v>
-      </c>
-      <c r="I343" s="5" t="s">
-        <v>1274</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31542,19 +31542,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31569,10 +31569,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31598,10 +31598,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I344" s="5" t="s">
         <v>1276</v>
-      </c>
-      <c r="I344" s="5" t="s">
-        <v>1277</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31613,19 +31613,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31640,10 +31640,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31669,10 +31669,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -31684,19 +31684,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31711,10 +31711,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31740,10 +31740,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31755,19 +31755,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31782,10 +31782,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31811,10 +31811,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31826,19 +31826,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31853,10 +31853,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31882,10 +31882,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31897,19 +31897,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31924,10 +31924,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31953,10 +31953,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31974,13 +31974,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31995,10 +31995,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32024,10 +32024,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32045,13 +32045,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32069,7 +32069,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32095,10 +32095,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32110,19 +32110,19 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32140,7 +32140,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32166,10 +32166,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I352" s="5" t="s">
         <v>1186</v>
-      </c>
-      <c r="I352" s="5" t="s">
-        <v>1187</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32187,10 +32187,10 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32208,10 +32208,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32237,13 +32237,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H353" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I353" s="5" t="s">
         <v>1190</v>
-      </c>
-      <c r="I353" s="5" t="s">
-        <v>1191</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32261,13 +32261,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q353" s="10" t="s">
         <v>1299</v>
       </c>
-      <c r="Q353" s="10" t="s">
+      <c r="V353" s="5" t="s">
         <v>1300</v>
-      </c>
-      <c r="V353" s="5" t="s">
-        <v>1301</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I354" s="5" t="s">
         <v>1302</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I354" s="5" t="s">
-        <v>1303</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32323,19 +32323,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q354" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V354" s="5" t="s">
         <v>1300</v>
-      </c>
-      <c r="V354" s="5" t="s">
-        <v>1301</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -32373,13 +32373,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H355" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="H355" s="5" t="s">
-        <v>1305</v>
-      </c>
       <c r="I355" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32391,16 +32391,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -32441,13 +32441,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32465,13 +32465,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32509,13 +32509,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32527,19 +32527,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32577,13 +32577,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32595,13 +32595,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -32645,13 +32645,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32663,19 +32663,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32713,13 +32713,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32731,19 +32731,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32781,13 +32781,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32799,19 +32799,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32849,13 +32849,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32873,10 +32873,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -32894,10 +32894,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32923,13 +32923,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32941,19 +32941,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32968,10 +32968,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32997,13 +32997,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33015,19 +33015,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33042,10 +33042,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33071,10 +33071,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33086,16 +33086,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1310</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1311</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33136,10 +33136,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I366" s="5" t="s">
         <v>1312</v>
-      </c>
-      <c r="I366" s="5" t="s">
-        <v>1313</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33151,16 +33151,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33201,10 +33201,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33216,19 +33216,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33266,10 +33266,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33281,16 +33281,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -33331,10 +33331,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33352,13 +33352,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -33396,10 +33396,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33417,7 +33417,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -33458,10 +33458,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33479,10 +33479,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -33520,10 +33520,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33541,7 +33541,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -33582,10 +33582,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33603,13 +33603,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -33644,13 +33644,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="H374" s="5" t="s">
-        <v>1221</v>
-      </c>
       <c r="I374" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33662,7 +33662,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -33671,7 +33671,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -33712,13 +33712,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="H375" s="5" t="s">
+      <c r="I375" s="5" t="s">
         <v>1344</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1345</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33730,19 +33730,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q375" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="Q375" s="10" t="s">
+      <c r="V375" s="5" t="s">
         <v>1348</v>
-      </c>
-      <c r="V375" s="5" t="s">
-        <v>1349</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33780,13 +33780,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H376" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I376" s="5" t="s">
         <v>1353</v>
-      </c>
-      <c r="I376" s="5" t="s">
-        <v>1354</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33798,19 +33798,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q376" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="Q376" s="10" t="s">
+      <c r="V376" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="V376" s="5" t="s">
-        <v>1358</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33848,13 +33848,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33866,19 +33866,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33916,13 +33916,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H378" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="H378" s="5" t="s">
-        <v>1352</v>
-      </c>
       <c r="I378" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33940,13 +33940,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q378" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V378" s="5" t="s">
         <v>1361</v>
-      </c>
-      <c r="V378" s="5" t="s">
-        <v>1362</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33984,10 +33984,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34002,19 +34002,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34052,10 +34052,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34070,19 +34070,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34120,13 +34120,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34144,10 +34144,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q381" s="10" t="s">
         <v>1356</v>
-      </c>
-      <c r="Q381" s="10" t="s">
-        <v>1357</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34188,13 +34188,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34212,13 +34212,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34256,13 +34256,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34280,10 +34280,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -34324,13 +34324,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34342,13 +34342,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -34392,13 +34392,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34410,19 +34410,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34460,13 +34460,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="47" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H386" s="47" t="s">
         <v>1376</v>
       </c>
-      <c r="H386" s="47" t="s">
+      <c r="I386" s="47" t="s">
         <v>1377</v>
-      </c>
-      <c r="I386" s="47" t="s">
-        <v>1378</v>
       </c>
       <c r="K386" s="47">
         <v>-31</v>
@@ -34484,10 +34484,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="47" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q386" s="48" t="s">
         <v>1379</v>
-      </c>
-      <c r="Q386" s="48" t="s">
-        <v>1380</v>
       </c>
       <c r="V386" s="47" t="s">
         <v>536</v>
@@ -34528,13 +34528,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="47" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H387" s="47" t="s">
         <v>1381</v>
       </c>
-      <c r="H387" s="47" t="s">
+      <c r="I387" s="47" t="s">
         <v>1382</v>
-      </c>
-      <c r="I387" s="47" t="s">
-        <v>1383</v>
       </c>
       <c r="K387" s="47">
         <v>-31</v>
@@ -34546,16 +34546,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="47" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="O387" s="47">
         <v>3000</v>
       </c>
       <c r="P387" s="47" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q387" s="48" t="s">
         <v>1385</v>
-      </c>
-      <c r="Q387" s="48" t="s">
-        <v>1386</v>
       </c>
       <c r="V387" s="47" t="s">
         <v>536</v>
@@ -34596,13 +34596,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="47" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H388" s="47" t="s">
         <v>1387</v>
       </c>
-      <c r="H388" s="47" t="s">
+      <c r="I388" s="47" t="s">
         <v>1388</v>
-      </c>
-      <c r="I388" s="47" t="s">
-        <v>1389</v>
       </c>
       <c r="K388" s="47">
         <v>-31</v>
@@ -34614,19 +34614,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="47" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="O388" s="47">
         <v>4800</v>
       </c>
       <c r="P388" s="47" t="s">
+        <v>1390</v>
+      </c>
+      <c r="Q388" s="48" t="s">
         <v>1391</v>
       </c>
-      <c r="Q388" s="48" t="s">
+      <c r="V388" s="47" t="s">
         <v>1392</v>
-      </c>
-      <c r="V388" s="47" t="s">
-        <v>1393</v>
       </c>
       <c r="W388" s="47">
         <v>9999999</v>
@@ -34664,13 +34664,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="47" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H389" s="47" t="s">
         <v>1394</v>
       </c>
-      <c r="H389" s="47" t="s">
+      <c r="I389" s="47" t="s">
         <v>1395</v>
-      </c>
-      <c r="I389" s="47" t="s">
-        <v>1396</v>
       </c>
       <c r="K389" s="47">
         <v>-31</v>
@@ -34682,16 +34682,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="47" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O389" s="47">
         <v>4800</v>
       </c>
       <c r="P389" s="47" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Q389" s="48" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="V389" s="47" t="s">
         <v>536</v>
@@ -34732,13 +34732,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H390" s="47" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I390" s="47" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="K390" s="47">
         <v>-31</v>
@@ -34756,10 +34756,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="47" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q390" s="48" t="s">
         <v>1400</v>
-      </c>
-      <c r="Q390" s="48" t="s">
-        <v>1401</v>
       </c>
       <c r="V390" s="47" t="s">
         <v>536</v>
@@ -34800,13 +34800,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I391" s="5" t="s">
         <v>1402</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I391" s="5" t="s">
-        <v>1403</v>
       </c>
       <c r="K391" s="5">
         <v>-31</v>
@@ -34824,10 +34824,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q391" s="10" t="s">
         <v>1404</v>
-      </c>
-      <c r="Q391" s="10" t="s">
-        <v>1405</v>
       </c>
       <c r="V391" s="5" t="s">
         <v>536</v>
@@ -34868,13 +34868,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H392" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I392" s="5" t="s">
         <v>1406</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>1407</v>
       </c>
       <c r="K392" s="5">
         <v>-31</v>
@@ -34892,10 +34892,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q392" s="10" t="s">
         <v>1408</v>
-      </c>
-      <c r="Q392" s="10" t="s">
-        <v>1409</v>
       </c>
       <c r="V392" s="5" t="s">
         <v>536</v>
@@ -34936,13 +34936,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H393" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I393" s="5" t="s">
         <v>1410</v>
-      </c>
-      <c r="I393" s="5" t="s">
-        <v>1411</v>
       </c>
       <c r="K393" s="5">
         <v>-31</v>
@@ -34960,10 +34960,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="V393" s="5" t="s">
         <v>536</v>
@@ -35004,13 +35004,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H394" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I394" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="I394" s="5" t="s">
-        <v>1414</v>
       </c>
       <c r="K394" s="5">
         <v>-31</v>
@@ -35022,16 +35022,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="O394" s="5">
         <v>49800</v>
       </c>
       <c r="P394" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q394" s="10" t="s">
         <v>1416</v>
-      </c>
-      <c r="Q394" s="10" t="s">
-        <v>1417</v>
       </c>
       <c r="V394" s="5" t="s">
         <v>536</v>
@@ -35072,10 +35072,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35087,16 +35087,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35134,10 +35134,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35149,16 +35149,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35199,7 +35199,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35217,10 +35217,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35261,7 +35261,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35279,10 +35279,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -35320,10 +35320,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35335,16 +35335,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -35382,10 +35382,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35397,16 +35397,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -35444,10 +35444,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35459,19 +35459,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35509,10 +35509,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35524,19 +35524,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -35574,10 +35574,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -35589,19 +35589,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -35639,10 +35639,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -35654,19 +35654,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -35704,10 +35704,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -35719,19 +35719,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -35769,10 +35769,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -35784,19 +35784,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -35834,10 +35834,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -35849,19 +35849,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -35899,10 +35899,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="51" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="I408" s="51" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="K408" s="51">
         <v>-31</v>
@@ -35920,10 +35920,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q408" s="52" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="V408" s="51" t="s">
         <v>568</v>
@@ -35964,10 +35964,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="51" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="I409" s="51" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="K409" s="51">
         <v>-31</v>
@@ -35979,19 +35979,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="51" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="O409" s="51">
         <v>2000</v>
       </c>
       <c r="P409" s="51" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="Q409" s="52" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="V409" s="51" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="W409" s="51">
         <v>99999999</v>
@@ -36029,10 +36029,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="51" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I410" s="51" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="K410" s="51">
         <v>-31</v>
@@ -36050,10 +36050,10 @@
         <v>4800</v>
       </c>
       <c r="P410" s="51" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="Q410" s="52" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="V410" s="51" t="s">
         <v>568</v>
@@ -36094,10 +36094,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="51" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="I411" s="51" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="K411" s="51">
         <v>-31</v>
@@ -36115,10 +36115,10 @@
         <v>9800</v>
       </c>
       <c r="P411" s="51" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="Q411" s="52" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="V411" s="51" t="s">
         <v>568</v>
@@ -36159,10 +36159,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="51" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="I412" s="51" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="K412" s="51">
         <v>-31</v>
@@ -36180,13 +36180,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q412" s="52" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="V412" s="51" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="W412" s="51">
         <v>99999999</v>
@@ -36224,10 +36224,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="51" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="I413" s="51" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="K413" s="51">
         <v>-31</v>
@@ -36239,19 +36239,19 @@
         <v>0</v>
       </c>
       <c r="N413" s="51" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="O413" s="51">
         <v>49800</v>
       </c>
       <c r="P413" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q413" s="52" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="V413" s="51" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="W413" s="51">
         <v>99999999</v>
@@ -36292,7 +36292,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36313,7 +36313,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -36345,13 +36345,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36369,13 +36369,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="Q415" s="54" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>109</v>
@@ -36413,13 +36413,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36437,13 +36437,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="Q416" s="54" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -36481,13 +36481,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36505,13 +36505,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q417" s="54" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -36549,13 +36549,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36573,13 +36573,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q418" s="54" t="s">
+        <v>1540</v>
+      </c>
+      <c r="V418" s="6" t="s">
         <v>1198</v>
-      </c>
-      <c r="Q418" s="54" t="s">
-        <v>1543</v>
-      </c>
-      <c r="V418" s="6" t="s">
-        <v>1199</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -36617,13 +36617,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36641,13 +36641,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q419" s="54" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -36685,13 +36685,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36709,13 +36709,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q420" s="54" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -36753,10 +36753,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36768,19 +36768,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36792,10 +36792,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36821,13 +36821,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="55" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H422" s="55" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="I422" s="55" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K422" s="55">
         <v>-31</v>
@@ -36845,10 +36845,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="55" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="Q422" s="56" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="V422" s="55" t="s">
         <v>570</v>
@@ -36889,13 +36889,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="55" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H423" s="55" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="I423" s="55" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K423" s="55">
         <v>-31</v>
@@ -36913,13 +36913,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="55" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="Q423" s="56" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="V423" s="55" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="W423" s="55">
         <v>99999999</v>
@@ -36957,13 +36957,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="55" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H424" s="55" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="I424" s="55" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="K424" s="55">
         <v>-31</v>
@@ -36981,13 +36981,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="55" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="Q424" s="56" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="V424" s="55" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="W424" s="55">
         <v>99999999</v>
@@ -37025,10 +37025,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37046,13 +37046,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="Q425" s="54" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37081,10 +37081,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37102,13 +37102,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="Q426" s="54" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37137,10 +37137,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37158,13 +37158,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="Q427" s="54" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37193,10 +37193,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37214,13 +37214,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="Q428" s="54" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37249,10 +37249,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37270,13 +37270,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="Q429" s="54" t="s">
         <v>657</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37305,13 +37305,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37329,7 +37329,7 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="Q430" s="39" t="s">
         <v>722</v>
@@ -37373,13 +37373,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37397,10 +37397,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -37441,13 +37441,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37465,10 +37465,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -37509,13 +37509,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37533,10 +37533,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>529</v>
@@ -37594,7 +37594,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -37611,7 +37611,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -37628,7 +37628,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -37642,7 +37642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -37656,7 +37656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -37810,7 +37810,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -37964,7 +37964,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -37978,7 +37978,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -37992,7 +37992,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -38006,7 +38006,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -38020,7 +38020,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -38034,7 +38034,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -38048,7 +38048,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -38062,7 +38062,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -38076,7 +38076,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -38090,7 +38090,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -38104,7 +38104,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -38118,7 +38118,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -38132,7 +38132,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -38146,7 +38146,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -38160,7 +38160,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -38174,7 +38174,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -38188,7 +38188,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -38202,7 +38202,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -38216,7 +38216,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -38230,7 +38230,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -38244,7 +38244,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -38258,7 +38258,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C48" s="49">
         <v>1</v>
@@ -38272,7 +38272,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C49" s="49">
         <v>1</v>
@@ -38286,7 +38286,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C50" s="49">
         <v>1</v>
@@ -38300,7 +38300,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C51" s="49">
         <v>1</v>
@@ -38314,7 +38314,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C52" s="49">
         <v>1</v>
@@ -38490,16 +38490,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>1147</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>1148</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -38555,16 +38555,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -38620,10 +38620,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -38685,16 +38685,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -38750,10 +38750,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -38815,10 +38815,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -38877,16 +38877,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -38965,7 +38965,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39035,7 +39035,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39079,10 +39079,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -39108,7 +39108,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -39144,10 +39144,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -39209,10 +39209,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -39274,10 +39274,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>1163</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>1164</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -39310,7 +39310,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -39348,7 +39348,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -39364,7 +39364,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39411,17 +39411,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -39476,11 +39476,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -39541,11 +39541,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -39606,11 +39606,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -39671,7 +39671,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -39735,11 +39735,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -39813,7 +39813,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -39951,7 +39951,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -39967,7 +39967,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39987,7 +39987,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -40014,7 +40014,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -40475,7 +40475,7 @@
         <v>78</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -40668,7 +40668,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -40715,7 +40715,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -40762,7 +40762,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1606">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7137,6 +7137,110 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"核能风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>900000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>新手宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7145,27 +7249,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
+    <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10","高级宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7173,139 +7285,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"神龙之力",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_7",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡之灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"死亡之灵",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"核能风暴",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币使者",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪耀风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"闪耀风暴",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>900000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小额用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000,3,</t>
+    <t>"1280万金币","冰冻*15","锁定*15","豪华宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7384,7 +7372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7445,6 +7433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7488,7 +7482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7652,6 +7646,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10110,7 +10110,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD433"/>
+      <selection pane="bottomRight" activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36810,225 +36810,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A422" s="6">
+    <row r="422" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="55">
         <v>421</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="55">
         <v>10338</v>
       </c>
-      <c r="F422" s="6">
-        <v>1</v>
-      </c>
-      <c r="G422" s="6" t="s">
+      <c r="F422" s="55">
+        <v>1</v>
+      </c>
+      <c r="G422" s="55" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H422" s="55" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I422" s="55" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K422" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="55">
+        <v>0</v>
+      </c>
+      <c r="M422" s="55">
+        <v>0</v>
+      </c>
+      <c r="N422" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O422" s="55">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="55" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q422" s="56" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V422" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="W422" s="55">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="Z422" s="55">
+        <v>51</v>
+      </c>
+      <c r="AG422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="55">
+        <v>422</v>
+      </c>
+      <c r="B423" s="55">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="55">
+        <v>1</v>
+      </c>
+      <c r="G423" s="55" t="s">
         <v>1566</v>
       </c>
-      <c r="H422" s="6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I422" s="6" t="s">
-        <v>1568</v>
-      </c>
-      <c r="K422" s="6">
+      <c r="H423" s="55" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I423" s="55" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K423" s="55">
         <v>-31</v>
       </c>
-      <c r="L422" s="6">
-        <v>0</v>
-      </c>
-      <c r="M422" s="6">
-        <v>0</v>
-      </c>
-      <c r="N422" s="5" t="s">
+      <c r="L423" s="55">
+        <v>0</v>
+      </c>
+      <c r="M423" s="55">
+        <v>0</v>
+      </c>
+      <c r="N423" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O422" s="6">
-        <v>2000</v>
-      </c>
-      <c r="P422" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="Q422" s="54" t="s">
-        <v>1570</v>
-      </c>
-      <c r="V422" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="W422" s="6">
+      <c r="O423" s="55">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="55" t="s">
+        <v>1598</v>
+      </c>
+      <c r="Q423" s="56" t="s">
+        <v>1599</v>
+      </c>
+      <c r="V423" s="55" t="s">
+        <v>1600</v>
+      </c>
+      <c r="W423" s="55">
         <v>99999999</v>
       </c>
-      <c r="X422" s="6">
+      <c r="X423" s="55">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="6">
+      <c r="Y423" s="55">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="6">
+      <c r="Z423" s="55">
         <v>51</v>
       </c>
-      <c r="AA422" s="6" t="s">
-        <v>1571</v>
-      </c>
-      <c r="AB422" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="AG422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A423" s="6">
-        <v>422</v>
-      </c>
-      <c r="B423" s="5">
-        <v>10339</v>
-      </c>
-      <c r="F423" s="6">
-        <v>1</v>
-      </c>
-      <c r="G423" s="6" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H423" s="6" t="s">
-        <v>1574</v>
-      </c>
-      <c r="I423" s="6" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K423" s="6">
+      <c r="AG423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="55">
+        <v>423</v>
+      </c>
+      <c r="B424" s="55">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="55">
+        <v>1</v>
+      </c>
+      <c r="G424" s="55" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H424" s="55" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I424" s="55" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K424" s="55">
         <v>-31</v>
       </c>
-      <c r="L423" s="6">
-        <v>0</v>
-      </c>
-      <c r="M423" s="6">
-        <v>0</v>
-      </c>
-      <c r="N423" s="5" t="s">
+      <c r="L424" s="55">
+        <v>0</v>
+      </c>
+      <c r="M424" s="55">
+        <v>0</v>
+      </c>
+      <c r="N424" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O423" s="6">
-        <v>5800</v>
-      </c>
-      <c r="P423" s="6" t="s">
-        <v>1576</v>
-      </c>
-      <c r="Q423" s="54" t="s">
-        <v>1577</v>
-      </c>
-      <c r="V423" s="6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="W423" s="6">
+      <c r="O424" s="55">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="55" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q424" s="56" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V424" s="55" t="s">
+        <v>1600</v>
+      </c>
+      <c r="W424" s="55">
         <v>99999999</v>
       </c>
-      <c r="X423" s="6">
+      <c r="X424" s="55">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="6">
+      <c r="Y424" s="55">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="6">
+      <c r="Z424" s="55">
         <v>51</v>
       </c>
-      <c r="AA423" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB423" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="AG423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A424" s="6">
-        <v>423</v>
-      </c>
-      <c r="B424" s="5">
-        <v>10340</v>
-      </c>
-      <c r="F424" s="6">
-        <v>1</v>
-      </c>
-      <c r="G424" s="6" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H424" s="6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I424" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K424" s="6">
-        <v>-31</v>
-      </c>
-      <c r="L424" s="6">
-        <v>0</v>
-      </c>
-      <c r="M424" s="6">
-        <v>0</v>
-      </c>
-      <c r="N424" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O424" s="6">
-        <v>12800</v>
-      </c>
-      <c r="P424" s="6" t="s">
-        <v>1576</v>
-      </c>
-      <c r="Q424" s="54" t="s">
-        <v>1582</v>
-      </c>
-      <c r="V424" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="W424" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="X424" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Y424" s="6">
-        <v>2552233600</v>
-      </c>
-      <c r="Z424" s="6">
-        <v>51</v>
-      </c>
-      <c r="AA424" s="6" t="s">
-        <v>1583</v>
-      </c>
-      <c r="AB424" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="AG424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="6">
+      <c r="AG424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="55">
         <v>1</v>
       </c>
     </row>
@@ -37043,10 +37025,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1585</v>
+        <v>1568</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1586</v>
+        <v>1569</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37064,13 +37046,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1587</v>
+        <v>1570</v>
       </c>
       <c r="Q425" s="54" t="s">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37099,10 +37081,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1589</v>
+        <v>1572</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1590</v>
+        <v>1573</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37120,13 +37102,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1591</v>
+        <v>1574</v>
       </c>
       <c r="Q426" s="54" t="s">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37155,10 +37137,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1592</v>
+        <v>1575</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1593</v>
+        <v>1576</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37176,13 +37158,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1594</v>
+        <v>1577</v>
       </c>
       <c r="Q427" s="54" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37211,10 +37193,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1596</v>
+        <v>1579</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37232,10 +37214,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1597</v>
+        <v>1580</v>
       </c>
       <c r="Q428" s="54" t="s">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>1563</v>
@@ -37267,10 +37249,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1598</v>
+        <v>1581</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1599</v>
+        <v>1582</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37288,7 +37270,7 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1600</v>
+        <v>1583</v>
       </c>
       <c r="Q429" s="54" t="s">
         <v>657</v>
@@ -37323,10 +37305,10 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1601</v>
+        <v>1584</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1602</v>
+        <v>1585</v>
       </c>
       <c r="I430" s="19" t="s">
         <v>1528</v>
@@ -37391,7 +37373,7 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1603</v>
+        <v>1586</v>
       </c>
       <c r="H431" s="19" t="s">
         <v>1530</v>
@@ -37418,7 +37400,7 @@
         <v>1529</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1604</v>
+        <v>1587</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -37459,7 +37441,7 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1601</v>
+        <v>1584</v>
       </c>
       <c r="H432" s="19" t="s">
         <v>1250</v>
@@ -37486,7 +37468,7 @@
         <v>1529</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1605</v>
+        <v>1588</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -37527,10 +37509,10 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1606</v>
+        <v>1589</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1607</v>
+        <v>1590</v>
       </c>
       <c r="I433" s="19" t="s">
         <v>1533</v>
@@ -37554,7 +37536,7 @@
         <v>1529</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1608</v>
+        <v>1591</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>529</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4047,10 +4047,6 @@
     <t>VIP4礼包</t>
   </si>
   <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP5礼包</t>
   </si>
   <si>
@@ -4072,81 +4068,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -7682,6 +7604,10 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7953,15 +7879,215 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10486000,</t>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8040,7 +8166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8119,6 +8245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8162,7 +8300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8359,6 +8497,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8758,16 +8917,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8825,7 +8984,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8866,7 +9025,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8917,7 +9076,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8981,7 +9140,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -9011,14 +9170,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9027,7 +9186,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9050,9 +9209,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9063,7 +9220,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -9093,14 +9250,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9132,9 +9289,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9145,7 +9300,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -9175,14 +9330,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9214,9 +9369,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9227,7 +9380,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -9257,14 +9410,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U5" s="33" t="s">
         <v>1091</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>1112</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9296,9 +9449,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9309,7 +9460,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -9339,14 +9490,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9378,9 +9529,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9391,7 +9540,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -9421,14 +9570,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9460,9 +9609,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9473,7 +9620,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -9503,14 +9650,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9542,9 +9689,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9555,7 +9700,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9585,13 +9730,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9623,9 +9768,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9636,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9666,13 +9808,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9706,9 +9848,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -9719,7 +9859,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9800,7 +9940,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9881,7 +10021,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9962,7 +10102,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -10043,7 +10183,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -10124,7 +10264,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10154,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10198,7 +10338,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10228,10 +10368,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10272,7 +10412,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10302,10 +10442,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10346,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10376,10 +10516,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10420,7 +10560,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10450,10 +10590,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10494,7 +10634,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10524,10 +10664,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10568,7 +10708,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10598,10 +10738,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10642,7 +10782,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10672,10 +10812,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10710,29 +10850,27 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10753,16 +10891,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10811,13 +10949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10879,10 +11017,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -11212,7 +11350,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14548,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -14596,283 +14734,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="69">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="69">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V67" s="5" t="s">
+      <c r="Q67" s="69" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V67" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="69">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="69">
+        <v>0</v>
+      </c>
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="69">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="Q68" s="69" t="s">
+        <v>1510</v>
+      </c>
+      <c r="V68" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="69">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="69">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="Q69" s="69" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V69" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="69">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="69">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="V70" s="5" t="s">
+      <c r="Q70" s="69" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V70" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="69">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="69">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q71" s="5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="V71" s="5" t="s">
+      <c r="Q71" s="69" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V71" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
+      <c r="AG71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -15188,7 +15326,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -15206,10 +15344,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -15244,7 +15382,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15262,10 +15400,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -15283,10 +15421,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -15306,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -15460,10 +15598,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -15478,10 +15616,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -15690,10 +15828,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15796,10 +15934,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -16156,56 +16294,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="69">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="69">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18187,115 +18325,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="69">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="69">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="69">
+        <v>0</v>
+      </c>
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="69">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q128" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="V128" s="5" t="s">
+      <c r="Q128" s="69" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V128" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="69">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K129" s="5">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K129" s="69">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="69">
+        <v>0</v>
+      </c>
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="69">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q129" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="V129" s="5" t="s">
+      <c r="Q129" s="69" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V129" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
+      <c r="AG129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18862,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18922,7 +19060,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -20680,7 +20818,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20698,10 +20836,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20742,10 +20880,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20763,10 +20901,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20807,7 +20945,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20825,10 +20963,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20866,10 +21004,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>983</v>
@@ -20934,10 +21072,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>984</v>
@@ -21002,10 +21140,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>985</v>
@@ -21070,10 +21208,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="H174" s="19" t="s">
-        <v>1250</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>986</v>
@@ -21138,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>997</v>
@@ -21206,10 +21344,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>998</v>
@@ -21274,10 +21412,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>999</v>
@@ -21342,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
@@ -21410,10 +21548,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1001</v>
@@ -21478,10 +21616,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>991</v>
@@ -21546,10 +21684,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1002</v>
@@ -21614,10 +21752,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1003</v>
@@ -21682,10 +21820,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1004</v>
@@ -21750,10 +21888,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1003</v>
@@ -21818,10 +21956,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1005</v>
@@ -26130,7 +26268,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -26301,7 +26439,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -26496,7 +26634,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -27019,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -27279,7 +27417,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -27528,59 +27666,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="69">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="69">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="72">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="69">
+        <v>0</v>
+      </c>
+      <c r="G273" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="69">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="69">
+        <v>0</v>
+      </c>
+      <c r="M273" s="69">
+        <v>0</v>
+      </c>
+      <c r="N273" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="69">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q273" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V273" s="5" t="s">
+      <c r="Q273" s="69" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V273" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27801,7 +27939,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27866,7 +28004,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27931,7 +28069,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27996,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -30485,10 +30623,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30541,7 +30679,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -30603,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -30834,7 +30972,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -30914,7 +31052,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>1011</v>
@@ -30935,7 +31073,7 @@
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30973,10 +31111,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="I327" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K327" s="43">
         <v>-31</v>
@@ -30997,7 +31135,7 @@
         <v>1018</v>
       </c>
       <c r="Q327" s="43" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1019</v>
@@ -31038,11 +31176,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1023</v>
+        <v>1766</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1031</v>
+        <v>1767</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31055,23 +31193,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1042</v>
+        <v>1769</v>
+      </c>
+      <c r="Q328" s="66" t="s">
+        <v>1030</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31124,7 +31262,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1032</v>
+        <v>1771</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31137,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q329" s="43" t="s">
-        <v>1043</v>
+        <v>1772</v>
+      </c>
+      <c r="Q329" s="66" t="s">
+        <v>1773</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31206,7 +31344,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1033</v>
+        <v>1774</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31219,23 +31357,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q330" s="43" t="s">
-        <v>1049</v>
+        <v>1775</v>
+      </c>
+      <c r="Q330" s="66" t="s">
+        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31288,7 +31426,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1034</v>
+        <v>1777</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31301,23 +31439,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q331" s="43" t="s">
-        <v>1050</v>
+        <v>1775</v>
+      </c>
+      <c r="Q331" s="66" t="s">
+        <v>1778</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31366,11 +31504,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="43" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1035</v>
+        <v>1779</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31383,23 +31521,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1009</v>
+        <v>482</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q332" s="43" t="s">
-        <v>1044</v>
+        <v>1775</v>
+      </c>
+      <c r="Q332" s="66" t="s">
+        <v>1780</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31448,11 +31586,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="43" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1036</v>
+        <v>1765</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31465,23 +31603,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q333" s="43" t="s">
-        <v>1045</v>
+        <v>1775</v>
+      </c>
+      <c r="Q333" s="66" t="s">
+        <v>1781</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31530,11 +31668,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1037</v>
+        <v>1782</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31547,23 +31685,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1009</v>
+        <v>1783</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q334" s="43" t="s">
-        <v>1051</v>
+        <v>1775</v>
+      </c>
+      <c r="Q334" s="66" t="s">
+        <v>1784</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1052</v>
+        <v>1785</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31612,11 +31750,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1038</v>
+        <v>1786</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31629,23 +31767,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1009</v>
+        <v>1764</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q335" s="43" t="s">
-        <v>1046</v>
+        <v>1775</v>
+      </c>
+      <c r="Q335" s="66" t="s">
+        <v>1787</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1052</v>
+        <v>1770</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31694,11 +31832,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1039</v>
+        <v>1788</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31711,23 +31849,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q336" s="43" t="s">
-        <v>1047</v>
+        <v>1775</v>
+      </c>
+      <c r="Q336" s="66" t="s">
+        <v>1789</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1052</v>
+        <v>1790</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31776,11 +31914,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1040</v>
+        <v>1791</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31793,23 +31931,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q337" s="43" t="s">
-        <v>1048</v>
+        <v>1763</v>
+      </c>
+      <c r="Q337" s="66" t="s">
+        <v>1792</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1052</v>
+        <v>1785</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31855,10 +31993,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31876,10 +32014,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31894,10 +32032,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31930,7 +32068,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31949,10 +32087,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31972,10 +32110,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -32010,11 +32148,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -32033,10 +32171,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -32056,10 +32194,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -32091,11 +32229,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -32107,19 +32245,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -32134,10 +32272,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -32163,10 +32301,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -32178,19 +32316,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -32205,10 +32343,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -32234,10 +32372,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32249,19 +32387,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32276,10 +32414,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32305,10 +32443,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32320,19 +32458,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32347,10 +32485,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32376,10 +32514,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32391,19 +32529,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32418,10 +32556,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32447,10 +32585,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32462,19 +32600,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32489,10 +32627,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32518,10 +32656,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32533,19 +32671,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32560,10 +32698,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32589,10 +32727,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32604,19 +32742,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32631,10 +32769,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AB348" s="5" t="s">
         <v>1267</v>
-      </c>
-      <c r="AB348" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32660,10 +32798,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32681,13 +32819,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32702,10 +32840,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32731,10 +32869,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32755,10 +32893,10 @@
         <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32776,7 +32914,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32802,10 +32940,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32817,7 +32955,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -32826,10 +32964,10 @@
         <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32847,7 +32985,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32873,10 +33011,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32897,7 +33035,7 @@
         <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32915,10 +33053,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32944,13 +33082,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32968,13 +33106,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -33012,13 +33150,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -33030,19 +33168,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -33080,13 +33218,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -33098,16 +33236,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -33148,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -33172,13 +33310,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -33216,13 +33354,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33234,19 +33372,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33284,13 +33422,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33302,13 +33440,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -33352,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33370,19 +33508,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33420,13 +33558,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33438,19 +33576,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33488,13 +33626,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33506,19 +33644,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33556,13 +33694,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33580,10 +33718,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -33601,10 +33739,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33630,13 +33768,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33648,19 +33786,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33675,10 +33813,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33704,13 +33842,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33722,19 +33860,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33749,10 +33887,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33778,10 +33916,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33793,16 +33931,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33843,10 +33981,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33858,16 +33996,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33908,10 +34046,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33923,19 +34061,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33973,10 +34111,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33988,16 +34126,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -34038,10 +34176,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -34059,13 +34197,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -34103,10 +34241,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -34124,7 +34262,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -34165,10 +34303,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -34186,10 +34324,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -34227,10 +34365,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34248,7 +34386,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -34289,10 +34427,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34310,13 +34448,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -34351,13 +34489,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -34369,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -34378,7 +34516,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -34419,13 +34557,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34437,19 +34575,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -34487,13 +34625,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34505,19 +34643,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34555,10 +34693,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1014</v>
@@ -34573,19 +34711,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34623,13 +34761,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34647,13 +34785,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34691,10 +34829,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34709,19 +34847,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34759,10 +34897,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34777,19 +34915,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34827,13 +34965,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34851,10 +34989,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34895,13 +35033,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34919,13 +35057,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34963,13 +35101,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34987,10 +35125,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -35031,13 +35169,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -35049,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -35099,13 +35237,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -35117,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -35167,13 +35305,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -35191,10 +35329,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="Q386" s="39" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="V386" s="19" t="s">
         <v>536</v>
@@ -35235,13 +35373,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -35253,16 +35391,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="Q387" s="39" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="V387" s="19" t="s">
         <v>536</v>
@@ -35303,13 +35441,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -35321,19 +35459,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="Q388" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -35371,13 +35509,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -35389,16 +35527,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="Q389" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V389" s="19" t="s">
         <v>536</v>
@@ -35439,13 +35577,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35463,10 +35601,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="Q390" s="39" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="V390" s="19" t="s">
         <v>536</v>
@@ -35507,13 +35645,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35531,10 +35669,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="Q391" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V391" s="19" t="s">
         <v>536</v>
@@ -35575,13 +35713,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35599,10 +35737,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="Q392" s="39" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="V392" s="19" t="s">
         <v>536</v>
@@ -35643,13 +35781,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35667,10 +35805,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="Q393" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V393" s="19" t="s">
         <v>536</v>
@@ -35711,13 +35849,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35729,16 +35867,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="Q394" s="39" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="V394" s="19" t="s">
         <v>536</v>
@@ -35779,10 +35917,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35794,16 +35932,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35841,10 +35979,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35856,16 +35994,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35906,7 +36044,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35924,10 +36062,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35968,7 +36106,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35986,10 +36124,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -36027,10 +36165,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -36042,16 +36180,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -36089,10 +36227,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -36104,16 +36242,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -36151,10 +36289,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -36172,13 +36310,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -36216,10 +36354,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -36231,19 +36369,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36281,10 +36419,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36302,13 +36440,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36346,10 +36484,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36367,13 +36505,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36411,10 +36549,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36432,13 +36570,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36476,10 +36614,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36497,13 +36635,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36541,10 +36679,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36556,19 +36694,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36606,10 +36744,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="I408" s="49" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="K408" s="49">
         <v>-31</v>
@@ -36627,10 +36765,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q408" s="50" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="V408" s="49" t="s">
         <v>568</v>
@@ -36671,10 +36809,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
       <c r="I409" s="49" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K409" s="49">
         <v>-31</v>
@@ -36686,19 +36824,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O409" s="49">
         <v>2000</v>
       </c>
       <c r="P409" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q409" s="50" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="V409" s="49" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="W409" s="49">
         <v>99999999</v>
@@ -36736,10 +36874,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="I410" s="49" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="K410" s="49">
         <v>-31</v>
@@ -36757,10 +36895,10 @@
         <v>4800</v>
       </c>
       <c r="P410" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q410" s="50" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="49" t="s">
         <v>568</v>
@@ -36801,10 +36939,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="I411" s="49" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="K411" s="49">
         <v>-31</v>
@@ -36822,10 +36960,10 @@
         <v>9800</v>
       </c>
       <c r="P411" s="49" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="Q411" s="50" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="V411" s="49" t="s">
         <v>568</v>
@@ -36866,10 +37004,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="I412" s="49" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="K412" s="49">
         <v>-31</v>
@@ -36887,13 +37025,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q412" s="50" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="V412" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W412" s="49">
         <v>99999999</v>
@@ -36931,10 +37069,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="I413" s="49" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="K413" s="49">
         <v>-31</v>
@@ -36946,19 +37084,19 @@
         <v>0</v>
       </c>
       <c r="N413" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O413" s="49">
         <v>49800</v>
       </c>
       <c r="P413" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q413" s="50" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="V413" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W413" s="49">
         <v>99999999</v>
@@ -36999,7 +37137,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -37020,7 +37158,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -37052,13 +37190,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -37076,13 +37214,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="Q415" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>109</v>
@@ -37120,13 +37258,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -37144,13 +37282,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q416" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -37188,13 +37326,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -37212,13 +37350,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q417" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -37256,13 +37394,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37280,13 +37418,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q418" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -37324,13 +37462,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37348,13 +37486,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q419" s="52" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -37392,13 +37530,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37416,13 +37554,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q420" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -37460,10 +37598,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37475,19 +37613,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37499,10 +37637,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37528,13 +37666,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="H422" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I422" s="53" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="K422" s="53">
         <v>-31</v>
@@ -37552,10 +37690,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="53" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="Q422" s="54" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="V422" s="53" t="s">
         <v>570</v>
@@ -37596,13 +37734,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="H423" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I423" s="53" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="K423" s="53">
         <v>-31</v>
@@ -37620,13 +37758,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="53" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="Q423" s="54" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="V423" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W423" s="53">
         <v>99999999</v>
@@ -37664,13 +37802,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="H424" s="53" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="I424" s="53" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="K424" s="53">
         <v>-31</v>
@@ -37688,13 +37826,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="53" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="Q424" s="54" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="V424" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W424" s="53">
         <v>99999999</v>
@@ -37732,10 +37870,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37753,13 +37891,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="Q425" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37788,10 +37926,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37809,13 +37947,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="Q426" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37844,10 +37982,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37865,13 +38003,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="Q427" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37900,10 +38038,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37921,13 +38059,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37956,10 +38094,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37977,13 +38115,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="Q429" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -38012,13 +38150,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -38036,7 +38174,7 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q430" s="39" t="s">
         <v>722</v>
@@ -38080,13 +38218,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -38104,10 +38242,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -38148,13 +38286,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -38172,10 +38310,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -38216,13 +38354,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38240,10 +38378,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>529</v>
@@ -38284,13 +38422,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="H434" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I434" s="55" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="K434" s="55">
         <v>-31</v>
@@ -38308,10 +38446,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q434" s="56" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="V434" s="55" t="s">
         <v>529</v>
@@ -38349,13 +38487,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="H435" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I435" s="55" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="K435" s="55">
         <v>-31</v>
@@ -38373,10 +38511,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q435" s="56" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="V435" s="55" t="s">
         <v>529</v>
@@ -38414,13 +38552,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="H436" s="55" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="I436" s="55" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="K436" s="55">
         <v>-31</v>
@@ -38438,10 +38576,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="55" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="Q436" s="56" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="V436" s="55" t="s">
         <v>529</v>
@@ -38479,13 +38617,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="H437" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I437" s="55" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="K437" s="55">
         <v>-31</v>
@@ -38503,10 +38641,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q437" s="56" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="V437" s="55" t="s">
         <v>529</v>
@@ -38544,13 +38682,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="H438" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I438" s="55" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="K438" s="55">
         <v>-31</v>
@@ -38568,10 +38706,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q438" s="56" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="V438" s="55" t="s">
         <v>529</v>
@@ -38609,13 +38747,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="H439" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I439" s="55" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="K439" s="55">
         <v>-31</v>
@@ -38633,10 +38771,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q439" s="56" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="V439" s="55" t="s">
         <v>529</v>
@@ -38674,13 +38812,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="H440" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I440" s="55" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="K440" s="55">
         <v>-31</v>
@@ -38698,10 +38836,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q440" s="56" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="V440" s="55" t="s">
         <v>529</v>
@@ -38739,10 +38877,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="I441" s="53" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="K441" s="53">
         <v>-31</v>
@@ -38760,13 +38898,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q441" s="54" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="V441" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W441" s="53">
         <v>9999999</v>
@@ -38801,10 +38939,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="I442" s="53" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="K442" s="53">
         <v>-31</v>
@@ -38822,13 +38960,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q442" s="54" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
       <c r="V442" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W442" s="53">
         <v>9999999</v>
@@ -38863,10 +39001,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="I443" s="53" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="K443" s="53">
         <v>-31</v>
@@ -38884,13 +39022,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q443" s="54" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="V443" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W443" s="53">
         <v>9999999</v>
@@ -38925,10 +39063,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="I444" s="53" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="K444" s="53">
         <v>-31</v>
@@ -38946,13 +39084,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q444" s="54" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="V444" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W444" s="53">
         <v>9999999</v>
@@ -38987,10 +39125,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="I445" s="53" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="K445" s="53">
         <v>-31</v>
@@ -39008,13 +39146,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q445" s="54" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="V445" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W445" s="53">
         <v>9999999</v>
@@ -39049,10 +39187,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="I446" s="53" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="K446" s="53">
         <v>-31</v>
@@ -39070,13 +39208,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q446" s="54" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="V446" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W446" s="53">
         <v>9999999</v>
@@ -39111,13 +39249,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="H447" s="59" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="K447" s="59">
         <v>-31</v>
@@ -39135,13 +39273,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q447" s="60" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="V447" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W447" s="59">
         <v>9999999</v>
@@ -39179,13 +39317,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="H448" s="59" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="K448" s="59">
         <v>-31</v>
@@ -39203,13 +39341,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q448" s="60" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="V448" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W448" s="59">
         <v>9999999</v>
@@ -39244,13 +39382,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="H449" s="59" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="K449" s="59">
         <v>-31</v>
@@ -39268,10 +39406,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q449" s="60" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>529</v>
@@ -39312,13 +39450,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="K450" s="61">
         <v>-31</v>
@@ -39336,10 +39474,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q450" s="62" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>529</v>
@@ -39380,13 +39518,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="H451" s="61" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="K451" s="61">
         <v>-31</v>
@@ -39404,10 +39542,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q451" s="62" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>529</v>
@@ -39445,13 +39583,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="H452" s="61" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="K452" s="61">
         <v>-31</v>
@@ -39469,10 +39607,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q452" s="62" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>529</v>
@@ -39513,13 +39651,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H453" s="59" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="K453" s="59">
         <v>-31</v>
@@ -39537,10 +39675,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q453" s="60" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>529</v>
@@ -39581,13 +39719,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="H454" s="59" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="K454" s="59">
         <v>-31</v>
@@ -39605,10 +39743,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q454" s="60" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>529</v>
@@ -39646,13 +39784,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="H455" s="59" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="K455" s="59">
         <v>-31</v>
@@ -39670,10 +39808,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1783</v>
+        <v>1686</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39714,13 +39852,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1707</v>
+        <v>1687</v>
       </c>
       <c r="H456" s="61" t="s">
-        <v>1708</v>
+        <v>1688</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1709</v>
+        <v>1689</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39738,10 +39876,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1710</v>
+        <v>1690</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39782,13 +39920,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1711</v>
+        <v>1691</v>
       </c>
       <c r="H457" s="61" t="s">
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1713</v>
+        <v>1693</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39806,10 +39944,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1714</v>
+        <v>1694</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39847,13 +39985,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1715</v>
+        <v>1695</v>
       </c>
       <c r="H458" s="61" t="s">
-        <v>1716</v>
+        <v>1696</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1717</v>
+        <v>1697</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -39871,10 +40009,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1718</v>
+        <v>1698</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39915,13 +40053,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="H459" s="59" t="s">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -39939,10 +40077,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1722</v>
+        <v>1702</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39983,13 +40121,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1723</v>
+        <v>1703</v>
       </c>
       <c r="H460" s="59" t="s">
-        <v>1724</v>
+        <v>1704</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40007,10 +40145,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40048,13 +40186,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1727</v>
+        <v>1707</v>
       </c>
       <c r="H461" s="59" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40072,10 +40210,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40116,13 +40254,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="H462" s="61" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40140,10 +40278,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40184,13 +40322,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="H463" s="61" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40208,10 +40346,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40249,13 +40387,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="H464" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40273,10 +40411,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="61" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40317,13 +40455,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="H465" s="59" t="s">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1745</v>
+        <v>1725</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40341,10 +40479,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1746</v>
+        <v>1726</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40385,13 +40523,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="H466" s="59" t="s">
-        <v>1748</v>
+        <v>1728</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1749</v>
+        <v>1729</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40409,10 +40547,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40450,13 +40588,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="H467" s="59" t="s">
-        <v>1752</v>
+        <v>1732</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40474,10 +40612,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40518,13 +40656,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="H468" s="63" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1758</v>
+        <v>1738</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40542,13 +40680,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q468" s="64" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="V468" s="63" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40583,13 +40721,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="H469" s="63" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40607,13 +40745,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1763</v>
+        <v>1743</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40648,13 +40786,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1764</v>
+        <v>1744</v>
       </c>
       <c r="H470" s="63" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1765</v>
+        <v>1745</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40672,13 +40810,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1766</v>
+        <v>1746</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40713,13 +40851,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1767</v>
+        <v>1747</v>
       </c>
       <c r="H471" s="63" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1768</v>
+        <v>1748</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40737,13 +40875,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q471" s="64" t="s">
-        <v>1769</v>
+        <v>1749</v>
       </c>
       <c r="V471" s="63" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40778,13 +40916,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1771</v>
+        <v>1751</v>
       </c>
       <c r="H472" s="63" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1772</v>
+        <v>1752</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40802,13 +40940,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1773</v>
+        <v>1753</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40843,13 +40981,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1774</v>
+        <v>1754</v>
       </c>
       <c r="H473" s="63" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1775</v>
+        <v>1755</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -40867,13 +41005,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1776</v>
+        <v>1756</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -40908,13 +41046,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1777</v>
+        <v>1757</v>
       </c>
       <c r="H474" s="55" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I474" s="55" t="s">
-        <v>1778</v>
+        <v>1758</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40932,13 +41070,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1779</v>
+        <v>1759</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40973,13 +41111,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40997,13 +41135,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1782</v>
+        <v>1762</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41024,6 +41162,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="67">
+        <v>475</v>
+      </c>
+      <c r="B476" s="67">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="67">
+        <v>1</v>
+      </c>
+      <c r="G476" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I476" s="67" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K476" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="67">
+        <v>0</v>
+      </c>
+      <c r="M476" s="67">
+        <v>0</v>
+      </c>
+      <c r="N476" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O476" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1798</v>
+      </c>
+      <c r="V476" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="W476" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="67">
+        <v>476</v>
+      </c>
+      <c r="B477" s="67">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="67">
+        <v>1</v>
+      </c>
+      <c r="G477" s="67" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I477" s="67" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K477" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="67">
+        <v>0</v>
+      </c>
+      <c r="M477" s="67">
+        <v>0</v>
+      </c>
+      <c r="N477" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O477" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q477" s="68" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V477" s="67" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W477" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="67">
+        <v>477</v>
+      </c>
+      <c r="B478" s="67">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="67">
+        <v>1</v>
+      </c>
+      <c r="G478" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H478" s="67" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K478" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="67">
+        <v>0</v>
+      </c>
+      <c r="M478" s="67">
+        <v>0</v>
+      </c>
+      <c r="N478" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O478" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="67" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Q478" s="68" t="s">
+        <v>1809</v>
+      </c>
+      <c r="V478" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="W478" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="67">
+        <v>478</v>
+      </c>
+      <c r="B479" s="67">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="67">
+        <v>1</v>
+      </c>
+      <c r="G479" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H479" s="67" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I479" s="67" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K479" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="67">
+        <v>0</v>
+      </c>
+      <c r="M479" s="67">
+        <v>0</v>
+      </c>
+      <c r="N479" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O479" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="67" t="s">
+        <v>1812</v>
+      </c>
+      <c r="Q479" s="68" t="s">
+        <v>1813</v>
+      </c>
+      <c r="V479" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="W479" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="67">
         <v>1</v>
       </c>
     </row>
@@ -41055,7 +41453,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -41072,7 +41470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41089,7 +41487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41103,7 +41501,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41117,7 +41515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41271,7 +41669,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41425,7 +41823,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41439,7 +41837,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41453,7 +41851,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41467,7 +41865,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41481,7 +41879,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41495,7 +41893,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41509,7 +41907,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41523,7 +41921,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41537,7 +41935,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41551,7 +41949,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41565,7 +41963,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41579,7 +41977,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41593,7 +41991,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41607,7 +42005,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41621,7 +42019,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41635,7 +42033,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41649,7 +42047,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41663,7 +42061,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41677,7 +42075,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41691,7 +42089,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41705,7 +42103,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41719,7 +42117,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -41733,7 +42131,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -41747,7 +42145,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -41761,7 +42159,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -41775,7 +42173,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -41789,7 +42187,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -41803,7 +42201,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -41817,7 +42215,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -41831,7 +42229,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -41845,7 +42243,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -41859,7 +42257,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -41873,7 +42271,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -41887,7 +42285,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -41901,7 +42299,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -41915,7 +42313,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -41929,7 +42327,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -41943,7 +42341,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -41957,7 +42355,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -41971,7 +42369,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -42147,16 +42545,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -42212,16 +42610,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -42277,10 +42675,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -42342,16 +42740,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -42407,10 +42805,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -42472,10 +42870,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -42534,16 +42932,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -42622,7 +43020,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42692,7 +43090,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42736,10 +43134,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -42765,7 +43163,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -42801,10 +43199,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -42866,10 +43264,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -42931,10 +43329,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -42967,7 +43365,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -43005,7 +43403,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -43021,7 +43419,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43068,17 +43466,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -43133,11 +43531,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -43198,11 +43596,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -43263,11 +43661,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -43328,7 +43726,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -43392,11 +43790,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -43470,7 +43868,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -43608,7 +44006,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -43624,7 +44022,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43644,7 +44042,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -43671,7 +44069,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -44325,7 +44723,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -44372,7 +44770,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -44419,7 +44817,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7957,11 +7957,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10814,10 +10814,10 @@
   <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z391" sqref="Z391"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7604,10 +7604,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -8088,6 +8084,10 @@
   </si>
   <si>
     <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10952,10 +10952,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31176,11 +31176,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31193,13 +31193,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1030</v>
@@ -31209,7 +31209,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31275,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Q329" s="66" t="s">
         <v>1772</v>
-      </c>
-      <c r="Q329" s="66" t="s">
-        <v>1773</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31357,23 +31357,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Q330" s="66" t="s">
         <v>1775</v>
-      </c>
-      <c r="Q330" s="66" t="s">
-        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31439,23 +31439,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31527,17 +31527,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31603,23 +31603,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31685,23 +31685,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31767,23 +31767,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31849,23 +31849,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31931,23 +31931,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39811,7 +39811,7 @@
         <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1686</v>
+        <v>1813</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39852,13 +39852,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H456" s="61" t="s">
         <v>1687</v>
       </c>
-      <c r="H456" s="61" t="s">
+      <c r="I456" s="61" t="s">
         <v>1688</v>
-      </c>
-      <c r="I456" s="61" t="s">
-        <v>1689</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39879,7 +39879,7 @@
         <v>1652</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39920,13 +39920,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H457" s="61" t="s">
         <v>1691</v>
       </c>
-      <c r="H457" s="61" t="s">
+      <c r="I457" s="61" t="s">
         <v>1692</v>
-      </c>
-      <c r="I457" s="61" t="s">
-        <v>1693</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39947,7 +39947,7 @@
         <v>1652</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39985,13 +39985,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H458" s="61" t="s">
         <v>1695</v>
       </c>
-      <c r="H458" s="61" t="s">
+      <c r="I458" s="61" t="s">
         <v>1696</v>
-      </c>
-      <c r="I458" s="61" t="s">
-        <v>1697</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -40012,7 +40012,7 @@
         <v>1652</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -40053,13 +40053,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H459" s="59" t="s">
         <v>1699</v>
       </c>
-      <c r="H459" s="59" t="s">
+      <c r="I459" s="59" t="s">
         <v>1700</v>
-      </c>
-      <c r="I459" s="59" t="s">
-        <v>1701</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -40080,7 +40080,7 @@
         <v>1652</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -40121,13 +40121,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H460" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="H460" s="59" t="s">
+      <c r="I460" s="59" t="s">
         <v>1704</v>
-      </c>
-      <c r="I460" s="59" t="s">
-        <v>1705</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40148,7 +40148,7 @@
         <v>1038</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40186,13 +40186,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H461" s="59" t="s">
         <v>1707</v>
       </c>
-      <c r="H461" s="59" t="s">
+      <c r="I461" s="59" t="s">
         <v>1708</v>
-      </c>
-      <c r="I461" s="59" t="s">
-        <v>1709</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40213,7 +40213,7 @@
         <v>1652</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40254,13 +40254,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H462" s="61" t="s">
         <v>1711</v>
       </c>
-      <c r="H462" s="61" t="s">
+      <c r="I462" s="61" t="s">
         <v>1712</v>
-      </c>
-      <c r="I462" s="61" t="s">
-        <v>1713</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40281,7 +40281,7 @@
         <v>1652</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40322,13 +40322,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H463" s="61" t="s">
         <v>1715</v>
       </c>
-      <c r="H463" s="61" t="s">
+      <c r="I463" s="61" t="s">
         <v>1716</v>
-      </c>
-      <c r="I463" s="61" t="s">
-        <v>1717</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40349,7 +40349,7 @@
         <v>1652</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40387,13 +40387,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H464" s="61" t="s">
         <v>1719</v>
       </c>
-      <c r="H464" s="61" t="s">
+      <c r="I464" s="61" t="s">
         <v>1720</v>
-      </c>
-      <c r="I464" s="61" t="s">
-        <v>1721</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40414,7 +40414,7 @@
         <v>1038</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40455,13 +40455,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H465" s="59" t="s">
         <v>1723</v>
       </c>
-      <c r="H465" s="59" t="s">
+      <c r="I465" s="59" t="s">
         <v>1724</v>
-      </c>
-      <c r="I465" s="59" t="s">
-        <v>1725</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40482,7 +40482,7 @@
         <v>1652</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40523,13 +40523,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H466" s="59" t="s">
         <v>1727</v>
       </c>
-      <c r="H466" s="59" t="s">
+      <c r="I466" s="59" t="s">
         <v>1728</v>
-      </c>
-      <c r="I466" s="59" t="s">
-        <v>1729</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40550,7 +40550,7 @@
         <v>1038</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40588,13 +40588,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H467" s="59" t="s">
         <v>1731</v>
       </c>
-      <c r="H467" s="59" t="s">
+      <c r="I467" s="59" t="s">
         <v>1732</v>
-      </c>
-      <c r="I467" s="59" t="s">
-        <v>1733</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40615,7 +40615,7 @@
         <v>1038</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40656,13 +40656,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H468" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I468" s="63" t="s">
         <v>1737</v>
-      </c>
-      <c r="I468" s="63" t="s">
-        <v>1738</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40683,10 +40683,10 @@
         <v>1652</v>
       </c>
       <c r="Q468" s="64" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V468" s="63" t="s">
         <v>1739</v>
-      </c>
-      <c r="V468" s="63" t="s">
-        <v>1740</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40721,13 +40721,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H469" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I469" s="63" t="s">
         <v>1741</v>
-      </c>
-      <c r="H469" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I469" s="63" t="s">
-        <v>1742</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40748,10 +40748,10 @@
         <v>1652</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40786,13 +40786,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H470" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I470" s="63" t="s">
         <v>1744</v>
-      </c>
-      <c r="H470" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I470" s="63" t="s">
-        <v>1745</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40813,10 +40813,10 @@
         <v>1652</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40851,13 +40851,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H471" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I471" s="63" t="s">
         <v>1747</v>
-      </c>
-      <c r="H471" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I471" s="63" t="s">
-        <v>1748</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40878,10 +40878,10 @@
         <v>1652</v>
       </c>
       <c r="Q471" s="64" t="s">
+        <v>1748</v>
+      </c>
+      <c r="V471" s="63" t="s">
         <v>1749</v>
-      </c>
-      <c r="V471" s="63" t="s">
-        <v>1750</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40916,13 +40916,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H472" s="63" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I472" s="63" t="s">
         <v>1751</v>
-      </c>
-      <c r="H472" s="63" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I472" s="63" t="s">
-        <v>1752</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40943,10 +40943,10 @@
         <v>1652</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40981,13 +40981,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H473" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I473" s="63" t="s">
         <v>1754</v>
-      </c>
-      <c r="H473" s="63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I473" s="63" t="s">
-        <v>1755</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -41008,10 +41008,10 @@
         <v>1652</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -41046,13 +41046,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1757</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1758</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -41073,10 +41073,10 @@
         <v>1652</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -41111,13 +41111,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I475" s="55" t="s">
         <v>1760</v>
-      </c>
-      <c r="H475" s="55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I475" s="55" t="s">
-        <v>1761</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41138,10 +41138,10 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41176,13 +41176,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H476" s="67" t="s">
         <v>1793</v>
       </c>
-      <c r="H476" s="67" t="s">
+      <c r="I476" s="67" t="s">
         <v>1794</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1795</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41200,13 +41200,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q476" s="68" t="s">
         <v>1797</v>
       </c>
-      <c r="Q476" s="68" t="s">
+      <c r="V476" s="67" t="s">
         <v>1798</v>
-      </c>
-      <c r="V476" s="67" t="s">
-        <v>1799</v>
       </c>
       <c r="W476" s="67">
         <v>9999999</v>
@@ -41241,13 +41241,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H477" s="67" t="s">
         <v>1800</v>
       </c>
-      <c r="H477" s="67" t="s">
+      <c r="I477" s="67" t="s">
         <v>1801</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1802</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41259,19 +41259,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O477" s="67">
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q477" s="68" t="s">
+        <v>1803</v>
+      </c>
+      <c r="V477" s="67" t="s">
         <v>1804</v>
-      </c>
-      <c r="V477" s="67" t="s">
-        <v>1805</v>
       </c>
       <c r="W477" s="67">
         <v>9999999</v>
@@ -41306,13 +41306,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H478" s="67" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I478" s="67" t="s">
         <v>1806</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1807</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41324,16 +41324,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O478" s="67">
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
+        <v>1807</v>
+      </c>
+      <c r="Q478" s="68" t="s">
         <v>1808</v>
-      </c>
-      <c r="Q478" s="68" t="s">
-        <v>1809</v>
       </c>
       <c r="V478" s="67" t="s">
         <v>529</v>
@@ -41371,13 +41371,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H479" s="67" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I479" s="67" t="s">
         <v>1810</v>
-      </c>
-      <c r="I479" s="67" t="s">
-        <v>1811</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41389,19 +41389,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O479" s="67">
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
+        <v>1811</v>
+      </c>
+      <c r="Q479" s="68" t="s">
         <v>1812</v>
       </c>
-      <c r="Q479" s="68" t="s">
-        <v>1813</v>
-      </c>
       <c r="V479" s="67" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W479" s="67">
         <v>9999999</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -7682,10 +7682,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7962,6 +7958,10 @@
   </si>
   <si>
     <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10814,10 +10814,10 @@
   <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -39673,7 +39673,7 @@
         <v>1673</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1707</v>
+        <v>1783</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39714,13 +39714,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H456" s="61" t="s">
         <v>1708</v>
       </c>
-      <c r="H456" s="61" t="s">
+      <c r="I456" s="61" t="s">
         <v>1709</v>
-      </c>
-      <c r="I456" s="61" t="s">
-        <v>1710</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39741,7 +39741,7 @@
         <v>1673</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39782,13 +39782,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H457" s="61" t="s">
         <v>1712</v>
       </c>
-      <c r="H457" s="61" t="s">
+      <c r="I457" s="61" t="s">
         <v>1713</v>
-      </c>
-      <c r="I457" s="61" t="s">
-        <v>1714</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39809,7 +39809,7 @@
         <v>1673</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39847,13 +39847,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H458" s="61" t="s">
         <v>1716</v>
       </c>
-      <c r="H458" s="61" t="s">
+      <c r="I458" s="61" t="s">
         <v>1717</v>
-      </c>
-      <c r="I458" s="61" t="s">
-        <v>1718</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -39874,7 +39874,7 @@
         <v>1673</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39915,13 +39915,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H459" s="59" t="s">
         <v>1720</v>
       </c>
-      <c r="H459" s="59" t="s">
+      <c r="I459" s="59" t="s">
         <v>1721</v>
-      </c>
-      <c r="I459" s="59" t="s">
-        <v>1722</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -39942,7 +39942,7 @@
         <v>1673</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39983,13 +39983,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H460" s="59" t="s">
         <v>1724</v>
       </c>
-      <c r="H460" s="59" t="s">
+      <c r="I460" s="59" t="s">
         <v>1725</v>
-      </c>
-      <c r="I460" s="59" t="s">
-        <v>1726</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40010,7 +40010,7 @@
         <v>1059</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40048,13 +40048,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H461" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="H461" s="59" t="s">
+      <c r="I461" s="59" t="s">
         <v>1729</v>
-      </c>
-      <c r="I461" s="59" t="s">
-        <v>1730</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40075,7 +40075,7 @@
         <v>1673</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40116,13 +40116,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H462" s="61" t="s">
         <v>1732</v>
       </c>
-      <c r="H462" s="61" t="s">
+      <c r="I462" s="61" t="s">
         <v>1733</v>
-      </c>
-      <c r="I462" s="61" t="s">
-        <v>1734</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40143,7 +40143,7 @@
         <v>1673</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40184,13 +40184,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H463" s="61" t="s">
         <v>1736</v>
       </c>
-      <c r="H463" s="61" t="s">
+      <c r="I463" s="61" t="s">
         <v>1737</v>
-      </c>
-      <c r="I463" s="61" t="s">
-        <v>1738</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40211,7 +40211,7 @@
         <v>1673</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40249,13 +40249,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H464" s="61" t="s">
         <v>1740</v>
       </c>
-      <c r="H464" s="61" t="s">
+      <c r="I464" s="61" t="s">
         <v>1741</v>
-      </c>
-      <c r="I464" s="61" t="s">
-        <v>1742</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40276,7 +40276,7 @@
         <v>1059</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40317,13 +40317,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H465" s="59" t="s">
         <v>1744</v>
       </c>
-      <c r="H465" s="59" t="s">
+      <c r="I465" s="59" t="s">
         <v>1745</v>
-      </c>
-      <c r="I465" s="59" t="s">
-        <v>1746</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40344,7 +40344,7 @@
         <v>1673</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40385,13 +40385,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H466" s="59" t="s">
         <v>1748</v>
       </c>
-      <c r="H466" s="59" t="s">
+      <c r="I466" s="59" t="s">
         <v>1749</v>
-      </c>
-      <c r="I466" s="59" t="s">
-        <v>1750</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40412,7 +40412,7 @@
         <v>1059</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40450,13 +40450,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H467" s="59" t="s">
         <v>1752</v>
       </c>
-      <c r="H467" s="59" t="s">
+      <c r="I467" s="59" t="s">
         <v>1753</v>
-      </c>
-      <c r="I467" s="59" t="s">
-        <v>1754</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40477,7 +40477,7 @@
         <v>1059</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40518,13 +40518,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H468" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I468" s="63" t="s">
         <v>1758</v>
-      </c>
-      <c r="I468" s="63" t="s">
-        <v>1759</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40545,10 +40545,10 @@
         <v>1673</v>
       </c>
       <c r="Q468" s="64" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V468" s="63" t="s">
         <v>1760</v>
-      </c>
-      <c r="V468" s="63" t="s">
-        <v>1761</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40583,13 +40583,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H469" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I469" s="63" t="s">
         <v>1762</v>
-      </c>
-      <c r="H469" s="63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I469" s="63" t="s">
-        <v>1763</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40610,10 +40610,10 @@
         <v>1673</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40648,13 +40648,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H470" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I470" s="63" t="s">
         <v>1765</v>
-      </c>
-      <c r="H470" s="63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I470" s="63" t="s">
-        <v>1766</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40675,10 +40675,10 @@
         <v>1673</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40713,13 +40713,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H471" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I471" s="63" t="s">
         <v>1768</v>
-      </c>
-      <c r="H471" s="63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I471" s="63" t="s">
-        <v>1769</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40740,10 +40740,10 @@
         <v>1673</v>
       </c>
       <c r="Q471" s="64" t="s">
+        <v>1769</v>
+      </c>
+      <c r="V471" s="63" t="s">
         <v>1770</v>
-      </c>
-      <c r="V471" s="63" t="s">
-        <v>1771</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40778,13 +40778,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H472" s="63" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I472" s="63" t="s">
         <v>1772</v>
-      </c>
-      <c r="H472" s="63" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I472" s="63" t="s">
-        <v>1773</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40805,10 +40805,10 @@
         <v>1673</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40843,13 +40843,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H473" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I473" s="63" t="s">
         <v>1775</v>
-      </c>
-      <c r="H473" s="63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I473" s="63" t="s">
-        <v>1776</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -40870,10 +40870,10 @@
         <v>1673</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -40908,13 +40908,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1778</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1779</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40935,10 +40935,10 @@
         <v>1673</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40973,13 +40973,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I475" s="55" t="s">
         <v>1781</v>
-      </c>
-      <c r="H475" s="55" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I475" s="55" t="s">
-        <v>1782</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41000,10 +41000,10 @@
         <v>1673</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -7875,14 +7875,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8088,6 +8080,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10952,10 +10952,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31176,11 +31176,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31193,13 +31193,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1030</v>
@@ -31209,7 +31209,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31275,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31357,23 +31357,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31439,23 +31439,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31527,17 +31527,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31603,23 +31603,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31685,23 +31685,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31767,23 +31767,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31849,23 +31849,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31931,23 +31931,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39811,7 +39811,7 @@
         <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41117,7 +41117,7 @@
         <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1760</v>
+        <v>1812</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41138,7 +41138,7 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1761</v>
+        <v>1813</v>
       </c>
       <c r="V475" s="63" t="s">
         <v>1749</v>
@@ -41176,13 +41176,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1792</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1794</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41200,13 +41200,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V476" s="67" t="s">
         <v>1796</v>
-      </c>
-      <c r="Q476" s="68" t="s">
-        <v>1797</v>
-      </c>
-      <c r="V476" s="67" t="s">
-        <v>1798</v>
       </c>
       <c r="W476" s="67">
         <v>9999999</v>
@@ -41241,13 +41241,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I477" s="67" t="s">
         <v>1799</v>
-      </c>
-      <c r="H477" s="67" t="s">
-        <v>1800</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1801</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41259,19 +41259,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O477" s="67">
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="V477" s="67" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="W477" s="67">
         <v>9999999</v>
@@ -41306,13 +41306,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41324,16 +41324,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O478" s="67">
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="Q478" s="68" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="V478" s="67" t="s">
         <v>529</v>
@@ -41371,13 +41371,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41389,19 +41389,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O479" s="67">
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="V479" s="67" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="W479" s="67">
         <v>9999999</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1829">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8083,12 +8083,68 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
   </si>
 </sst>
 </file>
@@ -8300,7 +8356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8983,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,9 +9268,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9291,9 +9348,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9373,9 +9428,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9455,9 +9508,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9537,9 +9588,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9619,9 +9668,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9701,9 +9748,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9782,9 +9827,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9865,9 +9907,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10869,9 +10909,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10970,13 +11008,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AG449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="F487" sqref="F487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14766,7 +14804,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14822,7 +14860,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14878,7 +14916,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14934,7 +14972,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14990,7 +15028,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16323,7 +16361,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18357,7 +18395,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18413,7 +18451,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27698,7 +27736,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41138,7 +41176,7 @@
         <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41159,7 +41197,7 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="V475" s="63" t="s">
         <v>1749</v>
@@ -41443,6 +41481,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1817</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1617</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1819</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1821</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1823</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1827</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1828</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,14 +8088,6 @@
   </si>
   <si>
     <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8174,7 +8166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8265,12 +8257,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8314,7 +8300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8532,12 +8518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10990,7 +10970,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="AG449" activePane="bottomRight" state="frozen"/>
@@ -11038,7 +11018,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11156,11 +11136,8 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11218,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11276,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11334,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11403,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11457,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11515,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11572,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11626,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11680,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11734,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11788,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11845,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11899,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11956,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27710,7 +27687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27765,9 +27742,8 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-      <c r="AN273" s="73"/>
-    </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27843,7 +27819,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27908,7 +27884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27973,7 +27949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -28038,7 +28014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28103,7 +28079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28168,7 +28144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28233,7 +28209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28298,7 +28274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28363,7 +28339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28428,7 +28404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28493,7 +28469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28555,7 +28531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28617,7 +28593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28679,7 +28655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35271,7 +35247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35339,7 +35315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35406,9 +35382,8 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-      <c r="AN386" s="49"/>
-    </row>
-    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35475,9 +35450,8 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-      <c r="AN387" s="49"/>
-    </row>
-    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35544,9 +35518,8 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-      <c r="AN388" s="49"/>
-    </row>
-    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35613,9 +35586,8 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-      <c r="AN389" s="65"/>
-    </row>
-    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35682,9 +35654,8 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-      <c r="AN390" s="65"/>
-    </row>
-    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35751,9 +35722,8 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-      <c r="AN391" s="65"/>
-    </row>
-    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35820,9 +35790,8 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-      <c r="AN392" s="49"/>
-    </row>
-    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35889,9 +35858,8 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-      <c r="AN393" s="49"/>
-    </row>
-    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35958,9 +35926,8 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-      <c r="AN394" s="49"/>
-    </row>
-    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -36022,7 +35989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -36084,7 +36051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36146,7 +36113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36208,7 +36175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36270,7 +36237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36332,7 +36299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36397,7 +36364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36462,7 +36429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36527,7 +36494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36592,7 +36559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36657,7 +36624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36722,7 +36689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36787,7 +36754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36851,9 +36818,8 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-      <c r="AN408" s="5"/>
-    </row>
-    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36917,9 +36883,8 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-      <c r="AN409" s="5"/>
-    </row>
-    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36983,9 +36948,8 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-      <c r="AN410" s="5"/>
-    </row>
-    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -37049,9 +37013,8 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-      <c r="AN411" s="5"/>
-    </row>
-    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37115,9 +37078,8 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-      <c r="AN412" s="5"/>
-    </row>
-    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37181,9 +37143,8 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-      <c r="AN413" s="5"/>
-    </row>
-    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37239,7 +37200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37307,7 +37268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37375,7 +37336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37443,7 +37404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37511,7 +37472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37579,7 +37540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37647,7 +37608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37715,7 +37676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37782,9 +37743,8 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-      <c r="AN422" s="6"/>
-    </row>
-    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37851,9 +37811,8 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-      <c r="AN423" s="6"/>
-    </row>
-    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37920,9 +37879,8 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-      <c r="AN424" s="6"/>
-    </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37977,11 +37935,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -38037,7 +37992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -38092,11 +38047,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38152,7 +38104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38208,7 +38160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38276,7 +38228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38344,7 +38296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38412,7 +38364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38480,7 +38432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38544,9 +38496,8 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-      <c r="AN434" s="5"/>
-    </row>
-    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38610,9 +38561,8 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-      <c r="AN435" s="5"/>
-    </row>
-    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38676,9 +38626,8 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-      <c r="AN436" s="5"/>
-    </row>
-    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38742,9 +38691,8 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-      <c r="AN437" s="5"/>
-    </row>
-    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38808,9 +38756,8 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-      <c r="AN438" s="5"/>
-    </row>
-    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38874,9 +38821,8 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-      <c r="AN439" s="5"/>
-    </row>
-    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38940,9 +38886,8 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-      <c r="AN440" s="5"/>
-    </row>
-    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -39003,9 +38948,8 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-      <c r="AN441" s="5"/>
-    </row>
-    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -39066,9 +39010,8 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-      <c r="AN442" s="5"/>
-    </row>
-    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39129,9 +39072,8 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-      <c r="AN443" s="5"/>
-    </row>
-    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39192,9 +39134,8 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-      <c r="AN444" s="5"/>
-    </row>
-    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39255,9 +39196,8 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-      <c r="AN445" s="5"/>
-    </row>
-    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39318,9 +39258,8 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-      <c r="AN446" s="5"/>
-    </row>
-    <row r="447" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="59">
         <v>446</v>
       </c>
@@ -39388,7 +39327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="59">
         <v>447</v>
       </c>
@@ -40526,7 +40465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="59">
         <v>464</v>
       </c>
@@ -40594,7 +40533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="59">
         <v>465</v>
       </c>
@@ -40659,7 +40598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="59">
         <v>466</v>
       </c>
@@ -40727,7 +40666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="63">
         <v>467</v>
       </c>
@@ -40792,7 +40731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="63">
         <v>468</v>
       </c>
@@ -40857,7 +40796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="63">
         <v>469</v>
       </c>
@@ -40922,7 +40861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="63">
         <v>470</v>
       </c>
@@ -40987,7 +40926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="63">
         <v>471</v>
       </c>
@@ -41052,7 +40991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="63">
         <v>472</v>
       </c>
@@ -41117,7 +41056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="59">
         <v>473</v>
       </c>
@@ -41181,9 +41120,8 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-      <c r="AN474" s="74"/>
-    </row>
-    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="59">
         <v>474</v>
       </c>
@@ -41247,9 +41185,8 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-      <c r="AN475" s="74"/>
-    </row>
-    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41314,7 +41251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41379,7 +41316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41444,7 +41381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41508,33 +41445,6 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN486" s="5"/>
-    </row>
-    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN487" s="5"/>
-    </row>
-    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,7 +9209,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9289,7 +9291,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9369,7 +9373,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9449,7 +9455,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9529,7 +9537,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,7 +9619,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9689,7 +9701,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9768,6 +9782,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9848,7 +9865,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10850,7 +10869,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10952,7 +10973,7 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
@@ -14745,7 +14766,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14801,7 +14822,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14857,7 +14878,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14913,7 +14934,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14969,7 +14990,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16302,7 +16323,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18336,7 +18357,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18392,7 +18413,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27677,7 +27698,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1816">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,6 +8088,14 @@
   </si>
   <si>
     <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8166,7 +8174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8257,6 +8265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8300,7 +8314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8532,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10970,13 +10990,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11018,7 +11038,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11136,8 +11156,11 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN1" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11195,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11253,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11311,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11380,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11434,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11492,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11549,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11603,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11657,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11711,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11765,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11822,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11876,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11933,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27687,7 +27710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27742,8 +27765,9 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AN273" s="73"/>
+    </row>
+    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27819,7 +27843,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27884,7 +27908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27949,7 +27973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -28014,7 +28038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28079,7 +28103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28144,7 +28168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28209,7 +28233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28274,7 +28298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28339,7 +28363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28404,7 +28428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28469,7 +28493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28531,7 +28555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28593,7 +28617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28655,7 +28679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35247,7 +35271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35315,7 +35339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35382,8 +35406,9 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN386" s="49"/>
+    </row>
+    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35450,8 +35475,9 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN387" s="49"/>
+    </row>
+    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35518,8 +35544,9 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN388" s="49"/>
+    </row>
+    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35586,8 +35613,9 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN389" s="65"/>
+    </row>
+    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35654,8 +35682,9 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN390" s="65"/>
+    </row>
+    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35722,8 +35751,9 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN391" s="65"/>
+    </row>
+    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35790,8 +35820,9 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN392" s="49"/>
+    </row>
+    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35858,8 +35889,9 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN393" s="49"/>
+    </row>
+    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35926,8 +35958,9 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN394" s="49"/>
+    </row>
+    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35989,7 +36022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -36051,7 +36084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36113,7 +36146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36175,7 +36208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36237,7 +36270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36299,7 +36332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36364,7 +36397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36429,7 +36462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36494,7 +36527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36559,7 +36592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36624,7 +36657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36689,7 +36722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36754,7 +36787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36818,8 +36851,9 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN408" s="5"/>
+    </row>
+    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36883,8 +36917,9 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN409" s="5"/>
+    </row>
+    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36948,8 +36983,9 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN410" s="5"/>
+    </row>
+    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -37013,8 +37049,9 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN411" s="5"/>
+    </row>
+    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37078,8 +37115,9 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN412" s="5"/>
+    </row>
+    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37143,8 +37181,9 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN413" s="5"/>
+    </row>
+    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37200,7 +37239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37268,7 +37307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37336,7 +37375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37404,7 +37443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37472,7 +37511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37540,7 +37579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37608,7 +37647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37676,7 +37715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37743,8 +37782,9 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN422" s="6"/>
+    </row>
+    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37811,8 +37851,9 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN423" s="6"/>
+    </row>
+    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37879,8 +37920,9 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN424" s="6"/>
+    </row>
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37935,8 +37977,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN425" s="6" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37992,7 +38037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -38047,8 +38092,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN427" s="6" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38104,7 +38152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38160,7 +38208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38228,7 +38276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38296,7 +38344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38364,7 +38412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38432,7 +38480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38496,8 +38544,9 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN434" s="5"/>
+    </row>
+    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38561,8 +38610,9 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN435" s="5"/>
+    </row>
+    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38626,8 +38676,9 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN436" s="5"/>
+    </row>
+    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38691,8 +38742,9 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN437" s="5"/>
+    </row>
+    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38756,8 +38808,9 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN438" s="5"/>
+    </row>
+    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38821,8 +38874,9 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN439" s="5"/>
+    </row>
+    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38886,8 +38940,9 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN440" s="5"/>
+    </row>
+    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38948,8 +39003,9 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN441" s="5"/>
+    </row>
+    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -39010,8 +39066,9 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN442" s="5"/>
+    </row>
+    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39072,8 +39129,9 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN443" s="5"/>
+    </row>
+    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39134,8 +39192,9 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN444" s="5"/>
+    </row>
+    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39196,8 +39255,9 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN445" s="5"/>
+    </row>
+    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39258,8 +39318,9 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN446" s="5"/>
+    </row>
+    <row r="447" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="59">
         <v>446</v>
       </c>
@@ -39327,7 +39388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="59">
         <v>447</v>
       </c>
@@ -40465,7 +40526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="59">
         <v>464</v>
       </c>
@@ -40533,7 +40594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="59">
         <v>465</v>
       </c>
@@ -40598,7 +40659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="59">
         <v>466</v>
       </c>
@@ -40666,7 +40727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="63">
         <v>467</v>
       </c>
@@ -40731,7 +40792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="63">
         <v>468</v>
       </c>
@@ -40796,7 +40857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="63">
         <v>469</v>
       </c>
@@ -40861,7 +40922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="63">
         <v>470</v>
       </c>
@@ -40926,7 +40987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="63">
         <v>471</v>
       </c>
@@ -40991,7 +41052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="63">
         <v>472</v>
       </c>
@@ -41056,7 +41117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="59">
         <v>473</v>
       </c>
@@ -41120,8 +41181,9 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN474" s="74"/>
+    </row>
+    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="59">
         <v>474</v>
       </c>
@@ -41185,8 +41247,9 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN475" s="74"/>
+    </row>
+    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41251,7 +41314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41316,7 +41379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41381,7 +41444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41445,6 +41508,33 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN486" s="5"/>
+    </row>
+    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN487" s="5"/>
+    </row>
+    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11214,10 +11214,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F494" sqref="F494"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15684,7 +15684,7 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>1728</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11213,7 +11213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43588,8 +43588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43715,6 +43715,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10330</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1886">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4185,34 +4185,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>79840</t>
     </r>
     <r>
@@ -4532,34 +4504,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1500</t>
     </r>
     <r>
@@ -4583,34 +4527,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4644,34 +4560,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>5000</t>
     </r>
     <r>
@@ -4695,62 +4583,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4784,34 +4616,6 @@
   </si>
   <si>
     <r>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>49800</t>
     </r>
     <r>
@@ -4835,34 +4639,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4895,10 +4671,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8027,10 +7799,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>首充加赠4308888</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首充加赠21808888</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8051,46 +7819,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8115,26 +7843,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8147,30 +7855,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8179,50 +7863,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8333,6 +7973,120 @@
   <si>
     <t>99800000,3000000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充加赠8508888</t>
+  </si>
+  <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
+    <t>150万金币</t>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>500万金币</t>
+  </si>
+  <si>
+    <t>980万金币</t>
+  </si>
+  <si>
+    <t>4980万金币</t>
+  </si>
+  <si>
+    <t>1亿金币</t>
   </si>
 </sst>
 </file>
@@ -9179,16 +8933,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9245,8 +8999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9338,7 +9092,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -9432,14 +9186,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="U2" s="33" t="s">
         <v>1022</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9448,7 +9202,7 @@
         <v>633</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9512,14 +9266,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="U3" s="33" t="s">
         <v>1024</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9592,14 +9346,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1046</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9675,11 +9429,11 @@
         <v>1027</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9752,14 +9506,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9835,11 +9589,11 @@
         <v>1030</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9912,14 +9666,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1051</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1052</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9962,7 +9716,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9992,13 +9746,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1053</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1053</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1054</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -10040,7 +9794,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -10070,13 +9824,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -10526,7 +10280,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10556,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10600,7 +10354,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10630,10 +10384,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1059</v>
+        <v>1851</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1059</v>
+        <v>1851</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10674,7 +10428,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10704,10 +10458,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1061</v>
+        <v>1880</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1061</v>
+        <v>1880</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10748,7 +10502,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10778,10 +10532,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1038</v>
+        <v>1881</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1063</v>
+        <v>1881</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10822,7 +10576,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10852,10 +10606,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1065</v>
+        <v>1882</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1066</v>
+        <v>1882</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10896,7 +10650,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10926,10 +10680,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1068</v>
+        <v>1883</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1068</v>
+        <v>1883</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10970,7 +10724,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -11000,10 +10754,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1070</v>
+        <v>1884</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1070</v>
+        <v>1884</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -11044,7 +10798,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -11074,10 +10828,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1072</v>
+        <v>1885</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1072</v>
+        <v>1885</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -11114,25 +10868,25 @@
       <c r="E24" s="46"/>
       <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -11153,16 +10907,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="W24" s="33" t="s">
         <v>1032</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>641</v>
@@ -11214,10 +10968,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11280,13 +11034,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -15011,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -15076,7 +14830,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15097,7 +14851,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -15135,7 +14889,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15156,7 +14910,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -15194,7 +14948,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15215,7 +14969,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15253,7 +15007,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15274,7 +15028,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15312,7 +15066,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15333,7 +15087,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15666,7 +15420,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15687,7 +15441,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15705,10 +15459,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15731,7 +15485,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15752,7 +15506,7 @@
         <v>488</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15770,10 +15524,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15793,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15929,7 +15683,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15950,7 +15704,7 @@
         <v>488</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15965,13 +15719,13 @@
         <v>2552233600</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16180,10 +15934,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16286,10 +16040,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18694,7 +18448,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18715,7 +18469,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18750,10 +18504,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18774,7 +18528,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19361,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19422,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21249,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>993</v>
@@ -21373,13 +21127,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21397,13 +21151,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21441,13 +21195,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21465,10 +21219,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21509,13 +21263,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I173" s="43" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J173" s="43" t="s">
         <v>1741</v>
-      </c>
-      <c r="I173" s="43" t="s">
-        <v>1749</v>
-      </c>
-      <c r="J173" s="43" t="s">
-        <v>1750</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21533,10 +21287,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21577,13 +21331,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21601,10 +21355,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21645,13 +21399,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21669,10 +21423,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R175" s="66" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="W175" s="43" t="s">
         <v>528</v>
@@ -21713,13 +21467,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21737,10 +21491,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21781,13 +21535,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21805,10 +21559,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21849,13 +21603,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21873,10 +21627,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21917,13 +21671,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21941,10 +21695,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21985,13 +21739,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -22009,10 +21763,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -22053,13 +21807,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -22077,10 +21831,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22121,13 +21875,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22145,10 +21899,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22189,13 +21943,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22213,10 +21967,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22257,13 +22011,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22281,10 +22035,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22325,13 +22079,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22349,10 +22103,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26812,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -27007,7 +26761,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27530,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27790,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -28056,7 +27810,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="74" t="s">
-        <v>1812</v>
+        <v>1848</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -28077,7 +27831,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28316,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28381,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28446,7 +28200,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28511,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -31000,10 +30754,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -31056,7 +30810,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -31118,7 +30872,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -31180,10 +30934,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31201,13 +30955,13 @@
         <v>600</v>
       </c>
       <c r="Q323" s="43" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31245,10 +30999,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31266,10 +31020,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31310,10 +31064,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31331,10 +31085,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="43" t="s">
+        <v>1774</v>
+      </c>
+      <c r="R325" s="66" t="s">
         <v>1783</v>
-      </c>
-      <c r="R325" s="66" t="s">
-        <v>1792</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31375,7 +31129,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>968</v>
@@ -31434,7 +31188,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>986</v>
@@ -31499,12 +31253,12 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31517,13 +31271,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>987</v>
@@ -31533,7 +31287,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31587,7 +31341,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31600,23 +31354,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31670,7 +31424,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31683,23 +31437,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31753,7 +31507,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31766,23 +31520,23 @@
         <v>0</v>
       </c>
       <c r="O331" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P331" s="43">
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31836,7 +31590,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31855,17 +31609,17 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31919,7 +31673,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31932,23 +31686,23 @@
         <v>0</v>
       </c>
       <c r="O333" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P333" s="43">
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R333" s="66" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -32002,7 +31756,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -32015,23 +31769,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
+        <v>1662</v>
+      </c>
+      <c r="R334" s="66" t="s">
         <v>1671</v>
-      </c>
-      <c r="R334" s="66" t="s">
-        <v>1680</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32085,7 +31839,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32098,23 +31852,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32168,7 +31922,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32181,23 +31935,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32251,7 +32005,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32264,23 +32018,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32326,7 +32080,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1005</v>
@@ -32482,7 +32236,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32564,12 +32318,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32581,19 +32335,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="W341" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32608,10 +32362,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC341" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32637,10 +32391,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32652,19 +32406,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R342" s="10" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32679,10 +32433,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32708,10 +32462,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32723,19 +32477,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R343" s="10" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32750,10 +32504,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32779,10 +32533,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32794,19 +32548,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32821,10 +32575,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32850,10 +32604,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32865,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R345" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32892,10 +32646,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32921,10 +32675,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32936,19 +32690,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R346" s="10" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32963,10 +32717,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32992,10 +32746,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -33007,19 +32761,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -33034,10 +32788,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -33063,10 +32817,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -33078,19 +32832,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33105,10 +32859,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33134,10 +32888,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33155,13 +32909,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33176,10 +32930,10 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC349" s="5" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="AH349" s="5">
         <v>1</v>
@@ -33205,10 +32959,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33229,10 +32983,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33250,7 +33004,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33276,10 +33030,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33291,7 +33045,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33300,10 +33054,10 @@
         <v>965</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33321,7 +33075,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33347,10 +33101,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="L352" s="5">
         <v>-31</v>
@@ -33371,7 +33125,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33389,10 +33143,10 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="AC352" s="5" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="AH352" s="5">
         <v>1</v>
@@ -33418,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33442,13 +33196,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="R353" s="10" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="W353" s="5" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33486,13 +33240,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33504,19 +33258,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="R354" s="10" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33554,13 +33308,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33572,16 +33326,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33622,13 +33376,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33646,13 +33400,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33690,13 +33444,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33708,19 +33462,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33758,13 +33512,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33776,13 +33530,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33826,13 +33580,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33844,19 +33598,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33894,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I360" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="I360" s="5" t="s">
-        <v>1121</v>
-      </c>
       <c r="J360" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33912,19 +33666,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33962,13 +33716,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33980,19 +33734,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -34030,13 +33784,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -34054,10 +33808,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -34075,10 +33829,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -34104,13 +33858,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34122,19 +33876,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34149,10 +33903,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -34178,13 +33932,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34196,19 +33950,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34223,10 +33977,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34252,10 +34006,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34267,16 +34021,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34317,10 +34071,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34332,16 +34086,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34382,10 +34136,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34397,19 +34151,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34447,10 +34201,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34462,16 +34216,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34512,10 +34266,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34533,13 +34287,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34577,10 +34331,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34598,7 +34352,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34639,10 +34393,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34660,10 +34414,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34701,10 +34455,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34722,7 +34476,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34763,10 +34517,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34784,13 +34538,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34825,13 +34579,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34843,7 +34597,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34852,7 +34606,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34893,13 +34647,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34911,19 +34665,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="W375" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34961,13 +34715,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34979,19 +34733,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="W376" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -35029,10 +34783,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>971</v>
@@ -35047,19 +34801,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35097,13 +34851,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J378" s="5" t="s">
         <v>1254</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J378" s="5" t="s">
-        <v>1263</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35121,13 +34875,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35165,10 +34919,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -35183,19 +34937,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35233,10 +34987,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35251,19 +35005,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35301,13 +35055,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35325,10 +35079,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35369,13 +35123,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35393,13 +35147,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35437,13 +35191,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35461,10 +35215,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35505,13 +35259,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35523,13 +35277,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35573,13 +35327,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35591,19 +35345,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R385" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W385" s="5" t="s">
         <v>1258</v>
-      </c>
-      <c r="R385" s="10" t="s">
-        <v>1274</v>
-      </c>
-      <c r="W385" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35641,14 +35395,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35666,10 +35420,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35710,14 +35464,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35729,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35779,14 +35533,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35798,19 +35552,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="R388" s="39" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="W388" s="19" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -35848,14 +35602,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="H389" s="65"/>
       <c r="I389" s="19" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35867,16 +35621,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35917,14 +35671,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="H390" s="65"/>
       <c r="I390" s="19" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35942,10 +35696,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35986,14 +35740,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="H391" s="65"/>
       <c r="I391" s="19" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -36011,10 +35765,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -36055,14 +35809,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -36080,10 +35834,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -36124,14 +35878,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36149,10 +35903,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -36193,14 +35947,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36212,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -36262,10 +36016,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36277,16 +36031,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36324,10 +36078,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36339,16 +36093,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36389,7 +36143,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36407,10 +36161,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36451,7 +36205,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36469,10 +36223,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R398" s="10" t="s">
         <v>1332</v>
-      </c>
-      <c r="R398" s="10" t="s">
-        <v>1341</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36510,10 +36264,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36525,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36572,10 +36326,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36587,16 +36341,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36634,10 +36388,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36655,13 +36409,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36699,10 +36453,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36714,19 +36468,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36764,10 +36518,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36785,13 +36539,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36829,10 +36583,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36850,13 +36604,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36894,10 +36648,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36915,13 +36669,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36959,10 +36713,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36980,13 +36734,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -37024,10 +36778,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -37039,19 +36793,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37089,11 +36843,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -37111,10 +36865,10 @@
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -37155,11 +36909,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -37171,19 +36925,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -37221,11 +36975,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -37243,10 +36997,10 @@
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37287,11 +37041,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37309,10 +37063,10 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="W411" s="49" t="s">
         <v>567</v>
@@ -37353,11 +37107,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37375,13 +37129,13 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="R412" s="50" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="W412" s="49" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="X412" s="49">
         <v>99999999</v>
@@ -37419,11 +37173,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37435,19 +37189,19 @@
         <v>0</v>
       </c>
       <c r="O413" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P413" s="49">
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37488,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37512,7 +37266,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="76" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37544,13 +37298,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37568,13 +37322,13 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="W415" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="X415" s="14" t="s">
         <v>109</v>
@@ -37612,13 +37366,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37636,13 +37390,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37680,13 +37434,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37704,13 +37458,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37748,13 +37502,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37772,13 +37526,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="R418" s="52" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="W418" s="6" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37816,13 +37570,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37840,13 +37594,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37884,13 +37638,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37908,13 +37662,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37952,10 +37706,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37967,19 +37721,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37991,10 +37745,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -38020,14 +37774,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -38045,10 +37799,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="W422" s="53" t="s">
         <v>569</v>
@@ -38089,14 +37843,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -38114,13 +37868,13 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="W423" s="53" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="X423" s="53">
         <v>99999999</v>
@@ -38158,14 +37912,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -38183,13 +37937,13 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="W424" s="53" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="X424" s="53">
         <v>99999999</v>
@@ -38227,10 +37981,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38248,13 +38002,13 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="W425" s="6" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="X425" s="6">
         <v>9999999</v>
@@ -38283,10 +38037,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38304,13 +38058,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38339,10 +38093,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38360,13 +38114,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="R427" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38395,10 +38149,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38416,13 +38170,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38451,10 +38205,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38472,13 +38226,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="R429" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38507,13 +38261,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38531,13 +38285,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38575,13 +38329,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38599,10 +38353,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38643,13 +38397,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I432" s="43" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J432" s="43" t="s">
         <v>1793</v>
-      </c>
-      <c r="I432" s="43" t="s">
-        <v>1801</v>
-      </c>
-      <c r="J432" s="43" t="s">
-        <v>1802</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38667,10 +38421,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38711,13 +38465,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38735,10 +38489,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38779,14 +38533,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38804,10 +38558,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38845,14 +38599,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38870,10 +38624,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38911,14 +38665,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38936,10 +38690,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38977,14 +38731,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -39002,10 +38756,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -39043,14 +38797,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -39068,10 +38822,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -39109,14 +38863,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -39134,10 +38888,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -39175,14 +38929,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -39200,10 +38954,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -39241,11 +38995,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39263,13 +39017,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39304,11 +39058,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39326,13 +39080,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39367,11 +39121,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39389,13 +39143,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39430,11 +39184,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39452,13 +39206,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39493,11 +39247,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39515,13 +39269,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="R445" s="54" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="W445" s="53" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39556,11 +39310,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39578,13 +39332,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39619,13 +39373,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="J447" s="59" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -39643,13 +39397,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R447" s="60" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -39687,13 +39441,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="J448" s="59" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -39714,10 +39468,10 @@
         <v>995</v>
       </c>
       <c r="R448" s="60" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -39752,13 +39506,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="J449" s="59" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -39776,10 +39530,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39820,13 +39574,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="J450" s="61" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="L450" s="61">
         <v>-31</v>
@@ -39844,10 +39598,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R450" s="62" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39888,13 +39642,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="J451" s="61" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="L451" s="61">
         <v>-31</v>
@@ -39912,10 +39666,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R451" s="62" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39953,13 +39707,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="J452" s="61" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="L452" s="61">
         <v>-31</v>
@@ -39977,10 +39731,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R452" s="62" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -40021,13 +39775,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="J453" s="59" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -40045,10 +39799,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -40089,13 +39843,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="J454" s="59" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -40113,10 +39867,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -40154,13 +39908,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="J455" s="59" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -40178,10 +39932,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -40222,13 +39976,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="J456" s="61" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="L456" s="61">
         <v>-31</v>
@@ -40246,10 +40000,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R456" s="62" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40290,13 +40044,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="J457" s="61" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="L457" s="61">
         <v>-31</v>
@@ -40314,10 +40068,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R457" s="62" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40355,13 +40109,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="J458" s="61" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="L458" s="61">
         <v>-31</v>
@@ -40379,10 +40133,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R458" s="62" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40423,13 +40177,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="J459" s="59" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -40447,10 +40201,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40491,13 +40245,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="J460" s="59" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -40518,7 +40272,7 @@
         <v>995</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40556,13 +40310,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J461" s="59" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -40580,10 +40334,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40624,13 +40378,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="J462" s="61" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="L462" s="61">
         <v>-31</v>
@@ -40648,10 +40402,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R462" s="62" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40692,13 +40446,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="J463" s="61" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="L463" s="61">
         <v>-31</v>
@@ -40716,10 +40470,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="61" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R463" s="62" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40757,13 +40511,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="J464" s="61" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="L464" s="61">
         <v>-31</v>
@@ -40784,7 +40538,7 @@
         <v>995</v>
       </c>
       <c r="R464" s="62" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40825,13 +40579,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="J465" s="59" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -40849,10 +40603,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40893,13 +40647,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="J466" s="59" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -40920,7 +40674,7 @@
         <v>995</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40958,13 +40712,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="J467" s="59" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -40985,7 +40739,7 @@
         <v>995</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -41026,13 +40780,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J468" s="63" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="L468" s="63">
         <v>-31</v>
@@ -41050,13 +40804,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R468" s="64" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="W468" s="63" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="X468" s="63">
         <v>9999999</v>
@@ -41091,13 +40845,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J469" s="63" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="L469" s="63">
         <v>-31</v>
@@ -41115,13 +40869,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R469" s="64" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="W469" s="63" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="X469" s="63">
         <v>9999999</v>
@@ -41156,13 +40910,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J470" s="63" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="L470" s="63">
         <v>-31</v>
@@ -41180,13 +40934,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R470" s="64" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="W470" s="63" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="X470" s="63">
         <v>9999999</v>
@@ -41221,13 +40975,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J471" s="63" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="L471" s="63">
         <v>-31</v>
@@ -41245,13 +40999,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R471" s="64" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="W471" s="63" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="X471" s="63">
         <v>9999999</v>
@@ -41286,13 +41040,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="J472" s="63" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="L472" s="63">
         <v>-31</v>
@@ -41310,13 +41064,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R472" s="64" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="W472" s="63" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="X472" s="63">
         <v>9999999</v>
@@ -41351,13 +41105,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J473" s="63" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="L473" s="63">
         <v>-31</v>
@@ -41375,13 +41129,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="63" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R473" s="64" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="W473" s="63" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="X473" s="63">
         <v>9999999</v>
@@ -41416,14 +41170,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="H474" s="75"/>
       <c r="I474" s="55" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41441,13 +41195,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="W474" s="63" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41482,14 +41236,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="H475" s="75"/>
       <c r="I475" s="55" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41507,13 +41261,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="W475" s="63" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41548,13 +41302,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41572,13 +41326,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41613,13 +41367,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41631,19 +41385,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="67" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="P477" s="67">
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
+        <v>1683</v>
+      </c>
+      <c r="R477" s="68" t="s">
+        <v>1691</v>
+      </c>
+      <c r="W477" s="67" t="s">
         <v>1692</v>
-      </c>
-      <c r="R477" s="68" t="s">
-        <v>1700</v>
-      </c>
-      <c r="W477" s="67" t="s">
-        <v>1701</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41678,13 +41432,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="J478" s="67" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41696,16 +41450,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="67" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="P478" s="67">
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="R478" s="68" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="W478" s="67" t="s">
         <v>528</v>
@@ -41743,13 +41497,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41761,19 +41515,19 @@
         <v>0</v>
       </c>
       <c r="O479" s="67" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="P479" s="67">
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41808,10 +41562,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41829,13 +41583,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41873,7 +41627,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41891,13 +41645,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41935,7 +41689,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41953,13 +41707,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41997,7 +41751,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -42015,13 +41769,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -42056,10 +41810,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -42077,13 +41831,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -42118,10 +41872,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -42139,10 +41893,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="W485" s="53" t="s">
         <v>567</v>
@@ -42180,13 +41934,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1864</v>
+        <v>1822</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1865</v>
+        <v>1823</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42204,10 +41958,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1867</v>
+        <v>1825</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42245,13 +41999,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1868</v>
+        <v>1826</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1869</v>
+        <v>1827</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1870</v>
+        <v>1828</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42269,10 +42023,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1866</v>
+        <v>1824</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1871</v>
+        <v>1829</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42310,13 +42064,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1872</v>
+        <v>1830</v>
       </c>
       <c r="I488" s="19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1485</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1494</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42334,10 +42088,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1873</v>
+        <v>1831</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1874</v>
+        <v>1832</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42375,13 +42129,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1875</v>
+        <v>1833</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1869</v>
+        <v>1827</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1876</v>
+        <v>1834</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42399,10 +42153,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1877</v>
+        <v>1835</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1878</v>
+        <v>1836</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42440,13 +42194,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1879</v>
+        <v>1837</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1880</v>
+        <v>1838</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42464,10 +42218,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1881</v>
+        <v>1839</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42505,13 +42259,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1882</v>
+        <v>1840</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1883</v>
+        <v>1841</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42529,10 +42283,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1884</v>
+        <v>1842</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1885</v>
+        <v>1843</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42570,13 +42324,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1886</v>
+        <v>1844</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42588,19 +42342,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1887</v>
+        <v>1845</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1888</v>
+        <v>1846</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1889</v>
+        <v>1847</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43022,7 +42776,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -43036,7 +42790,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -43050,7 +42804,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -43064,7 +42818,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -43078,7 +42832,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -43092,7 +42846,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -43106,7 +42860,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -43120,7 +42874,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -43134,7 +42888,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -43148,7 +42902,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -43162,7 +42916,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -43176,7 +42930,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -43190,7 +42944,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -43204,7 +42958,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -43218,7 +42972,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -43232,7 +42986,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43246,7 +43000,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43260,7 +43014,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43274,7 +43028,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43288,7 +43042,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43302,7 +43056,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43316,7 +43070,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43330,7 +43084,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43344,7 +43098,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43358,7 +43112,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43372,7 +43126,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43386,7 +43140,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -43400,7 +43154,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -43414,7 +43168,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -43428,7 +43182,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -43442,7 +43196,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -43456,7 +43210,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -43470,7 +43224,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -43484,7 +43238,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -43498,7 +43252,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -43512,7 +43266,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -43526,7 +43280,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -43540,7 +43294,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -43554,7 +43308,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -43568,7 +43322,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -43588,8 +43342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43667,7 +43421,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43750,19 +43504,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1819</v>
+        <v>1849</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1820</v>
+        <v>1850</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>407</v>
@@ -43818,19 +43572,19 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1821</v>
+        <v>1851</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1822</v>
+        <v>1852</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>407</v>
@@ -43886,13 +43640,13 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1823</v>
+        <v>1853</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1824</v>
+        <v>1854</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>50</v>
@@ -43954,19 +43708,19 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>407</v>
@@ -44022,13 +43776,13 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1825</v>
+        <v>1857</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1826</v>
+        <v>1858</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>52</v>
@@ -44090,13 +43844,13 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>53</v>
@@ -44155,19 +43909,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1827</v>
+        <v>1861</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1828</v>
+        <v>1862</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>407</v>
@@ -44222,10 +43976,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1831</v>
+        <v>1811</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44249,7 +44003,7 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
       <c r="AC9" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44295,10 +44049,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1833</v>
+        <v>1813</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1834</v>
+        <v>1814</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44322,7 +44076,7 @@
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
       <c r="AC10" s="35" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44366,13 +44120,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1821</v>
+        <v>1851</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1822</v>
+        <v>1852</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>49</v>
@@ -44398,7 +44152,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -44434,13 +44188,13 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1835</v>
+        <v>1863</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1855</v>
+        <v>1864</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>54</v>
@@ -44502,13 +44256,13 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1836</v>
+        <v>1865</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1837</v>
+        <v>1866</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>409</v>
@@ -44570,13 +44324,13 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1838</v>
+        <v>1867</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1839</v>
+        <v>1868</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>410</v>
@@ -44609,7 +44363,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -44639,10 +44393,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1849</v>
+        <v>1818</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1842</v>
+        <v>1817</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44650,7 +44404,7 @@
         <v>100</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>407</v>
@@ -44666,7 +44420,7 @@
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="35" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44713,20 +44467,20 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1843</v>
+        <v>1869</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1844</v>
+        <v>1870</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>407</v>
@@ -44781,14 +44535,14 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1856</v>
+        <v>1871</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1857</v>
+        <v>1872</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>64</v>
@@ -44849,14 +44603,14 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1845</v>
+        <v>1873</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>67</v>
@@ -44917,14 +44671,14 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>71</v>
@@ -44985,10 +44739,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1846</v>
+        <v>1877</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1847</v>
+        <v>1878</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -45052,14 +44806,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1848</v>
+        <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1861</v>
+        <v>1879</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>77</v>
@@ -45125,10 +44879,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1829</v>
+        <v>1809</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1862</v>
+        <v>1820</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45136,7 +44890,7 @@
         <v>5000</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>407</v>
@@ -45196,10 +44950,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1832</v>
+        <v>1812</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1834</v>
+        <v>1814</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45269,10 +45023,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45280,7 +45034,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>407</v>
@@ -45296,7 +45050,7 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="35" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -45343,10 +45097,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1850</v>
+        <v>1819</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1863</v>
+        <v>1821</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1881">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4940,10 +4940,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5326,10 +5322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6015,10 +6007,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万鲸币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6303,10 +6291,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6327,10 +6311,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6347,10 +6327,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>白银宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7975,100 +7951,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
     <t>首充加赠8508888</t>
-  </si>
-  <si>
-    <t>24万金币</t>
-  </si>
-  <si>
-    <t>加赠24万金币</t>
-  </si>
-  <si>
-    <t>60万金币</t>
-  </si>
-  <si>
-    <t>加赠60万金币</t>
-  </si>
-  <si>
-    <t>120万金币</t>
-  </si>
-  <si>
-    <t>加赠120万金币</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>加赠200万金币</t>
-  </si>
-  <si>
-    <t>392万金币</t>
-  </si>
-  <si>
-    <t>加赠392万金币</t>
-  </si>
-  <si>
-    <t>1992万金币</t>
-  </si>
-  <si>
-    <t>加赠1992万金币</t>
-  </si>
-  <si>
-    <t>6万金币</t>
-  </si>
-  <si>
-    <t>加赠6万金币</t>
-  </si>
-  <si>
-    <t>6000万金币</t>
-  </si>
-  <si>
-    <t>加赠6000万金币</t>
-  </si>
-  <si>
-    <t>3992万金币</t>
-  </si>
-  <si>
-    <t>加赠3992万金币</t>
-  </si>
-  <si>
-    <t>9992万金币</t>
-  </si>
-  <si>
-    <t>加赠9992万金币</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>加赠100万金币</t>
-  </si>
-  <si>
-    <t>335万金币</t>
-  </si>
-  <si>
-    <t>加赠335万金币</t>
-  </si>
-  <si>
-    <t>660万金币</t>
-  </si>
-  <si>
-    <t>加赠660万金币</t>
-  </si>
-  <si>
-    <t>1020万金币</t>
-  </si>
-  <si>
-    <t>加赠1020万金币</t>
-  </si>
-  <si>
-    <t>3.3万金币</t>
-  </si>
-  <si>
-    <t>加赠3.3万金币</t>
-  </si>
-  <si>
-    <t>加赠10万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币宝箱抽奖券",</t>
   </si>
   <si>
     <t>150万金币</t>
@@ -8933,16 +8913,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>1412</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1415</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8999,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10384,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10458,10 +10438,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10532,10 +10512,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10606,10 +10586,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10680,10 +10660,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10754,10 +10734,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10828,10 +10808,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10877,7 +10857,7 @@
         <v>1065</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>1066</v>
@@ -10968,10 +10948,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11034,13 +11014,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -14765,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -14830,7 +14810,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -14851,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -14889,7 +14869,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -14910,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -14948,7 +14928,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -14969,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15007,7 +14987,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15028,7 +15008,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15066,7 +15046,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15087,7 +15067,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15420,7 +15400,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15441,7 +15421,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15459,10 +15439,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15485,7 +15465,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15506,7 +15486,7 @@
         <v>488</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15524,10 +15504,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15547,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15683,7 +15663,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15704,7 +15684,7 @@
         <v>488</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15719,13 +15699,13 @@
         <v>2552233600</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -15934,10 +15914,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16040,10 +16020,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18448,7 +18428,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18469,7 +18449,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18504,10 +18484,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18528,7 +18508,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19115,7 +19095,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19176,7 +19156,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21003,7 +20983,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>993</v>
@@ -21127,13 +21107,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21151,13 +21131,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21195,13 +21175,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I172" s="43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J172" s="43" t="s">
         <v>1732</v>
-      </c>
-      <c r="I172" s="43" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J172" s="43" t="s">
-        <v>1738</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21219,10 +21199,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21263,13 +21243,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I173" s="43" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21287,10 +21267,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21331,13 +21311,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21355,10 +21335,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21399,13 +21379,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21423,10 +21403,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R175" s="66" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="W175" s="43" t="s">
         <v>528</v>
@@ -21467,13 +21447,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21491,10 +21471,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21535,13 +21515,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21559,10 +21539,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21603,13 +21583,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21627,10 +21607,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21671,13 +21651,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21695,10 +21675,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21739,13 +21719,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21763,10 +21743,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21807,13 +21787,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21831,10 +21811,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -21875,13 +21855,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -21899,10 +21879,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -21943,13 +21923,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -21967,10 +21947,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22011,13 +21991,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22035,10 +22015,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22079,13 +22059,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22103,10 +22083,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26566,7 +26546,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -26761,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27284,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27544,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -27810,7 +27790,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="74" t="s">
-        <v>1848</v>
+        <v>1873</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -27831,7 +27811,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28070,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28135,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28200,7 +28180,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28265,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -30754,10 +30734,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -30810,7 +30790,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -30872,7 +30852,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -30934,10 +30914,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -30955,13 +30935,13 @@
         <v>600</v>
       </c>
       <c r="Q323" s="43" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -30999,10 +30979,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31020,10 +31000,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31064,10 +31044,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31085,10 +31065,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="43" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31129,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>968</v>
@@ -31188,7 +31168,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>986</v>
@@ -31253,12 +31233,12 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31271,13 +31251,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>987</v>
@@ -31287,7 +31267,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31341,7 +31321,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31354,23 +31334,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31424,7 +31404,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31437,23 +31417,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31507,7 +31487,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31520,23 +31500,23 @@
         <v>0</v>
       </c>
       <c r="O331" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P331" s="43">
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31590,7 +31570,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31609,17 +31589,17 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31673,7 +31653,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31686,23 +31666,23 @@
         <v>0</v>
       </c>
       <c r="O333" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P333" s="43">
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
+        <v>1656</v>
+      </c>
+      <c r="R333" s="66" t="s">
         <v>1662</v>
-      </c>
-      <c r="R333" s="66" t="s">
-        <v>1668</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -31756,7 +31736,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31769,23 +31749,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R334" s="66" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -31839,7 +31819,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -31852,23 +31832,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -31922,7 +31902,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -31935,23 +31915,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32005,7 +31985,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32018,23 +31998,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32080,7 +32060,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1005</v>
@@ -32236,7 +32216,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32318,12 +32298,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32335,19 +32315,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="R341" s="10" t="s">
         <v>1159</v>
       </c>
-      <c r="R341" s="10" t="s">
+      <c r="W341" s="5" t="s">
         <v>1160</v>
-      </c>
-      <c r="W341" s="5" t="s">
-        <v>1161</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32362,10 +32342,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AC341" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="AC341" s="5" t="s">
-        <v>1163</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32391,10 +32371,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J342" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="J342" s="5" t="s">
-        <v>1165</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32406,19 +32386,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R342" s="10" t="s">
         <v>1083</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32433,10 +32413,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32462,10 +32442,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J343" s="5" t="s">
         <v>1167</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>1168</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32477,19 +32457,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R343" s="10" t="s">
         <v>1084</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32504,10 +32484,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32533,10 +32513,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J344" s="5" t="s">
         <v>1170</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>1171</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32548,19 +32528,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32575,10 +32555,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32607,7 +32587,7 @@
         <v>1085</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32619,19 +32599,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R345" s="10" t="s">
         <v>1086</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32646,10 +32626,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32678,7 +32658,7 @@
         <v>1087</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32690,19 +32670,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R346" s="10" t="s">
         <v>1088</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32717,10 +32697,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32749,7 +32729,7 @@
         <v>1089</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -32761,19 +32741,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -32788,10 +32768,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -32820,7 +32800,7 @@
         <v>1090</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -32832,19 +32812,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -32859,10 +32839,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -32891,7 +32871,7 @@
         <v>1091</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -32909,13 +32889,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -32930,7 +32910,7 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC349" s="5" t="s">
         <v>1092</v>
@@ -32962,7 +32942,7 @@
         <v>1093</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -32983,10 +32963,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33004,7 +32984,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33033,7 +33013,7 @@
         <v>1094</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33045,7 +33025,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33057,7 +33037,7 @@
         <v>1095</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33075,7 +33055,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33125,7 +33105,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33143,7 +33123,7 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC352" s="5" t="s">
         <v>1098</v>
@@ -33172,13 +33152,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I353" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33196,13 +33176,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R353" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="R353" s="10" t="s">
+      <c r="W353" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="W353" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33240,13 +33220,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33258,19 +33238,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R354" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W354" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="W354" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33308,13 +33288,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33326,16 +33306,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33379,10 +33359,10 @@
         <v>1099</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33400,13 +33380,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33444,13 +33424,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33462,19 +33442,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33512,13 +33492,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33530,13 +33510,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33583,10 +33563,10 @@
         <v>1099</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33598,19 +33578,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33648,13 +33628,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33666,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33716,13 +33696,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33734,19 +33714,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -33784,13 +33764,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I362" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -33808,10 +33788,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -33829,10 +33809,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -33858,13 +33838,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -33876,19 +33856,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -33903,10 +33883,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -33932,13 +33912,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -33950,19 +33930,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -33977,10 +33957,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34006,10 +33986,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34021,16 +34001,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34071,10 +34051,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34086,16 +34066,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34136,10 +34116,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34151,19 +34131,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34201,10 +34181,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34216,16 +34196,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34266,10 +34246,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34287,13 +34267,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34331,10 +34311,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34352,7 +34332,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34393,10 +34373,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34414,10 +34394,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R371" s="10" t="s">
         <v>1215</v>
-      </c>
-      <c r="R371" s="10" t="s">
-        <v>1217</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34455,10 +34435,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34476,7 +34456,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34517,10 +34497,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34538,13 +34518,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34579,13 +34559,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I374" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="I374" s="5" t="s">
-        <v>1131</v>
-      </c>
       <c r="J374" s="5" t="s">
-        <v>1371</v>
+        <v>879</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34597,7 +34577,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34606,7 +34586,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34647,13 +34627,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I375" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J375" s="5" t="s">
         <v>1237</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J375" s="5" t="s">
-        <v>1239</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34665,19 +34645,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R375" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W375" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="R375" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W375" s="5" t="s">
-        <v>1243</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34715,13 +34695,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I376" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="I376" s="5" t="s">
-        <v>1247</v>
-      </c>
       <c r="J376" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34733,19 +34713,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R376" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W376" s="5" t="s">
         <v>1250</v>
-      </c>
-      <c r="R376" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="W376" s="5" t="s">
-        <v>1252</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -34783,10 +34763,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I377" s="5" t="s">
         <v>1245</v>
-      </c>
-      <c r="I377" s="5" t="s">
-        <v>1247</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>971</v>
@@ -34801,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -34851,13 +34831,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -34875,13 +34855,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -34919,10 +34899,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -34937,19 +34917,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -34987,10 +34967,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I380" s="5" t="s">
         <v>1244</v>
-      </c>
-      <c r="I380" s="5" t="s">
-        <v>1246</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35005,19 +34985,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35055,13 +35035,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35079,10 +35059,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35123,13 +35103,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35147,13 +35127,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35191,13 +35171,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I383" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J383" s="5" t="s">
         <v>1259</v>
-      </c>
-      <c r="J383" s="5" t="s">
-        <v>1261</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35215,10 +35195,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35259,13 +35239,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35277,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35327,13 +35307,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35345,19 +35325,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35395,14 +35375,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35420,10 +35400,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35432,10 +35412,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35464,14 +35444,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35483,16 +35463,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35501,10 +35481,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35533,14 +35513,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35552,28 +35532,28 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="R388" s="39" t="s">
+        <v>1284</v>
+      </c>
+      <c r="W388" s="19" t="s">
         <v>1285</v>
-      </c>
-      <c r="R388" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="W388" s="19" t="s">
-        <v>1287</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35602,14 +35582,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H389" s="65"/>
       <c r="I389" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35621,16 +35601,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35638,11 +35618,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="65">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35671,14 +35651,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H390" s="65"/>
       <c r="I390" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35696,10 +35676,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35707,11 +35687,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="65">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35740,14 +35720,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H391" s="65"/>
       <c r="I391" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -35765,10 +35745,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -35776,11 +35756,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="65">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35809,14 +35789,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -35834,10 +35814,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -35846,10 +35826,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35878,14 +35858,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -35903,10 +35883,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -35915,10 +35895,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35947,14 +35927,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -35966,16 +35946,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -35984,10 +35964,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>
@@ -36016,10 +35996,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36031,16 +36011,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36078,10 +36058,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36093,16 +36073,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36143,7 +36123,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36161,10 +36141,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36205,7 +36185,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36223,10 +36203,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36264,10 +36244,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36279,16 +36259,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36326,10 +36306,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36341,16 +36321,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36388,10 +36368,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36409,13 +36389,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36453,10 +36433,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36468,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36518,10 +36498,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36539,13 +36519,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36583,10 +36563,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36604,13 +36584,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36648,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36669,13 +36649,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36713,10 +36693,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36734,13 +36714,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="R406" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="W406" s="5" t="s">
         <v>1363</v>
-      </c>
-      <c r="R406" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="W406" s="5" t="s">
-        <v>1365</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -36778,10 +36758,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -36793,19 +36773,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -36843,11 +36823,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -36865,10 +36845,10 @@
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -36909,11 +36889,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -36925,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -36975,11 +36955,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -36997,10 +36977,10 @@
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37041,11 +37021,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37063,10 +37043,10 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="W411" s="49" t="s">
         <v>567</v>
@@ -37107,11 +37087,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37129,13 +37109,13 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R412" s="50" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="W412" s="49" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="X412" s="49">
         <v>99999999</v>
@@ -37173,11 +37153,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37189,19 +37169,19 @@
         <v>0</v>
       </c>
       <c r="O413" s="49" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="P413" s="49">
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37242,10 +37222,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37266,7 +37246,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="76" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37298,13 +37278,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1418</v>
+        <v>1874</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37322,13 +37302,13 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="W415" s="6" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="X415" s="14" t="s">
         <v>109</v>
@@ -37366,13 +37346,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1424</v>
+        <v>1874</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37390,13 +37370,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37434,13 +37414,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1429</v>
+        <v>1874</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37458,13 +37438,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37502,13 +37482,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>1418</v>
+        <v>1874</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37526,13 +37506,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R418" s="52" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W418" s="6" t="s">
         <v>1108</v>
-      </c>
-      <c r="R418" s="52" t="s">
-        <v>1420</v>
-      </c>
-      <c r="W418" s="6" t="s">
-        <v>1109</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37570,13 +37550,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1429</v>
+        <v>1874</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37594,13 +37574,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37638,13 +37618,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1424</v>
+        <v>1874</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37662,13 +37642,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37706,10 +37686,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37721,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37745,10 +37725,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37774,14 +37754,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -37799,10 +37779,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="W422" s="53" t="s">
         <v>569</v>
@@ -37843,14 +37823,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -37868,13 +37848,13 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="W423" s="53" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="X423" s="53">
         <v>99999999</v>
@@ -37912,14 +37892,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -37937,13 +37917,13 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="W424" s="53" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="X424" s="53">
         <v>99999999</v>
@@ -37981,10 +37961,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38002,13 +37982,13 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W425" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X425" s="6">
         <v>9999999</v>
@@ -38037,10 +38017,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38058,13 +38038,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38093,10 +38073,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38114,13 +38094,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="R427" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38149,10 +38129,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38170,13 +38150,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38205,10 +38185,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38226,13 +38206,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="R429" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38261,13 +38241,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38285,13 +38265,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38329,13 +38309,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I431" s="43" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J431" s="43" t="s">
         <v>1784</v>
-      </c>
-      <c r="I431" s="43" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J431" s="43" t="s">
-        <v>1790</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38353,10 +38333,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38397,13 +38377,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I432" s="43" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38421,10 +38401,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38465,13 +38445,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38489,10 +38469,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38533,14 +38513,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38558,10 +38538,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38599,14 +38579,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38624,10 +38604,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38665,14 +38645,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38690,10 +38670,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38731,14 +38711,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -38756,10 +38736,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -38797,14 +38777,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -38822,10 +38802,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -38863,14 +38843,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -38888,10 +38868,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -38929,14 +38909,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -38954,10 +38934,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -38995,11 +38975,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39017,13 +38997,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39058,11 +39038,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39080,13 +39060,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39121,11 +39101,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39143,13 +39123,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39184,11 +39164,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39206,13 +39186,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39247,11 +39227,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39269,13 +39249,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R445" s="54" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="W445" s="53" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39310,11 +39290,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39332,13 +39312,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39373,13 +39353,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="J447" s="59" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -39397,13 +39377,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R447" s="60" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -39441,13 +39421,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="J448" s="59" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -39468,10 +39448,10 @@
         <v>995</v>
       </c>
       <c r="R448" s="60" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -39506,13 +39486,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="J449" s="59" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -39530,10 +39510,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39574,13 +39554,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="J450" s="61" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="L450" s="61">
         <v>-31</v>
@@ -39598,10 +39578,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R450" s="62" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39642,13 +39622,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="J451" s="61" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="L451" s="61">
         <v>-31</v>
@@ -39666,10 +39646,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R451" s="62" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39707,13 +39687,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="J452" s="61" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="L452" s="61">
         <v>-31</v>
@@ -39731,10 +39711,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R452" s="62" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -39775,13 +39755,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="J453" s="59" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -39799,10 +39779,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -39843,13 +39823,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="J454" s="59" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -39867,10 +39847,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -39908,13 +39888,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="J455" s="59" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -39932,10 +39912,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -39976,13 +39956,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="J456" s="61" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="L456" s="61">
         <v>-31</v>
@@ -40000,10 +39980,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R456" s="62" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40044,13 +40024,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="J457" s="61" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="L457" s="61">
         <v>-31</v>
@@ -40068,10 +40048,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R457" s="62" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40109,13 +40089,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="J458" s="61" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="L458" s="61">
         <v>-31</v>
@@ -40133,10 +40113,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R458" s="62" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40177,13 +40157,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="J459" s="59" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -40201,10 +40181,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40245,13 +40225,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="J460" s="59" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -40272,7 +40252,7 @@
         <v>995</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40310,13 +40290,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="J461" s="59" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -40334,10 +40314,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40378,13 +40358,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="J462" s="61" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="L462" s="61">
         <v>-31</v>
@@ -40402,10 +40382,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R462" s="62" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40446,13 +40426,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="J463" s="61" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="L463" s="61">
         <v>-31</v>
@@ -40470,10 +40450,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R463" s="62" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40511,13 +40491,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="J464" s="61" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="L464" s="61">
         <v>-31</v>
@@ -40538,7 +40518,7 @@
         <v>995</v>
       </c>
       <c r="R464" s="62" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40579,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="J465" s="59" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -40603,10 +40583,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40647,13 +40627,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="J466" s="59" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -40674,7 +40654,7 @@
         <v>995</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40712,13 +40692,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="J467" s="59" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -40739,7 +40719,7 @@
         <v>995</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -40780,13 +40760,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J468" s="63" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="L468" s="63">
         <v>-31</v>
@@ -40804,13 +40784,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R468" s="64" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="W468" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X468" s="63">
         <v>9999999</v>
@@ -40845,13 +40825,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J469" s="63" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="L469" s="63">
         <v>-31</v>
@@ -40869,13 +40849,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R469" s="64" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="W469" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X469" s="63">
         <v>9999999</v>
@@ -40910,13 +40890,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J470" s="63" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="L470" s="63">
         <v>-31</v>
@@ -40934,13 +40914,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R470" s="64" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W470" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X470" s="63">
         <v>9999999</v>
@@ -40975,13 +40955,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J471" s="63" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="L471" s="63">
         <v>-31</v>
@@ -40999,13 +40979,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R471" s="64" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="W471" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X471" s="63">
         <v>9999999</v>
@@ -41040,13 +41020,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="J472" s="63" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="L472" s="63">
         <v>-31</v>
@@ -41064,13 +41044,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R472" s="64" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="W472" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X472" s="63">
         <v>9999999</v>
@@ -41105,13 +41085,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J473" s="63" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="L473" s="63">
         <v>-31</v>
@@ -41129,13 +41109,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R473" s="64" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="W473" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X473" s="63">
         <v>9999999</v>
@@ -41170,14 +41150,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="H474" s="75"/>
       <c r="I474" s="55" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41195,13 +41175,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="W474" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41236,14 +41216,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="H475" s="75"/>
       <c r="I475" s="55" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41261,13 +41241,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="W475" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41302,13 +41282,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41326,13 +41306,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41367,13 +41347,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41385,19 +41365,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P477" s="67">
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="R477" s="68" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="W477" s="67" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41432,13 +41412,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="J478" s="67" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41450,16 +41430,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P478" s="67">
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="R478" s="68" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="W478" s="67" t="s">
         <v>528</v>
@@ -41497,13 +41477,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41515,19 +41495,19 @@
         <v>0</v>
       </c>
       <c r="O479" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P479" s="67">
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41562,10 +41542,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41583,13 +41563,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41627,7 +41607,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41645,13 +41625,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41689,7 +41669,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41707,13 +41687,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41751,7 +41731,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -41769,13 +41749,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -41810,10 +41790,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -41831,13 +41811,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -41872,10 +41852,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -41893,10 +41873,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="W485" s="53" t="s">
         <v>567</v>
@@ -41934,13 +41914,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41958,10 +41938,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -41999,13 +41979,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42023,10 +42003,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42064,13 +42044,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42088,10 +42068,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42129,13 +42109,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42153,10 +42133,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42194,13 +42174,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42218,10 +42198,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42259,13 +42239,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42283,10 +42263,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42324,13 +42304,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42342,19 +42322,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -42776,7 +42756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -42790,7 +42770,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -42804,7 +42784,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -42818,7 +42798,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -42832,7 +42812,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -42846,7 +42826,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -42860,7 +42840,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -42874,7 +42854,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -42888,7 +42868,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -42902,7 +42882,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -42916,7 +42896,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -42930,7 +42910,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -42944,7 +42924,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -42958,7 +42938,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -42972,7 +42952,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -42986,7 +42966,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43000,7 +42980,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43014,7 +42994,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43028,7 +43008,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43042,7 +43022,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43056,7 +43036,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43070,7 +43050,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43084,7 +43064,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43098,7 +43078,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43112,7 +43092,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43126,7 +43106,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43140,7 +43120,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -43154,7 +43134,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -43168,7 +43148,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -43182,7 +43162,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -43196,7 +43176,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -43210,7 +43190,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -43224,7 +43204,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -43238,7 +43218,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -43252,7 +43232,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -43266,7 +43246,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -43280,7 +43260,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -43294,7 +43274,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -43308,7 +43288,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -43322,7 +43302,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -43342,7 +43322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
@@ -43421,7 +43401,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43504,10 +43484,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1072</v>
@@ -43572,10 +43552,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1072</v>
@@ -43640,10 +43620,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1072</v>
@@ -43708,10 +43688,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1072</v>
@@ -43776,10 +43756,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1072</v>
@@ -43844,10 +43824,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1072</v>
@@ -43909,10 +43889,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1072</v>
@@ -43976,10 +43956,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44049,10 +44029,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44120,10 +44100,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1072</v>
@@ -44188,10 +44168,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1072</v>
@@ -44256,10 +44236,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1072</v>
@@ -44324,10 +44304,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1079</v>
@@ -44393,10 +44373,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44467,10 +44447,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -44535,10 +44515,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -44603,10 +44583,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -44671,10 +44651,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -44739,10 +44719,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44809,7 +44789,7 @@
         <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -44879,10 +44859,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -44950,10 +44930,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45023,10 +45003,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45097,10 +45077,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1931">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8111,6 +8111,148 @@
   </si>
   <si>
     <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8335,7 +8477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8574,6 +8716,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9040,7 +9185,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F28" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9185,9 +9330,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9267,9 +9410,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9349,9 +9490,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9431,9 +9570,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9513,9 +9650,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9595,9 +9730,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9677,9 +9810,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9759,9 +9890,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9840,9 +9969,6 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9923,9 +10049,7 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10927,9 +11051,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11028,13 +11150,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U506" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
+      <selection pane="bottomRight" activeCell="B515" sqref="B515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14887,7 +15009,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14946,7 +15068,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15005,7 +15127,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15064,7 +15186,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15123,7 +15245,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16471,7 +16593,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18505,7 +18627,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18564,7 +18686,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -27867,7 +27989,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37302,7 +37424,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>
@@ -42766,6 +42888,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="49">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="49"/>
+      <c r="D497" s="49"/>
+      <c r="E497" s="49"/>
+      <c r="F497" s="49">
+        <v>1</v>
+      </c>
+      <c r="G497" s="49" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H497" s="49"/>
+      <c r="I497" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J497" s="49" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K497" s="49"/>
+      <c r="L497" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="49">
+        <v>0</v>
+      </c>
+      <c r="N497" s="49">
+        <v>0</v>
+      </c>
+      <c r="O497" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P497" s="49">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R497" s="50" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S497" s="49"/>
+      <c r="T497" s="49"/>
+      <c r="U497" s="49"/>
+      <c r="V497" s="49"/>
+      <c r="W497" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X497" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="49">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="49"/>
+      <c r="D498" s="49"/>
+      <c r="E498" s="49"/>
+      <c r="F498" s="49">
+        <v>1</v>
+      </c>
+      <c r="G498" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H498" s="49"/>
+      <c r="I498" s="49" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J498" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K498" s="49"/>
+      <c r="L498" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="49">
+        <v>0</v>
+      </c>
+      <c r="N498" s="49">
+        <v>0</v>
+      </c>
+      <c r="O498" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P498" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R498" s="50" t="s">
+        <v>1903</v>
+      </c>
+      <c r="S498" s="49"/>
+      <c r="T498" s="49"/>
+      <c r="U498" s="49"/>
+      <c r="V498" s="49"/>
+      <c r="W498" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X498" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="49">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="49"/>
+      <c r="D499" s="49"/>
+      <c r="E499" s="49"/>
+      <c r="F499" s="49">
+        <v>1</v>
+      </c>
+      <c r="G499" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H499" s="49"/>
+      <c r="I499" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J499" s="49" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K499" s="49"/>
+      <c r="L499" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="49">
+        <v>0</v>
+      </c>
+      <c r="N499" s="49">
+        <v>0</v>
+      </c>
+      <c r="O499" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P499" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R499" s="50" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S499" s="49"/>
+      <c r="T499" s="49"/>
+      <c r="U499" s="49"/>
+      <c r="V499" s="49"/>
+      <c r="W499" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X499" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="49">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="49"/>
+      <c r="D500" s="49"/>
+      <c r="E500" s="49"/>
+      <c r="F500" s="49">
+        <v>1</v>
+      </c>
+      <c r="G500" s="49" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H500" s="49"/>
+      <c r="I500" s="49" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J500" s="49" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K500" s="49"/>
+      <c r="L500" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="49">
+        <v>0</v>
+      </c>
+      <c r="N500" s="49">
+        <v>0</v>
+      </c>
+      <c r="O500" s="49" t="s">
+        <v>1907</v>
+      </c>
+      <c r="P500" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R500" s="50" t="s">
+        <v>1908</v>
+      </c>
+      <c r="S500" s="49"/>
+      <c r="T500" s="49"/>
+      <c r="U500" s="49"/>
+      <c r="V500" s="49"/>
+      <c r="W500" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X500" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="49">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="49"/>
+      <c r="D501" s="49"/>
+      <c r="E501" s="49"/>
+      <c r="F501" s="49">
+        <v>1</v>
+      </c>
+      <c r="G501" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H501" s="49"/>
+      <c r="I501" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J501" s="49" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K501" s="49"/>
+      <c r="L501" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="49">
+        <v>0</v>
+      </c>
+      <c r="N501" s="49">
+        <v>0</v>
+      </c>
+      <c r="O501" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P501" s="49">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R501" s="50" t="s">
+        <v>1910</v>
+      </c>
+      <c r="S501" s="49"/>
+      <c r="T501" s="49"/>
+      <c r="U501" s="49"/>
+      <c r="V501" s="49"/>
+      <c r="W501" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X501" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="49">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="49"/>
+      <c r="D502" s="49"/>
+      <c r="E502" s="49"/>
+      <c r="F502" s="49">
+        <v>1</v>
+      </c>
+      <c r="G502" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H502" s="49"/>
+      <c r="I502" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J502" s="49" t="s">
+        <v>1911</v>
+      </c>
+      <c r="K502" s="49"/>
+      <c r="L502" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="49">
+        <v>0</v>
+      </c>
+      <c r="N502" s="49">
+        <v>0</v>
+      </c>
+      <c r="O502" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P502" s="49">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R502" s="50" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S502" s="49"/>
+      <c r="T502" s="49"/>
+      <c r="U502" s="49"/>
+      <c r="V502" s="49"/>
+      <c r="W502" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X502" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="65">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="65"/>
+      <c r="D503" s="65"/>
+      <c r="E503" s="65"/>
+      <c r="F503" s="65">
+        <v>1</v>
+      </c>
+      <c r="G503" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H503" s="65"/>
+      <c r="I503" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J503" s="65" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K503" s="65"/>
+      <c r="L503" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="65">
+        <v>0</v>
+      </c>
+      <c r="N503" s="65">
+        <v>0</v>
+      </c>
+      <c r="O503" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P503" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="65" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R503" s="80" t="s">
+        <v>1917</v>
+      </c>
+      <c r="S503" s="65"/>
+      <c r="T503" s="65"/>
+      <c r="U503" s="65"/>
+      <c r="V503" s="65"/>
+      <c r="W503" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X503" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="65">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="65"/>
+      <c r="D504" s="65"/>
+      <c r="E504" s="65"/>
+      <c r="F504" s="65">
+        <v>1</v>
+      </c>
+      <c r="G504" s="65" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H504" s="65"/>
+      <c r="I504" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J504" s="65" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K504" s="65"/>
+      <c r="L504" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="65">
+        <v>0</v>
+      </c>
+      <c r="N504" s="65">
+        <v>0</v>
+      </c>
+      <c r="O504" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="P504" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="65" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R504" s="80" t="s">
+        <v>1919</v>
+      </c>
+      <c r="S504" s="65"/>
+      <c r="T504" s="65"/>
+      <c r="U504" s="65"/>
+      <c r="V504" s="65"/>
+      <c r="W504" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X504" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="65">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="65"/>
+      <c r="D505" s="65"/>
+      <c r="E505" s="65"/>
+      <c r="F505" s="65">
+        <v>1</v>
+      </c>
+      <c r="G505" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H505" s="65"/>
+      <c r="I505" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J505" s="65" t="s">
+        <v>1920</v>
+      </c>
+      <c r="K505" s="65"/>
+      <c r="L505" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="65">
+        <v>0</v>
+      </c>
+      <c r="N505" s="65">
+        <v>0</v>
+      </c>
+      <c r="O505" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P505" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="65" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R505" s="80" t="s">
+        <v>1921</v>
+      </c>
+      <c r="S505" s="65"/>
+      <c r="T505" s="65"/>
+      <c r="U505" s="65"/>
+      <c r="V505" s="65"/>
+      <c r="W505" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X505" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="65">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="65"/>
+      <c r="D506" s="65"/>
+      <c r="E506" s="65"/>
+      <c r="F506" s="65">
+        <v>1</v>
+      </c>
+      <c r="G506" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H506" s="65"/>
+      <c r="I506" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J506" s="65" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K506" s="65"/>
+      <c r="L506" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="65">
+        <v>0</v>
+      </c>
+      <c r="N506" s="65">
+        <v>0</v>
+      </c>
+      <c r="O506" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P506" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="65" t="s">
+        <v>1923</v>
+      </c>
+      <c r="R506" s="80" t="s">
+        <v>1924</v>
+      </c>
+      <c r="S506" s="65"/>
+      <c r="T506" s="65"/>
+      <c r="U506" s="65"/>
+      <c r="V506" s="65"/>
+      <c r="W506" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X506" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="65">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="65"/>
+      <c r="D507" s="65"/>
+      <c r="E507" s="65"/>
+      <c r="F507" s="65">
+        <v>1</v>
+      </c>
+      <c r="G507" s="65" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H507" s="65"/>
+      <c r="I507" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J507" s="65" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K507" s="65"/>
+      <c r="L507" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="65">
+        <v>0</v>
+      </c>
+      <c r="N507" s="65">
+        <v>0</v>
+      </c>
+      <c r="O507" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P507" s="65">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="65" t="s">
+        <v>1923</v>
+      </c>
+      <c r="R507" s="80" t="s">
+        <v>1926</v>
+      </c>
+      <c r="S507" s="65"/>
+      <c r="T507" s="65"/>
+      <c r="U507" s="65"/>
+      <c r="V507" s="65"/>
+      <c r="W507" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X507" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="65">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="65"/>
+      <c r="D508" s="65"/>
+      <c r="E508" s="65"/>
+      <c r="F508" s="65">
+        <v>1</v>
+      </c>
+      <c r="G508" s="65" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H508" s="65"/>
+      <c r="I508" s="65" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J508" s="65" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K508" s="65"/>
+      <c r="L508" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="65">
+        <v>0</v>
+      </c>
+      <c r="N508" s="65">
+        <v>0</v>
+      </c>
+      <c r="O508" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P508" s="65">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="65" t="s">
+        <v>1923</v>
+      </c>
+      <c r="R508" s="80" t="s">
+        <v>1912</v>
+      </c>
+      <c r="S508" s="65"/>
+      <c r="T508" s="65"/>
+      <c r="U508" s="65"/>
+      <c r="V508" s="65"/>
+      <c r="W508" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X508" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42779,10 +43825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43720,6 +44766,34 @@
       </c>
       <c r="D66" s="57">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11152,11 +11152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN508"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B515" sqref="B515"/>
+      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42941,7 +42941,7 @@
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -43018,7 +43018,7 @@
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43095,7 +43095,7 @@
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43172,7 +43172,7 @@
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43249,7 +43249,7 @@
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43326,7 +43326,7 @@
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43403,7 +43403,7 @@
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
       <c r="W503" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43480,7 +43480,7 @@
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
       <c r="W504" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43557,7 +43557,7 @@
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
       <c r="W505" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43634,7 +43634,7 @@
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
       <c r="W506" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43711,7 +43711,7 @@
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
       <c r="W507" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43788,7 +43788,7 @@
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
       <c r="W508" s="65" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>
@@ -43827,7 +43827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1933">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8253,6 +8253,14 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11156,7 +11164,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="W498" sqref="W498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42941,7 +42949,7 @@
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>527</v>
+        <v>1931</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -43018,7 +43026,7 @@
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>527</v>
+        <v>1932</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43095,7 +43103,7 @@
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>527</v>
+        <v>1932</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43172,7 +43180,7 @@
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>527</v>
+        <v>1931</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43249,7 +43257,7 @@
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>527</v>
+        <v>1932</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43326,7 +43334,7 @@
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>527</v>
+        <v>1932</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43402,8 +43410,8 @@
       <c r="T503" s="65"/>
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
-      <c r="W503" s="65" t="s">
-        <v>527</v>
+      <c r="W503" s="49" t="s">
+        <v>1931</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43479,8 +43487,8 @@
       <c r="T504" s="65"/>
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
-      <c r="W504" s="65" t="s">
-        <v>527</v>
+      <c r="W504" s="49" t="s">
+        <v>1932</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43556,8 +43564,8 @@
       <c r="T505" s="65"/>
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
-      <c r="W505" s="65" t="s">
-        <v>527</v>
+      <c r="W505" s="49" t="s">
+        <v>1932</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43633,8 +43641,8 @@
       <c r="T506" s="65"/>
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
-      <c r="W506" s="65" t="s">
-        <v>527</v>
+      <c r="W506" s="49" t="s">
+        <v>1931</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43710,8 +43718,8 @@
       <c r="T507" s="65"/>
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
-      <c r="W507" s="65" t="s">
-        <v>527</v>
+      <c r="W507" s="49" t="s">
+        <v>1932</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43787,8 +43795,8 @@
       <c r="T508" s="65"/>
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
-      <c r="W508" s="65" t="s">
-        <v>527</v>
+      <c r="W508" s="49" t="s">
+        <v>1932</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -8137,10 +8137,6 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8153,17 +8149,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8171,97 +8159,107 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
     <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11161,10 +11159,10 @@
   <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W498" sqref="W498"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42942,14 +42940,14 @@
         <v>1898</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1899</v>
+        <v>1921</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42990,14 +42988,14 @@
         <v>1</v>
       </c>
       <c r="G498" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H498" s="49"/>
       <c r="I498" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J498" s="49" t="s">
         <v>1901</v>
-      </c>
-      <c r="J498" s="49" t="s">
-        <v>1902</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -43019,14 +43017,14 @@
         <v>1898</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1903</v>
+        <v>1922</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43067,14 +43065,14 @@
         <v>1</v>
       </c>
       <c r="G499" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H499" s="49"/>
       <c r="I499" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43096,14 +43094,14 @@
         <v>1898</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1905</v>
+        <v>1923</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43148,10 +43146,10 @@
       </c>
       <c r="H500" s="49"/>
       <c r="I500" s="49" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43164,7 +43162,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="49" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P500" s="49">
         <v>4800</v>
@@ -43173,14 +43171,14 @@
         <v>1898</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1908</v>
+        <v>1924</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43221,14 +43219,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43250,14 +43248,14 @@
         <v>1898</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1910</v>
+        <v>1925</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43298,14 +43296,14 @@
         <v>1</v>
       </c>
       <c r="G502" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H502" s="49"/>
       <c r="I502" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43327,14 +43325,14 @@
         <v>1898</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1913</v>
+        <v>1926</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43379,10 +43377,10 @@
       </c>
       <c r="H503" s="65"/>
       <c r="I503" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J503" s="65" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="K503" s="65"/>
       <c r="L503" s="65">
@@ -43401,17 +43399,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1917</v>
+        <v>1927</v>
       </c>
       <c r="S503" s="65"/>
       <c r="T503" s="65"/>
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
       <c r="W503" s="49" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43456,10 +43454,10 @@
       </c>
       <c r="H504" s="65"/>
       <c r="I504" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J504" s="65" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="K504" s="65"/>
       <c r="L504" s="65">
@@ -43472,23 +43470,23 @@
         <v>0</v>
       </c>
       <c r="O504" s="65" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P504" s="65">
         <v>19800</v>
       </c>
       <c r="Q504" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="S504" s="65"/>
       <c r="T504" s="65"/>
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
       <c r="W504" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43533,10 +43531,10 @@
       </c>
       <c r="H505" s="65"/>
       <c r="I505" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J505" s="65" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="K505" s="65"/>
       <c r="L505" s="65">
@@ -43555,17 +43553,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="S505" s="65"/>
       <c r="T505" s="65"/>
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
       <c r="W505" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43610,10 +43608,10 @@
       </c>
       <c r="H506" s="65"/>
       <c r="I506" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J506" s="65" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="K506" s="65"/>
       <c r="L506" s="65">
@@ -43632,17 +43630,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="S506" s="65"/>
       <c r="T506" s="65"/>
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
       <c r="W506" s="49" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43683,14 +43681,14 @@
         <v>1</v>
       </c>
       <c r="G507" s="65" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H507" s="65"/>
       <c r="I507" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J507" s="65" t="s">
         <v>1914</v>
-      </c>
-      <c r="J507" s="65" t="s">
-        <v>1925</v>
       </c>
       <c r="K507" s="65"/>
       <c r="L507" s="65">
@@ -43709,17 +43707,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="S507" s="65"/>
       <c r="T507" s="65"/>
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
       <c r="W507" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43764,10 +43762,10 @@
       </c>
       <c r="H508" s="65"/>
       <c r="I508" s="65" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
       <c r="J508" s="65" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
       <c r="K508" s="65"/>
       <c r="L508" s="65">
@@ -43786,17 +43784,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1912</v>
+        <v>1932</v>
       </c>
       <c r="S508" s="65"/>
       <c r="T508" s="65"/>
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
       <c r="W508" s="49" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>
@@ -44781,7 +44779,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -44795,7 +44793,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1981">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8137,6 +8137,10 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8149,9 +8153,17 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8159,12 +8171,28 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>欢乐庆典-冲金鸡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8176,13 +8204,25 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
   </si>
   <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2020万","抽奖券*30","太阳*10",</t>
   </si>
   <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"990万","抽奖券*20","太阳*2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","水滴*6",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8190,9 +8230,17 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
   </si>
   <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"200万","抽奖券*4","水滴*2",</t>
   </si>
   <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>欢乐庆典-冲金鸡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8208,58 +8256,201 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8483,7 +8674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8726,6 +8917,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11156,13 +11353,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN508"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
+      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42940,14 +43137,14 @@
         <v>1898</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1921</v>
+        <v>1899</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1919</v>
+        <v>524</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42988,14 +43185,14 @@
         <v>1</v>
       </c>
       <c r="G498" s="49" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H498" s="49"/>
       <c r="I498" s="49" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J498" s="49" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -43017,14 +43214,14 @@
         <v>1898</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1920</v>
+        <v>524</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43065,14 +43262,14 @@
         <v>1</v>
       </c>
       <c r="G499" s="49" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H499" s="49"/>
       <c r="I499" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43094,14 +43291,14 @@
         <v>1898</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1923</v>
+        <v>1905</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1920</v>
+        <v>524</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43146,10 +43343,10 @@
       </c>
       <c r="H500" s="49"/>
       <c r="I500" s="49" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43162,7 +43359,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="49" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="P500" s="49">
         <v>4800</v>
@@ -43171,14 +43368,14 @@
         <v>1898</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1919</v>
+        <v>524</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43219,14 +43416,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43248,14 +43445,14 @@
         <v>1898</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1925</v>
+        <v>1910</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1920</v>
+        <v>524</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43296,14 +43493,14 @@
         <v>1</v>
       </c>
       <c r="G502" s="49" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H502" s="49"/>
       <c r="I502" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43325,14 +43522,14 @@
         <v>1898</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1920</v>
+        <v>524</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43377,10 +43574,10 @@
       </c>
       <c r="H503" s="65"/>
       <c r="I503" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="J503" s="65" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
       <c r="K503" s="65"/>
       <c r="L503" s="65">
@@ -43399,17 +43596,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="65" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="S503" s="65"/>
       <c r="T503" s="65"/>
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
-      <c r="W503" s="49" t="s">
-        <v>1919</v>
+      <c r="W503" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43454,10 +43651,10 @@
       </c>
       <c r="H504" s="65"/>
       <c r="I504" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="J504" s="65" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="K504" s="65"/>
       <c r="L504" s="65">
@@ -43470,23 +43667,23 @@
         <v>0</v>
       </c>
       <c r="O504" s="65" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="P504" s="65">
         <v>19800</v>
       </c>
       <c r="Q504" s="65" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="S504" s="65"/>
       <c r="T504" s="65"/>
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
-      <c r="W504" s="49" t="s">
-        <v>1920</v>
+      <c r="W504" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43531,10 +43728,10 @@
       </c>
       <c r="H505" s="65"/>
       <c r="I505" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="J505" s="65" t="s">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="K505" s="65"/>
       <c r="L505" s="65">
@@ -43553,17 +43750,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="65" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="S505" s="65"/>
       <c r="T505" s="65"/>
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
-      <c r="W505" s="49" t="s">
-        <v>1920</v>
+      <c r="W505" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43608,10 +43805,10 @@
       </c>
       <c r="H506" s="65"/>
       <c r="I506" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="J506" s="65" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="K506" s="65"/>
       <c r="L506" s="65">
@@ -43630,17 +43827,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="65" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="S506" s="65"/>
       <c r="T506" s="65"/>
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
-      <c r="W506" s="49" t="s">
-        <v>1919</v>
+      <c r="W506" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43681,14 +43878,14 @@
         <v>1</v>
       </c>
       <c r="G507" s="65" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H507" s="65"/>
       <c r="I507" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="J507" s="65" t="s">
-        <v>1914</v>
+        <v>1925</v>
       </c>
       <c r="K507" s="65"/>
       <c r="L507" s="65">
@@ -43707,17 +43904,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="65" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="S507" s="65"/>
       <c r="T507" s="65"/>
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
-      <c r="W507" s="49" t="s">
-        <v>1920</v>
+      <c r="W507" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43762,10 +43959,10 @@
       </c>
       <c r="H508" s="65"/>
       <c r="I508" s="65" t="s">
-        <v>1915</v>
+        <v>1927</v>
       </c>
       <c r="J508" s="65" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="K508" s="65"/>
       <c r="L508" s="65">
@@ -43784,17 +43981,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="65" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1932</v>
+        <v>1912</v>
       </c>
       <c r="S508" s="65"/>
       <c r="T508" s="65"/>
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
-      <c r="W508" s="49" t="s">
-        <v>1920</v>
+      <c r="W508" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>
@@ -43818,6 +44015,792 @@
         <v>1</v>
       </c>
       <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>10425</v>
+      </c>
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L509" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P509" s="5">
+        <v>1800</v>
+      </c>
+      <c r="R509" s="10"/>
+      <c r="W509" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X509" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AD509" s="10" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>10426</v>
+      </c>
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="L510" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P510" s="5">
+        <v>4800</v>
+      </c>
+      <c r="R510" s="10"/>
+      <c r="W510" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X510" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>10427</v>
+      </c>
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L511" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P511" s="5">
+        <v>9800</v>
+      </c>
+      <c r="R511" s="10"/>
+      <c r="W511" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X511" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AD511" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="78">
+        <v>511</v>
+      </c>
+      <c r="B512" s="78">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="78">
+        <v>1</v>
+      </c>
+      <c r="G512" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I512" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J512" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L512" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="78">
+        <v>0</v>
+      </c>
+      <c r="N512" s="78">
+        <v>0</v>
+      </c>
+      <c r="O512" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P512" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W512" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X512" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="78">
+        <v>512</v>
+      </c>
+      <c r="B513" s="78">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="78">
+        <v>1</v>
+      </c>
+      <c r="G513" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I513" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J513" s="78" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L513" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="78">
+        <v>0</v>
+      </c>
+      <c r="N513" s="78">
+        <v>0</v>
+      </c>
+      <c r="O513" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P513" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R513" s="79" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W513" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X513" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="78">
+        <v>513</v>
+      </c>
+      <c r="B514" s="78">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="78">
+        <v>1</v>
+      </c>
+      <c r="G514" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I514" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J514" s="78" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L514" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="78">
+        <v>0</v>
+      </c>
+      <c r="N514" s="78">
+        <v>0</v>
+      </c>
+      <c r="O514" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P514" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="78" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R514" s="79" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W514" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X514" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z514" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="78">
+        <v>514</v>
+      </c>
+      <c r="B515" s="78">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="78">
+        <v>1</v>
+      </c>
+      <c r="G515" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J515" s="78" t="s">
+        <v>1955</v>
+      </c>
+      <c r="L515" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="78">
+        <v>0</v>
+      </c>
+      <c r="N515" s="78">
+        <v>0</v>
+      </c>
+      <c r="O515" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P515" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="78" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R515" s="79" t="s">
+        <v>1957</v>
+      </c>
+      <c r="W515" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X515" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="78">
+        <v>515</v>
+      </c>
+      <c r="B516" s="78">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="78">
+        <v>1</v>
+      </c>
+      <c r="G516" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I516" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J516" s="78" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L516" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="78">
+        <v>0</v>
+      </c>
+      <c r="N516" s="78">
+        <v>0</v>
+      </c>
+      <c r="O516" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P516" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R516" s="79" t="s">
+        <v>1961</v>
+      </c>
+      <c r="W516" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X516" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="78">
+        <v>516</v>
+      </c>
+      <c r="B517" s="78">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="78">
+        <v>1</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I517" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J517" s="78" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L517" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="78">
+        <v>0</v>
+      </c>
+      <c r="N517" s="78">
+        <v>0</v>
+      </c>
+      <c r="O517" s="78" t="s">
+        <v>1963</v>
+      </c>
+      <c r="P517" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R517" s="79" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W517" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X517" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="78">
+        <v>517</v>
+      </c>
+      <c r="B518" s="78">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="78">
+        <v>1</v>
+      </c>
+      <c r="G518" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I518" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J518" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L518" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="78">
+        <v>0</v>
+      </c>
+      <c r="N518" s="78">
+        <v>0</v>
+      </c>
+      <c r="O518" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P518" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="78" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R518" s="79" t="s">
+        <v>1967</v>
+      </c>
+      <c r="W518" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X518" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z518" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="78">
+        <v>518</v>
+      </c>
+      <c r="B519" s="78">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="78">
+        <v>1</v>
+      </c>
+      <c r="G519" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I519" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J519" s="78" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L519" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="78">
+        <v>0</v>
+      </c>
+      <c r="N519" s="78">
+        <v>0</v>
+      </c>
+      <c r="O519" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P519" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="78" t="s">
+        <v>1969</v>
+      </c>
+      <c r="R519" s="79" t="s">
+        <v>1970</v>
+      </c>
+      <c r="W519" s="78" t="s">
+        <v>1971</v>
+      </c>
+      <c r="X519" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z519" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43831,10 +44814,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44779,7 +45762,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1917</v>
+        <v>1929</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -44793,12 +45776,40 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1918</v>
+        <v>1930</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="81">
+        <v>68</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C69" s="81">
+        <v>1</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="81">
+        <v>69</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C70" s="81">
+        <v>1</v>
+      </c>
+      <c r="D70" s="81">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9387,8 +9387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9533,7 +9533,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9615,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9693,7 +9697,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9773,7 +9779,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9853,7 +9861,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9933,7 +9943,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -10013,7 +10025,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -10093,7 +10107,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -10172,6 +10188,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -10252,7 +10271,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -11254,7 +11275,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11355,11 +11378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15212,7 +15235,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -15271,7 +15294,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15330,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15389,7 +15412,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15448,7 +15471,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16796,7 +16819,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18830,7 +18853,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18889,7 +18912,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -28192,7 +28215,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37627,7 +37650,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8365,10 +8365,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8377,10 +8373,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_bag</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8389,10 +8381,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8401,10 +8389,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8450,6 +8434,22 @@
   </si>
   <si>
     <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9387,7 +9387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -11378,11 +11378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="J526" sqref="J526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44510,7 +44510,7 @@
         <v>1958</v>
       </c>
       <c r="J516" s="78" t="s">
-        <v>1959</v>
+        <v>1977</v>
       </c>
       <c r="L516" s="78">
         <v>-33</v>
@@ -44528,10 +44528,10 @@
         <v>49800</v>
       </c>
       <c r="Q516" s="78" t="s">
+        <v>1959</v>
+      </c>
+      <c r="R516" s="79" t="s">
         <v>1960</v>
-      </c>
-      <c r="R516" s="79" t="s">
-        <v>1961</v>
       </c>
       <c r="W516" s="78" t="s">
         <v>1949</v>
@@ -44578,7 +44578,7 @@
         <v>1958</v>
       </c>
       <c r="J517" s="78" t="s">
-        <v>1962</v>
+        <v>1978</v>
       </c>
       <c r="L517" s="78">
         <v>-33</v>
@@ -44590,16 +44590,16 @@
         <v>0</v>
       </c>
       <c r="O517" s="78" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="P517" s="78">
         <v>19800</v>
       </c>
       <c r="Q517" s="78" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R517" s="79" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="W517" s="78" t="s">
         <v>1949</v>
@@ -44646,7 +44646,7 @@
         <v>1958</v>
       </c>
       <c r="J518" s="78" t="s">
-        <v>1965</v>
+        <v>1979</v>
       </c>
       <c r="L518" s="78">
         <v>-33</v>
@@ -44664,10 +44664,10 @@
         <v>9800</v>
       </c>
       <c r="Q518" s="78" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="R518" s="79" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="W518" s="78" t="s">
         <v>1949</v>
@@ -44714,7 +44714,7 @@
         <v>1958</v>
       </c>
       <c r="J519" s="78" t="s">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="L519" s="78">
         <v>-33</v>
@@ -44732,13 +44732,13 @@
         <v>4800</v>
       </c>
       <c r="Q519" s="78" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="R519" s="79" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="W519" s="78" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="X519" s="78">
         <v>99999999</v>
@@ -44776,13 +44776,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44800,16 +44800,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45813,7 +45813,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="C69" s="81">
         <v>1</v>
@@ -45827,7 +45827,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="C70" s="81">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1983">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8137,10 +8137,6 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8153,17 +8149,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8171,285 +8159,303 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
     <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11379,10 +11385,10 @@
   <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="T482" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J526" sqref="J526"/>
+      <selection pane="bottomRight" activeCell="W505" sqref="W505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43160,14 +43166,14 @@
         <v>1898</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1899</v>
+        <v>1969</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>524</v>
+        <v>1980</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -43208,14 +43214,14 @@
         <v>1</v>
       </c>
       <c r="G498" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H498" s="49"/>
       <c r="I498" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J498" s="49" t="s">
         <v>1901</v>
-      </c>
-      <c r="J498" s="49" t="s">
-        <v>1902</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -43237,14 +43243,14 @@
         <v>1898</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1903</v>
+        <v>1970</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>524</v>
+        <v>1980</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43285,14 +43291,14 @@
         <v>1</v>
       </c>
       <c r="G499" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H499" s="49"/>
       <c r="I499" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43314,14 +43320,14 @@
         <v>1898</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1905</v>
+        <v>1971</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>524</v>
+        <v>1980</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43366,10 +43372,10 @@
       </c>
       <c r="H500" s="49"/>
       <c r="I500" s="49" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43382,7 +43388,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="49" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P500" s="49">
         <v>4800</v>
@@ -43391,14 +43397,14 @@
         <v>1898</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1908</v>
+        <v>1972</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>524</v>
+        <v>1980</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43439,14 +43445,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43468,14 +43474,14 @@
         <v>1898</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1910</v>
+        <v>1973</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>524</v>
+        <v>1980</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43516,14 +43522,14 @@
         <v>1</v>
       </c>
       <c r="G502" s="49" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H502" s="49"/>
       <c r="I502" s="49" t="s">
         <v>1895</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43545,14 +43551,14 @@
         <v>1898</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1913</v>
+        <v>1974</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>524</v>
+        <v>1981</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43597,10 +43603,10 @@
       </c>
       <c r="H503" s="65"/>
       <c r="I503" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J503" s="65" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="K503" s="65"/>
       <c r="L503" s="65">
@@ -43619,17 +43625,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1917</v>
+        <v>1975</v>
       </c>
       <c r="S503" s="65"/>
       <c r="T503" s="65"/>
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
-      <c r="W503" s="65" t="s">
-        <v>524</v>
+      <c r="W503" s="49" t="s">
+        <v>1980</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43674,10 +43680,10 @@
       </c>
       <c r="H504" s="65"/>
       <c r="I504" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J504" s="65" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="K504" s="65"/>
       <c r="L504" s="65">
@@ -43690,23 +43696,23 @@
         <v>0</v>
       </c>
       <c r="O504" s="65" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P504" s="65">
         <v>19800</v>
       </c>
       <c r="Q504" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1919</v>
+        <v>1970</v>
       </c>
       <c r="S504" s="65"/>
       <c r="T504" s="65"/>
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
-      <c r="W504" s="65" t="s">
-        <v>524</v>
+      <c r="W504" s="49" t="s">
+        <v>1980</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43751,10 +43757,10 @@
       </c>
       <c r="H505" s="65"/>
       <c r="I505" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J505" s="65" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="K505" s="65"/>
       <c r="L505" s="65">
@@ -43773,17 +43779,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="65" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1921</v>
+        <v>1976</v>
       </c>
       <c r="S505" s="65"/>
       <c r="T505" s="65"/>
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
-      <c r="W505" s="65" t="s">
-        <v>524</v>
+      <c r="W505" s="49" t="s">
+        <v>1980</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43828,10 +43834,10 @@
       </c>
       <c r="H506" s="65"/>
       <c r="I506" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J506" s="65" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="K506" s="65"/>
       <c r="L506" s="65">
@@ -43850,17 +43856,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1924</v>
+        <v>1977</v>
       </c>
       <c r="S506" s="65"/>
       <c r="T506" s="65"/>
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
-      <c r="W506" s="65" t="s">
-        <v>524</v>
+      <c r="W506" s="49" t="s">
+        <v>1980</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43901,14 +43907,14 @@
         <v>1</v>
       </c>
       <c r="G507" s="65" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H507" s="65"/>
       <c r="I507" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J507" s="65" t="s">
         <v>1914</v>
-      </c>
-      <c r="J507" s="65" t="s">
-        <v>1925</v>
       </c>
       <c r="K507" s="65"/>
       <c r="L507" s="65">
@@ -43927,17 +43933,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1926</v>
+        <v>1978</v>
       </c>
       <c r="S507" s="65"/>
       <c r="T507" s="65"/>
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
-      <c r="W507" s="65" t="s">
-        <v>524</v>
+      <c r="W507" s="49" t="s">
+        <v>1982</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43982,10 +43988,10 @@
       </c>
       <c r="H508" s="65"/>
       <c r="I508" s="65" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
       <c r="J508" s="65" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
       <c r="K508" s="65"/>
       <c r="L508" s="65">
@@ -44004,17 +44010,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="65" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1912</v>
+        <v>1979</v>
       </c>
       <c r="S508" s="65"/>
       <c r="T508" s="65"/>
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
-      <c r="W508" s="65" t="s">
-        <v>524</v>
+      <c r="W508" s="49" t="s">
+        <v>1980</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>
@@ -44052,10 +44058,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="J509" s="5" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="L509" s="5">
         <v>-4</v>
@@ -44089,10 +44095,10 @@
         <v>77</v>
       </c>
       <c r="AC509" s="5" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
       <c r="AD509" s="10" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
       <c r="AH509" s="5">
         <v>1</v>
@@ -44112,10 +44118,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1935</v>
+        <v>1923</v>
       </c>
       <c r="J510" s="5" t="s">
-        <v>1936</v>
+        <v>1924</v>
       </c>
       <c r="L510" s="5">
         <v>-4</v>
@@ -44149,10 +44155,10 @@
         <v>77</v>
       </c>
       <c r="AC510" s="5" t="s">
-        <v>1937</v>
+        <v>1925</v>
       </c>
       <c r="AD510" s="10" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
       <c r="AH510" s="5">
         <v>1</v>
@@ -44172,10 +44178,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="J511" s="5" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="L511" s="5">
         <v>-4</v>
@@ -44209,10 +44215,10 @@
         <v>77</v>
       </c>
       <c r="AC511" s="5" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="AD511" s="10" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="AH511" s="5">
         <v>1</v>
@@ -44232,13 +44238,13 @@
         <v>1</v>
       </c>
       <c r="G512" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I512" s="78" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J512" s="78" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="L512" s="78">
         <v>-33</v>
@@ -44250,19 +44256,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P512" s="78">
         <v>49800</v>
       </c>
       <c r="Q512" s="78" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="R512" s="79" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="W512" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X512" s="78">
         <v>99999999</v>
@@ -44300,13 +44306,13 @@
         <v>1</v>
       </c>
       <c r="G513" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I513" s="78" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J513" s="78" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="L513" s="78">
         <v>-33</v>
@@ -44318,19 +44324,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P513" s="78">
         <v>19800</v>
       </c>
       <c r="Q513" s="78" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="R513" s="79" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="W513" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X513" s="78">
         <v>99999999</v>
@@ -44368,13 +44374,13 @@
         <v>1</v>
       </c>
       <c r="G514" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I514" s="78" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J514" s="78" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="L514" s="78">
         <v>-33</v>
@@ -44386,19 +44392,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P514" s="78">
         <v>9800</v>
       </c>
       <c r="Q514" s="78" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="R514" s="79" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="W514" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X514" s="78">
         <v>99999999</v>
@@ -44436,13 +44442,13 @@
         <v>1</v>
       </c>
       <c r="G515" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J515" s="78" t="s">
         <v>1943</v>
-      </c>
-      <c r="I515" s="78" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J515" s="78" t="s">
-        <v>1955</v>
       </c>
       <c r="L515" s="78">
         <v>-33</v>
@@ -44454,19 +44460,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P515" s="78">
         <v>4800</v>
       </c>
       <c r="Q515" s="78" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="R515" s="79" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="W515" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X515" s="78">
         <v>99999999</v>
@@ -44504,13 +44510,13 @@
         <v>1</v>
       </c>
       <c r="G516" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I516" s="78" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J516" s="78" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="L516" s="78">
         <v>-33</v>
@@ -44522,19 +44528,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P516" s="78">
         <v>49800</v>
       </c>
       <c r="Q516" s="78" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="R516" s="79" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="W516" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X516" s="78">
         <v>99999999</v>
@@ -44572,13 +44578,13 @@
         <v>1</v>
       </c>
       <c r="G517" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I517" s="78" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J517" s="78" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="L517" s="78">
         <v>-33</v>
@@ -44590,19 +44596,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="78" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="P517" s="78">
         <v>19800</v>
       </c>
       <c r="Q517" s="78" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="R517" s="79" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
       <c r="W517" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X517" s="78">
         <v>99999999</v>
@@ -44640,13 +44646,13 @@
         <v>1</v>
       </c>
       <c r="G518" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I518" s="78" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J518" s="78" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="L518" s="78">
         <v>-33</v>
@@ -44658,19 +44664,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P518" s="78">
         <v>9800</v>
       </c>
       <c r="Q518" s="78" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
       <c r="R518" s="79" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="W518" s="78" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X518" s="78">
         <v>99999999</v>
@@ -44708,13 +44714,13 @@
         <v>1</v>
       </c>
       <c r="G519" s="78" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I519" s="78" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J519" s="78" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
       <c r="L519" s="78">
         <v>-33</v>
@@ -44726,19 +44732,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="78" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P519" s="78">
         <v>4800</v>
       </c>
       <c r="Q519" s="78" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
       <c r="R519" s="79" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="W519" s="78" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="X519" s="78">
         <v>99999999</v>
@@ -44776,13 +44782,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44800,16 +44806,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45785,7 +45791,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -45799,7 +45805,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>
@@ -45813,7 +45819,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="C69" s="81">
         <v>1</v>
@@ -45827,7 +45833,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="C70" s="81">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2048">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8594,18 +8594,6 @@
     <t>49800000,800000,1,</t>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>51800000,50,15,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8653,6 +8641,71 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8735,7 +8788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8786,19 +8839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8851,7 +8892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8999,40 +9040,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -9041,16 +9070,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11511,13 +11540,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O501" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R525" sqref="R525"/>
+      <selection pane="bottomRight" activeCell="G526" sqref="G526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15359,298 +15388,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <v>85</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="51">
         <v>2</v>
       </c>
-      <c r="F67" s="53">
-        <v>1</v>
-      </c>
-      <c r="G67" s="53" t="s">
+      <c r="F67" s="51">
+        <v>1</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="51" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>-4</v>
       </c>
-      <c r="M67" s="53">
-        <v>0</v>
-      </c>
-      <c r="N67" s="53">
-        <v>0</v>
-      </c>
-      <c r="O67" s="53" t="s">
+      <c r="M67" s="51">
+        <v>0</v>
+      </c>
+      <c r="N67" s="51">
+        <v>0</v>
+      </c>
+      <c r="O67" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="51">
         <v>1500</v>
       </c>
-      <c r="Q67" s="53" t="s">
+      <c r="Q67" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="53" t="s">
+      <c r="R67" s="51" t="s">
         <v>1362</v>
       </c>
-      <c r="W67" s="53" t="s">
+      <c r="W67" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="X67" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="53">
+      <c r="Y67" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="AH67" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="51">
         <v>86</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="51">
         <v>3</v>
       </c>
-      <c r="F68" s="53">
-        <v>1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="51" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="51">
         <v>-4</v>
       </c>
-      <c r="M68" s="53">
-        <v>0</v>
-      </c>
-      <c r="N68" s="53">
-        <v>0</v>
-      </c>
-      <c r="O68" s="53" t="s">
+      <c r="M68" s="51">
+        <v>0</v>
+      </c>
+      <c r="N68" s="51">
+        <v>0</v>
+      </c>
+      <c r="O68" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="51">
         <v>3000</v>
       </c>
-      <c r="Q68" s="53" t="s">
+      <c r="Q68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="53" t="s">
+      <c r="R68" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="W68" s="53" t="s">
+      <c r="W68" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="54" t="s">
+      <c r="X68" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="53">
+      <c r="Y68" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="AH68" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="51">
         <v>87</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="51">
         <v>4</v>
       </c>
-      <c r="F69" s="53">
-        <v>1</v>
-      </c>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="51">
+        <v>1</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="51" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="51">
         <v>-4</v>
       </c>
-      <c r="M69" s="53">
-        <v>0</v>
-      </c>
-      <c r="N69" s="53">
-        <v>0</v>
-      </c>
-      <c r="O69" s="53" t="s">
+      <c r="M69" s="51">
+        <v>0</v>
+      </c>
+      <c r="N69" s="51">
+        <v>0</v>
+      </c>
+      <c r="O69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="51">
         <v>5000</v>
       </c>
-      <c r="Q69" s="53" t="s">
+      <c r="Q69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="53" t="s">
+      <c r="R69" s="51" t="s">
         <v>1363</v>
       </c>
-      <c r="W69" s="53" t="s">
+      <c r="W69" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="53">
+      <c r="Y69" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="AH69" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="51">
         <v>88</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="51">
         <v>5</v>
       </c>
-      <c r="F70" s="53">
-        <v>1</v>
-      </c>
-      <c r="G70" s="53" t="s">
+      <c r="F70" s="51">
+        <v>1</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="51" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="51">
         <v>-4</v>
       </c>
-      <c r="M70" s="53">
-        <v>0</v>
-      </c>
-      <c r="N70" s="53">
-        <v>0</v>
-      </c>
-      <c r="O70" s="53" t="s">
+      <c r="M70" s="51">
+        <v>0</v>
+      </c>
+      <c r="N70" s="51">
+        <v>0</v>
+      </c>
+      <c r="O70" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="51">
         <v>9800</v>
       </c>
-      <c r="Q70" s="53" t="s">
+      <c r="Q70" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="53" t="s">
+      <c r="R70" s="51" t="s">
         <v>1364</v>
       </c>
-      <c r="W70" s="53" t="s">
+      <c r="W70" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="54" t="s">
+      <c r="X70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="53">
+      <c r="Y70" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="AH70" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="51">
         <v>89</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="51">
         <v>6</v>
       </c>
-      <c r="F71" s="53">
-        <v>1</v>
-      </c>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="51">
+        <v>1</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="51" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="51">
         <v>-4</v>
       </c>
-      <c r="M71" s="53">
-        <v>0</v>
-      </c>
-      <c r="N71" s="53">
-        <v>0</v>
-      </c>
-      <c r="O71" s="53" t="s">
+      <c r="M71" s="51">
+        <v>0</v>
+      </c>
+      <c r="N71" s="51">
+        <v>0</v>
+      </c>
+      <c r="O71" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="51">
         <v>49800</v>
       </c>
-      <c r="Q71" s="53" t="s">
+      <c r="Q71" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="53" t="s">
+      <c r="R71" s="51" t="s">
         <v>1365</v>
       </c>
-      <c r="W71" s="53" t="s">
+      <c r="W71" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="54" t="s">
+      <c r="X71" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="53">
+      <c r="Y71" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="53">
+      <c r="AH71" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="51">
         <v>1</v>
       </c>
     </row>
@@ -16946,56 +16975,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53">
+    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="51">
         <v>109</v>
       </c>
-      <c r="F94" s="53">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53" t="s">
+      <c r="F94" s="51">
+        <v>1</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="51">
         <v>-4</v>
       </c>
-      <c r="M94" s="53">
-        <v>0</v>
-      </c>
-      <c r="N94" s="53">
-        <v>0</v>
-      </c>
-      <c r="O94" s="53" t="s">
+      <c r="M94" s="51">
+        <v>0</v>
+      </c>
+      <c r="N94" s="51">
+        <v>0</v>
+      </c>
+      <c r="O94" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="53">
+      <c r="P94" s="51">
         <v>100000</v>
       </c>
-      <c r="Q94" s="53" t="s">
+      <c r="Q94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="53" t="s">
+      <c r="R94" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="53" t="s">
+      <c r="W94" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="54" t="s">
+      <c r="X94" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="53">
+      <c r="Y94" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="53">
+      <c r="AH94" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="51">
         <v>1</v>
       </c>
     </row>
@@ -18977,121 +19006,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>127</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="51">
         <v>10044</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="51">
         <v>108</v>
       </c>
-      <c r="F128" s="53">
-        <v>1</v>
-      </c>
-      <c r="G128" s="53" t="s">
+      <c r="F128" s="51">
+        <v>1</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H128" s="51" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="53">
+      <c r="L128" s="51">
         <v>-10</v>
       </c>
-      <c r="M128" s="53">
-        <v>0</v>
-      </c>
-      <c r="N128" s="53">
-        <v>0</v>
-      </c>
-      <c r="O128" s="53" t="s">
+      <c r="M128" s="51">
+        <v>0</v>
+      </c>
+      <c r="N128" s="51">
+        <v>0</v>
+      </c>
+      <c r="O128" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="53">
+      <c r="P128" s="51">
         <v>99800</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="53" t="s">
+      <c r="R128" s="51" t="s">
         <v>1367</v>
       </c>
-      <c r="W128" s="53" t="s">
+      <c r="W128" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="54" t="s">
+      <c r="X128" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="53">
+      <c r="Y128" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="AH128" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>128</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="51">
         <v>10045</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="51">
         <v>110</v>
       </c>
-      <c r="F129" s="53">
-        <v>1</v>
-      </c>
-      <c r="G129" s="53" t="s">
+      <c r="F129" s="51">
+        <v>1</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>1126</v>
       </c>
-      <c r="H129" s="53" t="s">
+      <c r="H129" s="51" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="53">
+      <c r="L129" s="51">
         <v>-11</v>
       </c>
-      <c r="M129" s="53">
-        <v>0</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0</v>
-      </c>
-      <c r="O129" s="53" t="s">
+      <c r="M129" s="51">
+        <v>0</v>
+      </c>
+      <c r="N129" s="51">
+        <v>0</v>
+      </c>
+      <c r="O129" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="53">
+      <c r="P129" s="51">
         <v>249800</v>
       </c>
-      <c r="Q129" s="53" t="s">
+      <c r="Q129" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="53" t="s">
+      <c r="R129" s="51" t="s">
         <v>1366</v>
       </c>
-      <c r="W129" s="53" t="s">
+      <c r="W129" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="54" t="s">
+      <c r="X129" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="53">
+      <c r="Y129" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="53">
+      <c r="AH129" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="51">
         <v>1</v>
       </c>
     </row>
@@ -21699,7 +21728,7 @@
       <c r="Q171" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R171" s="52" t="s">
+      <c r="R171" s="50" t="s">
         <v>1722</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21767,7 +21796,7 @@
       <c r="Q172" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R172" s="52" t="s">
+      <c r="R172" s="50" t="s">
         <v>1725</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21835,7 +21864,7 @@
       <c r="Q173" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R173" s="52" t="s">
+      <c r="R173" s="50" t="s">
         <v>1728</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21903,7 +21932,7 @@
       <c r="Q174" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R174" s="52" t="s">
+      <c r="R174" s="50" t="s">
         <v>1731</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21971,7 +22000,7 @@
       <c r="Q175" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R175" s="52" t="s">
+      <c r="R175" s="50" t="s">
         <v>1735</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22039,7 +22068,7 @@
       <c r="Q176" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R176" s="52" t="s">
+      <c r="R176" s="50" t="s">
         <v>1738</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22107,7 +22136,7 @@
       <c r="Q177" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R177" s="52" t="s">
+      <c r="R177" s="50" t="s">
         <v>1741</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22175,7 +22204,7 @@
       <c r="Q178" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R178" s="52" t="s">
+      <c r="R178" s="50" t="s">
         <v>1744</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22243,7 +22272,7 @@
       <c r="Q179" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R179" s="52" t="s">
+      <c r="R179" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22311,7 +22340,7 @@
       <c r="Q180" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R180" s="52" t="s">
+      <c r="R180" s="50" t="s">
         <v>1744</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22379,7 +22408,7 @@
       <c r="Q181" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R181" s="52" t="s">
+      <c r="R181" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22447,7 +22476,7 @@
       <c r="Q182" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R182" s="52" t="s">
+      <c r="R182" s="50" t="s">
         <v>1752</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22515,7 +22544,7 @@
       <c r="Q183" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R183" s="52" t="s">
+      <c r="R183" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22583,7 +22612,7 @@
       <c r="Q184" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R184" s="52" t="s">
+      <c r="R184" s="50" t="s">
         <v>1752</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22651,7 +22680,7 @@
       <c r="Q185" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R185" s="52" t="s">
+      <c r="R185" s="50" t="s">
         <v>1757</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28339,62 +28368,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="53">
+    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="51">
         <v>272</v>
       </c>
-      <c r="B273" s="53">
+      <c r="B273" s="51">
         <v>10189</v>
       </c>
-      <c r="D273" s="56">
+      <c r="D273" s="54">
         <v>111</v>
       </c>
-      <c r="F273" s="53">
-        <v>1</v>
-      </c>
-      <c r="G273" s="53" t="s">
+      <c r="F273" s="51">
+        <v>1</v>
+      </c>
+      <c r="G273" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="57" t="s">
+      <c r="H273" s="55" t="s">
         <v>1865</v>
       </c>
-      <c r="L273" s="53">
+      <c r="L273" s="51">
         <v>-10</v>
       </c>
-      <c r="M273" s="53">
-        <v>0</v>
-      </c>
-      <c r="N273" s="53">
-        <v>0</v>
-      </c>
-      <c r="O273" s="53" t="s">
+      <c r="M273" s="51">
+        <v>0</v>
+      </c>
+      <c r="N273" s="51">
+        <v>0</v>
+      </c>
+      <c r="O273" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="53">
+      <c r="P273" s="51">
         <v>19800</v>
       </c>
-      <c r="Q273" s="53" t="s">
+      <c r="Q273" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="53" t="s">
+      <c r="R273" s="51" t="s">
         <v>1368</v>
       </c>
-      <c r="W273" s="53" t="s">
+      <c r="W273" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="54" t="s">
+      <c r="X273" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="53">
+      <c r="Y273" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="53">
+      <c r="AH273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31503,7 +31532,7 @@
       <c r="Q323" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R323" s="52" t="s">
+      <c r="R323" s="50" t="s">
         <v>1761</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31568,7 +31597,7 @@
       <c r="Q324" s="43" t="s">
         <v>1765</v>
       </c>
-      <c r="R324" s="52" t="s">
+      <c r="R324" s="50" t="s">
         <v>1766</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31633,7 +31662,7 @@
       <c r="Q325" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R325" s="52" t="s">
+      <c r="R325" s="50" t="s">
         <v>1769</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31825,7 +31854,7 @@
       <c r="Q328" s="43" t="s">
         <v>1642</v>
       </c>
-      <c r="R328" s="52" t="s">
+      <c r="R328" s="50" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -31908,7 +31937,7 @@
       <c r="Q329" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R329" s="52" t="s">
+      <c r="R329" s="50" t="s">
         <v>1646</v>
       </c>
       <c r="S329" s="43"/>
@@ -31991,7 +32020,7 @@
       <c r="Q330" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R330" s="52" t="s">
+      <c r="R330" s="50" t="s">
         <v>1649</v>
       </c>
       <c r="S330" s="43"/>
@@ -32074,7 +32103,7 @@
       <c r="Q331" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R331" s="52" t="s">
+      <c r="R331" s="50" t="s">
         <v>1651</v>
       </c>
       <c r="S331" s="43"/>
@@ -32157,7 +32186,7 @@
       <c r="Q332" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R332" s="52" t="s">
+      <c r="R332" s="50" t="s">
         <v>1653</v>
       </c>
       <c r="S332" s="43"/>
@@ -32240,7 +32269,7 @@
       <c r="Q333" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R333" s="52" t="s">
+      <c r="R333" s="50" t="s">
         <v>1654</v>
       </c>
       <c r="S333" s="43"/>
@@ -32323,7 +32352,7 @@
       <c r="Q334" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R334" s="52" t="s">
+      <c r="R334" s="50" t="s">
         <v>1657</v>
       </c>
       <c r="S334" s="43"/>
@@ -32406,7 +32435,7 @@
       <c r="Q335" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R335" s="52" t="s">
+      <c r="R335" s="50" t="s">
         <v>1660</v>
       </c>
       <c r="S335" s="43"/>
@@ -32489,7 +32518,7 @@
       <c r="Q336" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R336" s="52" t="s">
+      <c r="R336" s="50" t="s">
         <v>1662</v>
       </c>
       <c r="S336" s="43"/>
@@ -32572,7 +32601,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="52" t="s">
+      <c r="R337" s="50" t="s">
         <v>1665</v>
       </c>
       <c r="S337" s="43"/>
@@ -36150,7 +36179,7 @@
       <c r="G389" s="19" t="s">
         <v>1278</v>
       </c>
-      <c r="H389" s="51"/>
+      <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
         <v>1279</v>
       </c>
@@ -36219,7 +36248,7 @@
       <c r="G390" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="H390" s="51"/>
+      <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1109</v>
       </c>
@@ -36288,7 +36317,7 @@
       <c r="G391" s="19" t="s">
         <v>1286</v>
       </c>
-      <c r="H391" s="51"/>
+      <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
         <v>1279</v>
       </c>
@@ -37768,62 +37797,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="53">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="53">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="53">
-        <v>1</v>
-      </c>
-      <c r="F414" s="53">
-        <v>1</v>
-      </c>
-      <c r="G414" s="53" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1375</v>
       </c>
-      <c r="H414" s="53" t="s">
+      <c r="H414" s="51" t="s">
         <v>1793</v>
       </c>
-      <c r="L414" s="53">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="53">
-        <v>0</v>
-      </c>
-      <c r="N414" s="53">
-        <v>0</v>
-      </c>
-      <c r="O414" s="53" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="53">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="53" t="s">
+      <c r="Q414" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="58" t="s">
+      <c r="R414" s="56" t="s">
         <v>1376</v>
       </c>
-      <c r="W414" s="53" t="s">
+      <c r="W414" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="54" t="s">
+      <c r="X414" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="53">
+      <c r="Y414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="53">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -38235,827 +38264,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="63">
+    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="59">
         <v>420</v>
       </c>
-      <c r="B421" s="63">
+      <c r="B421" s="59">
         <v>10337</v>
       </c>
-      <c r="F421" s="63">
-        <v>1</v>
-      </c>
-      <c r="G421" s="63" t="s">
+      <c r="F421" s="59">
+        <v>1</v>
+      </c>
+      <c r="G421" s="59" t="s">
         <v>1421</v>
       </c>
-      <c r="J421" s="63" t="s">
+      <c r="J421" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="L421" s="63">
+      <c r="L421" s="59">
         <v>-31</v>
       </c>
-      <c r="M421" s="63">
-        <v>0</v>
-      </c>
-      <c r="N421" s="63">
-        <v>0</v>
-      </c>
-      <c r="O421" s="63" t="s">
+      <c r="M421" s="59">
+        <v>0</v>
+      </c>
+      <c r="N421" s="59">
+        <v>0</v>
+      </c>
+      <c r="O421" s="59" t="s">
         <v>1423</v>
       </c>
-      <c r="P421" s="63">
+      <c r="P421" s="59">
         <v>1000</v>
       </c>
-      <c r="Q421" s="63" t="s">
+      <c r="Q421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="R421" s="64" t="s">
+      <c r="R421" s="60" t="s">
         <v>1425</v>
       </c>
-      <c r="W421" s="63" t="s">
+      <c r="W421" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X421" s="63">
+      <c r="X421" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="63">
+      <c r="Y421" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="63">
+      <c r="Z421" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="63" t="s">
+      <c r="AB421" s="59" t="s">
         <v>1427</v>
       </c>
-      <c r="AC421" s="63" t="s">
+      <c r="AC421" s="59" t="s">
         <v>1428</v>
       </c>
-      <c r="AH421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="63">
+      <c r="AH421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="59">
         <v>421</v>
       </c>
-      <c r="B422" s="63">
+      <c r="B422" s="59">
         <v>10338</v>
       </c>
-      <c r="F422" s="63">
-        <v>1</v>
-      </c>
-      <c r="G422" s="63" t="s">
+      <c r="F422" s="59">
+        <v>1</v>
+      </c>
+      <c r="G422" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="I422" s="63" t="s">
+      <c r="I422" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="J422" s="63" t="s">
+      <c r="J422" s="59" t="s">
         <v>1449</v>
       </c>
-      <c r="L422" s="63">
+      <c r="L422" s="59">
         <v>-31</v>
       </c>
-      <c r="M422" s="63">
-        <v>0</v>
-      </c>
-      <c r="N422" s="63">
-        <v>0</v>
-      </c>
-      <c r="O422" s="63" t="s">
+      <c r="M422" s="59">
+        <v>0</v>
+      </c>
+      <c r="N422" s="59">
+        <v>0</v>
+      </c>
+      <c r="O422" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="63">
+      <c r="P422" s="59">
         <v>2000</v>
       </c>
-      <c r="Q422" s="63" t="s">
+      <c r="Q422" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="R422" s="64" t="s">
+      <c r="R422" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="W422" s="63" t="s">
+      <c r="W422" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="63">
+      <c r="X422" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="63">
+      <c r="Y422" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="63">
+      <c r="Z422" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="63">
+      <c r="AA422" s="59">
         <v>51</v>
       </c>
-      <c r="AH422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="63">
+      <c r="AH422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="59">
         <v>422</v>
       </c>
-      <c r="B423" s="63">
+      <c r="B423" s="59">
         <v>10339</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="59">
+        <v>1</v>
+      </c>
+      <c r="G423" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="I423" s="63" t="s">
+      <c r="I423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="J423" s="63" t="s">
+      <c r="J423" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="L423" s="63">
+      <c r="L423" s="59">
         <v>-31</v>
       </c>
-      <c r="M423" s="63">
-        <v>0</v>
-      </c>
-      <c r="N423" s="63">
-        <v>0</v>
-      </c>
-      <c r="O423" s="63" t="s">
+      <c r="M423" s="59">
+        <v>0</v>
+      </c>
+      <c r="N423" s="59">
+        <v>0</v>
+      </c>
+      <c r="O423" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="63">
+      <c r="P423" s="59">
         <v>5800</v>
       </c>
-      <c r="Q423" s="63" t="s">
+      <c r="Q423" s="59" t="s">
         <v>1453</v>
       </c>
-      <c r="R423" s="64" t="s">
+      <c r="R423" s="60" t="s">
         <v>1454</v>
       </c>
-      <c r="W423" s="63" t="s">
+      <c r="W423" s="59" t="s">
         <v>1455</v>
       </c>
-      <c r="X423" s="63">
+      <c r="X423" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="63">
+      <c r="Y423" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="63">
+      <c r="Z423" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="63">
+      <c r="AA423" s="59">
         <v>51</v>
       </c>
-      <c r="AH423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="63">
+      <c r="AH423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="59">
         <v>423</v>
       </c>
-      <c r="B424" s="63">
+      <c r="B424" s="59">
         <v>10340</v>
       </c>
-      <c r="F424" s="63">
-        <v>1</v>
-      </c>
-      <c r="G424" s="63" t="s">
+      <c r="F424" s="59">
+        <v>1</v>
+      </c>
+      <c r="G424" s="59" t="s">
         <v>1456</v>
       </c>
-      <c r="I424" s="63" t="s">
+      <c r="I424" s="59" t="s">
         <v>1457</v>
       </c>
-      <c r="J424" s="63" t="s">
+      <c r="J424" s="59" t="s">
         <v>1458</v>
       </c>
-      <c r="L424" s="63">
+      <c r="L424" s="59">
         <v>-31</v>
       </c>
-      <c r="M424" s="63">
-        <v>0</v>
-      </c>
-      <c r="N424" s="63">
-        <v>0</v>
-      </c>
-      <c r="O424" s="63" t="s">
+      <c r="M424" s="59">
+        <v>0</v>
+      </c>
+      <c r="N424" s="59">
+        <v>0</v>
+      </c>
+      <c r="O424" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="63">
+      <c r="P424" s="59">
         <v>12800</v>
       </c>
-      <c r="Q424" s="63" t="s">
+      <c r="Q424" s="59" t="s">
         <v>1459</v>
       </c>
-      <c r="R424" s="64" t="s">
+      <c r="R424" s="60" t="s">
         <v>1460</v>
       </c>
-      <c r="W424" s="63" t="s">
+      <c r="W424" s="59" t="s">
         <v>1455</v>
       </c>
-      <c r="X424" s="63">
+      <c r="X424" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="63">
+      <c r="Y424" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="63">
+      <c r="Z424" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="63">
+      <c r="AA424" s="59">
         <v>51</v>
       </c>
-      <c r="AH424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="63">
+      <c r="AH424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="59">
         <v>424</v>
       </c>
-      <c r="B425" s="63">
+      <c r="B425" s="59">
         <v>10341</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="59">
+        <v>1</v>
+      </c>
+      <c r="G425" s="59" t="s">
         <v>1431</v>
       </c>
-      <c r="J425" s="63" t="s">
+      <c r="J425" s="59" t="s">
         <v>1432</v>
       </c>
-      <c r="L425" s="63">
+      <c r="L425" s="59">
         <v>-31</v>
       </c>
-      <c r="M425" s="63">
-        <v>0</v>
-      </c>
-      <c r="N425" s="63">
-        <v>0</v>
-      </c>
-      <c r="O425" s="63" t="s">
+      <c r="M425" s="59">
+        <v>0</v>
+      </c>
+      <c r="N425" s="59">
+        <v>0</v>
+      </c>
+      <c r="O425" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="63">
+      <c r="P425" s="59">
         <v>49800</v>
       </c>
-      <c r="Q425" s="63" t="s">
+      <c r="Q425" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="R425" s="64" t="s">
+      <c r="R425" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W425" s="63" t="s">
+      <c r="W425" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X425" s="63">
+      <c r="X425" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="63">
+      <c r="Y425" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="63">
+      <c r="Z425" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="63">
+      <c r="AH425" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="59">
         <v>425</v>
       </c>
-      <c r="B426" s="63">
+      <c r="B426" s="59">
         <v>10342</v>
       </c>
-      <c r="F426" s="63">
-        <v>1</v>
-      </c>
-      <c r="G426" s="63" t="s">
+      <c r="F426" s="59">
+        <v>1</v>
+      </c>
+      <c r="G426" s="59" t="s">
         <v>1435</v>
       </c>
-      <c r="J426" s="63" t="s">
+      <c r="J426" s="59" t="s">
         <v>1436</v>
       </c>
-      <c r="L426" s="63">
+      <c r="L426" s="59">
         <v>-31</v>
       </c>
-      <c r="M426" s="63">
-        <v>0</v>
-      </c>
-      <c r="N426" s="63">
-        <v>0</v>
-      </c>
-      <c r="O426" s="63" t="s">
+      <c r="M426" s="59">
+        <v>0</v>
+      </c>
+      <c r="N426" s="59">
+        <v>0</v>
+      </c>
+      <c r="O426" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="63">
+      <c r="P426" s="59">
         <v>19800</v>
       </c>
-      <c r="Q426" s="63" t="s">
+      <c r="Q426" s="59" t="s">
         <v>1437</v>
       </c>
-      <c r="R426" s="64" t="s">
+      <c r="R426" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W426" s="63" t="s">
+      <c r="W426" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X426" s="63">
+      <c r="X426" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="63">
+      <c r="Y426" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="63">
+      <c r="Z426" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="63">
+      <c r="AH426" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="59">
         <v>426</v>
       </c>
-      <c r="B427" s="63">
+      <c r="B427" s="59">
         <v>10343</v>
       </c>
-      <c r="F427" s="63">
-        <v>1</v>
-      </c>
-      <c r="G427" s="63" t="s">
+      <c r="F427" s="59">
+        <v>1</v>
+      </c>
+      <c r="G427" s="59" t="s">
         <v>1438</v>
       </c>
-      <c r="J427" s="63" t="s">
+      <c r="J427" s="59" t="s">
         <v>1439</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="59">
         <v>-31</v>
       </c>
-      <c r="M427" s="63">
-        <v>0</v>
-      </c>
-      <c r="N427" s="63">
-        <v>0</v>
-      </c>
-      <c r="O427" s="63" t="s">
+      <c r="M427" s="59">
+        <v>0</v>
+      </c>
+      <c r="N427" s="59">
+        <v>0</v>
+      </c>
+      <c r="O427" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="63">
+      <c r="P427" s="59">
         <v>9800</v>
       </c>
-      <c r="Q427" s="63" t="s">
+      <c r="Q427" s="59" t="s">
         <v>1440</v>
       </c>
-      <c r="R427" s="64" t="s">
+      <c r="R427" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="63" t="s">
+      <c r="W427" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X427" s="63">
+      <c r="X427" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="63">
+      <c r="Y427" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="63">
+      <c r="Z427" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="63">
+      <c r="AH427" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="59">
         <v>427</v>
       </c>
-      <c r="B428" s="63">
+      <c r="B428" s="59">
         <v>10344</v>
       </c>
-      <c r="F428" s="63">
-        <v>1</v>
-      </c>
-      <c r="G428" s="63" t="s">
+      <c r="F428" s="59">
+        <v>1</v>
+      </c>
+      <c r="G428" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="J428" s="63" t="s">
+      <c r="J428" s="59" t="s">
         <v>1442</v>
       </c>
-      <c r="L428" s="63">
+      <c r="L428" s="59">
         <v>-31</v>
       </c>
-      <c r="M428" s="63">
-        <v>0</v>
-      </c>
-      <c r="N428" s="63">
-        <v>0</v>
-      </c>
-      <c r="O428" s="63" t="s">
+      <c r="M428" s="59">
+        <v>0</v>
+      </c>
+      <c r="N428" s="59">
+        <v>0</v>
+      </c>
+      <c r="O428" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="63">
+      <c r="P428" s="59">
         <v>9800</v>
       </c>
-      <c r="Q428" s="63" t="s">
+      <c r="Q428" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="R428" s="64" t="s">
+      <c r="R428" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W428" s="63" t="s">
+      <c r="W428" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X428" s="63">
+      <c r="X428" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="63">
+      <c r="Y428" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="63">
+      <c r="Z428" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="63">
+      <c r="AH428" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="59">
         <v>428</v>
       </c>
-      <c r="B429" s="63">
+      <c r="B429" s="59">
         <v>10345</v>
       </c>
-      <c r="F429" s="63">
-        <v>1</v>
-      </c>
-      <c r="G429" s="63" t="s">
+      <c r="F429" s="59">
+        <v>1</v>
+      </c>
+      <c r="G429" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="J429" s="63" t="s">
+      <c r="J429" s="59" t="s">
         <v>1445</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="59">
         <v>-31</v>
       </c>
-      <c r="M429" s="63">
-        <v>0</v>
-      </c>
-      <c r="N429" s="63">
-        <v>0</v>
-      </c>
-      <c r="O429" s="63" t="s">
+      <c r="M429" s="59">
+        <v>0</v>
+      </c>
+      <c r="N429" s="59">
+        <v>0</v>
+      </c>
+      <c r="O429" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="63">
+      <c r="P429" s="59">
         <v>4800</v>
       </c>
-      <c r="Q429" s="63" t="s">
+      <c r="Q429" s="59" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="64" t="s">
+      <c r="R429" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="63" t="s">
+      <c r="W429" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X429" s="63">
+      <c r="X429" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="63">
+      <c r="Y429" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="63">
+      <c r="Z429" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="63">
+      <c r="AH429" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="59">
         <v>429</v>
       </c>
-      <c r="B430" s="63">
+      <c r="B430" s="59">
         <v>10346</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="59">
+        <v>1</v>
+      </c>
+      <c r="G430" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I430" s="63" t="s">
+      <c r="I430" s="59" t="s">
         <v>1771</v>
       </c>
-      <c r="J430" s="63" t="s">
+      <c r="J430" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="L430" s="63">
+      <c r="L430" s="59">
         <v>-28</v>
       </c>
-      <c r="M430" s="63">
-        <v>0</v>
-      </c>
-      <c r="N430" s="63">
-        <v>0</v>
-      </c>
-      <c r="O430" s="63" t="s">
+      <c r="M430" s="59">
+        <v>0</v>
+      </c>
+      <c r="N430" s="59">
+        <v>0</v>
+      </c>
+      <c r="O430" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="63">
+      <c r="P430" s="59">
         <v>100</v>
       </c>
-      <c r="Q430" s="63" t="s">
+      <c r="Q430" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R430" s="64" t="s">
+      <c r="R430" s="60" t="s">
         <v>1773</v>
       </c>
-      <c r="W430" s="63" t="s">
+      <c r="W430" s="59" t="s">
         <v>1774</v>
       </c>
-      <c r="X430" s="63">
+      <c r="X430" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="63">
+      <c r="Y430" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="63">
+      <c r="Z430" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="63">
+      <c r="AA430" s="59">
         <v>14</v>
       </c>
-      <c r="AH430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="63">
+      <c r="AH430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="59">
         <v>430</v>
       </c>
-      <c r="B431" s="63">
+      <c r="B431" s="59">
         <v>10347</v>
       </c>
-      <c r="F431" s="63">
-        <v>1</v>
-      </c>
-      <c r="G431" s="63" t="s">
+      <c r="F431" s="59">
+        <v>1</v>
+      </c>
+      <c r="G431" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I431" s="63" t="s">
+      <c r="I431" s="59" t="s">
         <v>1775</v>
       </c>
-      <c r="J431" s="63" t="s">
+      <c r="J431" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="L431" s="63">
+      <c r="L431" s="59">
         <v>-28</v>
       </c>
-      <c r="M431" s="63">
-        <v>0</v>
-      </c>
-      <c r="N431" s="63">
-        <v>0</v>
-      </c>
-      <c r="O431" s="63" t="s">
+      <c r="M431" s="59">
+        <v>0</v>
+      </c>
+      <c r="N431" s="59">
+        <v>0</v>
+      </c>
+      <c r="O431" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="63">
+      <c r="P431" s="59">
         <v>300</v>
       </c>
-      <c r="Q431" s="63" t="s">
+      <c r="Q431" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R431" s="64" t="s">
+      <c r="R431" s="60" t="s">
         <v>1777</v>
       </c>
-      <c r="W431" s="63" t="s">
+      <c r="W431" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="63">
+      <c r="X431" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="63">
+      <c r="Y431" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="63">
+      <c r="Z431" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="63">
+      <c r="AA431" s="59">
         <v>14</v>
       </c>
-      <c r="AH431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="63">
+      <c r="AH431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="59">
         <v>431</v>
       </c>
-      <c r="B432" s="63">
+      <c r="B432" s="59">
         <v>10348</v>
       </c>
-      <c r="F432" s="63">
-        <v>1</v>
-      </c>
-      <c r="G432" s="63" t="s">
+      <c r="F432" s="59">
+        <v>1</v>
+      </c>
+      <c r="G432" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I432" s="63" t="s">
+      <c r="I432" s="59" t="s">
         <v>1778</v>
       </c>
-      <c r="J432" s="63" t="s">
+      <c r="J432" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="L432" s="63">
+      <c r="L432" s="59">
         <v>-28</v>
       </c>
-      <c r="M432" s="63">
-        <v>0</v>
-      </c>
-      <c r="N432" s="63">
-        <v>0</v>
-      </c>
-      <c r="O432" s="63" t="s">
+      <c r="M432" s="59">
+        <v>0</v>
+      </c>
+      <c r="N432" s="59">
+        <v>0</v>
+      </c>
+      <c r="O432" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="63">
+      <c r="P432" s="59">
         <v>600</v>
       </c>
-      <c r="Q432" s="63" t="s">
+      <c r="Q432" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R432" s="64" t="s">
+      <c r="R432" s="60" t="s">
         <v>1780</v>
       </c>
-      <c r="W432" s="63" t="s">
+      <c r="W432" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="63">
+      <c r="X432" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="63">
+      <c r="Y432" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="63">
+      <c r="Z432" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="63">
+      <c r="AA432" s="59">
         <v>14</v>
       </c>
-      <c r="AH432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="63">
+      <c r="AH432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="59">
         <v>432</v>
       </c>
-      <c r="B433" s="63">
+      <c r="B433" s="59">
         <v>10349</v>
       </c>
-      <c r="F433" s="63">
-        <v>1</v>
-      </c>
-      <c r="G433" s="63" t="s">
+      <c r="F433" s="59">
+        <v>1</v>
+      </c>
+      <c r="G433" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I433" s="63" t="s">
+      <c r="I433" s="59" t="s">
         <v>1781</v>
       </c>
-      <c r="J433" s="63" t="s">
+      <c r="J433" s="59" t="s">
         <v>1782</v>
       </c>
-      <c r="L433" s="63">
+      <c r="L433" s="59">
         <v>-28</v>
       </c>
-      <c r="M433" s="63">
-        <v>0</v>
-      </c>
-      <c r="N433" s="63">
-        <v>0</v>
-      </c>
-      <c r="O433" s="63" t="s">
+      <c r="M433" s="59">
+        <v>0</v>
+      </c>
+      <c r="N433" s="59">
+        <v>0</v>
+      </c>
+      <c r="O433" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="63">
+      <c r="P433" s="59">
         <v>600</v>
       </c>
-      <c r="Q433" s="63" t="s">
+      <c r="Q433" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="R433" s="64" t="s">
+      <c r="R433" s="60" t="s">
         <v>1784</v>
       </c>
-      <c r="W433" s="63" t="s">
+      <c r="W433" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="63">
+      <c r="X433" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="63">
+      <c r="Y433" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="63">
+      <c r="Z433" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="63">
+      <c r="AA433" s="59">
         <v>14</v>
       </c>
-      <c r="AH433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="63">
+      <c r="AH433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="59">
         <v>1</v>
       </c>
     </row>
@@ -39886,1930 +39915,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="63">
+    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
         <v>446</v>
       </c>
-      <c r="B447" s="63">
+      <c r="B447" s="59">
         <v>10363</v>
       </c>
-      <c r="F447" s="63">
-        <v>1</v>
-      </c>
-      <c r="G447" s="63" t="s">
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I447" s="63" t="s">
+      <c r="I447" s="59" t="s">
         <v>1526</v>
       </c>
-      <c r="J447" s="63" t="s">
+      <c r="J447" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="59">
         <v>-31</v>
       </c>
-      <c r="M447" s="63">
-        <v>0</v>
-      </c>
-      <c r="N447" s="63">
-        <v>0</v>
-      </c>
-      <c r="O447" s="63" t="s">
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59">
+        <v>0</v>
+      </c>
+      <c r="O447" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="63">
+      <c r="P447" s="59">
         <v>800</v>
       </c>
-      <c r="Q447" s="63" t="s">
+      <c r="Q447" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R447" s="64" t="s">
+      <c r="R447" s="60" t="s">
         <v>1529</v>
       </c>
-      <c r="W447" s="63" t="s">
+      <c r="W447" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="X447" s="63">
+      <c r="X447" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="63">
+      <c r="Y447" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="63">
+      <c r="Z447" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="63">
+      <c r="AA447" s="59">
         <v>52</v>
       </c>
-      <c r="AH447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="63">
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
         <v>447</v>
       </c>
-      <c r="B448" s="63">
+      <c r="B448" s="59">
         <v>10364</v>
       </c>
-      <c r="F448" s="63">
-        <v>1</v>
-      </c>
-      <c r="G448" s="63" t="s">
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="I448" s="63" t="s">
+      <c r="I448" s="59" t="s">
         <v>1532</v>
       </c>
-      <c r="J448" s="63" t="s">
+      <c r="J448" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="L448" s="63">
+      <c r="L448" s="59">
         <v>-31</v>
       </c>
-      <c r="M448" s="63">
-        <v>0</v>
-      </c>
-      <c r="N448" s="63">
-        <v>0</v>
-      </c>
-      <c r="O448" s="63" t="s">
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59">
+        <v>0</v>
+      </c>
+      <c r="O448" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="63">
+      <c r="P448" s="59">
         <v>800</v>
       </c>
-      <c r="Q448" s="63" t="s">
+      <c r="Q448" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="64" t="s">
+      <c r="R448" s="60" t="s">
         <v>1534</v>
       </c>
-      <c r="W448" s="63" t="s">
+      <c r="W448" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="X448" s="63">
+      <c r="X448" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="63">
+      <c r="Y448" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="63">
+      <c r="Z448" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="63">
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
         <v>448</v>
       </c>
-      <c r="B449" s="63">
+      <c r="B449" s="59">
         <v>10365</v>
       </c>
-      <c r="F449" s="63">
-        <v>1</v>
-      </c>
-      <c r="G449" s="63" t="s">
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="I449" s="63" t="s">
+      <c r="I449" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="J449" s="63" t="s">
+      <c r="J449" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="L449" s="63">
+      <c r="L449" s="59">
         <v>-31</v>
       </c>
-      <c r="M449" s="63">
-        <v>0</v>
-      </c>
-      <c r="N449" s="63">
-        <v>0</v>
-      </c>
-      <c r="O449" s="63" t="s">
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59">
+        <v>0</v>
+      </c>
+      <c r="O449" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="63">
+      <c r="P449" s="59">
         <v>800</v>
       </c>
-      <c r="Q449" s="63" t="s">
+      <c r="Q449" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R449" s="64" t="s">
+      <c r="R449" s="60" t="s">
         <v>1538</v>
       </c>
-      <c r="W449" s="63" t="s">
+      <c r="W449" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="63">
+      <c r="X449" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="63">
+      <c r="Y449" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="63">
+      <c r="Z449" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="63">
+      <c r="AA449" s="59">
         <v>53</v>
       </c>
-      <c r="AH449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="63">
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="59">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
         <v>1539</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="59">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59">
+        <v>0</v>
+      </c>
+      <c r="O450" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="59">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="60" t="s">
         <v>1542</v>
       </c>
-      <c r="W450" s="63" t="s">
+      <c r="W450" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="59">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="63">
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="59">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
         <v>1543</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="59">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59">
+        <v>0</v>
+      </c>
+      <c r="O451" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="59">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="60" t="s">
         <v>1546</v>
       </c>
-      <c r="W451" s="63" t="s">
+      <c r="W451" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="63">
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="59">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
         <v>1547</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="59">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59">
+        <v>0</v>
+      </c>
+      <c r="O452" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="59">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="60" t="s">
         <v>1550</v>
       </c>
-      <c r="W452" s="63" t="s">
+      <c r="W452" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="59">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="63">
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
         <v>452</v>
       </c>
-      <c r="B453" s="63">
+      <c r="B453" s="59">
         <v>10369</v>
       </c>
-      <c r="F453" s="63">
-        <v>1</v>
-      </c>
-      <c r="G453" s="63" t="s">
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
         <v>1551</v>
       </c>
-      <c r="I453" s="63" t="s">
+      <c r="I453" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="J453" s="63" t="s">
+      <c r="J453" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="L453" s="63">
+      <c r="L453" s="59">
         <v>-31</v>
       </c>
-      <c r="M453" s="63">
-        <v>0</v>
-      </c>
-      <c r="N453" s="63">
-        <v>0</v>
-      </c>
-      <c r="O453" s="63" t="s">
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59">
+        <v>0</v>
+      </c>
+      <c r="O453" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="63">
+      <c r="P453" s="59">
         <v>9800</v>
       </c>
-      <c r="Q453" s="63" t="s">
+      <c r="Q453" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R453" s="64" t="s">
+      <c r="R453" s="60" t="s">
         <v>1554</v>
       </c>
-      <c r="W453" s="63" t="s">
+      <c r="W453" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="63">
+      <c r="X453" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="63">
+      <c r="Y453" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="63">
+      <c r="Z453" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="63">
+      <c r="AA453" s="59">
         <v>56</v>
       </c>
-      <c r="AH453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="63">
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
         <v>453</v>
       </c>
-      <c r="B454" s="63">
+      <c r="B454" s="59">
         <v>10370</v>
       </c>
-      <c r="F454" s="63">
-        <v>1</v>
-      </c>
-      <c r="G454" s="63" t="s">
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
         <v>1555</v>
       </c>
-      <c r="I454" s="63" t="s">
+      <c r="I454" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="63" t="s">
+      <c r="J454" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="L454" s="63">
+      <c r="L454" s="59">
         <v>-31</v>
       </c>
-      <c r="M454" s="63">
-        <v>0</v>
-      </c>
-      <c r="N454" s="63">
-        <v>0</v>
-      </c>
-      <c r="O454" s="63" t="s">
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59">
+        <v>0</v>
+      </c>
+      <c r="O454" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="63">
+      <c r="P454" s="59">
         <v>9800</v>
       </c>
-      <c r="Q454" s="63" t="s">
+      <c r="Q454" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R454" s="64" t="s">
+      <c r="R454" s="60" t="s">
         <v>1558</v>
       </c>
-      <c r="W454" s="63" t="s">
+      <c r="W454" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="63">
+      <c r="X454" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="63">
+      <c r="Y454" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="63">
+      <c r="Z454" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="63">
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
         <v>454</v>
       </c>
-      <c r="B455" s="63">
+      <c r="B455" s="59">
         <v>10371</v>
       </c>
-      <c r="F455" s="63">
-        <v>1</v>
-      </c>
-      <c r="G455" s="63" t="s">
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
         <v>1559</v>
       </c>
-      <c r="I455" s="63" t="s">
+      <c r="I455" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="J455" s="63" t="s">
+      <c r="J455" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="L455" s="63">
+      <c r="L455" s="59">
         <v>-31</v>
       </c>
-      <c r="M455" s="63">
-        <v>0</v>
-      </c>
-      <c r="N455" s="63">
-        <v>0</v>
-      </c>
-      <c r="O455" s="63" t="s">
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59">
+        <v>0</v>
+      </c>
+      <c r="O455" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="63">
+      <c r="P455" s="59">
         <v>9800</v>
       </c>
-      <c r="Q455" s="63" t="s">
+      <c r="Q455" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R455" s="64" t="s">
+      <c r="R455" s="60" t="s">
         <v>1687</v>
       </c>
-      <c r="W455" s="63" t="s">
+      <c r="W455" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="63">
+      <c r="X455" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="63">
+      <c r="Y455" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="63">
+      <c r="Z455" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="63">
+      <c r="AA455" s="59">
         <v>57</v>
       </c>
-      <c r="AH455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="63">
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="59">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="59" t="s">
         <v>1563</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="59">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59">
+        <v>0</v>
+      </c>
+      <c r="O456" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="59">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="W456" s="63" t="s">
+      <c r="W456" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="59">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="63">
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="59">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="59" t="s">
         <v>1567</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="59">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59">
+        <v>0</v>
+      </c>
+      <c r="O457" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="59">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="60" t="s">
         <v>1569</v>
       </c>
-      <c r="W457" s="63" t="s">
+      <c r="W457" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="63">
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="59">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="59" t="s">
         <v>1571</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="59">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59">
+        <v>0</v>
+      </c>
+      <c r="O458" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="59">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="60" t="s">
         <v>1573</v>
       </c>
-      <c r="W458" s="63" t="s">
+      <c r="W458" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="59">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="63">
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
         <v>458</v>
       </c>
-      <c r="B459" s="63">
+      <c r="B459" s="59">
         <v>10375</v>
       </c>
-      <c r="F459" s="63">
-        <v>1</v>
-      </c>
-      <c r="G459" s="63" t="s">
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="I459" s="63" t="s">
+      <c r="I459" s="59" t="s">
         <v>1575</v>
       </c>
-      <c r="J459" s="63" t="s">
+      <c r="J459" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="L459" s="63">
+      <c r="L459" s="59">
         <v>-31</v>
       </c>
-      <c r="M459" s="63">
-        <v>0</v>
-      </c>
-      <c r="N459" s="63">
-        <v>0</v>
-      </c>
-      <c r="O459" s="63" t="s">
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59">
+        <v>0</v>
+      </c>
+      <c r="O459" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="63">
+      <c r="P459" s="59">
         <v>49800</v>
       </c>
-      <c r="Q459" s="63" t="s">
+      <c r="Q459" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R459" s="64" t="s">
+      <c r="R459" s="60" t="s">
         <v>1577</v>
       </c>
-      <c r="W459" s="63" t="s">
+      <c r="W459" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="63">
+      <c r="X459" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="63">
+      <c r="Y459" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="63">
+      <c r="Z459" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="63">
+      <c r="AA459" s="59">
         <v>60</v>
       </c>
-      <c r="AH459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="63">
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
         <v>459</v>
       </c>
-      <c r="B460" s="63">
+      <c r="B460" s="59">
         <v>10376</v>
       </c>
-      <c r="F460" s="63">
-        <v>1</v>
-      </c>
-      <c r="G460" s="63" t="s">
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="I460" s="63" t="s">
+      <c r="I460" s="59" t="s">
         <v>1579</v>
       </c>
-      <c r="J460" s="63" t="s">
+      <c r="J460" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="L460" s="63">
+      <c r="L460" s="59">
         <v>-31</v>
       </c>
-      <c r="M460" s="63">
-        <v>0</v>
-      </c>
-      <c r="N460" s="63">
-        <v>0</v>
-      </c>
-      <c r="O460" s="63" t="s">
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59">
+        <v>0</v>
+      </c>
+      <c r="O460" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="63">
+      <c r="P460" s="59">
         <v>49800</v>
       </c>
-      <c r="Q460" s="63" t="s">
+      <c r="Q460" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="64" t="s">
+      <c r="R460" s="60" t="s">
         <v>1581</v>
       </c>
-      <c r="W460" s="63" t="s">
+      <c r="W460" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="63">
+      <c r="X460" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="63">
+      <c r="Y460" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="63">
+      <c r="Z460" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="63">
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
         <v>460</v>
       </c>
-      <c r="B461" s="63">
+      <c r="B461" s="59">
         <v>10377</v>
       </c>
-      <c r="F461" s="63">
-        <v>1</v>
-      </c>
-      <c r="G461" s="63" t="s">
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="I461" s="63" t="s">
+      <c r="I461" s="59" t="s">
         <v>1583</v>
       </c>
-      <c r="J461" s="63" t="s">
+      <c r="J461" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="L461" s="63">
+      <c r="L461" s="59">
         <v>-31</v>
       </c>
-      <c r="M461" s="63">
-        <v>0</v>
-      </c>
-      <c r="N461" s="63">
-        <v>0</v>
-      </c>
-      <c r="O461" s="63" t="s">
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59">
+        <v>0</v>
+      </c>
+      <c r="O461" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="63">
+      <c r="P461" s="59">
         <v>49800</v>
       </c>
-      <c r="Q461" s="63" t="s">
+      <c r="Q461" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R461" s="64" t="s">
+      <c r="R461" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="W461" s="63" t="s">
+      <c r="W461" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="63">
+      <c r="X461" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="63">
+      <c r="Y461" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="63">
+      <c r="Z461" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="63">
+      <c r="AA461" s="59">
         <v>61</v>
       </c>
-      <c r="AH461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="63">
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="59">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="59" t="s">
         <v>1587</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="59">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59">
+        <v>0</v>
+      </c>
+      <c r="O462" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="59">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="60" t="s">
         <v>1589</v>
       </c>
-      <c r="W462" s="63" t="s">
+      <c r="W462" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="59">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="63">
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="59">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="59">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59">
+        <v>0</v>
+      </c>
+      <c r="O463" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="59">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="W463" s="63" t="s">
+      <c r="W463" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="63">
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="59">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="59" t="s">
         <v>1596</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="59">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59">
+        <v>0</v>
+      </c>
+      <c r="O464" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="59">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="60" t="s">
         <v>1597</v>
       </c>
-      <c r="W464" s="63" t="s">
+      <c r="W464" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="59">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="63">
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
         <v>464</v>
       </c>
-      <c r="B465" s="63">
+      <c r="B465" s="59">
         <v>10381</v>
       </c>
-      <c r="F465" s="63">
-        <v>1</v>
-      </c>
-      <c r="G465" s="63" t="s">
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="I465" s="63" t="s">
+      <c r="I465" s="59" t="s">
         <v>1599</v>
       </c>
-      <c r="J465" s="63" t="s">
+      <c r="J465" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="L465" s="63">
+      <c r="L465" s="59">
         <v>-31</v>
       </c>
-      <c r="M465" s="63">
-        <v>0</v>
-      </c>
-      <c r="N465" s="63">
-        <v>0</v>
-      </c>
-      <c r="O465" s="63" t="s">
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59">
+        <v>0</v>
+      </c>
+      <c r="O465" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="63">
+      <c r="P465" s="59">
         <v>249800</v>
       </c>
-      <c r="Q465" s="63" t="s">
+      <c r="Q465" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R465" s="64" t="s">
+      <c r="R465" s="60" t="s">
         <v>1601</v>
       </c>
-      <c r="W465" s="63" t="s">
+      <c r="W465" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="63">
+      <c r="X465" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="63">
+      <c r="Y465" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="63">
+      <c r="Z465" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="63">
+      <c r="AA465" s="59">
         <v>64</v>
       </c>
-      <c r="AH465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="63">
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
         <v>465</v>
       </c>
-      <c r="B466" s="63">
+      <c r="B466" s="59">
         <v>10382</v>
       </c>
-      <c r="F466" s="63">
-        <v>1</v>
-      </c>
-      <c r="G466" s="63" t="s">
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="I466" s="63" t="s">
+      <c r="I466" s="59" t="s">
         <v>1603</v>
       </c>
-      <c r="J466" s="63" t="s">
+      <c r="J466" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="L466" s="63">
+      <c r="L466" s="59">
         <v>-31</v>
       </c>
-      <c r="M466" s="63">
-        <v>0</v>
-      </c>
-      <c r="N466" s="63">
-        <v>0</v>
-      </c>
-      <c r="O466" s="63" t="s">
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59">
+        <v>0</v>
+      </c>
+      <c r="O466" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="63">
+      <c r="P466" s="59">
         <v>249800</v>
       </c>
-      <c r="Q466" s="63" t="s">
+      <c r="Q466" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="64" t="s">
+      <c r="R466" s="60" t="s">
         <v>1605</v>
       </c>
-      <c r="W466" s="63" t="s">
+      <c r="W466" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="63">
+      <c r="X466" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="63">
+      <c r="Y466" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="63">
+      <c r="Z466" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="63">
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
         <v>466</v>
       </c>
-      <c r="B467" s="63">
+      <c r="B467" s="59">
         <v>10383</v>
       </c>
-      <c r="F467" s="63">
-        <v>1</v>
-      </c>
-      <c r="G467" s="63" t="s">
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
         <v>1606</v>
       </c>
-      <c r="I467" s="63" t="s">
+      <c r="I467" s="59" t="s">
         <v>1607</v>
       </c>
-      <c r="J467" s="63" t="s">
+      <c r="J467" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="L467" s="63">
+      <c r="L467" s="59">
         <v>-31</v>
       </c>
-      <c r="M467" s="63">
-        <v>0</v>
-      </c>
-      <c r="N467" s="63">
-        <v>0</v>
-      </c>
-      <c r="O467" s="63" t="s">
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59">
+        <v>0</v>
+      </c>
+      <c r="O467" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="63">
+      <c r="P467" s="59">
         <v>249800</v>
       </c>
-      <c r="Q467" s="63" t="s">
+      <c r="Q467" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="64" t="s">
+      <c r="R467" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="W467" s="63" t="s">
+      <c r="W467" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="63">
+      <c r="X467" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="63">
+      <c r="Y467" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="63">
+      <c r="Z467" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="63">
+      <c r="AA467" s="59">
         <v>65</v>
       </c>
-      <c r="AH467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="63">
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="59">
         <v>467</v>
       </c>
-      <c r="B468" s="63">
+      <c r="B468" s="59">
         <v>10384</v>
       </c>
-      <c r="F468" s="63">
-        <v>1</v>
-      </c>
-      <c r="G468" s="63" t="s">
+      <c r="F468" s="59">
+        <v>1</v>
+      </c>
+      <c r="G468" s="59" t="s">
         <v>1610</v>
       </c>
-      <c r="I468" s="63" t="s">
+      <c r="I468" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J468" s="63" t="s">
+      <c r="J468" s="59" t="s">
         <v>1613</v>
       </c>
-      <c r="L468" s="63">
+      <c r="L468" s="59">
         <v>-31</v>
       </c>
-      <c r="M468" s="63">
-        <v>0</v>
-      </c>
-      <c r="N468" s="63">
-        <v>0</v>
-      </c>
-      <c r="O468" s="63" t="s">
+      <c r="M468" s="59">
+        <v>0</v>
+      </c>
+      <c r="N468" s="59">
+        <v>0</v>
+      </c>
+      <c r="O468" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="63">
+      <c r="P468" s="59">
         <v>600</v>
       </c>
-      <c r="Q468" s="63" t="s">
+      <c r="Q468" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R468" s="64" t="s">
+      <c r="R468" s="60" t="s">
         <v>1614</v>
       </c>
-      <c r="W468" s="63" t="s">
+      <c r="W468" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X468" s="63">
+      <c r="X468" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="63">
+      <c r="Y468" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="63">
+      <c r="Z468" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="63">
+      <c r="AH468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="59">
         <v>468</v>
       </c>
-      <c r="B469" s="63">
+      <c r="B469" s="59">
         <v>10385</v>
       </c>
-      <c r="F469" s="63">
-        <v>1</v>
-      </c>
-      <c r="G469" s="63" t="s">
+      <c r="F469" s="59">
+        <v>1</v>
+      </c>
+      <c r="G469" s="59" t="s">
         <v>1616</v>
       </c>
-      <c r="I469" s="63" t="s">
+      <c r="I469" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J469" s="63" t="s">
+      <c r="J469" s="59" t="s">
         <v>1617</v>
       </c>
-      <c r="L469" s="63">
+      <c r="L469" s="59">
         <v>-31</v>
       </c>
-      <c r="M469" s="63">
-        <v>0</v>
-      </c>
-      <c r="N469" s="63">
-        <v>0</v>
-      </c>
-      <c r="O469" s="63" t="s">
+      <c r="M469" s="59">
+        <v>0</v>
+      </c>
+      <c r="N469" s="59">
+        <v>0</v>
+      </c>
+      <c r="O469" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="63">
+      <c r="P469" s="59">
         <v>3000</v>
       </c>
-      <c r="Q469" s="63" t="s">
+      <c r="Q469" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R469" s="64" t="s">
+      <c r="R469" s="60" t="s">
         <v>1618</v>
       </c>
-      <c r="W469" s="63" t="s">
+      <c r="W469" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X469" s="63">
+      <c r="X469" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="63">
+      <c r="Y469" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="63">
+      <c r="Z469" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="63">
+      <c r="AH469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="59">
         <v>469</v>
       </c>
-      <c r="B470" s="63">
+      <c r="B470" s="59">
         <v>10386</v>
       </c>
-      <c r="F470" s="63">
-        <v>1</v>
-      </c>
-      <c r="G470" s="63" t="s">
+      <c r="F470" s="59">
+        <v>1</v>
+      </c>
+      <c r="G470" s="59" t="s">
         <v>1619</v>
       </c>
-      <c r="I470" s="63" t="s">
+      <c r="I470" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J470" s="63" t="s">
+      <c r="J470" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="L470" s="63">
+      <c r="L470" s="59">
         <v>-31</v>
       </c>
-      <c r="M470" s="63">
-        <v>0</v>
-      </c>
-      <c r="N470" s="63">
-        <v>0</v>
-      </c>
-      <c r="O470" s="63" t="s">
+      <c r="M470" s="59">
+        <v>0</v>
+      </c>
+      <c r="N470" s="59">
+        <v>0</v>
+      </c>
+      <c r="O470" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="63">
+      <c r="P470" s="59">
         <v>6800</v>
       </c>
-      <c r="Q470" s="63" t="s">
+      <c r="Q470" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R470" s="64" t="s">
+      <c r="R470" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="W470" s="63" t="s">
+      <c r="W470" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X470" s="63">
+      <c r="X470" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="63">
+      <c r="Y470" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="63">
+      <c r="Z470" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="63">
+      <c r="AH470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="59">
         <v>470</v>
       </c>
-      <c r="B471" s="63">
+      <c r="B471" s="59">
         <v>10387</v>
       </c>
-      <c r="F471" s="63">
-        <v>1</v>
-      </c>
-      <c r="G471" s="63" t="s">
+      <c r="F471" s="59">
+        <v>1</v>
+      </c>
+      <c r="G471" s="59" t="s">
         <v>1622</v>
       </c>
-      <c r="I471" s="63" t="s">
+      <c r="I471" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J471" s="63" t="s">
+      <c r="J471" s="59" t="s">
         <v>1623</v>
       </c>
-      <c r="L471" s="63">
+      <c r="L471" s="59">
         <v>-31</v>
       </c>
-      <c r="M471" s="63">
-        <v>0</v>
-      </c>
-      <c r="N471" s="63">
-        <v>0</v>
-      </c>
-      <c r="O471" s="63" t="s">
+      <c r="M471" s="59">
+        <v>0</v>
+      </c>
+      <c r="N471" s="59">
+        <v>0</v>
+      </c>
+      <c r="O471" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="63">
+      <c r="P471" s="59">
         <v>9800</v>
       </c>
-      <c r="Q471" s="63" t="s">
+      <c r="Q471" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R471" s="64" t="s">
+      <c r="R471" s="60" t="s">
         <v>1624</v>
       </c>
-      <c r="W471" s="63" t="s">
+      <c r="W471" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X471" s="63">
+      <c r="X471" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="63">
+      <c r="Y471" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="63">
+      <c r="Z471" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="63">
+      <c r="AH471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="59">
         <v>471</v>
       </c>
-      <c r="B472" s="63">
+      <c r="B472" s="59">
         <v>10388</v>
       </c>
-      <c r="F472" s="63">
-        <v>1</v>
-      </c>
-      <c r="G472" s="63" t="s">
+      <c r="F472" s="59">
+        <v>1</v>
+      </c>
+      <c r="G472" s="59" t="s">
         <v>1626</v>
       </c>
-      <c r="I472" s="63" t="s">
+      <c r="I472" s="59" t="s">
         <v>1611</v>
       </c>
-      <c r="J472" s="63" t="s">
+      <c r="J472" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="L472" s="63">
+      <c r="L472" s="59">
         <v>-31</v>
       </c>
-      <c r="M472" s="63">
-        <v>0</v>
-      </c>
-      <c r="N472" s="63">
-        <v>0</v>
-      </c>
-      <c r="O472" s="63" t="s">
+      <c r="M472" s="59">
+        <v>0</v>
+      </c>
+      <c r="N472" s="59">
+        <v>0</v>
+      </c>
+      <c r="O472" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="63">
+      <c r="P472" s="59">
         <v>19800</v>
       </c>
-      <c r="Q472" s="63" t="s">
+      <c r="Q472" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R472" s="64" t="s">
+      <c r="R472" s="60" t="s">
         <v>1628</v>
       </c>
-      <c r="W472" s="63" t="s">
+      <c r="W472" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X472" s="63">
+      <c r="X472" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="63">
+      <c r="Y472" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="63">
+      <c r="Z472" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="63">
+      <c r="AH472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="59">
         <v>472</v>
       </c>
-      <c r="B473" s="63">
+      <c r="B473" s="59">
         <v>10389</v>
       </c>
-      <c r="F473" s="63">
-        <v>1</v>
-      </c>
-      <c r="G473" s="63" t="s">
+      <c r="F473" s="59">
+        <v>1</v>
+      </c>
+      <c r="G473" s="59" t="s">
         <v>1629</v>
       </c>
-      <c r="I473" s="63" t="s">
+      <c r="I473" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J473" s="63" t="s">
+      <c r="J473" s="59" t="s">
         <v>1630</v>
       </c>
-      <c r="L473" s="63">
+      <c r="L473" s="59">
         <v>-31</v>
       </c>
-      <c r="M473" s="63">
-        <v>0</v>
-      </c>
-      <c r="N473" s="63">
-        <v>0</v>
-      </c>
-      <c r="O473" s="63" t="s">
+      <c r="M473" s="59">
+        <v>0</v>
+      </c>
+      <c r="N473" s="59">
+        <v>0</v>
+      </c>
+      <c r="O473" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="63">
+      <c r="P473" s="59">
         <v>49800</v>
       </c>
-      <c r="Q473" s="63" t="s">
+      <c r="Q473" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R473" s="64" t="s">
+      <c r="R473" s="60" t="s">
         <v>1631</v>
       </c>
-      <c r="W473" s="63" t="s">
+      <c r="W473" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X473" s="63">
+      <c r="X473" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="63">
+      <c r="Y473" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="63">
+      <c r="Z473" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="63">
+      <c r="AH473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
         <v>473</v>
       </c>
-      <c r="B474" s="63">
+      <c r="B474" s="59">
         <v>10390</v>
       </c>
-      <c r="F474" s="63">
-        <v>1</v>
-      </c>
-      <c r="G474" s="63" t="s">
+      <c r="F474" s="59">
+        <v>1</v>
+      </c>
+      <c r="G474" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="I474" s="63" t="s">
+      <c r="I474" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J474" s="63" t="s">
+      <c r="J474" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="L474" s="63">
+      <c r="L474" s="59">
         <v>-31</v>
       </c>
-      <c r="M474" s="63">
-        <v>0</v>
-      </c>
-      <c r="N474" s="63">
-        <v>0</v>
-      </c>
-      <c r="O474" s="63" t="s">
+      <c r="M474" s="59">
+        <v>0</v>
+      </c>
+      <c r="N474" s="59">
+        <v>0</v>
+      </c>
+      <c r="O474" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="63">
+      <c r="P474" s="59">
         <v>99800</v>
       </c>
-      <c r="Q474" s="63" t="s">
+      <c r="Q474" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R474" s="64" t="s">
+      <c r="R474" s="60" t="s">
         <v>1634</v>
       </c>
-      <c r="W474" s="63" t="s">
+      <c r="W474" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X474" s="63">
+      <c r="X474" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="63">
+      <c r="Y474" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="63">
+      <c r="Z474" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="63">
+      <c r="AH474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
         <v>474</v>
       </c>
-      <c r="B475" s="63">
+      <c r="B475" s="59">
         <v>10391</v>
       </c>
-      <c r="F475" s="63">
-        <v>1</v>
-      </c>
-      <c r="G475" s="63" t="s">
+      <c r="F475" s="59">
+        <v>1</v>
+      </c>
+      <c r="G475" s="59" t="s">
         <v>1635</v>
       </c>
-      <c r="I475" s="63" t="s">
+      <c r="I475" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J475" s="63" t="s">
+      <c r="J475" s="59" t="s">
         <v>1689</v>
       </c>
-      <c r="L475" s="63">
+      <c r="L475" s="59">
         <v>-31</v>
       </c>
-      <c r="M475" s="63">
-        <v>0</v>
-      </c>
-      <c r="N475" s="63">
-        <v>0</v>
-      </c>
-      <c r="O475" s="63" t="s">
+      <c r="M475" s="59">
+        <v>0</v>
+      </c>
+      <c r="N475" s="59">
+        <v>0</v>
+      </c>
+      <c r="O475" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="63">
+      <c r="P475" s="59">
         <v>249800</v>
       </c>
-      <c r="Q475" s="63" t="s">
+      <c r="Q475" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R475" s="64" t="s">
+      <c r="R475" s="60" t="s">
         <v>1688</v>
       </c>
-      <c r="W475" s="63" t="s">
+      <c r="W475" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X475" s="63">
+      <c r="X475" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="63">
+      <c r="Y475" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="63">
+      <c r="Z475" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="63">
+      <c r="AH475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="59">
         <v>1</v>
       </c>
     </row>
@@ -42900,263 +42929,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="63">
+    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="59">
         <v>492</v>
       </c>
-      <c r="B493" s="63">
+      <c r="B493" s="59">
         <v>10409</v>
       </c>
-      <c r="F493" s="63">
-        <v>1</v>
-      </c>
-      <c r="G493" s="63" t="s">
+      <c r="F493" s="59">
+        <v>1</v>
+      </c>
+      <c r="G493" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="I493" s="63" t="s">
+      <c r="I493" s="59" t="s">
         <v>1867</v>
       </c>
-      <c r="J493" s="63" t="s">
+      <c r="J493" s="59" t="s">
         <v>1868</v>
       </c>
-      <c r="L493" s="63">
+      <c r="L493" s="59">
         <v>-31</v>
       </c>
-      <c r="M493" s="63">
-        <v>0</v>
-      </c>
-      <c r="N493" s="63">
-        <v>0</v>
-      </c>
-      <c r="O493" s="63" t="s">
+      <c r="M493" s="59">
+        <v>0</v>
+      </c>
+      <c r="N493" s="59">
+        <v>0</v>
+      </c>
+      <c r="O493" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="63">
+      <c r="P493" s="59">
         <v>49800</v>
       </c>
-      <c r="Q493" s="63" t="s">
+      <c r="Q493" s="59" t="s">
         <v>1869</v>
       </c>
-      <c r="R493" s="64" t="s">
+      <c r="R493" s="60" t="s">
         <v>1871</v>
       </c>
-      <c r="W493" s="63" t="s">
+      <c r="W493" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="63">
+      <c r="X493" s="59">
         <v>200</v>
       </c>
-      <c r="Y493" s="63">
+      <c r="Y493" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="63">
+      <c r="Z493" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="63">
+      <c r="AH493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="59">
         <v>493</v>
       </c>
-      <c r="B494" s="63">
+      <c r="B494" s="59">
         <v>10410</v>
       </c>
-      <c r="F494" s="63">
-        <v>1</v>
-      </c>
-      <c r="G494" s="63" t="s">
+      <c r="F494" s="59">
+        <v>1</v>
+      </c>
+      <c r="G494" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="I494" s="63" t="s">
+      <c r="I494" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="J494" s="63" t="s">
+      <c r="J494" s="59" t="s">
         <v>1868</v>
       </c>
-      <c r="L494" s="63">
+      <c r="L494" s="59">
         <v>-31</v>
       </c>
-      <c r="M494" s="63">
-        <v>0</v>
-      </c>
-      <c r="N494" s="63">
-        <v>0</v>
-      </c>
-      <c r="O494" s="63" t="s">
+      <c r="M494" s="59">
+        <v>0</v>
+      </c>
+      <c r="N494" s="59">
+        <v>0</v>
+      </c>
+      <c r="O494" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="63">
+      <c r="P494" s="59">
         <v>99800</v>
       </c>
-      <c r="Q494" s="63" t="s">
+      <c r="Q494" s="59" t="s">
         <v>1869</v>
       </c>
-      <c r="R494" s="64" t="s">
+      <c r="R494" s="60" t="s">
         <v>1871</v>
       </c>
-      <c r="W494" s="63" t="s">
+      <c r="W494" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="63">
+      <c r="X494" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="63">
+      <c r="Y494" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="63">
+      <c r="Z494" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="63">
+      <c r="AH494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="59">
         <v>494</v>
       </c>
-      <c r="B495" s="63">
+      <c r="B495" s="59">
         <v>10411</v>
       </c>
-      <c r="F495" s="63">
-        <v>1</v>
-      </c>
-      <c r="G495" s="63" t="s">
+      <c r="F495" s="59">
+        <v>1</v>
+      </c>
+      <c r="G495" s="59" t="s">
         <v>1887</v>
       </c>
-      <c r="J495" s="63" t="s">
+      <c r="J495" s="59" t="s">
         <v>1888</v>
       </c>
-      <c r="L495" s="63">
+      <c r="L495" s="59">
         <v>-31</v>
       </c>
-      <c r="M495" s="63">
-        <v>0</v>
-      </c>
-      <c r="N495" s="63">
-        <v>0</v>
-      </c>
-      <c r="O495" s="63" t="s">
+      <c r="M495" s="59">
+        <v>0</v>
+      </c>
+      <c r="N495" s="59">
+        <v>0</v>
+      </c>
+      <c r="O495" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="63">
+      <c r="P495" s="59">
         <v>79800</v>
       </c>
-      <c r="Q495" s="63" t="s">
+      <c r="Q495" s="59" t="s">
         <v>1642</v>
       </c>
-      <c r="R495" s="64" t="s">
+      <c r="R495" s="60" t="s">
         <v>1889</v>
       </c>
-      <c r="W495" s="63" t="s">
+      <c r="W495" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="63">
+      <c r="X495" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="63">
+      <c r="Y495" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="63">
+      <c r="Z495" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="63">
+      <c r="AA495" s="59">
         <v>14</v>
       </c>
-      <c r="AH495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="63">
+      <c r="AH495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="59">
         <v>495</v>
       </c>
-      <c r="B496" s="63">
+      <c r="B496" s="59">
         <v>10412</v>
       </c>
-      <c r="F496" s="63">
-        <v>1</v>
-      </c>
-      <c r="G496" s="63" t="s">
+      <c r="F496" s="59">
+        <v>1</v>
+      </c>
+      <c r="G496" s="59" t="s">
         <v>1890</v>
       </c>
-      <c r="J496" s="63" t="s">
+      <c r="J496" s="59" t="s">
         <v>1891</v>
       </c>
-      <c r="L496" s="63">
+      <c r="L496" s="59">
         <v>-31</v>
       </c>
-      <c r="M496" s="63">
-        <v>0</v>
-      </c>
-      <c r="N496" s="63">
-        <v>0</v>
-      </c>
-      <c r="O496" s="63" t="s">
+      <c r="M496" s="59">
+        <v>0</v>
+      </c>
+      <c r="N496" s="59">
+        <v>0</v>
+      </c>
+      <c r="O496" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="63">
+      <c r="P496" s="59">
         <v>89800</v>
       </c>
-      <c r="Q496" s="63" t="s">
+      <c r="Q496" s="59" t="s">
         <v>1642</v>
       </c>
-      <c r="R496" s="64" t="s">
+      <c r="R496" s="60" t="s">
         <v>1892</v>
       </c>
-      <c r="W496" s="63" t="s">
+      <c r="W496" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="63">
+      <c r="X496" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="63">
+      <c r="Y496" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="63">
+      <c r="Z496" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="63">
+      <c r="AA496" s="59">
         <v>14</v>
       </c>
-      <c r="AH496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="63">
+      <c r="AH496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="59">
         <v>1</v>
       </c>
     </row>
@@ -43197,11 +43226,11 @@
       <c r="Q497" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R497" s="67" t="s">
-        <v>2020</v>
+      <c r="R497" s="63" t="s">
+        <v>2017</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43265,11 +43294,11 @@
       <c r="Q498" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R498" s="67" t="s">
-        <v>2021</v>
+      <c r="R498" s="63" t="s">
+        <v>2018</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43333,11 +43362,11 @@
       <c r="Q499" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R499" s="67" t="s">
-        <v>2022</v>
+      <c r="R499" s="63" t="s">
+        <v>2019</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43401,11 +43430,11 @@
       <c r="Q500" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R500" s="67" t="s">
-        <v>2023</v>
+      <c r="R500" s="63" t="s">
+        <v>2020</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43469,11 +43498,11 @@
       <c r="Q501" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R501" s="67" t="s">
-        <v>2024</v>
+      <c r="R501" s="63" t="s">
+        <v>2021</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43537,11 +43566,11 @@
       <c r="Q502" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R502" s="67" t="s">
-        <v>2025</v>
+      <c r="R502" s="63" t="s">
+        <v>2022</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43605,11 +43634,11 @@
       <c r="Q503" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R503" s="68" t="s">
-        <v>2026</v>
+      <c r="R503" s="64" t="s">
+        <v>2023</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43673,11 +43702,11 @@
       <c r="Q504" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R504" s="68" t="s">
-        <v>2021</v>
+      <c r="R504" s="64" t="s">
+        <v>2018</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43741,11 +43770,11 @@
       <c r="Q505" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R505" s="68" t="s">
-        <v>2027</v>
+      <c r="R505" s="64" t="s">
+        <v>2024</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43809,11 +43838,11 @@
       <c r="Q506" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R506" s="68" t="s">
-        <v>2028</v>
+      <c r="R506" s="64" t="s">
+        <v>2025</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43877,11 +43906,11 @@
       <c r="Q507" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R507" s="68" t="s">
-        <v>2029</v>
+      <c r="R507" s="64" t="s">
+        <v>2026</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43945,11 +43974,11 @@
       <c r="Q508" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R508" s="68" t="s">
-        <v>2030</v>
+      <c r="R508" s="64" t="s">
+        <v>2027</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43976,183 +44005,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="63">
+    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="59">
         <v>508</v>
       </c>
-      <c r="B509" s="63">
+      <c r="B509" s="59">
         <v>10425</v>
       </c>
-      <c r="F509" s="63">
-        <v>1</v>
-      </c>
-      <c r="G509" s="63" t="s">
+      <c r="F509" s="59">
+        <v>1</v>
+      </c>
+      <c r="G509" s="59" t="s">
         <v>1919</v>
       </c>
-      <c r="J509" s="63" t="s">
+      <c r="J509" s="59" t="s">
         <v>1920</v>
       </c>
-      <c r="L509" s="63">
+      <c r="L509" s="59">
         <v>-4</v>
       </c>
-      <c r="M509" s="63">
-        <v>1</v>
-      </c>
-      <c r="N509" s="63">
-        <v>0</v>
-      </c>
-      <c r="O509" s="63" t="s">
+      <c r="M509" s="59">
+        <v>1</v>
+      </c>
+      <c r="N509" s="59">
+        <v>0</v>
+      </c>
+      <c r="O509" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="63">
+      <c r="P509" s="59">
         <v>1800</v>
       </c>
-      <c r="R509" s="64"/>
-      <c r="W509" s="63" t="s">
+      <c r="R509" s="60"/>
+      <c r="W509" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="65" t="s">
+      <c r="X509" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="63">
+      <c r="Y509" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="63" t="s">
+      <c r="AB509" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="63" t="s">
+      <c r="AC509" s="59" t="s">
         <v>1921</v>
       </c>
-      <c r="AD509" s="64" t="s">
+      <c r="AD509" s="60" t="s">
         <v>1922</v>
       </c>
-      <c r="AH509" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="63">
+      <c r="AH509" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="59">
         <v>509</v>
       </c>
-      <c r="B510" s="63">
+      <c r="B510" s="59">
         <v>10426</v>
       </c>
-      <c r="F510" s="63">
-        <v>1</v>
-      </c>
-      <c r="G510" s="63" t="s">
+      <c r="F510" s="59">
+        <v>1</v>
+      </c>
+      <c r="G510" s="59" t="s">
         <v>1923</v>
       </c>
-      <c r="J510" s="63" t="s">
+      <c r="J510" s="59" t="s">
         <v>1924</v>
       </c>
-      <c r="L510" s="63">
+      <c r="L510" s="59">
         <v>-4</v>
       </c>
-      <c r="M510" s="63">
-        <v>1</v>
-      </c>
-      <c r="N510" s="63">
-        <v>0</v>
-      </c>
-      <c r="O510" s="63" t="s">
+      <c r="M510" s="59">
+        <v>1</v>
+      </c>
+      <c r="N510" s="59">
+        <v>0</v>
+      </c>
+      <c r="O510" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="63">
+      <c r="P510" s="59">
         <v>4800</v>
       </c>
-      <c r="R510" s="64"/>
-      <c r="W510" s="63" t="s">
+      <c r="R510" s="60"/>
+      <c r="W510" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="65" t="s">
+      <c r="X510" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="63">
+      <c r="Y510" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="63" t="s">
+      <c r="AB510" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="63" t="s">
+      <c r="AC510" s="59" t="s">
         <v>1925</v>
       </c>
-      <c r="AD510" s="64" t="s">
+      <c r="AD510" s="60" t="s">
         <v>1926</v>
       </c>
-      <c r="AH510" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="63">
+      <c r="AH510" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="59">
         <v>510</v>
       </c>
-      <c r="B511" s="63">
+      <c r="B511" s="59">
         <v>10427</v>
       </c>
-      <c r="F511" s="63">
-        <v>1</v>
-      </c>
-      <c r="G511" s="63" t="s">
+      <c r="F511" s="59">
+        <v>1</v>
+      </c>
+      <c r="G511" s="59" t="s">
         <v>1927</v>
       </c>
-      <c r="J511" s="63" t="s">
+      <c r="J511" s="59" t="s">
         <v>1928</v>
       </c>
-      <c r="L511" s="63">
+      <c r="L511" s="59">
         <v>-4</v>
       </c>
-      <c r="M511" s="63">
-        <v>1</v>
-      </c>
-      <c r="N511" s="63">
-        <v>0</v>
-      </c>
-      <c r="O511" s="63" t="s">
+      <c r="M511" s="59">
+        <v>1</v>
+      </c>
+      <c r="N511" s="59">
+        <v>0</v>
+      </c>
+      <c r="O511" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="63">
+      <c r="P511" s="59">
         <v>9800</v>
       </c>
-      <c r="R511" s="64"/>
-      <c r="W511" s="63" t="s">
+      <c r="R511" s="60"/>
+      <c r="W511" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="65" t="s">
+      <c r="X511" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="63">
+      <c r="Y511" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="63" t="s">
+      <c r="AB511" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="63" t="s">
+      <c r="AC511" s="59" t="s">
         <v>1929</v>
       </c>
-      <c r="AD511" s="64" t="s">
+      <c r="AD511" s="60" t="s">
         <v>1930</v>
       </c>
-      <c r="AH511" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="63">
+      <c r="AH511" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="59">
         <v>1</v>
       </c>
     </row>
@@ -44700,881 +44729,1493 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="63">
+    <row r="520" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="59">
         <v>519</v>
       </c>
-      <c r="B520" s="63">
+      <c r="B520" s="59">
         <v>10436</v>
       </c>
-      <c r="F520" s="63">
-        <v>1</v>
-      </c>
-      <c r="G520" s="63" t="s">
+      <c r="F520" s="59">
+        <v>1</v>
+      </c>
+      <c r="G520" s="59" t="s">
         <v>1962</v>
       </c>
-      <c r="I520" s="63" t="s">
+      <c r="I520" s="59" t="s">
         <v>1963</v>
       </c>
-      <c r="J520" s="63" t="s">
+      <c r="J520" s="59" t="s">
         <v>1964</v>
       </c>
-      <c r="L520" s="63">
+      <c r="L520" s="59">
         <v>-23</v>
       </c>
-      <c r="M520" s="63">
-        <v>1</v>
-      </c>
-      <c r="N520" s="63">
-        <v>0</v>
-      </c>
-      <c r="O520" s="63" t="s">
+      <c r="M520" s="59">
+        <v>1</v>
+      </c>
+      <c r="N520" s="59">
+        <v>0</v>
+      </c>
+      <c r="O520" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P520" s="63">
+      <c r="P520" s="59">
         <v>1000</v>
       </c>
-      <c r="Q520" s="63" t="s">
+      <c r="Q520" s="59" t="s">
         <v>1965</v>
       </c>
-      <c r="R520" s="64" t="s">
+      <c r="R520" s="60" t="s">
         <v>1966</v>
       </c>
-      <c r="S520" s="63" t="s">
+      <c r="S520" s="59" t="s">
         <v>1967</v>
       </c>
-      <c r="W520" s="63" t="s">
+      <c r="W520" s="59" t="s">
         <v>1968</v>
       </c>
-      <c r="X520" s="63">
+      <c r="X520" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="63">
+      <c r="Y520" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH520" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="59">
-        <v>1</v>
-      </c>
-      <c r="G521" s="59" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1970</v>
       </c>
-      <c r="I521" s="59" t="s">
+      <c r="I521" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="J521" s="59" t="s">
+      <c r="J521" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="L521" s="59">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="59">
-        <v>0</v>
-      </c>
-      <c r="N521" s="59">
-        <v>0</v>
-      </c>
-      <c r="O521" s="59" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="59">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="59" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="R521" s="60" t="s">
-        <v>2033</v>
-      </c>
-      <c r="W521" s="59" t="s">
+      <c r="R521" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X521" s="59">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="59">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="59">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="59">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="59">
-        <v>1</v>
-      </c>
-      <c r="G522" s="59" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I522" s="59" t="s">
+      <c r="I522" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J522" s="59" t="s">
+      <c r="J522" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="L522" s="59">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="59">
-        <v>0</v>
-      </c>
-      <c r="N522" s="59">
-        <v>0</v>
-      </c>
-      <c r="O522" s="59" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="59">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="59" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="R522" s="60" t="s">
+      <c r="R522" s="10" t="s">
         <v>1981</v>
       </c>
-      <c r="W522" s="59" t="s">
+      <c r="W522" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X522" s="59">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="59">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="59">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="59">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="59">
-        <v>1</v>
-      </c>
-      <c r="G523" s="59" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I523" s="59" t="s">
+      <c r="I523" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J523" s="59" t="s">
+      <c r="J523" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="L523" s="59">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="59">
-        <v>0</v>
-      </c>
-      <c r="N523" s="59">
-        <v>0</v>
-      </c>
-      <c r="O523" s="59" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="59">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="59" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="R523" s="60" t="s">
+      <c r="R523" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="W523" s="59" t="s">
+      <c r="W523" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X523" s="59">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="59">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="59">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="59">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="59">
-        <v>1</v>
-      </c>
-      <c r="G524" s="59" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="I524" s="59" t="s">
+      <c r="I524" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="J524" s="59" t="s">
+      <c r="J524" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="L524" s="59">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="59">
-        <v>0</v>
-      </c>
-      <c r="N524" s="59">
-        <v>0</v>
-      </c>
-      <c r="O524" s="59" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="59">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="59" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1990</v>
       </c>
-      <c r="R524" s="60" t="s">
+      <c r="R524" s="10" t="s">
         <v>1991</v>
       </c>
-      <c r="W524" s="59" t="s">
+      <c r="W524" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X524" s="59">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="59">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="59">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="59">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="49">
-        <v>1</v>
-      </c>
-      <c r="G525" s="49" t="s">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="I525" s="49" t="s">
+      <c r="I525" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="J525" s="49" t="s">
+      <c r="J525" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="L525" s="49">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="49">
-        <v>0</v>
-      </c>
-      <c r="N525" s="49">
-        <v>0</v>
-      </c>
-      <c r="O525" s="49" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="49">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="49" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R525" s="50" t="s">
+      <c r="R525" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="W525" s="49" t="s">
+      <c r="W525" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X525" s="49">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="49">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="49">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="49">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="49">
-        <v>1</v>
-      </c>
-      <c r="G526" s="49" t="s">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="I526" s="49" t="s">
+      <c r="I526" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="J526" s="49" t="s">
+      <c r="J526" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="L526" s="49">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="49">
-        <v>0</v>
-      </c>
-      <c r="N526" s="49">
-        <v>0</v>
-      </c>
-      <c r="O526" s="49" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="49">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="49" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="R526" s="50" t="s">
+      <c r="R526" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W526" s="49" t="s">
+      <c r="W526" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X526" s="49">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="49">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="49">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="49">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="49">
-        <v>1</v>
-      </c>
-      <c r="G527" s="49" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="I527" s="49" t="s">
+      <c r="I527" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="J527" s="49" t="s">
+      <c r="J527" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="L527" s="49">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="49">
-        <v>0</v>
-      </c>
-      <c r="N527" s="49">
-        <v>0</v>
-      </c>
-      <c r="O527" s="49" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="49">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="49" t="s">
+      <c r="Q527" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R527" s="50" t="s">
+      <c r="R527" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="W527" s="49" t="s">
+      <c r="W527" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X527" s="49">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="49">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="49">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="49">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="49">
-        <v>1</v>
-      </c>
-      <c r="G528" s="49" t="s">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="I528" s="49" t="s">
+      <c r="I528" s="5" t="s">
         <v>2002</v>
       </c>
-      <c r="J528" s="49" t="s">
+      <c r="J528" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="L528" s="49">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="49">
-        <v>0</v>
-      </c>
-      <c r="N528" s="49">
-        <v>0</v>
-      </c>
-      <c r="O528" s="49" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="49">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="49" t="s">
+      <c r="Q528" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="R528" s="50" t="s">
+      <c r="R528" s="10" t="s">
         <v>2005</v>
       </c>
-      <c r="W528" s="49" t="s">
+      <c r="W528" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X528" s="49">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="49">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="49">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="49">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="59">
-        <v>1</v>
-      </c>
-      <c r="G529" s="59" t="s">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="I529" s="59" t="s">
+      <c r="I529" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J529" s="59" t="s">
+      <c r="J529" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="L529" s="59">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="59">
-        <v>0</v>
-      </c>
-      <c r="N529" s="59">
-        <v>0</v>
-      </c>
-      <c r="O529" s="59" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="59">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="59" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R529" s="60" t="s">
+      <c r="R529" s="10" t="s">
         <v>1997</v>
       </c>
-      <c r="W529" s="59" t="s">
+      <c r="W529" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X529" s="59">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="59">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="59">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="59">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="59">
-        <v>1</v>
-      </c>
-      <c r="G530" s="59" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="I530" s="59" t="s">
+      <c r="I530" s="5" t="s">
         <v>2009</v>
       </c>
-      <c r="J530" s="59" t="s">
+      <c r="J530" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="L530" s="59">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="59">
-        <v>0</v>
-      </c>
-      <c r="N530" s="59">
-        <v>0</v>
-      </c>
-      <c r="O530" s="59" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="59">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="59" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="R530" s="60" t="s">
+      <c r="R530" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="W530" s="59" t="s">
+      <c r="W530" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X530" s="59">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="59">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="59">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="59">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="59">
-        <v>1</v>
-      </c>
-      <c r="G531" s="59" t="s">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I531" s="59" t="s">
+      <c r="I531" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="J531" s="59" t="s">
+      <c r="J531" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="L531" s="59">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="59">
-        <v>0</v>
-      </c>
-      <c r="N531" s="59">
-        <v>0</v>
-      </c>
-      <c r="O531" s="59" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="59">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="59" t="s">
+      <c r="Q531" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R531" s="60" t="s">
+      <c r="R531" s="10" t="s">
         <v>2013</v>
       </c>
-      <c r="W531" s="59" t="s">
+      <c r="W531" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X531" s="59">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="59">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="59">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="59">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="59">
-        <v>1</v>
-      </c>
-      <c r="G532" s="59" t="s">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="I532" s="59" t="s">
+      <c r="I532" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J532" s="59" t="s">
+      <c r="J532" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="L532" s="59">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="59">
-        <v>0</v>
-      </c>
-      <c r="N532" s="59">
-        <v>0</v>
-      </c>
-      <c r="O532" s="59" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="59">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="59" t="s">
+      <c r="Q532" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="R532" s="60" t="s">
+      <c r="R532" s="10" t="s">
         <v>2016</v>
       </c>
-      <c r="W532" s="59" t="s">
+      <c r="W532" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X532" s="59">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="59">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="59">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="59">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="59">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="47">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="47">
+        <v>1</v>
+      </c>
+      <c r="G533" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I533" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J533" s="47" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L533" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="47">
+        <v>0</v>
+      </c>
+      <c r="N533" s="47">
+        <v>0</v>
+      </c>
+      <c r="O533" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P533" s="47">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="47" t="s">
+        <v>1263</v>
+      </c>
+      <c r="R533" s="63" t="s">
+        <v>1264</v>
+      </c>
+      <c r="W533" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X533" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="47">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="47">
+        <v>1</v>
+      </c>
+      <c r="G534" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I534" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J534" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L534" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="47">
+        <v>0</v>
+      </c>
+      <c r="N534" s="47">
+        <v>0</v>
+      </c>
+      <c r="O534" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P534" s="47">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="47" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R534" s="63" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W534" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X534" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="47">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="47">
+        <v>1</v>
+      </c>
+      <c r="G535" s="47" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J535" s="47" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L535" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="47">
+        <v>0</v>
+      </c>
+      <c r="N535" s="47">
+        <v>0</v>
+      </c>
+      <c r="O535" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P535" s="47">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R535" s="63" t="s">
+        <v>2036</v>
+      </c>
+      <c r="W535" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X535" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="49">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="49">
+        <v>1</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I536" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J536" s="49" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L536" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="49">
+        <v>0</v>
+      </c>
+      <c r="N536" s="49">
+        <v>0</v>
+      </c>
+      <c r="O536" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P536" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="R536" s="64" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W536" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X536" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="49">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="49">
+        <v>1</v>
+      </c>
+      <c r="G537" s="49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I537" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L537" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="49">
+        <v>0</v>
+      </c>
+      <c r="N537" s="49">
+        <v>0</v>
+      </c>
+      <c r="O537" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P537" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="49" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R537" s="64" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W537" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X537" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="49">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="49">
+        <v>1</v>
+      </c>
+      <c r="G538" s="49" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I538" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J538" s="49" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L538" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="49">
+        <v>0</v>
+      </c>
+      <c r="N538" s="49">
+        <v>0</v>
+      </c>
+      <c r="O538" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="P538" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R538" s="64" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W538" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X538" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="47">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="47">
+        <v>1</v>
+      </c>
+      <c r="G539" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I539" s="47" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J539" s="47" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L539" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="47">
+        <v>0</v>
+      </c>
+      <c r="N539" s="47">
+        <v>0</v>
+      </c>
+      <c r="O539" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P539" s="47">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="47" t="s">
+        <v>2042</v>
+      </c>
+      <c r="R539" s="63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="W539" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X539" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="47">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="47">
+        <v>1</v>
+      </c>
+      <c r="G540" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I540" s="47" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J540" s="47" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L540" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="47">
+        <v>0</v>
+      </c>
+      <c r="N540" s="47">
+        <v>0</v>
+      </c>
+      <c r="O540" s="47" t="s">
+        <v>2040</v>
+      </c>
+      <c r="P540" s="47">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="47" t="s">
+        <v>2043</v>
+      </c>
+      <c r="R540" s="63" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W540" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X540" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="47">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="47">
+        <v>1</v>
+      </c>
+      <c r="G541" s="47" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I541" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J541" s="47" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L541" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="47">
+        <v>0</v>
+      </c>
+      <c r="N541" s="47">
+        <v>0</v>
+      </c>
+      <c r="O541" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P541" s="47">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="47" t="s">
+        <v>1300</v>
+      </c>
+      <c r="R541" s="63" t="s">
+        <v>1301</v>
+      </c>
+      <c r="W541" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X541" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="47">
         <v>1</v>
       </c>
     </row>
@@ -45590,8 +46231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46591,13 +47232,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="61" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C71" s="62">
-        <v>1</v>
-      </c>
-      <c r="D71" s="62">
+      <c r="B71" s="57" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C71" s="58">
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
         <v>0</v>
       </c>
     </row>
@@ -46605,13 +47246,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="61" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C72" s="62">
-        <v>1</v>
-      </c>
-      <c r="D72" s="62">
+      <c r="B72" s="57" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C72" s="58">
+        <v>1</v>
+      </c>
+      <c r="D72" s="58">
         <v>0</v>
       </c>
     </row>
@@ -46619,13 +47260,13 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="62">
-        <v>1</v>
-      </c>
-      <c r="D73" s="62">
+      <c r="B73" s="57" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C73" s="58">
+        <v>1</v>
+      </c>
+      <c r="D73" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8697,31 +8697,131 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8800,7 +8900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8861,6 +8961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8904,7 +9010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9098,6 +9204,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11552,13 +11667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA537" sqref="AA537"/>
+      <selection pane="bottomRight" activeCell="AA547" sqref="AA547:AA548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44841,7 +44956,7 @@
         <v>1973</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1974</v>
@@ -45671,7 +45786,7 @@
       <c r="Z533" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="47">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
       <c r="AH533" s="47">
@@ -45739,7 +45854,7 @@
       <c r="Z534" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="47">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
       <c r="AH534" s="47">
@@ -45807,7 +45922,7 @@
       <c r="Z535" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="47">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
       <c r="AH535" s="47">
@@ -45875,7 +45990,7 @@
       <c r="Z536" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="49">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
       <c r="AH536" s="49">
@@ -45943,7 +46058,7 @@
       <c r="Z537" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="49">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
       <c r="AH537" s="49">
@@ -46011,7 +46126,7 @@
       <c r="Z538" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="49">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
       <c r="AH538" s="49">
@@ -46079,7 +46194,7 @@
       <c r="Z539" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="47">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
       <c r="AH539" s="47">
@@ -46147,7 +46262,7 @@
       <c r="Z540" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="47">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
       <c r="AH540" s="47">
@@ -46215,7 +46330,7 @@
       <c r="Z541" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="47">
+      <c r="AA541" s="5">
         <v>75</v>
       </c>
       <c r="AH541" s="47">
@@ -46228,6 +46343,524 @@
         <v>1</v>
       </c>
       <c r="AM541" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="65">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="65"/>
+      <c r="D542" s="65"/>
+      <c r="E542" s="65"/>
+      <c r="F542" s="65">
+        <v>1</v>
+      </c>
+      <c r="G542" s="65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H542" s="65"/>
+      <c r="I542" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J542" s="65" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K542" s="65"/>
+      <c r="L542" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="65">
+        <v>0</v>
+      </c>
+      <c r="N542" s="65">
+        <v>0</v>
+      </c>
+      <c r="O542" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P542" s="65">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R542" s="66" t="s">
+        <v>1488</v>
+      </c>
+      <c r="S542" s="65"/>
+      <c r="T542" s="65"/>
+      <c r="U542" s="65"/>
+      <c r="V542" s="65"/>
+      <c r="W542" s="65" t="s">
+        <v>2050</v>
+      </c>
+      <c r="X542" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="65">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="65"/>
+      <c r="D543" s="65"/>
+      <c r="E543" s="65"/>
+      <c r="F543" s="65">
+        <v>1</v>
+      </c>
+      <c r="G543" s="65" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H543" s="65"/>
+      <c r="I543" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J543" s="65" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K543" s="65"/>
+      <c r="L543" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="65">
+        <v>0</v>
+      </c>
+      <c r="N543" s="65">
+        <v>0</v>
+      </c>
+      <c r="O543" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P543" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R543" s="66" t="s">
+        <v>2053</v>
+      </c>
+      <c r="S543" s="65"/>
+      <c r="T543" s="65"/>
+      <c r="U543" s="65"/>
+      <c r="V543" s="65"/>
+      <c r="W543" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X543" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="65">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="65"/>
+      <c r="D544" s="65"/>
+      <c r="E544" s="65"/>
+      <c r="F544" s="65">
+        <v>1</v>
+      </c>
+      <c r="G544" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H544" s="65"/>
+      <c r="I544" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J544" s="65" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K544" s="65"/>
+      <c r="L544" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="65">
+        <v>0</v>
+      </c>
+      <c r="N544" s="65">
+        <v>0</v>
+      </c>
+      <c r="O544" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P544" s="65">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R544" s="66" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S544" s="65"/>
+      <c r="T544" s="65"/>
+      <c r="U544" s="65"/>
+      <c r="V544" s="65"/>
+      <c r="W544" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X544" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="65">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="65"/>
+      <c r="D545" s="65"/>
+      <c r="E545" s="65"/>
+      <c r="F545" s="65">
+        <v>1</v>
+      </c>
+      <c r="G545" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H545" s="65"/>
+      <c r="I545" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J545" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="K545" s="65"/>
+      <c r="L545" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="65">
+        <v>0</v>
+      </c>
+      <c r="N545" s="65">
+        <v>0</v>
+      </c>
+      <c r="O545" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P545" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R545" s="66" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S545" s="65"/>
+      <c r="T545" s="65"/>
+      <c r="U545" s="65"/>
+      <c r="V545" s="65"/>
+      <c r="W545" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X545" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="65">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="65"/>
+      <c r="D546" s="65"/>
+      <c r="E546" s="65"/>
+      <c r="F546" s="65">
+        <v>1</v>
+      </c>
+      <c r="G546" s="65" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H546" s="65"/>
+      <c r="I546" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J546" s="65" t="s">
+        <v>2061</v>
+      </c>
+      <c r="K546" s="65"/>
+      <c r="L546" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="65">
+        <v>0</v>
+      </c>
+      <c r="N546" s="65">
+        <v>0</v>
+      </c>
+      <c r="O546" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P546" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R546" s="66" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S546" s="65"/>
+      <c r="T546" s="65"/>
+      <c r="U546" s="65"/>
+      <c r="V546" s="65"/>
+      <c r="W546" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X546" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="65">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="65"/>
+      <c r="D547" s="65"/>
+      <c r="E547" s="65"/>
+      <c r="F547" s="65">
+        <v>1</v>
+      </c>
+      <c r="G547" s="65" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H547" s="65"/>
+      <c r="I547" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J547" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="K547" s="65"/>
+      <c r="L547" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="65">
+        <v>0</v>
+      </c>
+      <c r="N547" s="65">
+        <v>0</v>
+      </c>
+      <c r="O547" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P547" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R547" s="66" t="s">
+        <v>2066</v>
+      </c>
+      <c r="S547" s="65"/>
+      <c r="T547" s="65"/>
+      <c r="U547" s="65"/>
+      <c r="V547" s="65"/>
+      <c r="W547" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X547" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="65">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="65"/>
+      <c r="D548" s="65"/>
+      <c r="E548" s="65"/>
+      <c r="F548" s="65">
+        <v>1</v>
+      </c>
+      <c r="G548" s="65" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H548" s="65"/>
+      <c r="I548" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J548" s="65" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K548" s="65"/>
+      <c r="L548" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="65">
+        <v>0</v>
+      </c>
+      <c r="N548" s="65">
+        <v>0</v>
+      </c>
+      <c r="O548" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P548" s="65">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R548" s="66" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S548" s="65"/>
+      <c r="T548" s="65"/>
+      <c r="U548" s="65"/>
+      <c r="V548" s="65"/>
+      <c r="W548" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X548" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
@@ -46243,8 +46876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47245,7 +47878,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2046</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47259,7 +47892,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2047</v>
+        <v>2071</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47273,7 +47906,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2048</v>
+        <v>2072</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -47287,7 +47920,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2049</v>
+        <v>2073</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -47301,7 +47934,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2050</v>
+        <v>2074</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -47315,7 +47948,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2044</v>
+        <v>2075</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2051">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8697,19 +8697,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "golden_egg_1" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_2" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11542,11 +11554,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q510" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G526" sqref="G526"/>
+      <selection pane="bottomRight" activeCell="AA537" sqref="AA537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44829,7 +44841,7 @@
         <v>1973</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1974</v>
@@ -45660,7 +45672,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA533" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH533" s="47">
         <v>1</v>
@@ -45728,7 +45740,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA534" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH534" s="47">
         <v>1</v>
@@ -45796,7 +45808,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA535" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH535" s="47">
         <v>1</v>
@@ -45864,7 +45876,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA536" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH536" s="49">
         <v>1</v>
@@ -45932,7 +45944,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA537" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH537" s="49">
         <v>1</v>
@@ -46000,7 +46012,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA538" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH538" s="49">
         <v>1</v>
@@ -46068,7 +46080,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA539" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH539" s="47">
         <v>1</v>
@@ -46136,7 +46148,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA540" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH540" s="47">
         <v>1</v>
@@ -46204,7 +46216,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA541" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH541" s="47">
         <v>1</v>
@@ -46229,10 +46241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47233,7 +47245,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47247,7 +47259,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47261,12 +47273,54 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
       </c>
       <c r="D73" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C74" s="58">
+        <v>1</v>
+      </c>
+      <c r="D74" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C75" s="58">
+        <v>1</v>
+      </c>
+      <c r="D75" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+      <c r="D76" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8425,10 +8425,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8657,6 +8653,10 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11514,10 +11514,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O501" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W504" sqref="W504"/>
+      <selection pane="bottomRight" activeCell="R525" sqref="R525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43198,10 +43198,10 @@
         <v>1898</v>
       </c>
       <c r="R497" s="67" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43266,10 +43266,10 @@
         <v>1898</v>
       </c>
       <c r="R498" s="67" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43334,10 +43334,10 @@
         <v>1898</v>
       </c>
       <c r="R499" s="67" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43402,10 +43402,10 @@
         <v>1898</v>
       </c>
       <c r="R500" s="67" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43470,10 +43470,10 @@
         <v>1898</v>
       </c>
       <c r="R501" s="67" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43538,10 +43538,10 @@
         <v>1898</v>
       </c>
       <c r="R502" s="67" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43606,10 +43606,10 @@
         <v>1909</v>
       </c>
       <c r="R503" s="68" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43674,10 +43674,10 @@
         <v>1909</v>
       </c>
       <c r="R504" s="68" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43742,10 +43742,10 @@
         <v>1909</v>
       </c>
       <c r="R505" s="68" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43810,10 +43810,10 @@
         <v>1913</v>
       </c>
       <c r="R506" s="68" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43878,10 +43878,10 @@
         <v>1913</v>
       </c>
       <c r="R507" s="68" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43946,10 +43946,10 @@
         <v>1913</v>
       </c>
       <c r="R508" s="68" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44800,10 +44800,10 @@
         <v>1973</v>
       </c>
       <c r="R521" s="60" t="s">
+        <v>2033</v>
+      </c>
+      <c r="W521" s="59" t="s">
         <v>1974</v>
-      </c>
-      <c r="W521" s="59" t="s">
-        <v>1975</v>
       </c>
       <c r="X521" s="59">
         <v>99999999</v>
@@ -44841,13 +44841,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="59" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I522" s="59" t="s">
         <v>1977</v>
       </c>
-      <c r="I522" s="59" t="s">
+      <c r="J522" s="59" t="s">
         <v>1978</v>
-      </c>
-      <c r="J522" s="59" t="s">
-        <v>1979</v>
       </c>
       <c r="L522" s="59">
         <v>-33</v>
@@ -44865,10 +44865,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="59" t="s">
+        <v>1980</v>
+      </c>
+      <c r="R522" s="60" t="s">
         <v>1981</v>
-      </c>
-      <c r="R522" s="60" t="s">
-        <v>1982</v>
       </c>
       <c r="W522" s="59" t="s">
         <v>1100</v>
@@ -44909,13 +44909,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="59" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I523" s="59" t="s">
+        <v>1977</v>
+      </c>
+      <c r="J523" s="59" t="s">
         <v>1984</v>
-      </c>
-      <c r="I523" s="59" t="s">
-        <v>1978</v>
-      </c>
-      <c r="J523" s="59" t="s">
-        <v>1985</v>
       </c>
       <c r="L523" s="59">
         <v>-33</v>
@@ -44933,10 +44933,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="59" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R523" s="60" t="s">
         <v>1986</v>
-      </c>
-      <c r="R523" s="60" t="s">
-        <v>1987</v>
       </c>
       <c r="W523" s="59" t="s">
         <v>1100</v>
@@ -44977,13 +44977,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="59" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I524" s="59" t="s">
         <v>1971</v>
       </c>
       <c r="J524" s="59" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L524" s="59">
         <v>-33</v>
@@ -45001,10 +45001,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="59" t="s">
+        <v>1990</v>
+      </c>
+      <c r="R524" s="60" t="s">
         <v>1991</v>
-      </c>
-      <c r="R524" s="60" t="s">
-        <v>1992</v>
       </c>
       <c r="W524" s="59" t="s">
         <v>1100</v>
@@ -45048,10 +45048,10 @@
         <v>1969</v>
       </c>
       <c r="I525" s="49" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J525" s="49" t="s">
         <v>1994</v>
-      </c>
-      <c r="J525" s="49" t="s">
-        <v>1995</v>
       </c>
       <c r="L525" s="49">
         <v>-33</v>
@@ -45069,10 +45069,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="49" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R525" s="50" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="W525" s="49" t="s">
         <v>1100</v>
@@ -45113,13 +45113,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="49" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I526" s="49" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J526" s="49" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="L526" s="49">
         <v>-33</v>
@@ -45137,10 +45137,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="49" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R526" s="50" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W526" s="49" t="s">
         <v>1100</v>
@@ -45181,13 +45181,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="49" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I527" s="49" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J527" s="49" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L527" s="49">
         <v>-33</v>
@@ -45205,10 +45205,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="49" t="s">
+        <v>2000</v>
+      </c>
+      <c r="R527" s="50" t="s">
         <v>2001</v>
-      </c>
-      <c r="R527" s="50" t="s">
-        <v>2002</v>
       </c>
       <c r="W527" s="49" t="s">
         <v>1100</v>
@@ -45249,13 +45249,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="49" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I528" s="49" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J528" s="49" t="s">
         <v>2003</v>
-      </c>
-      <c r="J528" s="49" t="s">
-        <v>2004</v>
       </c>
       <c r="L528" s="49">
         <v>-33</v>
@@ -45273,10 +45273,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="49" t="s">
+        <v>2004</v>
+      </c>
+      <c r="R528" s="50" t="s">
         <v>2005</v>
-      </c>
-      <c r="R528" s="50" t="s">
-        <v>2006</v>
       </c>
       <c r="W528" s="49" t="s">
         <v>1100</v>
@@ -45317,13 +45317,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="59" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I529" s="59" t="s">
         <v>2007</v>
       </c>
-      <c r="I529" s="59" t="s">
+      <c r="J529" s="59" t="s">
         <v>2008</v>
-      </c>
-      <c r="J529" s="59" t="s">
-        <v>2009</v>
       </c>
       <c r="L529" s="59">
         <v>-33</v>
@@ -45341,10 +45341,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="59" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R529" s="60" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="W529" s="59" t="s">
         <v>1100</v>
@@ -45385,13 +45385,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="59" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I530" s="59" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J530" s="59" t="s">
         <v>2010</v>
-      </c>
-      <c r="J530" s="59" t="s">
-        <v>2011</v>
       </c>
       <c r="L530" s="59">
         <v>-33</v>
@@ -45409,10 +45409,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="59" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R530" s="60" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W530" s="59" t="s">
         <v>1100</v>
@@ -45453,13 +45453,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="59" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I531" s="59" t="s">
+        <v>2011</v>
+      </c>
+      <c r="J531" s="59" t="s">
         <v>2012</v>
-      </c>
-      <c r="J531" s="59" t="s">
-        <v>2013</v>
       </c>
       <c r="L531" s="59">
         <v>-33</v>
@@ -45477,10 +45477,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="59" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="R531" s="60" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W531" s="59" t="s">
         <v>1100</v>
@@ -45521,13 +45521,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="59" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I532" s="59" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J532" s="59" t="s">
         <v>2015</v>
-      </c>
-      <c r="I532" s="59" t="s">
-        <v>2008</v>
-      </c>
-      <c r="J532" s="59" t="s">
-        <v>2016</v>
       </c>
       <c r="L532" s="59">
         <v>-33</v>
@@ -45545,10 +45545,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="59" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="R532" s="60" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="W532" s="59" t="s">
         <v>1100</v>
@@ -46592,7 +46592,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C71" s="62">
         <v>1</v>
@@ -46606,7 +46606,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C72" s="62">
         <v>1</v>
@@ -46620,7 +46620,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C73" s="62">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2125">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8822,6 +8822,202 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8900,7 +9096,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8967,6 +9163,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9010,7 +9218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9212,8 +9420,23 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11667,13 +11890,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA547" sqref="AA547:AA548"/>
+      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44918,1949 +45141,3024 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="19">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="19">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="19">
+        <v>1</v>
+      </c>
+      <c r="G521" s="19" t="s">
         <v>1970</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="19" t="s">
         <v>1971</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="19" t="s">
         <v>1972</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="19">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="19">
+        <v>0</v>
+      </c>
+      <c r="N521" s="19">
+        <v>0</v>
+      </c>
+      <c r="O521" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="19">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="19" t="s">
         <v>1973</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="39" t="s">
         <v>2044</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="19" t="s">
         <v>1974</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z521" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA521" s="19">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="AH521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="19">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="19">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="19">
+        <v>1</v>
+      </c>
+      <c r="G522" s="19" t="s">
         <v>1976</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="19" t="s">
         <v>1978</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="19">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="19">
+        <v>0</v>
+      </c>
+      <c r="N522" s="19">
+        <v>0</v>
+      </c>
+      <c r="O522" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="19">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="19" t="s">
         <v>1980</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="39" t="s">
         <v>1981</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z522" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA522" s="19">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="AH522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="19">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="19">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="19">
+        <v>1</v>
+      </c>
+      <c r="G523" s="19" t="s">
         <v>1983</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="19" t="s">
         <v>1984</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="19">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="19">
+        <v>0</v>
+      </c>
+      <c r="N523" s="19">
+        <v>0</v>
+      </c>
+      <c r="O523" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="19">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="39" t="s">
         <v>1986</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z523" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA523" s="19">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="AH523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="19">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="19">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="19">
+        <v>1</v>
+      </c>
+      <c r="G524" s="19" t="s">
         <v>1988</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="19" t="s">
         <v>1971</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="19" t="s">
         <v>1989</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="19">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="19">
+        <v>0</v>
+      </c>
+      <c r="N524" s="19">
+        <v>0</v>
+      </c>
+      <c r="O524" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="19">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="19" t="s">
         <v>1990</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="39" t="s">
         <v>1991</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z524" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA524" s="19">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="AH524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="19">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="19">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="19">
+        <v>1</v>
+      </c>
+      <c r="G525" s="19" t="s">
         <v>1969</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="19" t="s">
         <v>1993</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="19" t="s">
         <v>1994</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="19">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="19">
+        <v>0</v>
+      </c>
+      <c r="N525" s="19">
+        <v>0</v>
+      </c>
+      <c r="O525" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="19">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="19" t="s">
         <v>1995</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="39" t="s">
         <v>1986</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z525" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA525" s="19">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="AH525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="19">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="19">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="19">
+        <v>1</v>
+      </c>
+      <c r="G526" s="19" t="s">
         <v>1975</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="19" t="s">
         <v>1992</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="19">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="19">
+        <v>0</v>
+      </c>
+      <c r="N526" s="19">
+        <v>0</v>
+      </c>
+      <c r="O526" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="19">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="19" t="s">
         <v>1979</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="39" t="s">
         <v>1998</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z526" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA526" s="19">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="AH526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="19">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="19">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="19">
+        <v>1</v>
+      </c>
+      <c r="G527" s="19" t="s">
         <v>1982</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="19" t="s">
         <v>1992</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="19" t="s">
         <v>1999</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="19">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="19">
+        <v>0</v>
+      </c>
+      <c r="N527" s="19">
+        <v>0</v>
+      </c>
+      <c r="O527" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="19">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="19" t="s">
         <v>2000</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z527" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA527" s="19">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="AH527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="19">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="19">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="19">
+        <v>1</v>
+      </c>
+      <c r="G528" s="19" t="s">
         <v>1987</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="19" t="s">
         <v>2002</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="19" t="s">
         <v>2003</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="19">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="19">
+        <v>0</v>
+      </c>
+      <c r="N528" s="19">
+        <v>0</v>
+      </c>
+      <c r="O528" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="19">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="19" t="s">
         <v>2004</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="39" t="s">
         <v>2005</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z528" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA528" s="19">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="AH528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="19">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="19">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="19">
+        <v>1</v>
+      </c>
+      <c r="G529" s="19" t="s">
         <v>2006</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="19" t="s">
         <v>2007</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="19" t="s">
         <v>2008</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="19">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="19">
+        <v>0</v>
+      </c>
+      <c r="N529" s="19">
+        <v>0</v>
+      </c>
+      <c r="O529" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="19">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="19" t="s">
         <v>1995</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="39" t="s">
         <v>1997</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z529" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA529" s="19">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="AH529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="19">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="19">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="19">
+        <v>1</v>
+      </c>
+      <c r="G530" s="19" t="s">
         <v>1975</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="19" t="s">
         <v>2009</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="19" t="s">
         <v>2010</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="19">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="19">
+        <v>0</v>
+      </c>
+      <c r="N530" s="19">
+        <v>0</v>
+      </c>
+      <c r="O530" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="19">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="19" t="s">
         <v>1980</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z530" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA530" s="19">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="AH530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="19">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="19">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="19">
+        <v>1</v>
+      </c>
+      <c r="G531" s="19" t="s">
         <v>1983</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="19" t="s">
         <v>2011</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="19" t="s">
         <v>2012</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="19">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="19">
+        <v>0</v>
+      </c>
+      <c r="N531" s="19">
+        <v>0</v>
+      </c>
+      <c r="O531" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="19">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="19" t="s">
         <v>2000</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="39" t="s">
         <v>2013</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z531" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA531" s="19">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="AH531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="19">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="19">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="19">
+        <v>1</v>
+      </c>
+      <c r="G532" s="19" t="s">
         <v>2014</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="19" t="s">
         <v>2007</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="19" t="s">
         <v>2015</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="19">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="19">
+        <v>0</v>
+      </c>
+      <c r="N532" s="19">
+        <v>0</v>
+      </c>
+      <c r="O532" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="19">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="19" t="s">
         <v>2004</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="39" t="s">
         <v>2016</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z532" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA532" s="19">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="47">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="47">
-        <v>1</v>
-      </c>
-      <c r="G533" s="47" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I533" s="47" t="s">
+      <c r="I533" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J533" s="47" t="s">
+      <c r="J533" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="L533" s="47">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="47">
-        <v>0</v>
-      </c>
-      <c r="N533" s="47">
-        <v>0</v>
-      </c>
-      <c r="O533" s="47" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P533" s="47">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="47" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="R533" s="63" t="s">
+      <c r="R533" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="W533" s="47" t="s">
+      <c r="W533" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="X533" s="47">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="47">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="47">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA533" s="5">
         <v>73</v>
       </c>
-      <c r="AH533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="47">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="47">
-        <v>1</v>
-      </c>
-      <c r="G534" s="47" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I534" s="47" t="s">
+      <c r="I534" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J534" s="47" t="s">
+      <c r="J534" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="L534" s="47">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="47">
-        <v>0</v>
-      </c>
-      <c r="N534" s="47">
-        <v>0</v>
-      </c>
-      <c r="O534" s="47" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P534" s="47">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="47" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="R534" s="63" t="s">
+      <c r="R534" s="10" t="s">
         <v>1270</v>
       </c>
-      <c r="W534" s="47" t="s">
+      <c r="W534" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X534" s="47">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="47">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="47">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA534" s="5">
         <v>73</v>
       </c>
-      <c r="AH534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="47">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="47">
-        <v>1</v>
-      </c>
-      <c r="G535" s="47" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I535" s="47" t="s">
+      <c r="I535" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J535" s="47" t="s">
+      <c r="J535" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="L535" s="47">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="47">
-        <v>0</v>
-      </c>
-      <c r="N535" s="47">
-        <v>0</v>
-      </c>
-      <c r="O535" s="47" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P535" s="47">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="47" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="R535" s="63" t="s">
+      <c r="R535" s="10" t="s">
         <v>2036</v>
       </c>
-      <c r="W535" s="47" t="s">
+      <c r="W535" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X535" s="47">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="47">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="47">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA535" s="5">
         <v>73</v>
       </c>
-      <c r="AH535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="49">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="49">
-        <v>1</v>
-      </c>
-      <c r="G536" s="49" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I536" s="49" t="s">
+      <c r="I536" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="J536" s="49" t="s">
+      <c r="J536" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="L536" s="49">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="49">
-        <v>0</v>
-      </c>
-      <c r="N536" s="49">
-        <v>0</v>
-      </c>
-      <c r="O536" s="49" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P536" s="49">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="49" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="R536" s="64" t="s">
+      <c r="R536" s="10" t="s">
         <v>1276</v>
       </c>
-      <c r="W536" s="49" t="s">
+      <c r="W536" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X536" s="49">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="49">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="49">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA536" s="5">
         <v>74</v>
       </c>
-      <c r="AH536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="49">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="49">
-        <v>1</v>
-      </c>
-      <c r="G537" s="49" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I537" s="49" t="s">
+      <c r="I537" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="J537" s="49" t="s">
+      <c r="J537" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="L537" s="49">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="49">
-        <v>0</v>
-      </c>
-      <c r="N537" s="49">
-        <v>0</v>
-      </c>
-      <c r="O537" s="49" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P537" s="49">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="49" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="R537" s="64" t="s">
+      <c r="R537" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="W537" s="49" t="s">
+      <c r="W537" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X537" s="49">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="49">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="49">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA537" s="5">
         <v>74</v>
       </c>
-      <c r="AH537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="49">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="49">
-        <v>1</v>
-      </c>
-      <c r="G538" s="49" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I538" s="49" t="s">
+      <c r="I538" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="J538" s="49" t="s">
+      <c r="J538" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="L538" s="49">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="49">
-        <v>0</v>
-      </c>
-      <c r="N538" s="49">
-        <v>0</v>
-      </c>
-      <c r="O538" s="49" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="P538" s="49">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="49" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="R538" s="64" t="s">
+      <c r="R538" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="W538" s="49" t="s">
+      <c r="W538" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X538" s="49">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="49">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="49">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA538" s="5">
         <v>74</v>
       </c>
-      <c r="AH538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="47">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="47">
-        <v>1</v>
-      </c>
-      <c r="G539" s="47" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I539" s="47" t="s">
+      <c r="I539" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="J539" s="47" t="s">
+      <c r="J539" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="L539" s="47">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="47">
-        <v>0</v>
-      </c>
-      <c r="N539" s="47">
-        <v>0</v>
-      </c>
-      <c r="O539" s="47" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P539" s="47">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="47" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="R539" s="63" t="s">
+      <c r="R539" s="10" t="s">
         <v>1285</v>
       </c>
-      <c r="W539" s="47" t="s">
+      <c r="W539" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X539" s="47">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="47">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="47">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA539" s="5">
         <v>75</v>
       </c>
-      <c r="AH539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="47">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="47">
-        <v>1</v>
-      </c>
-      <c r="G540" s="47" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I540" s="47" t="s">
+      <c r="I540" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="J540" s="47" t="s">
+      <c r="J540" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="L540" s="47">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="47">
-        <v>0</v>
-      </c>
-      <c r="N540" s="47">
-        <v>0</v>
-      </c>
-      <c r="O540" s="47" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="P540" s="47">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="47" t="s">
+      <c r="Q540" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="R540" s="63" t="s">
+      <c r="R540" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="W540" s="47" t="s">
+      <c r="W540" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X540" s="47">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="47">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="47">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA540" s="5">
         <v>75</v>
       </c>
-      <c r="AH540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="47">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="47">
-        <v>1</v>
-      </c>
-      <c r="G541" s="47" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I541" s="47" t="s">
+      <c r="I541" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="J541" s="47" t="s">
+      <c r="J541" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="L541" s="47">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="47">
-        <v>0</v>
-      </c>
-      <c r="N541" s="47">
-        <v>0</v>
-      </c>
-      <c r="O541" s="47" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P541" s="47">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="47" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="R541" s="63" t="s">
+      <c r="R541" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="W541" s="47" t="s">
+      <c r="W541" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="X541" s="47">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="47">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="47">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA541" s="5">
         <v>75</v>
       </c>
-      <c r="AH541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="69">
         <v>541</v>
       </c>
-      <c r="B542" s="65">
+      <c r="B542" s="69">
         <v>10458</v>
       </c>
-      <c r="C542" s="65"/>
-      <c r="D542" s="65"/>
-      <c r="E542" s="65"/>
-      <c r="F542" s="65">
-        <v>1</v>
-      </c>
-      <c r="G542" s="65" t="s">
+      <c r="F542" s="69">
+        <v>1</v>
+      </c>
+      <c r="G542" s="69" t="s">
         <v>2045</v>
       </c>
-      <c r="H542" s="65"/>
-      <c r="I542" s="65" t="s">
+      <c r="I542" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J542" s="65" t="s">
+      <c r="J542" s="69" t="s">
         <v>2048</v>
       </c>
-      <c r="K542" s="65"/>
-      <c r="L542" s="65">
+      <c r="L542" s="69">
         <v>-31</v>
       </c>
-      <c r="M542" s="65">
-        <v>0</v>
-      </c>
-      <c r="N542" s="65">
-        <v>0</v>
-      </c>
-      <c r="O542" s="65" t="s">
+      <c r="M542" s="69">
+        <v>0</v>
+      </c>
+      <c r="N542" s="69">
+        <v>0</v>
+      </c>
+      <c r="O542" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="65">
+      <c r="P542" s="69">
         <v>99800</v>
       </c>
-      <c r="Q542" s="65" t="s">
+      <c r="Q542" s="69" t="s">
         <v>2049</v>
       </c>
-      <c r="R542" s="66" t="s">
+      <c r="R542" s="70" t="s">
         <v>1488</v>
       </c>
-      <c r="S542" s="65"/>
-      <c r="T542" s="65"/>
-      <c r="U542" s="65"/>
-      <c r="V542" s="65"/>
-      <c r="W542" s="65" t="s">
+      <c r="W542" s="69" t="s">
         <v>2050</v>
       </c>
-      <c r="X542" s="65">
+      <c r="X542" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="69">
         <v>542</v>
       </c>
-      <c r="B543" s="65">
+      <c r="B543" s="69">
         <v>10459</v>
       </c>
-      <c r="C543" s="65"/>
-      <c r="D543" s="65"/>
-      <c r="E543" s="65"/>
-      <c r="F543" s="65">
-        <v>1</v>
-      </c>
-      <c r="G543" s="65" t="s">
+      <c r="F543" s="69">
+        <v>1</v>
+      </c>
+      <c r="G543" s="69" t="s">
         <v>2051</v>
       </c>
-      <c r="H543" s="65"/>
-      <c r="I543" s="65" t="s">
+      <c r="I543" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J543" s="65" t="s">
+      <c r="J543" s="69" t="s">
         <v>2052</v>
       </c>
-      <c r="K543" s="65"/>
-      <c r="L543" s="65">
+      <c r="L543" s="69">
         <v>-31</v>
       </c>
-      <c r="M543" s="65">
-        <v>0</v>
-      </c>
-      <c r="N543" s="65">
-        <v>0</v>
-      </c>
-      <c r="O543" s="65" t="s">
+      <c r="M543" s="69">
+        <v>0</v>
+      </c>
+      <c r="N543" s="69">
+        <v>0</v>
+      </c>
+      <c r="O543" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="65">
+      <c r="P543" s="69">
         <v>49800</v>
       </c>
-      <c r="Q543" s="65" t="s">
+      <c r="Q543" s="69" t="s">
         <v>2049</v>
       </c>
-      <c r="R543" s="66" t="s">
+      <c r="R543" s="70" t="s">
         <v>2053</v>
       </c>
-      <c r="S543" s="65"/>
-      <c r="T543" s="65"/>
-      <c r="U543" s="65"/>
-      <c r="V543" s="65"/>
-      <c r="W543" s="65" t="s">
+      <c r="W543" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="65">
+      <c r="X543" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="69">
         <v>543</v>
       </c>
-      <c r="B544" s="65">
+      <c r="B544" s="69">
         <v>10460</v>
       </c>
-      <c r="C544" s="65"/>
-      <c r="D544" s="65"/>
-      <c r="E544" s="65"/>
-      <c r="F544" s="65">
-        <v>1</v>
-      </c>
-      <c r="G544" s="65" t="s">
+      <c r="F544" s="69">
+        <v>1</v>
+      </c>
+      <c r="G544" s="69" t="s">
         <v>2054</v>
       </c>
-      <c r="H544" s="65"/>
-      <c r="I544" s="65" t="s">
+      <c r="I544" s="69" t="s">
         <v>2046</v>
       </c>
-      <c r="J544" s="65" t="s">
+      <c r="J544" s="69" t="s">
         <v>2055</v>
       </c>
-      <c r="K544" s="65"/>
-      <c r="L544" s="65">
+      <c r="L544" s="69">
         <v>-31</v>
       </c>
-      <c r="M544" s="65">
-        <v>0</v>
-      </c>
-      <c r="N544" s="65">
-        <v>0</v>
-      </c>
-      <c r="O544" s="65" t="s">
+      <c r="M544" s="69">
+        <v>0</v>
+      </c>
+      <c r="N544" s="69">
+        <v>0</v>
+      </c>
+      <c r="O544" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="65">
+      <c r="P544" s="69">
         <v>29800</v>
       </c>
-      <c r="Q544" s="65" t="s">
+      <c r="Q544" s="69" t="s">
         <v>2056</v>
       </c>
-      <c r="R544" s="66" t="s">
+      <c r="R544" s="70" t="s">
         <v>2057</v>
       </c>
-      <c r="S544" s="65"/>
-      <c r="T544" s="65"/>
-      <c r="U544" s="65"/>
-      <c r="V544" s="65"/>
-      <c r="W544" s="65" t="s">
+      <c r="W544" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="65">
+      <c r="X544" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="69">
         <v>544</v>
       </c>
-      <c r="B545" s="65">
+      <c r="B545" s="69">
         <v>10461</v>
       </c>
-      <c r="C545" s="65"/>
-      <c r="D545" s="65"/>
-      <c r="E545" s="65"/>
-      <c r="F545" s="65">
-        <v>1</v>
-      </c>
-      <c r="G545" s="65" t="s">
+      <c r="F545" s="69">
+        <v>1</v>
+      </c>
+      <c r="G545" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="H545" s="65"/>
-      <c r="I545" s="65" t="s">
+      <c r="I545" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J545" s="65" t="s">
+      <c r="J545" s="69" t="s">
         <v>2059</v>
       </c>
-      <c r="K545" s="65"/>
-      <c r="L545" s="65">
+      <c r="L545" s="69">
         <v>-31</v>
       </c>
-      <c r="M545" s="65">
-        <v>0</v>
-      </c>
-      <c r="N545" s="65">
-        <v>0</v>
-      </c>
-      <c r="O545" s="65" t="s">
+      <c r="M545" s="69">
+        <v>0</v>
+      </c>
+      <c r="N545" s="69">
+        <v>0</v>
+      </c>
+      <c r="O545" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="65">
+      <c r="P545" s="69">
         <v>19800</v>
       </c>
-      <c r="Q545" s="65" t="s">
+      <c r="Q545" s="69" t="s">
         <v>2056</v>
       </c>
-      <c r="R545" s="66" t="s">
+      <c r="R545" s="70" t="s">
         <v>1345</v>
       </c>
-      <c r="S545" s="65"/>
-      <c r="T545" s="65"/>
-      <c r="U545" s="65"/>
-      <c r="V545" s="65"/>
-      <c r="W545" s="65" t="s">
+      <c r="W545" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="65">
+      <c r="X545" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="69">
         <v>545</v>
       </c>
-      <c r="B546" s="65">
+      <c r="B546" s="69">
         <v>10462</v>
       </c>
-      <c r="C546" s="65"/>
-      <c r="D546" s="65"/>
-      <c r="E546" s="65"/>
-      <c r="F546" s="65">
-        <v>1</v>
-      </c>
-      <c r="G546" s="65" t="s">
+      <c r="F546" s="69">
+        <v>1</v>
+      </c>
+      <c r="G546" s="69" t="s">
         <v>2060</v>
       </c>
-      <c r="H546" s="65"/>
-      <c r="I546" s="65" t="s">
+      <c r="I546" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J546" s="65" t="s">
+      <c r="J546" s="69" t="s">
         <v>2061</v>
       </c>
-      <c r="K546" s="65"/>
-      <c r="L546" s="65">
+      <c r="L546" s="69">
         <v>-31</v>
       </c>
-      <c r="M546" s="65">
-        <v>0</v>
-      </c>
-      <c r="N546" s="65">
-        <v>0</v>
-      </c>
-      <c r="O546" s="65" t="s">
+      <c r="M546" s="69">
+        <v>0</v>
+      </c>
+      <c r="N546" s="69">
+        <v>0</v>
+      </c>
+      <c r="O546" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="65">
+      <c r="P546" s="69">
         <v>9800</v>
       </c>
-      <c r="Q546" s="65" t="s">
+      <c r="Q546" s="69" t="s">
         <v>1472</v>
       </c>
-      <c r="R546" s="66" t="s">
+      <c r="R546" s="70" t="s">
         <v>2062</v>
       </c>
-      <c r="S546" s="65"/>
-      <c r="T546" s="65"/>
-      <c r="U546" s="65"/>
-      <c r="V546" s="65"/>
-      <c r="W546" s="65" t="s">
+      <c r="W546" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="65">
+      <c r="X546" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="69">
         <v>546</v>
       </c>
-      <c r="B547" s="65">
+      <c r="B547" s="69">
         <v>10463</v>
       </c>
-      <c r="C547" s="65"/>
-      <c r="D547" s="65"/>
-      <c r="E547" s="65"/>
-      <c r="F547" s="65">
-        <v>1</v>
-      </c>
-      <c r="G547" s="65" t="s">
+      <c r="F547" s="69">
+        <v>1</v>
+      </c>
+      <c r="G547" s="69" t="s">
         <v>2063</v>
       </c>
-      <c r="H547" s="65"/>
-      <c r="I547" s="65" t="s">
+      <c r="I547" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J547" s="65" t="s">
+      <c r="J547" s="69" t="s">
         <v>2064</v>
       </c>
-      <c r="K547" s="65"/>
-      <c r="L547" s="65">
+      <c r="L547" s="69">
         <v>-31</v>
       </c>
-      <c r="M547" s="65">
-        <v>0</v>
-      </c>
-      <c r="N547" s="65">
-        <v>0</v>
-      </c>
-      <c r="O547" s="65" t="s">
+      <c r="M547" s="69">
+        <v>0</v>
+      </c>
+      <c r="N547" s="69">
+        <v>0</v>
+      </c>
+      <c r="O547" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="65">
+      <c r="P547" s="69">
         <v>4800</v>
       </c>
-      <c r="Q547" s="65" t="s">
+      <c r="Q547" s="69" t="s">
         <v>2065</v>
       </c>
-      <c r="R547" s="66" t="s">
+      <c r="R547" s="70" t="s">
         <v>2066</v>
       </c>
-      <c r="S547" s="65"/>
-      <c r="T547" s="65"/>
-      <c r="U547" s="65"/>
-      <c r="V547" s="65"/>
-      <c r="W547" s="65" t="s">
+      <c r="W547" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="65">
+      <c r="X547" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="69">
         <v>547</v>
       </c>
-      <c r="B548" s="65">
+      <c r="B548" s="69">
         <v>10464</v>
       </c>
-      <c r="C548" s="65"/>
-      <c r="D548" s="65"/>
-      <c r="E548" s="65"/>
-      <c r="F548" s="65">
-        <v>1</v>
-      </c>
-      <c r="G548" s="65" t="s">
+      <c r="F548" s="69">
+        <v>1</v>
+      </c>
+      <c r="G548" s="69" t="s">
         <v>2067</v>
       </c>
-      <c r="H548" s="65"/>
-      <c r="I548" s="65" t="s">
+      <c r="I548" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J548" s="65" t="s">
+      <c r="J548" s="69" t="s">
         <v>2068</v>
       </c>
-      <c r="K548" s="65"/>
-      <c r="L548" s="65">
+      <c r="L548" s="69">
         <v>-31</v>
       </c>
-      <c r="M548" s="65">
-        <v>0</v>
-      </c>
-      <c r="N548" s="65">
-        <v>0</v>
-      </c>
-      <c r="O548" s="65" t="s">
+      <c r="M548" s="69">
+        <v>0</v>
+      </c>
+      <c r="N548" s="69">
+        <v>0</v>
+      </c>
+      <c r="O548" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="65">
+      <c r="P548" s="69">
         <v>1800</v>
       </c>
-      <c r="Q548" s="65" t="s">
+      <c r="Q548" s="69" t="s">
         <v>2065</v>
       </c>
-      <c r="R548" s="66" t="s">
+      <c r="R548" s="70" t="s">
         <v>2069</v>
       </c>
-      <c r="S548" s="65"/>
-      <c r="T548" s="65"/>
-      <c r="U548" s="65"/>
-      <c r="V548" s="65"/>
-      <c r="W548" s="65" t="s">
+      <c r="W548" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="65">
+      <c r="X548" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>548</v>
+      </c>
+      <c r="B549" s="65">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="65">
+        <v>1</v>
+      </c>
+      <c r="G549" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I549" s="65" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J549" s="65" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L549" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="65">
+        <v>0</v>
+      </c>
+      <c r="N549" s="65">
+        <v>0</v>
+      </c>
+      <c r="O549" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P549" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R549" s="66" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W549" s="65" t="s">
+        <v>1696</v>
+      </c>
+      <c r="X549" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>549</v>
+      </c>
+      <c r="B550" s="65">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="65">
+        <v>1</v>
+      </c>
+      <c r="G550" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I550" s="65" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J550" s="65" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L550" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="65">
+        <v>0</v>
+      </c>
+      <c r="N550" s="65">
+        <v>0</v>
+      </c>
+      <c r="O550" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P550" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q550" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R550" s="66" t="s">
+        <v>2083</v>
+      </c>
+      <c r="W550" s="65" t="s">
+        <v>1696</v>
+      </c>
+      <c r="X550" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>550</v>
+      </c>
+      <c r="B551" s="65">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="65">
+        <v>1</v>
+      </c>
+      <c r="G551" s="65" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I551" s="65" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J551" s="65" t="s">
+        <v>2086</v>
+      </c>
+      <c r="L551" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="65">
+        <v>0</v>
+      </c>
+      <c r="N551" s="65">
+        <v>0</v>
+      </c>
+      <c r="O551" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P551" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R551" s="66" t="s">
+        <v>2087</v>
+      </c>
+      <c r="W551" s="65" t="s">
+        <v>1696</v>
+      </c>
+      <c r="X551" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>551</v>
+      </c>
+      <c r="B552" s="65">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="65">
+        <v>1</v>
+      </c>
+      <c r="G552" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I552" s="65" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J552" s="65" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L552" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="65">
+        <v>0</v>
+      </c>
+      <c r="N552" s="65">
+        <v>0</v>
+      </c>
+      <c r="O552" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P552" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R552" s="66" t="s">
+        <v>2090</v>
+      </c>
+      <c r="W552" s="65" t="s">
+        <v>1696</v>
+      </c>
+      <c r="X552" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>552</v>
+      </c>
+      <c r="B553" s="67">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="67">
+        <v>1</v>
+      </c>
+      <c r="G553" s="67" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I553" s="67" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J553" s="67" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L553" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="67">
+        <v>0</v>
+      </c>
+      <c r="N553" s="67">
+        <v>0</v>
+      </c>
+      <c r="O553" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P553" s="67">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="67" t="s">
+        <v>2094</v>
+      </c>
+      <c r="R553" s="68" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W553" s="67" t="s">
+        <v>2113</v>
+      </c>
+      <c r="X553" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>553</v>
+      </c>
+      <c r="B554" s="67">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="67">
+        <v>1</v>
+      </c>
+      <c r="G554" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I554" s="67" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J554" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L554" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="67">
+        <v>0</v>
+      </c>
+      <c r="N554" s="67">
+        <v>0</v>
+      </c>
+      <c r="O554" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P554" s="67">
+        <v>19800</v>
+      </c>
+      <c r="Q554" s="67" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R554" s="68" t="s">
+        <v>2099</v>
+      </c>
+      <c r="W554" s="67" t="s">
+        <v>2113</v>
+      </c>
+      <c r="X554" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>554</v>
+      </c>
+      <c r="B555" s="67">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="67">
+        <v>1</v>
+      </c>
+      <c r="G555" s="67" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I555" s="67" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J555" s="67" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L555" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="67">
+        <v>0</v>
+      </c>
+      <c r="N555" s="67">
+        <v>0</v>
+      </c>
+      <c r="O555" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P555" s="67">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="67" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R555" s="68" t="s">
+        <v>2103</v>
+      </c>
+      <c r="W555" s="67" t="s">
+        <v>2113</v>
+      </c>
+      <c r="X555" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>555</v>
+      </c>
+      <c r="B556" s="67">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="67">
+        <v>1</v>
+      </c>
+      <c r="G556" s="67" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I556" s="67" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J556" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="L556" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="67">
+        <v>0</v>
+      </c>
+      <c r="N556" s="67">
+        <v>0</v>
+      </c>
+      <c r="O556" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P556" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="67" t="s">
+        <v>2107</v>
+      </c>
+      <c r="R556" s="68" t="s">
+        <v>2108</v>
+      </c>
+      <c r="W556" s="67" t="s">
+        <v>2113</v>
+      </c>
+      <c r="X556" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="19">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="19">
+        <v>1</v>
+      </c>
+      <c r="G557" s="19" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J557" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L557" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="19">
+        <v>0</v>
+      </c>
+      <c r="N557" s="19">
+        <v>0</v>
+      </c>
+      <c r="O557" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P557" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R557" s="72" t="s">
+        <v>2121</v>
+      </c>
+      <c r="W557" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X557" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="19">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="19">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="19">
+        <v>1</v>
+      </c>
+      <c r="G558" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J558" s="19" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L558" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="19">
+        <v>0</v>
+      </c>
+      <c r="N558" s="19">
+        <v>0</v>
+      </c>
+      <c r="O558" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P558" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R558" s="72" t="s">
+        <v>654</v>
+      </c>
+      <c r="W558" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X558" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="19">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="19">
+        <v>1</v>
+      </c>
+      <c r="G559" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J559" s="19" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L559" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="19">
+        <v>0</v>
+      </c>
+      <c r="N559" s="19">
+        <v>0</v>
+      </c>
+      <c r="O559" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P559" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R559" s="72" t="s">
+        <v>2122</v>
+      </c>
+      <c r="W559" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X559" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="19">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="19">
+        <v>1</v>
+      </c>
+      <c r="G560" s="19" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J560" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L560" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="19">
+        <v>0</v>
+      </c>
+      <c r="N560" s="19">
+        <v>0</v>
+      </c>
+      <c r="O560" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P560" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R560" s="72" t="s">
+        <v>989</v>
+      </c>
+      <c r="W560" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X560" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="19">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="19">
+        <v>1</v>
+      </c>
+      <c r="G561" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J561" s="19" t="s">
+        <v>2117</v>
+      </c>
+      <c r="L561" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="19">
+        <v>0</v>
+      </c>
+      <c r="N561" s="19">
+        <v>0</v>
+      </c>
+      <c r="O561" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P561" s="19">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R561" s="72" t="s">
+        <v>1618</v>
+      </c>
+      <c r="W561" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X561" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="19">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="19">
+        <v>1</v>
+      </c>
+      <c r="G562" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J562" s="19" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L562" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="19">
+        <v>0</v>
+      </c>
+      <c r="N562" s="19">
+        <v>0</v>
+      </c>
+      <c r="O562" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P562" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R562" s="72" t="s">
+        <v>2123</v>
+      </c>
+      <c r="W562" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X562" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="19">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="19">
+        <v>1</v>
+      </c>
+      <c r="G563" s="19" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J563" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L563" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="19">
+        <v>0</v>
+      </c>
+      <c r="N563" s="19">
+        <v>0</v>
+      </c>
+      <c r="O563" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P563" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R563" s="72" t="s">
+        <v>989</v>
+      </c>
+      <c r="W563" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X563" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="19">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="19">
+        <v>1</v>
+      </c>
+      <c r="G564" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J564" s="19" t="s">
+        <v>2119</v>
+      </c>
+      <c r="L564" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="19">
+        <v>0</v>
+      </c>
+      <c r="N564" s="19">
+        <v>0</v>
+      </c>
+      <c r="O564" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P564" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R564" s="72" t="s">
+        <v>2122</v>
+      </c>
+      <c r="W564" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X564" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="19">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="19">
+        <v>1</v>
+      </c>
+      <c r="G565" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J565" s="19" t="s">
+        <v>2120</v>
+      </c>
+      <c r="L565" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="19">
+        <v>0</v>
+      </c>
+      <c r="N565" s="19">
+        <v>0</v>
+      </c>
+      <c r="O565" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P565" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R565" s="72" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W565" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X565" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8797,18 +8797,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "golden_egg_1" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9018,6 +9006,18 @@
   </si>
   <si>
     <t>幸运金币6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11892,7 +11892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -47035,13 +47035,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I549" s="65" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="J549" s="65" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="L549" s="65">
         <v>-31</v>
@@ -47059,10 +47059,10 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="65" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R549" s="66" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="W549" s="65" t="s">
         <v>1695</v>
@@ -47103,13 +47103,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I550" s="65" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="J550" s="65" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="L550" s="65">
         <v>-31</v>
@@ -47127,10 +47127,10 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="65" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R550" s="66" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="W550" s="65" t="s">
         <v>1695</v>
@@ -47171,13 +47171,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="I551" s="65" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J551" s="65" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="L551" s="65">
         <v>-31</v>
@@ -47195,10 +47195,10 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="65" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R551" s="66" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="W551" s="65" t="s">
         <v>1695</v>
@@ -47239,13 +47239,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I552" s="65" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="J552" s="65" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="L552" s="65">
         <v>-31</v>
@@ -47263,10 +47263,10 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="65" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R552" s="66" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="W552" s="65" t="s">
         <v>1695</v>
@@ -47307,13 +47307,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="67" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="I553" s="67" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="J553" s="67" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="L553" s="67">
         <v>-31</v>
@@ -47331,13 +47331,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="67" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="R553" s="68" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="W553" s="67" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47375,13 +47375,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="67" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I554" s="67" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="J554" s="67" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="L554" s="67">
         <v>-31</v>
@@ -47399,13 +47399,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="67" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="R554" s="68" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47443,13 +47443,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="67" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="I555" s="67" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J555" s="67" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="L555" s="67">
         <v>-31</v>
@@ -47467,13 +47467,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="67" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="R555" s="68" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47511,13 +47511,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="67" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="I556" s="67" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="J556" s="67" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="L556" s="67">
         <v>-31</v>
@@ -47535,13 +47535,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="67" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="R556" s="68" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47579,13 +47579,13 @@
         <v>1</v>
       </c>
       <c r="G557" s="19" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="I557" s="19" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J557" s="19" t="s">
         <v>2110</v>
-      </c>
-      <c r="J557" s="19" t="s">
-        <v>2113</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47606,7 +47606,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47648,10 +47648,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47714,10 +47714,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47738,7 +47738,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47777,13 +47777,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="19" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="I560" s="19" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J560" s="19" t="s">
         <v>2110</v>
-      </c>
-      <c r="J560" s="19" t="s">
-        <v>2113</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47846,10 +47846,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47912,10 +47912,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47936,7 +47936,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47975,13 +47975,13 @@
         <v>1</v>
       </c>
       <c r="G563" s="19" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I563" s="19" t="s">
         <v>2108</v>
       </c>
-      <c r="I563" s="19" t="s">
-        <v>2111</v>
-      </c>
       <c r="J563" s="19" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -48044,10 +48044,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48068,7 +48068,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48110,10 +48110,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48134,7 +48134,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
@@ -48174,8 +48174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49176,7 +49176,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2069</v>
+        <v>2122</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2070</v>
+        <v>2123</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49204,7 +49204,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2071</v>
+        <v>2124</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -49218,7 +49218,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -49232,7 +49232,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -49246,7 +49246,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5027,10 +5027,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>超值礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9018,6 +9014,10 @@
   </si>
   <si>
     <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9808,7 +9808,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>648</v>
@@ -9835,16 +9835,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>1401</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="18" t="s">
         <v>1402</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>1403</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1404</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -11307,10 +11307,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>45</v>
@@ -11381,10 +11381,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>45</v>
@@ -11455,10 +11455,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>45</v>
@@ -11529,10 +11529,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>45</v>
@@ -11603,10 +11603,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>45</v>
@@ -11677,10 +11677,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>45</v>
@@ -11751,10 +11751,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>45</v>
@@ -11802,7 +11802,7 @@
         <v>1057</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>1058</v>
@@ -11893,10 +11893,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
+      <selection pane="bottomRight" activeCell="H335" sqref="H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11962,10 +11962,10 @@
         <v>1123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>82</v>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1124</v>
+        <v>2124</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -15755,7 +15755,7 @@
         <v>222</v>
       </c>
       <c r="H67" s="51" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="L67" s="51">
         <v>-4</v>
@@ -15776,7 +15776,7 @@
         <v>77</v>
       </c>
       <c r="R67" s="51" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="W67" s="51" t="s">
         <v>524</v>
@@ -15814,7 +15814,7 @@
         <v>224</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="L68" s="51">
         <v>-4</v>
@@ -15835,7 +15835,7 @@
         <v>77</v>
       </c>
       <c r="R68" s="51" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="W68" s="51" t="s">
         <v>524</v>
@@ -15873,7 +15873,7 @@
         <v>226</v>
       </c>
       <c r="H69" s="51" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="L69" s="51">
         <v>-4</v>
@@ -15894,7 +15894,7 @@
         <v>77</v>
       </c>
       <c r="R69" s="51" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W69" s="51" t="s">
         <v>524</v>
@@ -15932,7 +15932,7 @@
         <v>228</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L70" s="51">
         <v>-4</v>
@@ -15953,7 +15953,7 @@
         <v>77</v>
       </c>
       <c r="R70" s="51" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W70" s="51" t="s">
         <v>524</v>
@@ -15991,7 +15991,7 @@
         <v>229</v>
       </c>
       <c r="H71" s="51" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L71" s="51">
         <v>-4</v>
@@ -16012,7 +16012,7 @@
         <v>77</v>
       </c>
       <c r="R71" s="51" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="W71" s="51" t="s">
         <v>524</v>
@@ -16345,7 +16345,7 @@
         <v>235</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -16366,7 +16366,7 @@
         <v>487</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>524</v>
@@ -16384,10 +16384,10 @@
         <v>77</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AD77" s="39" t="s">
         <v>1706</v>
-      </c>
-      <c r="AD77" s="39" t="s">
-        <v>1707</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -16410,7 +16410,7 @@
         <v>236</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -16431,7 +16431,7 @@
         <v>487</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>524</v>
@@ -16449,10 +16449,10 @@
         <v>77</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AD78" s="39" t="s">
         <v>1709</v>
-      </c>
-      <c r="AD78" s="39" t="s">
-        <v>1710</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -16472,7 +16472,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>804</v>
@@ -16608,7 +16608,7 @@
         <v>239</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -16629,7 +16629,7 @@
         <v>487</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>524</v>
@@ -16644,13 +16644,13 @@
         <v>2552233600</v>
       </c>
       <c r="AB81" s="19" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AC81" s="19" t="s">
         <v>1713</v>
       </c>
-      <c r="AC81" s="19" t="s">
+      <c r="AD81" s="39" t="s">
         <v>1714</v>
-      </c>
-      <c r="AD81" s="39" t="s">
-        <v>1715</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16859,10 +16859,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>526</v>
@@ -16965,10 +16965,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>526</v>
@@ -19373,7 +19373,7 @@
         <v>319</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="L128" s="51">
         <v>-10</v>
@@ -19394,7 +19394,7 @@
         <v>77</v>
       </c>
       <c r="R128" s="51" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="W128" s="51" t="s">
         <v>524</v>
@@ -19429,10 +19429,10 @@
         <v>1</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="L129" s="51">
         <v>-11</v>
@@ -19453,7 +19453,7 @@
         <v>77</v>
       </c>
       <c r="R129" s="51" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="W129" s="51" t="s">
         <v>524</v>
@@ -20040,7 +20040,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -20101,7 +20101,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21928,7 +21928,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>986</v>
@@ -22052,13 +22052,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I171" s="43" t="s">
         <v>1718</v>
       </c>
-      <c r="I171" s="43" t="s">
+      <c r="J171" s="43" t="s">
         <v>1719</v>
-      </c>
-      <c r="J171" s="43" t="s">
-        <v>1720</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -22076,13 +22076,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
+        <v>1720</v>
+      </c>
+      <c r="R171" s="50" t="s">
         <v>1721</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="W171" s="43" t="s">
         <v>1722</v>
-      </c>
-      <c r="W171" s="43" t="s">
-        <v>1723</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -22120,13 +22120,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -22144,10 +22144,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="R172" s="50" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>527</v>
@@ -22188,13 +22188,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I173" s="43" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J173" s="43" t="s">
         <v>1726</v>
-      </c>
-      <c r="J173" s="43" t="s">
-        <v>1727</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -22212,10 +22212,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="R173" s="50" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>527</v>
@@ -22256,13 +22256,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I174" s="43" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J174" s="43" t="s">
         <v>1729</v>
-      </c>
-      <c r="J174" s="43" t="s">
-        <v>1730</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -22280,10 +22280,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="R174" s="50" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>527</v>
@@ -22324,13 +22324,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I175" s="43" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J175" s="43" t="s">
         <v>1732</v>
-      </c>
-      <c r="J175" s="43" t="s">
-        <v>1733</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -22348,10 +22348,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="43" t="s">
+        <v>1733</v>
+      </c>
+      <c r="R175" s="50" t="s">
         <v>1734</v>
-      </c>
-      <c r="R175" s="50" t="s">
-        <v>1735</v>
       </c>
       <c r="W175" s="43" t="s">
         <v>527</v>
@@ -22392,13 +22392,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I176" s="43" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J176" s="43" t="s">
         <v>1736</v>
-      </c>
-      <c r="J176" s="43" t="s">
-        <v>1737</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -22416,10 +22416,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R176" s="50" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>527</v>
@@ -22460,13 +22460,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I177" s="43" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J177" s="43" t="s">
         <v>1739</v>
-      </c>
-      <c r="J177" s="43" t="s">
-        <v>1740</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -22484,10 +22484,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R177" s="50" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>527</v>
@@ -22528,13 +22528,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I178" s="43" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J178" s="43" t="s">
         <v>1742</v>
-      </c>
-      <c r="J178" s="43" t="s">
-        <v>1743</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -22552,10 +22552,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R178" s="50" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>527</v>
@@ -22596,13 +22596,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I179" s="43" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J179" s="43" t="s">
         <v>1745</v>
-      </c>
-      <c r="J179" s="43" t="s">
-        <v>1746</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -22620,10 +22620,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R179" s="50" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>527</v>
@@ -22664,13 +22664,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -22688,10 +22688,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R180" s="50" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>527</v>
@@ -22732,13 +22732,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -22756,10 +22756,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R181" s="50" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>527</v>
@@ -22800,13 +22800,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I182" s="43" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J182" s="43" t="s">
         <v>1750</v>
-      </c>
-      <c r="J182" s="43" t="s">
-        <v>1751</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22824,10 +22824,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R182" s="50" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>527</v>
@@ -22868,13 +22868,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22892,10 +22892,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R183" s="50" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>527</v>
@@ -22936,13 +22936,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22960,10 +22960,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R184" s="50" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>527</v>
@@ -23004,13 +23004,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I185" s="43" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J185" s="43" t="s">
         <v>1755</v>
-      </c>
-      <c r="J185" s="43" t="s">
-        <v>1756</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -23028,10 +23028,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R185" s="50" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>527</v>
@@ -27491,7 +27491,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>927</v>
@@ -27686,7 +27686,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>862</v>
@@ -28209,7 +28209,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>868</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>870</v>
@@ -28735,7 +28735,7 @@
         <v>520</v>
       </c>
       <c r="H273" s="55" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="L273" s="51">
         <v>-10</v>
@@ -28756,7 +28756,7 @@
         <v>77</v>
       </c>
       <c r="R273" s="51" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="W273" s="51" t="s">
         <v>524</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>874</v>
@@ -29060,7 +29060,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>875</v>
@@ -29125,7 +29125,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>876</v>
@@ -29190,7 +29190,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>873</v>
@@ -31437,10 +31437,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J316" s="5" t="s">
         <v>1880</v>
-      </c>
-      <c r="J316" s="5" t="s">
-        <v>1881</v>
       </c>
       <c r="L316" s="5">
         <v>-31</v>
@@ -31499,10 +31499,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J317" s="5" t="s">
         <v>1882</v>
-      </c>
-      <c r="J317" s="5" t="s">
-        <v>1883</v>
       </c>
       <c r="L317" s="5">
         <v>-31</v>
@@ -31561,10 +31561,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J318" s="5" t="s">
         <v>1884</v>
-      </c>
-      <c r="J318" s="5" t="s">
-        <v>1885</v>
       </c>
       <c r="L318" s="5">
         <v>-31</v>
@@ -31679,10 +31679,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -31735,7 +31735,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>900</v>
@@ -31797,7 +31797,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>617</v>
@@ -31859,10 +31859,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J323" s="43" t="s">
         <v>1758</v>
-      </c>
-      <c r="J323" s="43" t="s">
-        <v>1759</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31880,13 +31880,13 @@
         <v>600</v>
       </c>
       <c r="Q323" s="43" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R323" s="50" t="s">
         <v>1760</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="W323" s="43" t="s">
         <v>1761</v>
-      </c>
-      <c r="W323" s="43" t="s">
-        <v>1762</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31924,10 +31924,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J324" s="43" t="s">
         <v>1763</v>
-      </c>
-      <c r="J324" s="43" t="s">
-        <v>1764</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31945,10 +31945,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
+        <v>1764</v>
+      </c>
+      <c r="R324" s="50" t="s">
         <v>1765</v>
-      </c>
-      <c r="R324" s="50" t="s">
-        <v>1766</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>527</v>
@@ -31989,10 +31989,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J325" s="43" t="s">
         <v>1767</v>
-      </c>
-      <c r="J325" s="43" t="s">
-        <v>1768</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -32010,10 +32010,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="43" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="R325" s="50" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>527</v>
@@ -32054,7 +32054,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>961</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>979</v>
@@ -32178,12 +32178,12 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -32196,13 +32196,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="R328" s="50" t="s">
         <v>980</v>
@@ -32212,7 +32212,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -32266,7 +32266,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -32279,23 +32279,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R329" s="50" t="s">
         <v>1645</v>
-      </c>
-      <c r="R329" s="50" t="s">
-        <v>1646</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -32349,7 +32349,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -32362,23 +32362,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
+        <v>1647</v>
+      </c>
+      <c r="R330" s="50" t="s">
         <v>1648</v>
-      </c>
-      <c r="R330" s="50" t="s">
-        <v>1649</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -32432,7 +32432,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -32445,23 +32445,23 @@
         <v>0</v>
       </c>
       <c r="O331" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P331" s="43">
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R331" s="50" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -32515,7 +32515,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -32534,17 +32534,17 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R332" s="50" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -32598,7 +32598,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -32611,23 +32611,23 @@
         <v>0</v>
       </c>
       <c r="O333" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P333" s="43">
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R333" s="50" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -32681,7 +32681,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -32694,23 +32694,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R334" s="50" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32764,7 +32764,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32777,23 +32777,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R335" s="50" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32847,7 +32847,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32860,23 +32860,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="R336" s="50" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32930,7 +32930,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32943,23 +32943,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="R337" s="50" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -33005,7 +33005,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>998</v>
@@ -33161,7 +33161,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -33243,12 +33243,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -33260,19 +33260,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R341" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="R341" s="10" t="s">
+      <c r="W341" s="5" t="s">
         <v>1151</v>
-      </c>
-      <c r="W341" s="5" t="s">
-        <v>1152</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -33287,10 +33287,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AC341" s="5" t="s">
         <v>1153</v>
-      </c>
-      <c r="AC341" s="5" t="s">
-        <v>1154</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -33316,10 +33316,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J342" s="5" t="s">
         <v>1155</v>
-      </c>
-      <c r="J342" s="5" t="s">
-        <v>1156</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -33331,19 +33331,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R342" s="10" t="s">
         <v>1075</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -33358,10 +33358,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -33387,10 +33387,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J343" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>1159</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -33402,19 +33402,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R343" s="10" t="s">
         <v>1076</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -33429,10 +33429,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -33458,10 +33458,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J344" s="5" t="s">
         <v>1161</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>1162</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -33473,19 +33473,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -33500,10 +33500,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -33532,7 +33532,7 @@
         <v>1077</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -33544,19 +33544,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R345" s="10" t="s">
         <v>1078</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -33571,10 +33571,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -33603,7 +33603,7 @@
         <v>1079</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -33615,19 +33615,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R346" s="10" t="s">
         <v>1080</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -33642,10 +33642,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -33674,7 +33674,7 @@
         <v>1081</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -33686,19 +33686,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -33713,10 +33713,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -33745,7 +33745,7 @@
         <v>1082</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -33757,19 +33757,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33784,10 +33784,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33816,7 +33816,7 @@
         <v>1083</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33834,13 +33834,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33855,7 +33855,7 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC349" s="5" t="s">
         <v>1084</v>
@@ -33887,7 +33887,7 @@
         <v>1085</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33908,10 +33908,10 @@
         <v>958</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33929,7 +33929,7 @@
         <v>445</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33958,7 +33958,7 @@
         <v>1086</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33970,7 +33970,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33982,7 +33982,7 @@
         <v>1087</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -34000,7 +34000,7 @@
         <v>445</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -34050,7 +34050,7 @@
         <v>958</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>566</v>
@@ -34068,7 +34068,7 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC352" s="5" t="s">
         <v>1090</v>
@@ -34097,13 +34097,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I353" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -34121,13 +34121,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R353" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="R353" s="10" t="s">
+      <c r="W353" s="5" t="s">
         <v>1185</v>
-      </c>
-      <c r="W353" s="5" t="s">
-        <v>1186</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -34165,13 +34165,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -34183,7 +34183,7 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
@@ -34192,10 +34192,10 @@
         <v>1095</v>
       </c>
       <c r="R354" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="W354" s="5" t="s">
         <v>1185</v>
-      </c>
-      <c r="W354" s="5" t="s">
-        <v>1186</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -34233,13 +34233,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I355" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="I355" s="5" t="s">
-        <v>1189</v>
-      </c>
       <c r="J355" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -34251,7 +34251,7 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
@@ -34307,7 +34307,7 @@
         <v>1098</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -34369,13 +34369,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I357" s="5" t="s">
         <v>1098</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -34387,7 +34387,7 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
@@ -34443,7 +34443,7 @@
         <v>1098</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -34455,7 +34455,7 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
@@ -34511,7 +34511,7 @@
         <v>1103</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -34523,7 +34523,7 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
@@ -34579,7 +34579,7 @@
         <v>1103</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -34591,7 +34591,7 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
@@ -34647,7 +34647,7 @@
         <v>1103</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -34659,7 +34659,7 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
@@ -34671,7 +34671,7 @@
         <v>271</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -34709,13 +34709,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I362" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -34736,7 +34736,7 @@
         <v>1097</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>566</v>
@@ -34754,7 +34754,7 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AC362" s="5" t="s">
         <v>1108</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I363" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
@@ -34813,7 +34813,7 @@
         <v>271</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34828,7 +34828,7 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AC363" s="5" t="s">
         <v>1110</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I364" s="5" t="s">
         <v>1103</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
@@ -34887,7 +34887,7 @@
         <v>271</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34905,7 +34905,7 @@
         <v>1107</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34931,7 +34931,7 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J365" s="5" t="s">
         <v>1111</v>
@@ -34946,16 +34946,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R365" s="10" t="s">
         <v>1194</v>
-      </c>
-      <c r="R365" s="10" t="s">
-        <v>1195</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>566</v>
@@ -34996,10 +34996,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J366" s="5" t="s">
         <v>1196</v>
-      </c>
-      <c r="J366" s="5" t="s">
-        <v>1197</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
@@ -35020,7 +35020,7 @@
         <v>1112</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>566</v>
@@ -35061,7 +35061,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="J367" s="5" t="s">
         <v>1113</v>
@@ -35076,7 +35076,7 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
@@ -35085,10 +35085,10 @@
         <v>1112</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -35126,7 +35126,7 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>1114</v>
@@ -35141,16 +35141,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>566</v>
@@ -35191,7 +35191,7 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J369" s="5" t="s">
         <v>1115</v>
@@ -35218,7 +35218,7 @@
         <v>1116</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -35259,7 +35259,7 @@
         <v>1117</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -35277,7 +35277,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>725</v>
@@ -35318,7 +35318,7 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J371" s="5" t="s">
         <v>1118</v>
@@ -35339,10 +35339,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>593</v>
@@ -35383,7 +35383,7 @@
         <v>1119</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -35401,7 +35401,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>729</v>
@@ -35445,7 +35445,7 @@
         <v>1120</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -35463,13 +35463,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>730</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -35522,7 +35522,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -35531,7 +35531,7 @@
         <v>523</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>566</v>
@@ -35572,13 +35572,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I375" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="I375" s="5" t="s">
+      <c r="J375" s="5" t="s">
         <v>1228</v>
-      </c>
-      <c r="J375" s="5" t="s">
-        <v>1229</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -35590,19 +35590,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R375" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="R375" s="10" t="s">
+      <c r="W375" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="W375" s="5" t="s">
-        <v>1233</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -35640,13 +35640,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I376" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J376" s="5" t="s">
         <v>1237</v>
-      </c>
-      <c r="J376" s="5" t="s">
-        <v>1238</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -35658,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R376" s="10" t="s">
         <v>1240</v>
       </c>
-      <c r="R376" s="10" t="s">
+      <c r="W376" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="W376" s="5" t="s">
-        <v>1242</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -35708,10 +35708,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>964</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35776,13 +35776,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="I378" s="5" t="s">
-        <v>1236</v>
-      </c>
       <c r="J378" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35800,13 +35800,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R378" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="W378" s="5" t="s">
         <v>1245</v>
-      </c>
-      <c r="W378" s="5" t="s">
-        <v>1246</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35844,10 +35844,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>875</v>
@@ -35862,19 +35862,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35912,10 +35912,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>876</v>
@@ -35930,19 +35930,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35980,13 +35980,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -36004,10 +36004,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R381" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="R381" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>568</v>
@@ -36048,13 +36048,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -36072,13 +36072,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -36116,13 +36116,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -36140,10 +36140,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>534</v>
@@ -36184,13 +36184,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>729</v>
@@ -36252,13 +36252,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -36270,19 +36270,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -36320,14 +36320,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H386" s="47"/>
       <c r="I386" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J386" s="19" t="s">
         <v>1261</v>
-      </c>
-      <c r="J386" s="19" t="s">
-        <v>1262</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -36345,10 +36345,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R386" s="39" t="s">
         <v>1263</v>
-      </c>
-      <c r="R386" s="39" t="s">
-        <v>1264</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>534</v>
@@ -36389,14 +36389,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H387" s="47"/>
       <c r="I387" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J387" s="19" t="s">
         <v>1266</v>
-      </c>
-      <c r="J387" s="19" t="s">
-        <v>1267</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -36408,16 +36408,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="R387" s="39" t="s">
         <v>1269</v>
-      </c>
-      <c r="R387" s="39" t="s">
-        <v>1270</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>534</v>
@@ -36458,14 +36458,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H388" s="47"/>
       <c r="I388" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J388" s="19" t="s">
         <v>1272</v>
-      </c>
-      <c r="J388" s="19" t="s">
-        <v>1273</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -36477,19 +36477,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R388" s="39" t="s">
         <v>1275</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="W388" s="19" t="s">
         <v>1276</v>
-      </c>
-      <c r="W388" s="19" t="s">
-        <v>1277</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -36527,14 +36527,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J389" s="19" t="s">
         <v>1279</v>
-      </c>
-      <c r="J389" s="19" t="s">
-        <v>1280</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -36546,16 +36546,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>534</v>
@@ -36596,14 +36596,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1109</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -36621,10 +36621,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="R390" s="39" t="s">
         <v>1284</v>
-      </c>
-      <c r="R390" s="39" t="s">
-        <v>1285</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>534</v>
@@ -36665,14 +36665,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -36690,10 +36690,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="R391" s="39" t="s">
         <v>1288</v>
-      </c>
-      <c r="R391" s="39" t="s">
-        <v>1289</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>534</v>
@@ -36734,14 +36734,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H392" s="47"/>
       <c r="I392" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J392" s="19" t="s">
         <v>1290</v>
-      </c>
-      <c r="J392" s="19" t="s">
-        <v>1291</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -36759,10 +36759,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R392" s="39" t="s">
         <v>1292</v>
-      </c>
-      <c r="R392" s="39" t="s">
-        <v>1293</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>534</v>
@@ -36803,14 +36803,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H393" s="47"/>
       <c r="I393" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J393" s="19" t="s">
         <v>1294</v>
-      </c>
-      <c r="J393" s="19" t="s">
-        <v>1295</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36828,10 +36828,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>534</v>
@@ -36872,14 +36872,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H394" s="47"/>
       <c r="I394" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J394" s="19" t="s">
         <v>1297</v>
-      </c>
-      <c r="J394" s="19" t="s">
-        <v>1298</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36891,16 +36891,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="R394" s="39" t="s">
         <v>1300</v>
-      </c>
-      <c r="R394" s="39" t="s">
-        <v>1301</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>534</v>
@@ -36941,10 +36941,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J395" s="5" t="s">
         <v>1310</v>
-      </c>
-      <c r="J395" s="5" t="s">
-        <v>1311</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36956,16 +36956,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="R395" s="10" t="s">
         <v>1314</v>
-      </c>
-      <c r="R395" s="10" t="s">
-        <v>1315</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>527</v>
@@ -37003,10 +37003,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J396" s="5" t="s">
         <v>1316</v>
-      </c>
-      <c r="J396" s="5" t="s">
-        <v>1317</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -37018,16 +37018,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>527</v>
@@ -37068,7 +37068,7 @@
         <v>288</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -37086,10 +37086,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>527</v>
@@ -37130,7 +37130,7 @@
         <v>291</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -37148,10 +37148,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>527</v>
@@ -37189,10 +37189,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J399" s="5" t="s">
         <v>1323</v>
-      </c>
-      <c r="J399" s="5" t="s">
-        <v>1324</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -37204,16 +37204,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>527</v>
@@ -37251,10 +37251,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J400" s="5" t="s">
         <v>1326</v>
-      </c>
-      <c r="J400" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -37266,16 +37266,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>527</v>
@@ -37313,10 +37313,10 @@
         <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J401" s="5" t="s">
         <v>1329</v>
-      </c>
-      <c r="J401" s="5" t="s">
-        <v>1330</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -37334,13 +37334,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="R401" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="R401" s="5" t="s">
-        <v>1333</v>
-      </c>
       <c r="W401" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -37378,10 +37378,10 @@
         <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J402" s="5" t="s">
         <v>1334</v>
-      </c>
-      <c r="J402" s="5" t="s">
-        <v>1335</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -37443,10 +37443,10 @@
         <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J403" s="5" t="s">
         <v>1338</v>
-      </c>
-      <c r="J403" s="5" t="s">
-        <v>1339</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -37464,13 +37464,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R403" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="R403" s="5" t="s">
-        <v>1342</v>
-      </c>
       <c r="W403" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -37508,10 +37508,10 @@
         <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J404" s="5" t="s">
         <v>1343</v>
-      </c>
-      <c r="J404" s="5" t="s">
-        <v>1344</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -37529,13 +37529,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -37573,10 +37573,10 @@
         <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J405" s="5" t="s">
         <v>1346</v>
-      </c>
-      <c r="J405" s="5" t="s">
-        <v>1347</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -37594,13 +37594,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="R405" s="5" t="s">
         <v>1348</v>
       </c>
-      <c r="R405" s="5" t="s">
-        <v>1349</v>
-      </c>
       <c r="W405" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -37638,10 +37638,10 @@
         <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J406" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="J406" s="5" t="s">
-        <v>1351</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -37659,13 +37659,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R406" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="R406" s="5" t="s">
+      <c r="W406" s="5" t="s">
         <v>1354</v>
-      </c>
-      <c r="W406" s="5" t="s">
-        <v>1355</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J407" s="5" t="s">
         <v>1356</v>
-      </c>
-      <c r="J407" s="5" t="s">
-        <v>1357</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -37718,19 +37718,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37768,10 +37768,10 @@
         <v>0</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J408" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="L408" s="5">
         <v>-31</v>
@@ -37789,10 +37789,10 @@
         <v>600</v>
       </c>
       <c r="Q408" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="R408" s="10" t="s">
         <v>1382</v>
-      </c>
-      <c r="R408" s="10" t="s">
-        <v>1383</v>
       </c>
       <c r="W408" s="5" t="s">
         <v>566</v>
@@ -37833,10 +37833,10 @@
         <v>0</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J409" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L409" s="5">
         <v>-31</v>
@@ -37848,19 +37848,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P409" s="5">
         <v>2000</v>
       </c>
       <c r="Q409" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="R409" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W409" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="W409" s="5" t="s">
-        <v>1387</v>
       </c>
       <c r="X409" s="5">
         <v>99999999</v>
@@ -37898,10 +37898,10 @@
         <v>0</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="L410" s="5">
         <v>-31</v>
@@ -37919,10 +37919,10 @@
         <v>4800</v>
       </c>
       <c r="Q410" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="W410" s="5" t="s">
         <v>566</v>
@@ -37963,10 +37963,10 @@
         <v>0</v>
       </c>
       <c r="G411" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J411" s="5" t="s">
         <v>1373</v>
-      </c>
-      <c r="J411" s="5" t="s">
-        <v>1374</v>
       </c>
       <c r="L411" s="5">
         <v>-31</v>
@@ -37984,10 +37984,10 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R411" s="10" t="s">
         <v>1390</v>
-      </c>
-      <c r="R411" s="10" t="s">
-        <v>1391</v>
       </c>
       <c r="W411" s="5" t="s">
         <v>566</v>
@@ -38028,10 +38028,10 @@
         <v>0</v>
       </c>
       <c r="G412" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J412" s="5" t="s">
         <v>1392</v>
-      </c>
-      <c r="J412" s="5" t="s">
-        <v>1393</v>
       </c>
       <c r="L412" s="5">
         <v>-31</v>
@@ -38049,13 +38049,13 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="R412" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="W412" s="5" t="s">
         <v>1394</v>
-      </c>
-      <c r="W412" s="5" t="s">
-        <v>1395</v>
       </c>
       <c r="X412" s="5">
         <v>99999999</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="G413" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J413" s="5" t="s">
         <v>1396</v>
-      </c>
-      <c r="J413" s="5" t="s">
-        <v>1397</v>
       </c>
       <c r="L413" s="5">
         <v>-31</v>
@@ -38108,19 +38108,19 @@
         <v>0</v>
       </c>
       <c r="O413" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P413" s="5">
         <v>49800</v>
       </c>
       <c r="Q413" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="W413" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="X413" s="5">
         <v>99999999</v>
@@ -38161,10 +38161,10 @@
         <v>1</v>
       </c>
       <c r="G414" s="51" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H414" s="51" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L414" s="51">
         <v>-4</v>
@@ -38185,7 +38185,7 @@
         <v>77</v>
       </c>
       <c r="R414" s="56" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="W414" s="51" t="s">
         <v>524</v>
@@ -38217,13 +38217,13 @@
         <v>0</v>
       </c>
       <c r="G415" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I415" s="5" t="s">
         <v>1405</v>
       </c>
-      <c r="I415" s="5" t="s">
-        <v>1406</v>
-      </c>
       <c r="J415" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L415" s="5">
         <v>-31</v>
@@ -38241,13 +38241,13 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="R415" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="R415" s="10" t="s">
+      <c r="W415" s="5" t="s">
         <v>1408</v>
-      </c>
-      <c r="W415" s="5" t="s">
-        <v>1409</v>
       </c>
       <c r="X415" s="14" t="s">
         <v>108</v>
@@ -38285,13 +38285,13 @@
         <v>0</v>
       </c>
       <c r="G416" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I416" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="I416" s="5" t="s">
-        <v>1411</v>
-      </c>
       <c r="J416" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L416" s="5">
         <v>-31</v>
@@ -38309,13 +38309,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="R416" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="R416" s="10" t="s">
-        <v>1413</v>
-      </c>
       <c r="W416" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>108</v>
@@ -38353,13 +38353,13 @@
         <v>0</v>
       </c>
       <c r="G417" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I417" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="I417" s="5" t="s">
-        <v>1415</v>
-      </c>
       <c r="J417" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L417" s="5">
         <v>-31</v>
@@ -38380,7 +38380,7 @@
         <v>1097</v>
       </c>
       <c r="R417" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="W417" s="5" t="s">
         <v>1100</v>
@@ -38421,13 +38421,13 @@
         <v>0</v>
       </c>
       <c r="G418" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I418" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="I418" s="5" t="s">
-        <v>1417</v>
-      </c>
       <c r="J418" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L418" s="5">
         <v>-31</v>
@@ -38448,7 +38448,7 @@
         <v>1099</v>
       </c>
       <c r="R418" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="W418" s="5" t="s">
         <v>1100</v>
@@ -38489,13 +38489,13 @@
         <v>0</v>
       </c>
       <c r="G419" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I419" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="I419" s="5" t="s">
-        <v>1419</v>
-      </c>
       <c r="J419" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L419" s="5">
         <v>-31</v>
@@ -38557,13 +38557,13 @@
         <v>0</v>
       </c>
       <c r="G420" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I420" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J420" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L420" s="5">
         <v>-31</v>
@@ -38584,7 +38584,7 @@
         <v>1102</v>
       </c>
       <c r="R420" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="W420" s="5" t="s">
         <v>1100</v>
@@ -38625,10 +38625,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="59" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J421" s="59" t="s">
         <v>1421</v>
-      </c>
-      <c r="J421" s="59" t="s">
-        <v>1422</v>
       </c>
       <c r="L421" s="59">
         <v>-31</v>
@@ -38640,19 +38640,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="59" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="P421" s="59">
         <v>1000</v>
       </c>
       <c r="Q421" s="59" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R421" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="W421" s="59" t="s">
         <v>1425</v>
-      </c>
-      <c r="W421" s="59" t="s">
-        <v>1426</v>
       </c>
       <c r="X421" s="59">
         <v>9999999</v>
@@ -38664,10 +38664,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="59" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AC421" s="59" t="s">
         <v>1427</v>
-      </c>
-      <c r="AC421" s="59" t="s">
-        <v>1428</v>
       </c>
       <c r="AH421" s="59">
         <v>1</v>
@@ -38693,13 +38693,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="59" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I422" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="J422" s="59" t="s">
         <v>1448</v>
-      </c>
-      <c r="J422" s="59" t="s">
-        <v>1449</v>
       </c>
       <c r="L422" s="59">
         <v>-31</v>
@@ -38717,10 +38717,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="59" t="s">
+        <v>1449</v>
+      </c>
+      <c r="R422" s="60" t="s">
         <v>1450</v>
-      </c>
-      <c r="R422" s="60" t="s">
-        <v>1451</v>
       </c>
       <c r="W422" s="59" t="s">
         <v>568</v>
@@ -38761,13 +38761,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="59" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I423" s="59" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="J423" s="59" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="L423" s="59">
         <v>-31</v>
@@ -38785,13 +38785,13 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="59" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R423" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="W423" s="59" t="s">
         <v>1454</v>
-      </c>
-      <c r="W423" s="59" t="s">
-        <v>1455</v>
       </c>
       <c r="X423" s="59">
         <v>99999999</v>
@@ -38829,13 +38829,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="59" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I424" s="59" t="s">
         <v>1456</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="J424" s="59" t="s">
         <v>1457</v>
-      </c>
-      <c r="J424" s="59" t="s">
-        <v>1458</v>
       </c>
       <c r="L424" s="59">
         <v>-31</v>
@@ -38853,13 +38853,13 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="59" t="s">
+        <v>1458</v>
+      </c>
+      <c r="R424" s="60" t="s">
         <v>1459</v>
       </c>
-      <c r="R424" s="60" t="s">
-        <v>1460</v>
-      </c>
       <c r="W424" s="59" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="X424" s="59">
         <v>99999999</v>
@@ -38897,10 +38897,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="59" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J425" s="59" t="s">
         <v>1431</v>
-      </c>
-      <c r="J425" s="59" t="s">
-        <v>1432</v>
       </c>
       <c r="L425" s="59">
         <v>-31</v>
@@ -38918,13 +38918,13 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="59" t="s">
+        <v>1432</v>
+      </c>
+      <c r="R425" s="60" t="s">
         <v>1433</v>
       </c>
-      <c r="R425" s="60" t="s">
-        <v>1434</v>
-      </c>
       <c r="W425" s="59" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="X425" s="59">
         <v>9999999</v>
@@ -38953,10 +38953,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="59" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J426" s="59" t="s">
         <v>1435</v>
-      </c>
-      <c r="J426" s="59" t="s">
-        <v>1436</v>
       </c>
       <c r="L426" s="59">
         <v>-31</v>
@@ -38974,13 +38974,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="59" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="R426" s="60" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="W426" s="59" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="X426" s="59">
         <v>9999999</v>
@@ -39009,10 +39009,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="59" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J427" s="59" t="s">
         <v>1438</v>
-      </c>
-      <c r="J427" s="59" t="s">
-        <v>1439</v>
       </c>
       <c r="L427" s="59">
         <v>-31</v>
@@ -39030,13 +39030,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="59" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R427" s="60" t="s">
         <v>649</v>
       </c>
       <c r="W427" s="59" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="X427" s="59">
         <v>9999999</v>
@@ -39065,10 +39065,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J428" s="59" t="s">
         <v>1441</v>
-      </c>
-      <c r="J428" s="59" t="s">
-        <v>1442</v>
       </c>
       <c r="L428" s="59">
         <v>-31</v>
@@ -39086,13 +39086,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="59" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="R428" s="60" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="W428" s="59" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="X428" s="59">
         <v>9999999</v>
@@ -39121,10 +39121,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="59" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J429" s="59" t="s">
         <v>1444</v>
-      </c>
-      <c r="J429" s="59" t="s">
-        <v>1445</v>
       </c>
       <c r="L429" s="59">
         <v>-31</v>
@@ -39142,13 +39142,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="59" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="R429" s="60" t="s">
         <v>649</v>
       </c>
       <c r="W429" s="59" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="X429" s="59">
         <v>9999999</v>
@@ -39177,13 +39177,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="59" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I430" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="J430" s="59" t="s">
         <v>1771</v>
-      </c>
-      <c r="J430" s="59" t="s">
-        <v>1772</v>
       </c>
       <c r="L430" s="59">
         <v>-28</v>
@@ -39201,13 +39201,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="59" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="R430" s="60" t="s">
+        <v>1772</v>
+      </c>
+      <c r="W430" s="59" t="s">
         <v>1773</v>
-      </c>
-      <c r="W430" s="59" t="s">
-        <v>1774</v>
       </c>
       <c r="X430" s="59">
         <v>9999999</v>
@@ -39245,13 +39245,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="59" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I431" s="59" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J431" s="59" t="s">
         <v>1775</v>
-      </c>
-      <c r="J431" s="59" t="s">
-        <v>1776</v>
       </c>
       <c r="L431" s="59">
         <v>-28</v>
@@ -39269,10 +39269,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="59" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="R431" s="60" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W431" s="59" t="s">
         <v>527</v>
@@ -39313,13 +39313,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="59" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I432" s="59" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J432" s="59" t="s">
         <v>1778</v>
-      </c>
-      <c r="J432" s="59" t="s">
-        <v>1779</v>
       </c>
       <c r="L432" s="59">
         <v>-28</v>
@@ -39337,10 +39337,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="59" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="R432" s="60" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W432" s="59" t="s">
         <v>527</v>
@@ -39381,13 +39381,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="59" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I433" s="59" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J433" s="59" t="s">
         <v>1781</v>
-      </c>
-      <c r="J433" s="59" t="s">
-        <v>1782</v>
       </c>
       <c r="L433" s="59">
         <v>-28</v>
@@ -39405,10 +39405,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="59" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R433" s="60" t="s">
         <v>1783</v>
-      </c>
-      <c r="R433" s="60" t="s">
-        <v>1784</v>
       </c>
       <c r="W433" s="59" t="s">
         <v>527</v>
@@ -39449,13 +39449,13 @@
         <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I434" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="I434" s="5" t="s">
+      <c r="J434" s="5" t="s">
         <v>1462</v>
-      </c>
-      <c r="J434" s="5" t="s">
-        <v>1463</v>
       </c>
       <c r="L434" s="5">
         <v>-31</v>
@@ -39473,10 +39473,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R434" s="10" t="s">
         <v>1464</v>
-      </c>
-      <c r="R434" s="10" t="s">
-        <v>1465</v>
       </c>
       <c r="W434" s="5" t="s">
         <v>527</v>
@@ -39514,13 +39514,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I435" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J435" s="5" t="s">
         <v>1466</v>
-      </c>
-      <c r="I435" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J435" s="5" t="s">
-        <v>1467</v>
       </c>
       <c r="L435" s="5">
         <v>-31</v>
@@ -39538,10 +39538,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R435" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="W435" s="5" t="s">
         <v>527</v>
@@ -39579,13 +39579,13 @@
         <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I436" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="I436" s="5" t="s">
+      <c r="J436" s="5" t="s">
         <v>1470</v>
-      </c>
-      <c r="J436" s="5" t="s">
-        <v>1471</v>
       </c>
       <c r="L436" s="5">
         <v>-31</v>
@@ -39603,10 +39603,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="R436" s="10" t="s">
         <v>1472</v>
-      </c>
-      <c r="R436" s="10" t="s">
-        <v>1473</v>
       </c>
       <c r="W436" s="5" t="s">
         <v>527</v>
@@ -39644,13 +39644,13 @@
         <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I437" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J437" s="5" t="s">
         <v>1474</v>
-      </c>
-      <c r="I437" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J437" s="5" t="s">
-        <v>1475</v>
       </c>
       <c r="L437" s="5">
         <v>-31</v>
@@ -39668,10 +39668,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R437" s="10" t="s">
         <v>1476</v>
-      </c>
-      <c r="R437" s="10" t="s">
-        <v>1477</v>
       </c>
       <c r="W437" s="5" t="s">
         <v>527</v>
@@ -39709,13 +39709,13 @@
         <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I438" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="I438" s="5" t="s">
+      <c r="J438" s="5" t="s">
         <v>1479</v>
-      </c>
-      <c r="J438" s="5" t="s">
-        <v>1480</v>
       </c>
       <c r="L438" s="5">
         <v>-31</v>
@@ -39733,10 +39733,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="R438" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="W438" s="5" t="s">
         <v>527</v>
@@ -39774,13 +39774,13 @@
         <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I439" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J439" s="5" t="s">
         <v>1482</v>
-      </c>
-      <c r="I439" s="5" t="s">
-        <v>1479</v>
-      </c>
-      <c r="J439" s="5" t="s">
-        <v>1483</v>
       </c>
       <c r="L439" s="5">
         <v>-31</v>
@@ -39798,10 +39798,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="R439" s="10" t="s">
         <v>1484</v>
-      </c>
-      <c r="R439" s="10" t="s">
-        <v>1485</v>
       </c>
       <c r="W439" s="5" t="s">
         <v>527</v>
@@ -39839,13 +39839,13 @@
         <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J440" s="5" t="s">
         <v>1486</v>
-      </c>
-      <c r="I440" s="5" t="s">
-        <v>1479</v>
-      </c>
-      <c r="J440" s="5" t="s">
-        <v>1487</v>
       </c>
       <c r="L440" s="5">
         <v>-31</v>
@@ -39863,10 +39863,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="R440" s="10" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="W440" s="5" t="s">
         <v>527</v>
@@ -39904,10 +39904,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J441" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="J441" s="5" t="s">
-        <v>1490</v>
       </c>
       <c r="L441" s="5">
         <v>-31</v>
@@ -39925,13 +39925,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R441" s="10" t="s">
         <v>1491</v>
       </c>
-      <c r="R441" s="10" t="s">
+      <c r="W441" s="5" t="s">
         <v>1492</v>
-      </c>
-      <c r="W441" s="5" t="s">
-        <v>1493</v>
       </c>
       <c r="X441" s="5">
         <v>9999999</v>
@@ -39966,10 +39966,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J442" s="5" t="s">
         <v>1494</v>
-      </c>
-      <c r="J442" s="5" t="s">
-        <v>1495</v>
       </c>
       <c r="L442" s="5">
         <v>-31</v>
@@ -39987,13 +39987,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="R442" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="X442" s="5">
         <v>9999999</v>
@@ -40028,10 +40028,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J443" s="5" t="s">
         <v>1497</v>
-      </c>
-      <c r="J443" s="5" t="s">
-        <v>1498</v>
       </c>
       <c r="L443" s="5">
         <v>-31</v>
@@ -40049,13 +40049,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="R443" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="R443" s="10" t="s">
-        <v>1500</v>
-      </c>
       <c r="W443" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="X443" s="5">
         <v>9999999</v>
@@ -40090,10 +40090,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J444" s="5" t="s">
         <v>1501</v>
-      </c>
-      <c r="J444" s="5" t="s">
-        <v>1502</v>
       </c>
       <c r="L444" s="5">
         <v>-31</v>
@@ -40111,13 +40111,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="R444" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="X444" s="5">
         <v>9999999</v>
@@ -40152,10 +40152,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J445" s="5" t="s">
         <v>1504</v>
-      </c>
-      <c r="J445" s="5" t="s">
-        <v>1505</v>
       </c>
       <c r="L445" s="5">
         <v>-31</v>
@@ -40173,13 +40173,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="R445" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="W445" s="5" t="s">
         <v>1506</v>
-      </c>
-      <c r="W445" s="5" t="s">
-        <v>1507</v>
       </c>
       <c r="X445" s="5">
         <v>9999999</v>
@@ -40214,10 +40214,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J446" s="5" t="s">
         <v>1508</v>
-      </c>
-      <c r="J446" s="5" t="s">
-        <v>1509</v>
       </c>
       <c r="L446" s="5">
         <v>-31</v>
@@ -40235,13 +40235,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="R446" s="10" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="W446" s="5" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="X446" s="5">
         <v>9999999</v>
@@ -40276,13 +40276,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I447" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="J447" s="59" t="s">
         <v>1526</v>
-      </c>
-      <c r="J447" s="59" t="s">
-        <v>1527</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -40300,13 +40300,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
+        <v>1527</v>
+      </c>
+      <c r="R447" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="W447" s="59" t="s">
         <v>1529</v>
-      </c>
-      <c r="W447" s="59" t="s">
-        <v>1530</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -40344,13 +40344,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I448" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="J448" s="59" t="s">
         <v>1532</v>
-      </c>
-      <c r="J448" s="59" t="s">
-        <v>1533</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -40371,10 +40371,10 @@
         <v>988</v>
       </c>
       <c r="R448" s="60" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="W448" s="59" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -40409,13 +40409,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I449" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="J449" s="59" t="s">
         <v>1536</v>
-      </c>
-      <c r="J449" s="59" t="s">
-        <v>1537</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -40433,10 +40433,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="W449" s="59" t="s">
         <v>527</v>
@@ -40477,13 +40477,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I450" s="59" t="s">
         <v>1539</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="J450" s="59" t="s">
         <v>1540</v>
-      </c>
-      <c r="J450" s="59" t="s">
-        <v>1541</v>
       </c>
       <c r="L450" s="59">
         <v>-31</v>
@@ -40501,10 +40501,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R450" s="60" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="W450" s="59" t="s">
         <v>527</v>
@@ -40545,13 +40545,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I451" s="59" t="s">
         <v>1543</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="J451" s="59" t="s">
         <v>1544</v>
-      </c>
-      <c r="J451" s="59" t="s">
-        <v>1545</v>
       </c>
       <c r="L451" s="59">
         <v>-31</v>
@@ -40569,10 +40569,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R451" s="60" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="W451" s="59" t="s">
         <v>527</v>
@@ -40610,13 +40610,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I452" s="59" t="s">
         <v>1547</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="J452" s="59" t="s">
         <v>1548</v>
-      </c>
-      <c r="J452" s="59" t="s">
-        <v>1549</v>
       </c>
       <c r="L452" s="59">
         <v>-31</v>
@@ -40634,10 +40634,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R452" s="60" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="W452" s="59" t="s">
         <v>527</v>
@@ -40678,13 +40678,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I453" s="59" t="s">
         <v>1551</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="J453" s="59" t="s">
         <v>1552</v>
-      </c>
-      <c r="J453" s="59" t="s">
-        <v>1553</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -40702,10 +40702,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="W453" s="59" t="s">
         <v>527</v>
@@ -40746,13 +40746,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I454" s="59" t="s">
         <v>1555</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="J454" s="59" t="s">
         <v>1556</v>
-      </c>
-      <c r="J454" s="59" t="s">
-        <v>1557</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -40770,10 +40770,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="W454" s="59" t="s">
         <v>527</v>
@@ -40811,13 +40811,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I455" s="59" t="s">
         <v>1559</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="J455" s="59" t="s">
         <v>1560</v>
-      </c>
-      <c r="J455" s="59" t="s">
-        <v>1561</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -40835,10 +40835,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W455" s="59" t="s">
         <v>527</v>
@@ -40879,13 +40879,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I456" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="J456" s="59" t="s">
         <v>1563</v>
-      </c>
-      <c r="J456" s="59" t="s">
-        <v>1564</v>
       </c>
       <c r="L456" s="59">
         <v>-31</v>
@@ -40903,10 +40903,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R456" s="60" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="W456" s="59" t="s">
         <v>527</v>
@@ -40947,13 +40947,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I457" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="J457" s="59" t="s">
         <v>1567</v>
-      </c>
-      <c r="J457" s="59" t="s">
-        <v>1568</v>
       </c>
       <c r="L457" s="59">
         <v>-31</v>
@@ -40971,10 +40971,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R457" s="60" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W457" s="59" t="s">
         <v>527</v>
@@ -41012,13 +41012,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I458" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="J458" s="59" t="s">
         <v>1571</v>
-      </c>
-      <c r="J458" s="59" t="s">
-        <v>1572</v>
       </c>
       <c r="L458" s="59">
         <v>-31</v>
@@ -41036,10 +41036,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R458" s="60" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="W458" s="59" t="s">
         <v>527</v>
@@ -41080,13 +41080,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I459" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="J459" s="59" t="s">
         <v>1575</v>
-      </c>
-      <c r="J459" s="59" t="s">
-        <v>1576</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -41104,10 +41104,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="W459" s="59" t="s">
         <v>527</v>
@@ -41148,13 +41148,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I460" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="J460" s="59" t="s">
         <v>1579</v>
-      </c>
-      <c r="J460" s="59" t="s">
-        <v>1580</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -41175,7 +41175,7 @@
         <v>988</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="W460" s="59" t="s">
         <v>527</v>
@@ -41213,13 +41213,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I461" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="J461" s="59" t="s">
         <v>1583</v>
-      </c>
-      <c r="J461" s="59" t="s">
-        <v>1584</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -41237,10 +41237,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="W461" s="59" t="s">
         <v>527</v>
@@ -41281,13 +41281,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I462" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="J462" s="59" t="s">
         <v>1587</v>
-      </c>
-      <c r="J462" s="59" t="s">
-        <v>1588</v>
       </c>
       <c r="L462" s="59">
         <v>-31</v>
@@ -41305,10 +41305,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R462" s="60" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="W462" s="59" t="s">
         <v>527</v>
@@ -41349,13 +41349,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I463" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="J463" s="59" t="s">
         <v>1591</v>
-      </c>
-      <c r="J463" s="59" t="s">
-        <v>1592</v>
       </c>
       <c r="L463" s="59">
         <v>-31</v>
@@ -41373,10 +41373,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R463" s="60" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="W463" s="59" t="s">
         <v>527</v>
@@ -41414,13 +41414,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I464" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="J464" s="59" t="s">
         <v>1595</v>
-      </c>
-      <c r="J464" s="59" t="s">
-        <v>1596</v>
       </c>
       <c r="L464" s="59">
         <v>-31</v>
@@ -41441,7 +41441,7 @@
         <v>988</v>
       </c>
       <c r="R464" s="60" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="W464" s="59" t="s">
         <v>527</v>
@@ -41482,13 +41482,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I465" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="J465" s="59" t="s">
         <v>1599</v>
-      </c>
-      <c r="J465" s="59" t="s">
-        <v>1600</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -41506,10 +41506,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="W465" s="59" t="s">
         <v>527</v>
@@ -41550,13 +41550,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I466" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="J466" s="59" t="s">
         <v>1603</v>
-      </c>
-      <c r="J466" s="59" t="s">
-        <v>1604</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -41577,7 +41577,7 @@
         <v>988</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="W466" s="59" t="s">
         <v>527</v>
@@ -41615,13 +41615,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I467" s="59" t="s">
         <v>1606</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="J467" s="59" t="s">
         <v>1607</v>
-      </c>
-      <c r="J467" s="59" t="s">
-        <v>1608</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -41642,7 +41642,7 @@
         <v>988</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="W467" s="59" t="s">
         <v>527</v>
@@ -41683,13 +41683,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="59" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I468" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J468" s="59" t="s">
         <v>1612</v>
-      </c>
-      <c r="J468" s="59" t="s">
-        <v>1613</v>
       </c>
       <c r="L468" s="59">
         <v>-31</v>
@@ -41707,13 +41707,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R468" s="60" t="s">
+        <v>1613</v>
+      </c>
+      <c r="W468" s="59" t="s">
         <v>1614</v>
-      </c>
-      <c r="W468" s="59" t="s">
-        <v>1615</v>
       </c>
       <c r="X468" s="59">
         <v>9999999</v>
@@ -41748,13 +41748,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="59" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I469" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J469" s="59" t="s">
         <v>1616</v>
-      </c>
-      <c r="I469" s="59" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J469" s="59" t="s">
-        <v>1617</v>
       </c>
       <c r="L469" s="59">
         <v>-31</v>
@@ -41772,13 +41772,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R469" s="60" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="W469" s="59" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="X469" s="59">
         <v>9999999</v>
@@ -41813,13 +41813,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="59" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I470" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J470" s="59" t="s">
         <v>1619</v>
-      </c>
-      <c r="I470" s="59" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J470" s="59" t="s">
-        <v>1620</v>
       </c>
       <c r="L470" s="59">
         <v>-31</v>
@@ -41837,13 +41837,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R470" s="60" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="W470" s="59" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="X470" s="59">
         <v>9999999</v>
@@ -41878,13 +41878,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="59" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I471" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J471" s="59" t="s">
         <v>1622</v>
-      </c>
-      <c r="I471" s="59" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J471" s="59" t="s">
-        <v>1623</v>
       </c>
       <c r="L471" s="59">
         <v>-31</v>
@@ -41902,13 +41902,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R471" s="60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="W471" s="59" t="s">
         <v>1624</v>
-      </c>
-      <c r="W471" s="59" t="s">
-        <v>1625</v>
       </c>
       <c r="X471" s="59">
         <v>9999999</v>
@@ -41943,13 +41943,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="59" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I472" s="59" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J472" s="59" t="s">
         <v>1626</v>
-      </c>
-      <c r="I472" s="59" t="s">
-        <v>1611</v>
-      </c>
-      <c r="J472" s="59" t="s">
-        <v>1627</v>
       </c>
       <c r="L472" s="59">
         <v>-31</v>
@@ -41967,13 +41967,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R472" s="60" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="W472" s="59" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="X472" s="59">
         <v>9999999</v>
@@ -42008,13 +42008,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="59" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I473" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J473" s="59" t="s">
         <v>1629</v>
-      </c>
-      <c r="I473" s="59" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J473" s="59" t="s">
-        <v>1630</v>
       </c>
       <c r="L473" s="59">
         <v>-31</v>
@@ -42032,13 +42032,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R473" s="60" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W473" s="59" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="X473" s="59">
         <v>9999999</v>
@@ -42073,13 +42073,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="59" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I474" s="59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J474" s="59" t="s">
         <v>1632</v>
-      </c>
-      <c r="I474" s="59" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J474" s="59" t="s">
-        <v>1633</v>
       </c>
       <c r="L474" s="59">
         <v>-31</v>
@@ -42097,13 +42097,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R474" s="60" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="W474" s="59" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="X474" s="59">
         <v>9999999</v>
@@ -42138,13 +42138,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="59" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I475" s="59" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J475" s="59" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="L475" s="59">
         <v>-31</v>
@@ -42162,13 +42162,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="R475" s="60" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W475" s="59" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="X475" s="59">
         <v>9999999</v>
@@ -42203,13 +42203,13 @@
         <v>0</v>
       </c>
       <c r="G476" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I476" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="I476" s="5" t="s">
+      <c r="J476" s="5" t="s">
         <v>1667</v>
-      </c>
-      <c r="J476" s="5" t="s">
-        <v>1668</v>
       </c>
       <c r="L476" s="5">
         <v>-31</v>
@@ -42227,13 +42227,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="R476" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="R476" s="10" t="s">
+      <c r="W476" s="5" t="s">
         <v>1671</v>
-      </c>
-      <c r="W476" s="5" t="s">
-        <v>1672</v>
       </c>
       <c r="X476" s="5">
         <v>9999999</v>
@@ -42268,13 +42268,13 @@
         <v>0</v>
       </c>
       <c r="G477" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I477" s="5" t="s">
         <v>1673</v>
       </c>
-      <c r="I477" s="5" t="s">
+      <c r="J477" s="5" t="s">
         <v>1674</v>
-      </c>
-      <c r="J477" s="5" t="s">
-        <v>1675</v>
       </c>
       <c r="L477" s="5">
         <v>-31</v>
@@ -42286,19 +42286,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="P477" s="5">
         <v>19800</v>
       </c>
       <c r="Q477" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="R477" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="W477" s="5" t="s">
         <v>1677</v>
-      </c>
-      <c r="W477" s="5" t="s">
-        <v>1678</v>
       </c>
       <c r="X477" s="5">
         <v>9999999</v>
@@ -42333,13 +42333,13 @@
         <v>0</v>
       </c>
       <c r="G478" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I478" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J478" s="5" t="s">
         <v>1679</v>
-      </c>
-      <c r="J478" s="5" t="s">
-        <v>1680</v>
       </c>
       <c r="L478" s="5">
         <v>-31</v>
@@ -42351,16 +42351,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="P478" s="5">
         <v>9800</v>
       </c>
       <c r="Q478" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="R478" s="10" t="s">
         <v>1681</v>
-      </c>
-      <c r="R478" s="10" t="s">
-        <v>1682</v>
       </c>
       <c r="W478" s="5" t="s">
         <v>527</v>
@@ -42398,13 +42398,13 @@
         <v>0</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I479" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J479" s="5" t="s">
         <v>1683</v>
-      </c>
-      <c r="J479" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="L479" s="5">
         <v>-31</v>
@@ -42416,19 +42416,19 @@
         <v>0</v>
       </c>
       <c r="O479" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="P479" s="5">
         <v>4800</v>
       </c>
       <c r="Q479" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R479" s="10" t="s">
         <v>1685</v>
       </c>
-      <c r="R479" s="10" t="s">
-        <v>1686</v>
-      </c>
       <c r="W479" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="X479" s="5">
         <v>9999999</v>
@@ -42463,10 +42463,10 @@
         <v>0</v>
       </c>
       <c r="G480" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J480" s="5" t="s">
         <v>1690</v>
-      </c>
-      <c r="J480" s="5" t="s">
-        <v>1691</v>
       </c>
       <c r="L480" s="5">
         <v>-31</v>
@@ -42484,13 +42484,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="R480" s="10" t="s">
         <v>1692</v>
       </c>
-      <c r="R480" s="10" t="s">
-        <v>1693</v>
-      </c>
       <c r="W480" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="X480" s="5">
         <v>9999999</v>
@@ -42528,7 +42528,7 @@
         <v>355</v>
       </c>
       <c r="J481" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="L481" s="5">
         <v>-31</v>
@@ -42546,13 +42546,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R481" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="W481" s="5" t="s">
         <v>1695</v>
-      </c>
-      <c r="W481" s="5" t="s">
-        <v>1696</v>
       </c>
       <c r="X481" s="5">
         <v>9999999</v>
@@ -42590,7 +42590,7 @@
         <v>354</v>
       </c>
       <c r="J482" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="L482" s="5">
         <v>-31</v>
@@ -42608,13 +42608,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R482" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W482" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X482" s="5">
         <v>9999999</v>
@@ -42652,7 +42652,7 @@
         <v>353</v>
       </c>
       <c r="J483" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L483" s="5">
         <v>-31</v>
@@ -42670,13 +42670,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R483" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="W483" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X483" s="5">
         <v>9999999</v>
@@ -42711,10 +42711,10 @@
         <v>0</v>
       </c>
       <c r="G484" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J484" s="5" t="s">
         <v>1700</v>
-      </c>
-      <c r="J484" s="5" t="s">
-        <v>1701</v>
       </c>
       <c r="L484" s="5">
         <v>-31</v>
@@ -42732,13 +42732,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R484" s="10" t="s">
+        <v>1701</v>
+      </c>
+      <c r="W484" s="5" t="s">
         <v>1702</v>
-      </c>
-      <c r="W484" s="5" t="s">
-        <v>1703</v>
       </c>
       <c r="X484" s="5">
         <v>9999999</v>
@@ -42773,10 +42773,10 @@
         <v>0</v>
       </c>
       <c r="G485" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J485" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="L485" s="5">
         <v>-31</v>
@@ -42794,10 +42794,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R485" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="W485" s="5" t="s">
         <v>566</v>
@@ -42835,13 +42835,13 @@
         <v>0</v>
       </c>
       <c r="G486" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I486" s="5" t="s">
         <v>1808</v>
       </c>
-      <c r="I486" s="5" t="s">
-        <v>1809</v>
-      </c>
       <c r="J486" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L486" s="5">
         <v>-31</v>
@@ -42859,10 +42859,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R486" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="W486" s="5" t="s">
         <v>527</v>
@@ -42900,13 +42900,13 @@
         <v>0</v>
       </c>
       <c r="G487" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I487" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="I487" s="5" t="s">
+      <c r="J487" s="5" t="s">
         <v>1813</v>
-      </c>
-      <c r="J487" s="5" t="s">
-        <v>1814</v>
       </c>
       <c r="L487" s="5">
         <v>-31</v>
@@ -42924,10 +42924,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R487" s="10" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="W487" s="5" t="s">
         <v>527</v>
@@ -42965,13 +42965,13 @@
         <v>0</v>
       </c>
       <c r="G488" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I488" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J488" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="L488" s="5">
         <v>-31</v>
@@ -42989,10 +42989,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R488" s="10" t="s">
         <v>1817</v>
-      </c>
-      <c r="R488" s="10" t="s">
-        <v>1818</v>
       </c>
       <c r="W488" s="5" t="s">
         <v>527</v>
@@ -43030,13 +43030,13 @@
         <v>0</v>
       </c>
       <c r="G489" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J489" s="5" t="s">
         <v>1819</v>
-      </c>
-      <c r="I489" s="5" t="s">
-        <v>1813</v>
-      </c>
-      <c r="J489" s="5" t="s">
-        <v>1820</v>
       </c>
       <c r="L489" s="5">
         <v>-31</v>
@@ -43054,10 +43054,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="R489" s="10" t="s">
         <v>1821</v>
-      </c>
-      <c r="R489" s="10" t="s">
-        <v>1822</v>
       </c>
       <c r="W489" s="5" t="s">
         <v>527</v>
@@ -43095,13 +43095,13 @@
         <v>0</v>
       </c>
       <c r="G490" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I490" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J490" s="5" t="s">
         <v>1823</v>
-      </c>
-      <c r="J490" s="5" t="s">
-        <v>1824</v>
       </c>
       <c r="L490" s="5">
         <v>-31</v>
@@ -43119,10 +43119,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="R490" s="10" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="W490" s="5" t="s">
         <v>527</v>
@@ -43160,13 +43160,13 @@
         <v>0</v>
       </c>
       <c r="G491" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I491" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J491" s="5" t="s">
         <v>1826</v>
-      </c>
-      <c r="I491" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J491" s="5" t="s">
-        <v>1827</v>
       </c>
       <c r="L491" s="5">
         <v>-31</v>
@@ -43184,10 +43184,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R491" s="10" t="s">
         <v>1828</v>
-      </c>
-      <c r="R491" s="10" t="s">
-        <v>1829</v>
       </c>
       <c r="W491" s="5" t="s">
         <v>527</v>
@@ -43225,13 +43225,13 @@
         <v>0</v>
       </c>
       <c r="G492" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I492" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="I492" s="5" t="s">
-        <v>1462</v>
-      </c>
       <c r="J492" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="L492" s="5">
         <v>-31</v>
@@ -43243,19 +43243,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="5" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="P492" s="5">
         <v>99800</v>
       </c>
       <c r="Q492" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="R492" s="10" t="s">
         <v>1832</v>
       </c>
-      <c r="R492" s="10" t="s">
-        <v>1833</v>
-      </c>
       <c r="W492" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="X492" s="5">
         <v>9999999</v>
@@ -43290,13 +43290,13 @@
         <v>1</v>
       </c>
       <c r="G493" s="59" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I493" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="J493" s="59" t="s">
         <v>1867</v>
-      </c>
-      <c r="J493" s="59" t="s">
-        <v>1868</v>
       </c>
       <c r="L493" s="59">
         <v>-31</v>
@@ -43314,10 +43314,10 @@
         <v>49800</v>
       </c>
       <c r="Q493" s="59" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="R493" s="60" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="W493" s="59" t="s">
         <v>524</v>
@@ -43355,13 +43355,13 @@
         <v>1</v>
       </c>
       <c r="G494" s="59" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="I494" s="59" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="J494" s="59" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="L494" s="59">
         <v>-31</v>
@@ -43379,10 +43379,10 @@
         <v>99800</v>
       </c>
       <c r="Q494" s="59" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="R494" s="60" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="W494" s="59" t="s">
         <v>524</v>
@@ -43420,10 +43420,10 @@
         <v>1</v>
       </c>
       <c r="G495" s="59" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J495" s="59" t="s">
         <v>1887</v>
-      </c>
-      <c r="J495" s="59" t="s">
-        <v>1888</v>
       </c>
       <c r="L495" s="59">
         <v>-31</v>
@@ -43441,10 +43441,10 @@
         <v>79800</v>
       </c>
       <c r="Q495" s="59" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="R495" s="60" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="W495" s="59" t="s">
         <v>981</v>
@@ -43485,10 +43485,10 @@
         <v>1</v>
       </c>
       <c r="G496" s="59" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J496" s="59" t="s">
         <v>1890</v>
-      </c>
-      <c r="J496" s="59" t="s">
-        <v>1891</v>
       </c>
       <c r="L496" s="59">
         <v>-31</v>
@@ -43506,10 +43506,10 @@
         <v>89800</v>
       </c>
       <c r="Q496" s="59" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="R496" s="60" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="W496" s="59" t="s">
         <v>981</v>
@@ -43550,13 +43550,13 @@
         <v>0</v>
       </c>
       <c r="G497" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I497" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="I497" s="5" t="s">
+      <c r="J497" s="5" t="s">
         <v>1895</v>
-      </c>
-      <c r="J497" s="5" t="s">
-        <v>1896</v>
       </c>
       <c r="L497" s="5">
         <v>-31</v>
@@ -43568,19 +43568,19 @@
         <v>0</v>
       </c>
       <c r="O497" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P497" s="5">
         <v>49800</v>
       </c>
       <c r="Q497" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R497" s="63" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43618,13 +43618,13 @@
         <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I498" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="I498" s="5" t="s">
+      <c r="J498" s="5" t="s">
         <v>1900</v>
-      </c>
-      <c r="J498" s="5" t="s">
-        <v>1901</v>
       </c>
       <c r="L498" s="5">
         <v>-31</v>
@@ -43642,13 +43642,13 @@
         <v>19800</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R498" s="63" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43686,13 +43686,13 @@
         <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I499" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J499" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="L499" s="5">
         <v>-31</v>
@@ -43704,19 +43704,19 @@
         <v>0</v>
       </c>
       <c r="O499" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P499" s="5">
         <v>9800</v>
       </c>
       <c r="Q499" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R499" s="63" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43754,13 +43754,13 @@
         <v>0</v>
       </c>
       <c r="G500" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I500" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="J500" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="L500" s="5">
         <v>-31</v>
@@ -43772,19 +43772,19 @@
         <v>0</v>
       </c>
       <c r="O500" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="P500" s="5">
         <v>4800</v>
       </c>
       <c r="Q500" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R500" s="63" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43822,13 +43822,13 @@
         <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I501" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J501" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="L501" s="5">
         <v>-31</v>
@@ -43840,19 +43840,19 @@
         <v>0</v>
       </c>
       <c r="O501" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P501" s="5">
         <v>2000</v>
       </c>
       <c r="Q501" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R501" s="63" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43890,13 +43890,13 @@
         <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I502" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J502" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="L502" s="5">
         <v>-31</v>
@@ -43908,19 +43908,19 @@
         <v>0</v>
       </c>
       <c r="O502" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P502" s="5">
         <v>600</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R502" s="63" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43958,13 +43958,13 @@
         <v>0</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I503" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J503" s="5" t="s">
         <v>1907</v>
-      </c>
-      <c r="J503" s="5" t="s">
-        <v>1908</v>
       </c>
       <c r="L503" s="5">
         <v>-31</v>
@@ -43982,13 +43982,13 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="R503" s="64" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -44026,13 +44026,13 @@
         <v>0</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="L504" s="5">
         <v>-31</v>
@@ -44044,19 +44044,19 @@
         <v>0</v>
       </c>
       <c r="O504" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="P504" s="5">
         <v>19800</v>
       </c>
       <c r="Q504" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="R504" s="64" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -44094,13 +44094,13 @@
         <v>0</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I505" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J505" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="L505" s="5">
         <v>-31</v>
@@ -44112,19 +44112,19 @@
         <v>0</v>
       </c>
       <c r="O505" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P505" s="5">
         <v>9800</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="R505" s="64" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -44162,13 +44162,13 @@
         <v>0</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I506" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="L506" s="5">
         <v>-31</v>
@@ -44180,19 +44180,19 @@
         <v>0</v>
       </c>
       <c r="O506" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P506" s="5">
         <v>4800</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="R506" s="64" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -44230,13 +44230,13 @@
         <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I507" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J507" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="L507" s="5">
         <v>-31</v>
@@ -44248,19 +44248,19 @@
         <v>0</v>
       </c>
       <c r="O507" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P507" s="5">
         <v>2000</v>
       </c>
       <c r="Q507" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="R507" s="64" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -44298,13 +44298,13 @@
         <v>0</v>
       </c>
       <c r="G508" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="I508" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J508" s="5" t="s">
         <v>1915</v>
-      </c>
-      <c r="J508" s="5" t="s">
-        <v>1916</v>
       </c>
       <c r="L508" s="5">
         <v>-31</v>
@@ -44316,19 +44316,19 @@
         <v>0</v>
       </c>
       <c r="O508" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P508" s="5">
         <v>600</v>
       </c>
       <c r="Q508" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="R508" s="64" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44366,10 +44366,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="59" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J509" s="59" t="s">
         <v>1919</v>
-      </c>
-      <c r="J509" s="59" t="s">
-        <v>1920</v>
       </c>
       <c r="L509" s="59">
         <v>-4</v>
@@ -44403,10 +44403,10 @@
         <v>77</v>
       </c>
       <c r="AC509" s="59" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AD509" s="60" t="s">
         <v>1921</v>
-      </c>
-      <c r="AD509" s="60" t="s">
-        <v>1922</v>
       </c>
       <c r="AH509" s="59">
         <v>1</v>
@@ -44426,10 +44426,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="59" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J510" s="59" t="s">
         <v>1923</v>
-      </c>
-      <c r="J510" s="59" t="s">
-        <v>1924</v>
       </c>
       <c r="L510" s="59">
         <v>-4</v>
@@ -44463,10 +44463,10 @@
         <v>77</v>
       </c>
       <c r="AC510" s="59" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AD510" s="60" t="s">
         <v>1925</v>
-      </c>
-      <c r="AD510" s="60" t="s">
-        <v>1926</v>
       </c>
       <c r="AH510" s="59">
         <v>1</v>
@@ -44486,10 +44486,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="59" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J511" s="59" t="s">
         <v>1927</v>
-      </c>
-      <c r="J511" s="59" t="s">
-        <v>1928</v>
       </c>
       <c r="L511" s="59">
         <v>-4</v>
@@ -44523,10 +44523,10 @@
         <v>77</v>
       </c>
       <c r="AC511" s="59" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AD511" s="60" t="s">
         <v>1929</v>
-      </c>
-      <c r="AD511" s="60" t="s">
-        <v>1930</v>
       </c>
       <c r="AH511" s="59">
         <v>1</v>
@@ -44546,13 +44546,13 @@
         <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I512" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="I512" s="5" t="s">
+      <c r="J512" s="5" t="s">
         <v>1932</v>
-      </c>
-      <c r="J512" s="5" t="s">
-        <v>1933</v>
       </c>
       <c r="L512" s="5">
         <v>-33</v>
@@ -44564,19 +44564,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P512" s="5">
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R512" s="10" t="s">
         <v>1935</v>
       </c>
-      <c r="R512" s="10" t="s">
+      <c r="W512" s="5" t="s">
         <v>1936</v>
-      </c>
-      <c r="W512" s="5" t="s">
-        <v>1937</v>
       </c>
       <c r="X512" s="5">
         <v>99999999</v>
@@ -44614,13 +44614,13 @@
         <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I513" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="I513" s="5" t="s">
-        <v>1932</v>
-      </c>
       <c r="J513" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="L513" s="5">
         <v>-33</v>
@@ -44632,19 +44632,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P513" s="5">
         <v>19800</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R513" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="W513" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X513" s="5">
         <v>99999999</v>
@@ -44682,13 +44682,13 @@
         <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I514" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="I514" s="5" t="s">
-        <v>1932</v>
-      </c>
       <c r="J514" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L514" s="5">
         <v>-33</v>
@@ -44700,19 +44700,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P514" s="5">
         <v>9800</v>
       </c>
       <c r="Q514" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R514" s="10" t="s">
         <v>1941</v>
       </c>
-      <c r="R514" s="10" t="s">
-        <v>1942</v>
-      </c>
       <c r="W514" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X514" s="5">
         <v>99999999</v>
@@ -44750,13 +44750,13 @@
         <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I515" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="I515" s="5" t="s">
-        <v>1932</v>
-      </c>
       <c r="J515" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="L515" s="5">
         <v>-33</v>
@@ -44768,19 +44768,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P515" s="5">
         <v>4800</v>
       </c>
       <c r="Q515" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R515" s="10" t="s">
         <v>1944</v>
       </c>
-      <c r="R515" s="10" t="s">
-        <v>1945</v>
-      </c>
       <c r="W515" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X515" s="5">
         <v>99999999</v>
@@ -44818,13 +44818,13 @@
         <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I516" s="5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="J516" s="5" t="s">
         <v>1946</v>
-      </c>
-      <c r="J516" s="5" t="s">
-        <v>1947</v>
       </c>
       <c r="L516" s="5">
         <v>-33</v>
@@ -44836,19 +44836,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P516" s="5">
         <v>49800</v>
       </c>
       <c r="Q516" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R516" s="10" t="s">
         <v>1948</v>
       </c>
-      <c r="R516" s="10" t="s">
-        <v>1949</v>
-      </c>
       <c r="W516" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X516" s="5">
         <v>99999999</v>
@@ -44886,13 +44886,13 @@
         <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J517" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L517" s="5">
         <v>-33</v>
@@ -44904,19 +44904,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="P517" s="5">
         <v>19800</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R517" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X517" s="5">
         <v>99999999</v>
@@ -44954,13 +44954,13 @@
         <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L518" s="5">
         <v>-33</v>
@@ -44972,19 +44972,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P518" s="5">
         <v>9800</v>
       </c>
       <c r="Q518" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R518" s="10" t="s">
         <v>1954</v>
       </c>
-      <c r="R518" s="10" t="s">
-        <v>1955</v>
-      </c>
       <c r="W518" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X518" s="5">
         <v>99999999</v>
@@ -45022,13 +45022,13 @@
         <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J519" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="L519" s="5">
         <v>-33</v>
@@ -45040,19 +45040,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P519" s="5">
         <v>4800</v>
       </c>
       <c r="Q519" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R519" s="10" t="s">
         <v>1957</v>
       </c>
-      <c r="R519" s="10" t="s">
+      <c r="W519" s="5" t="s">
         <v>1958</v>
-      </c>
-      <c r="W519" s="5" t="s">
-        <v>1959</v>
       </c>
       <c r="X519" s="5">
         <v>99999999</v>
@@ -45090,13 +45090,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="59" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I520" s="59" t="s">
         <v>1962</v>
       </c>
-      <c r="I520" s="59" t="s">
+      <c r="J520" s="59" t="s">
         <v>1963</v>
-      </c>
-      <c r="J520" s="59" t="s">
-        <v>1964</v>
       </c>
       <c r="L520" s="59">
         <v>-23</v>
@@ -45114,16 +45114,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="59" t="s">
+        <v>1964</v>
+      </c>
+      <c r="R520" s="60" t="s">
         <v>1965</v>
       </c>
-      <c r="R520" s="60" t="s">
+      <c r="S520" s="59" t="s">
         <v>1966</v>
       </c>
-      <c r="S520" s="59" t="s">
+      <c r="W520" s="59" t="s">
         <v>1967</v>
-      </c>
-      <c r="W520" s="59" t="s">
-        <v>1968</v>
       </c>
       <c r="X520" s="59">
         <v>99999999</v>
@@ -45152,13 +45152,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I521" s="19" t="s">
         <v>1970</v>
       </c>
-      <c r="I521" s="19" t="s">
+      <c r="J521" s="19" t="s">
         <v>1971</v>
-      </c>
-      <c r="J521" s="19" t="s">
-        <v>1972</v>
       </c>
       <c r="L521" s="19">
         <v>-33</v>
@@ -45176,13 +45176,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="19" t="s">
+        <v>1972</v>
+      </c>
+      <c r="R521" s="39" t="s">
+        <v>2043</v>
+      </c>
+      <c r="W521" s="19" t="s">
         <v>1973</v>
-      </c>
-      <c r="R521" s="39" t="s">
-        <v>2044</v>
-      </c>
-      <c r="W521" s="19" t="s">
-        <v>1974</v>
       </c>
       <c r="X521" s="19">
         <v>99999999</v>
@@ -45220,13 +45220,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I522" s="19" t="s">
         <v>1976</v>
       </c>
-      <c r="I522" s="19" t="s">
+      <c r="J522" s="19" t="s">
         <v>1977</v>
-      </c>
-      <c r="J522" s="19" t="s">
-        <v>1978</v>
       </c>
       <c r="L522" s="19">
         <v>-33</v>
@@ -45244,10 +45244,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="19" t="s">
+        <v>1979</v>
+      </c>
+      <c r="R522" s="39" t="s">
         <v>1980</v>
-      </c>
-      <c r="R522" s="39" t="s">
-        <v>1981</v>
       </c>
       <c r="W522" s="19" t="s">
         <v>1100</v>
@@ -45288,13 +45288,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="19" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I523" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J523" s="19" t="s">
         <v>1983</v>
-      </c>
-      <c r="I523" s="19" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J523" s="19" t="s">
-        <v>1984</v>
       </c>
       <c r="L523" s="19">
         <v>-33</v>
@@ -45312,10 +45312,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="19" t="s">
+        <v>1984</v>
+      </c>
+      <c r="R523" s="39" t="s">
         <v>1985</v>
-      </c>
-      <c r="R523" s="39" t="s">
-        <v>1986</v>
       </c>
       <c r="W523" s="19" t="s">
         <v>1100</v>
@@ -45356,13 +45356,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I524" s="19" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J524" s="19" t="s">
         <v>1988</v>
-      </c>
-      <c r="I524" s="19" t="s">
-        <v>1971</v>
-      </c>
-      <c r="J524" s="19" t="s">
-        <v>1989</v>
       </c>
       <c r="L524" s="19">
         <v>-33</v>
@@ -45380,10 +45380,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="19" t="s">
+        <v>1989</v>
+      </c>
+      <c r="R524" s="39" t="s">
         <v>1990</v>
-      </c>
-      <c r="R524" s="39" t="s">
-        <v>1991</v>
       </c>
       <c r="W524" s="19" t="s">
         <v>1100</v>
@@ -45424,13 +45424,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="I525" s="19" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J525" s="19" t="s">
         <v>1993</v>
-      </c>
-      <c r="J525" s="19" t="s">
-        <v>1994</v>
       </c>
       <c r="L525" s="19">
         <v>-33</v>
@@ -45448,10 +45448,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="19" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R525" s="39" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="W525" s="19" t="s">
         <v>1100</v>
@@ -45492,13 +45492,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="19" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I526" s="19" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J526" s="19" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="L526" s="19">
         <v>-33</v>
@@ -45516,10 +45516,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="19" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="R526" s="39" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="W526" s="19" t="s">
         <v>1100</v>
@@ -45560,13 +45560,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I527" s="19" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J527" s="19" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L527" s="19">
         <v>-33</v>
@@ -45584,10 +45584,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="19" t="s">
+        <v>1999</v>
+      </c>
+      <c r="R527" s="39" t="s">
         <v>2000</v>
-      </c>
-      <c r="R527" s="39" t="s">
-        <v>2001</v>
       </c>
       <c r="W527" s="19" t="s">
         <v>1100</v>
@@ -45628,13 +45628,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="19" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I528" s="19" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J528" s="19" t="s">
         <v>2002</v>
-      </c>
-      <c r="J528" s="19" t="s">
-        <v>2003</v>
       </c>
       <c r="L528" s="19">
         <v>-33</v>
@@ -45652,10 +45652,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="19" t="s">
+        <v>2003</v>
+      </c>
+      <c r="R528" s="39" t="s">
         <v>2004</v>
-      </c>
-      <c r="R528" s="39" t="s">
-        <v>2005</v>
       </c>
       <c r="W528" s="19" t="s">
         <v>1100</v>
@@ -45696,13 +45696,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="19" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I529" s="19" t="s">
         <v>2006</v>
       </c>
-      <c r="I529" s="19" t="s">
+      <c r="J529" s="19" t="s">
         <v>2007</v>
-      </c>
-      <c r="J529" s="19" t="s">
-        <v>2008</v>
       </c>
       <c r="L529" s="19">
         <v>-33</v>
@@ -45720,10 +45720,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="19" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R529" s="39" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="W529" s="19" t="s">
         <v>1100</v>
@@ -45764,13 +45764,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="19" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I530" s="19" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J530" s="19" t="s">
         <v>2009</v>
-      </c>
-      <c r="J530" s="19" t="s">
-        <v>2010</v>
       </c>
       <c r="L530" s="19">
         <v>-33</v>
@@ -45788,10 +45788,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R530" s="39" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="W530" s="19" t="s">
         <v>1100</v>
@@ -45832,13 +45832,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="19" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I531" s="19" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J531" s="19" t="s">
         <v>2011</v>
-      </c>
-      <c r="J531" s="19" t="s">
-        <v>2012</v>
       </c>
       <c r="L531" s="19">
         <v>-33</v>
@@ -45856,10 +45856,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="19" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R531" s="39" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W531" s="19" t="s">
         <v>1100</v>
@@ -45900,13 +45900,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I532" s="19" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J532" s="19" t="s">
         <v>2014</v>
-      </c>
-      <c r="I532" s="19" t="s">
-        <v>2007</v>
-      </c>
-      <c r="J532" s="19" t="s">
-        <v>2015</v>
       </c>
       <c r="L532" s="19">
         <v>-33</v>
@@ -45924,10 +45924,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="R532" s="39" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W532" s="19" t="s">
         <v>1100</v>
@@ -45968,13 +45968,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="I533" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J533" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L533" s="5">
         <v>-31</v>
@@ -45992,13 +45992,13 @@
         <v>1800</v>
       </c>
       <c r="Q533" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R533" s="10" t="s">
         <v>1263</v>
       </c>
-      <c r="R533" s="10" t="s">
-        <v>1264</v>
-      </c>
       <c r="W533" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="X533" s="5">
         <v>9999999</v>
@@ -46036,13 +46036,13 @@
         <v>1</v>
       </c>
       <c r="G534" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I534" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J534" s="5" t="s">
         <v>2032</v>
-      </c>
-      <c r="I534" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J534" s="5" t="s">
-        <v>2033</v>
       </c>
       <c r="L534" s="5">
         <v>-31</v>
@@ -46060,13 +46060,13 @@
         <v>3000</v>
       </c>
       <c r="Q534" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="R534" s="10" t="s">
         <v>1269</v>
       </c>
-      <c r="R534" s="10" t="s">
-        <v>1270</v>
-      </c>
       <c r="W534" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X534" s="5">
         <v>9999999</v>
@@ -46104,13 +46104,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I535" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J535" s="5" t="s">
         <v>2034</v>
-      </c>
-      <c r="I535" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J535" s="5" t="s">
-        <v>2035</v>
       </c>
       <c r="L535" s="5">
         <v>-31</v>
@@ -46128,13 +46128,13 @@
         <v>4800</v>
       </c>
       <c r="Q535" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R535" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="W535" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X535" s="5">
         <v>9999999</v>
@@ -46172,13 +46172,13 @@
         <v>1</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="I536" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="J536" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="L536" s="5">
         <v>-31</v>
@@ -46196,13 +46196,13 @@
         <v>4800</v>
       </c>
       <c r="Q536" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R536" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W536" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X536" s="5">
         <v>9999999</v>
@@ -46240,13 +46240,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I537" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="J537" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L537" s="5">
         <v>-31</v>
@@ -46264,13 +46264,13 @@
         <v>9800</v>
       </c>
       <c r="Q537" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="R537" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="W537" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X537" s="5">
         <v>9999999</v>
@@ -46308,13 +46308,13 @@
         <v>1</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="I538" s="5" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J538" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L538" s="5">
         <v>-31</v>
@@ -46326,19 +46326,19 @@
         <v>0</v>
       </c>
       <c r="O538" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="P538" s="5">
         <v>19800</v>
       </c>
       <c r="Q538" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="R538" s="10" t="s">
         <v>1288</v>
       </c>
-      <c r="R538" s="10" t="s">
-        <v>1289</v>
-      </c>
       <c r="W538" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X538" s="5">
         <v>9999999</v>
@@ -46376,13 +46376,13 @@
         <v>1</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="I539" s="5" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J539" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L539" s="5">
         <v>-31</v>
@@ -46400,13 +46400,13 @@
         <v>9800</v>
       </c>
       <c r="Q539" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="R539" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W539" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X539" s="5">
         <v>9999999</v>
@@ -46444,13 +46444,13 @@
         <v>1</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I540" s="5" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J540" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L540" s="5">
         <v>-31</v>
@@ -46462,19 +46462,19 @@
         <v>0</v>
       </c>
       <c r="O540" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="P540" s="5">
         <v>19800</v>
       </c>
       <c r="Q540" s="5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="R540" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="W540" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="X540" s="5">
         <v>9999999</v>
@@ -46512,13 +46512,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="I541" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J541" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L541" s="5">
         <v>-31</v>
@@ -46536,13 +46536,13 @@
         <v>49800</v>
       </c>
       <c r="Q541" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="R541" s="10" t="s">
         <v>1300</v>
       </c>
-      <c r="R541" s="10" t="s">
-        <v>1301</v>
-      </c>
       <c r="W541" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="X541" s="5">
         <v>9999999</v>
@@ -46580,13 +46580,13 @@
         <v>1</v>
       </c>
       <c r="G542" s="69" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="I542" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J542" s="69" t="s">
         <v>2047</v>
-      </c>
-      <c r="J542" s="69" t="s">
-        <v>2048</v>
       </c>
       <c r="L542" s="69">
         <v>-31</v>
@@ -46604,13 +46604,13 @@
         <v>99800</v>
       </c>
       <c r="Q542" s="69" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R542" s="70" t="s">
+        <v>1487</v>
+      </c>
+      <c r="W542" s="69" t="s">
         <v>2049</v>
-      </c>
-      <c r="R542" s="70" t="s">
-        <v>1488</v>
-      </c>
-      <c r="W542" s="69" t="s">
-        <v>2050</v>
       </c>
       <c r="X542" s="69">
         <v>9999999</v>
@@ -46645,13 +46645,13 @@
         <v>1</v>
       </c>
       <c r="G543" s="69" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I543" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J543" s="69" t="s">
         <v>2051</v>
-      </c>
-      <c r="I543" s="69" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J543" s="69" t="s">
-        <v>2052</v>
       </c>
       <c r="L543" s="69">
         <v>-31</v>
@@ -46669,10 +46669,10 @@
         <v>49800</v>
       </c>
       <c r="Q543" s="69" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="R543" s="70" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="W543" s="69" t="s">
         <v>527</v>
@@ -46710,13 +46710,13 @@
         <v>1</v>
       </c>
       <c r="G544" s="69" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I544" s="69" t="s">
+        <v>2045</v>
+      </c>
+      <c r="J544" s="69" t="s">
         <v>2054</v>
-      </c>
-      <c r="I544" s="69" t="s">
-        <v>2046</v>
-      </c>
-      <c r="J544" s="69" t="s">
-        <v>2055</v>
       </c>
       <c r="L544" s="69">
         <v>-31</v>
@@ -46734,10 +46734,10 @@
         <v>29800</v>
       </c>
       <c r="Q544" s="69" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R544" s="70" t="s">
         <v>2056</v>
-      </c>
-      <c r="R544" s="70" t="s">
-        <v>2057</v>
       </c>
       <c r="W544" s="69" t="s">
         <v>527</v>
@@ -46775,13 +46775,13 @@
         <v>1</v>
       </c>
       <c r="G545" s="69" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I545" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J545" s="69" t="s">
         <v>2058</v>
-      </c>
-      <c r="I545" s="69" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J545" s="69" t="s">
-        <v>2059</v>
       </c>
       <c r="L545" s="69">
         <v>-31</v>
@@ -46799,10 +46799,10 @@
         <v>19800</v>
       </c>
       <c r="Q545" s="69" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="R545" s="70" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="W545" s="69" t="s">
         <v>527</v>
@@ -46840,13 +46840,13 @@
         <v>1</v>
       </c>
       <c r="G546" s="69" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I546" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J546" s="69" t="s">
         <v>2060</v>
-      </c>
-      <c r="I546" s="69" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J546" s="69" t="s">
-        <v>2061</v>
       </c>
       <c r="L546" s="69">
         <v>-31</v>
@@ -46864,10 +46864,10 @@
         <v>9800</v>
       </c>
       <c r="Q546" s="69" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="R546" s="70" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="W546" s="69" t="s">
         <v>527</v>
@@ -46905,13 +46905,13 @@
         <v>1</v>
       </c>
       <c r="G547" s="69" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I547" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J547" s="69" t="s">
         <v>2063</v>
-      </c>
-      <c r="I547" s="69" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J547" s="69" t="s">
-        <v>2064</v>
       </c>
       <c r="L547" s="69">
         <v>-31</v>
@@ -46929,10 +46929,10 @@
         <v>4800</v>
       </c>
       <c r="Q547" s="69" t="s">
+        <v>2064</v>
+      </c>
+      <c r="R547" s="70" t="s">
         <v>2065</v>
-      </c>
-      <c r="R547" s="70" t="s">
-        <v>2066</v>
       </c>
       <c r="W547" s="69" t="s">
         <v>527</v>
@@ -46970,13 +46970,13 @@
         <v>1</v>
       </c>
       <c r="G548" s="69" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I548" s="69" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J548" s="69" t="s">
         <v>2067</v>
-      </c>
-      <c r="I548" s="69" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J548" s="69" t="s">
-        <v>2068</v>
       </c>
       <c r="L548" s="69">
         <v>-31</v>
@@ -46994,10 +46994,10 @@
         <v>1800</v>
       </c>
       <c r="Q548" s="69" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="R548" s="70" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="W548" s="69" t="s">
         <v>527</v>
@@ -47035,13 +47035,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="65" t="s">
+        <v>2075</v>
+      </c>
+      <c r="I549" s="65" t="s">
         <v>2076</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="J549" s="65" t="s">
         <v>2077</v>
-      </c>
-      <c r="J549" s="65" t="s">
-        <v>2078</v>
       </c>
       <c r="L549" s="65">
         <v>-31</v>
@@ -47059,13 +47059,13 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="65" t="s">
+        <v>2078</v>
+      </c>
+      <c r="R549" s="66" t="s">
         <v>2079</v>
       </c>
-      <c r="R549" s="66" t="s">
-        <v>2080</v>
-      </c>
       <c r="W549" s="65" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X549" s="65">
         <v>9999999</v>
@@ -47103,13 +47103,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I550" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J550" s="65" t="s">
         <v>2081</v>
-      </c>
-      <c r="J550" s="65" t="s">
-        <v>2082</v>
       </c>
       <c r="L550" s="65">
         <v>-31</v>
@@ -47127,13 +47127,13 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="65" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R550" s="66" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="W550" s="65" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X550" s="65">
         <v>9999999</v>
@@ -47171,13 +47171,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="65" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I551" s="65" t="s">
         <v>2084</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="J551" s="65" t="s">
         <v>2085</v>
-      </c>
-      <c r="J551" s="65" t="s">
-        <v>2086</v>
       </c>
       <c r="L551" s="65">
         <v>-31</v>
@@ -47195,13 +47195,13 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="65" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R551" s="66" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="W551" s="65" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X551" s="65">
         <v>9999999</v>
@@ -47239,13 +47239,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I552" s="65" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J552" s="65" t="s">
         <v>2088</v>
-      </c>
-      <c r="J552" s="65" t="s">
-        <v>2089</v>
       </c>
       <c r="L552" s="65">
         <v>-31</v>
@@ -47263,13 +47263,13 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="65" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R552" s="66" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="W552" s="65" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X552" s="65">
         <v>9999999</v>
@@ -47307,13 +47307,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I553" s="67" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J553" s="67" t="s">
         <v>2092</v>
-      </c>
-      <c r="I553" s="67" t="s">
-        <v>2077</v>
-      </c>
-      <c r="J553" s="67" t="s">
-        <v>2093</v>
       </c>
       <c r="L553" s="67">
         <v>-31</v>
@@ -47331,13 +47331,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="67" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R553" s="68" t="s">
         <v>2094</v>
       </c>
-      <c r="R553" s="68" t="s">
-        <v>2095</v>
-      </c>
       <c r="W553" s="67" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47375,13 +47375,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="67" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I554" s="67" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J554" s="67" t="s">
         <v>2096</v>
-      </c>
-      <c r="J554" s="67" t="s">
-        <v>2097</v>
       </c>
       <c r="L554" s="67">
         <v>-31</v>
@@ -47399,13 +47399,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R554" s="68" t="s">
         <v>2098</v>
       </c>
-      <c r="R554" s="68" t="s">
-        <v>2099</v>
-      </c>
       <c r="W554" s="67" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47443,13 +47443,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="67" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I555" s="67" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J555" s="67" t="s">
         <v>2100</v>
-      </c>
-      <c r="I555" s="67" t="s">
-        <v>2085</v>
-      </c>
-      <c r="J555" s="67" t="s">
-        <v>2101</v>
       </c>
       <c r="L555" s="67">
         <v>-31</v>
@@ -47467,13 +47467,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="67" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R555" s="68" t="s">
         <v>2102</v>
       </c>
-      <c r="R555" s="68" t="s">
-        <v>2103</v>
-      </c>
       <c r="W555" s="67" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47511,13 +47511,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="67" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I556" s="67" t="s">
         <v>2104</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="J556" s="67" t="s">
         <v>2105</v>
-      </c>
-      <c r="J556" s="67" t="s">
-        <v>2106</v>
       </c>
       <c r="L556" s="67">
         <v>-31</v>
@@ -47535,13 +47535,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="R556" s="68" t="s">
         <v>2107</v>
       </c>
-      <c r="R556" s="68" t="s">
-        <v>2108</v>
-      </c>
       <c r="W556" s="67" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47579,13 +47579,13 @@
         <v>1</v>
       </c>
       <c r="G557" s="19" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I557" s="19" t="s">
         <v>2110</v>
       </c>
-      <c r="I557" s="19" t="s">
-        <v>2111</v>
-      </c>
       <c r="J557" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47606,7 +47606,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47648,10 +47648,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47714,10 +47714,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47738,7 +47738,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47777,13 +47777,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="19" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="I560" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47846,10 +47846,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47870,7 +47870,7 @@
         <v>77</v>
       </c>
       <c r="R561" s="72" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="W561" s="19" t="s">
         <v>525</v>
@@ -47912,10 +47912,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47936,7 +47936,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47975,13 +47975,13 @@
         <v>1</v>
       </c>
       <c r="G563" s="19" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -48044,10 +48044,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48068,7 +48068,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48110,10 +48110,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48134,7 +48134,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
@@ -48560,7 +48560,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -48574,7 +48574,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -48588,7 +48588,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -48602,7 +48602,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -48616,7 +48616,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -48630,7 +48630,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -48644,7 +48644,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -48658,7 +48658,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -48672,7 +48672,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -48686,7 +48686,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -48700,7 +48700,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -48714,7 +48714,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -48728,7 +48728,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -48742,7 +48742,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -48756,7 +48756,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -48770,7 +48770,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -48784,7 +48784,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -48798,7 +48798,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -48812,7 +48812,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -48826,7 +48826,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -48840,7 +48840,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -48854,7 +48854,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -48868,7 +48868,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -48882,7 +48882,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -48896,7 +48896,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -48910,7 +48910,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -48924,7 +48924,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
@@ -48938,7 +48938,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -48952,7 +48952,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C55" s="12">
         <v>1</v>
@@ -48966,7 +48966,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
@@ -48980,7 +48980,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -48994,7 +48994,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
@@ -49008,7 +49008,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -49022,7 +49022,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -49036,7 +49036,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C61" s="12">
         <v>1</v>
@@ -49050,7 +49050,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C62" s="12">
         <v>1</v>
@@ -49064,7 +49064,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -49078,7 +49078,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C64" s="12">
         <v>1</v>
@@ -49092,7 +49092,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C65" s="12">
         <v>1</v>
@@ -49106,7 +49106,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
@@ -49120,7 +49120,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -49134,7 +49134,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
@@ -49148,7 +49148,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -49162,7 +49162,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
@@ -49176,7 +49176,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49204,7 +49204,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -49218,7 +49218,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -49232,7 +49232,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -49246,7 +49246,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>
@@ -49345,7 +49345,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>29</v>
@@ -49428,10 +49428,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1833</v>
+      </c>
+      <c r="Q2" s="33" t="s">
         <v>1834</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>1835</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1064</v>
@@ -49496,10 +49496,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
+        <v>1835</v>
+      </c>
+      <c r="Q3" s="33" t="s">
         <v>1836</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>1837</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1064</v>
@@ -49564,10 +49564,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
+        <v>1837</v>
+      </c>
+      <c r="Q4" s="33" t="s">
         <v>1838</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>1839</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1064</v>
@@ -49632,10 +49632,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
+        <v>1839</v>
+      </c>
+      <c r="Q5" s="33" t="s">
         <v>1840</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>1841</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1064</v>
@@ -49700,10 +49700,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q6" s="33" t="s">
         <v>1842</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>1843</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1064</v>
@@ -49768,10 +49768,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
+        <v>1843</v>
+      </c>
+      <c r="Q7" s="33" t="s">
         <v>1844</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>1845</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1064</v>
@@ -49833,10 +49833,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
+        <v>1845</v>
+      </c>
+      <c r="Q8" s="33" t="s">
         <v>1846</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>1847</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1064</v>
@@ -49900,10 +49900,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
+        <v>1795</v>
+      </c>
+      <c r="Q9" s="35" t="s">
         <v>1796</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>1797</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -49973,10 +49973,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Q10" s="35" t="s">
         <v>1799</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>1800</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -50044,10 +50044,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
+        <v>1835</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>1836</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>1837</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1064</v>
@@ -50112,10 +50112,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q12" s="33" t="s">
         <v>1848</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>1849</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1064</v>
@@ -50180,10 +50180,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
+        <v>1849</v>
+      </c>
+      <c r="Q13" s="33" t="s">
         <v>1850</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>1851</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1064</v>
@@ -50248,10 +50248,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
+        <v>1851</v>
+      </c>
+      <c r="Q14" s="33" t="s">
         <v>1852</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>1853</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1071</v>
@@ -50317,10 +50317,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -50391,10 +50391,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Q16" s="33" t="s">
         <v>1854</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>1855</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -50459,10 +50459,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Q17" s="33" t="s">
         <v>1856</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>1857</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -50527,10 +50527,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
+        <v>1857</v>
+      </c>
+      <c r="Q18" s="33" t="s">
         <v>1858</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>1859</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -50595,10 +50595,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
+        <v>1859</v>
+      </c>
+      <c r="Q19" s="33" t="s">
         <v>1860</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>1861</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -50663,10 +50663,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Q20" s="33" t="s">
         <v>1862</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>1863</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>932</v>
@@ -50733,7 +50733,7 @@
         <v>894</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -50803,10 +50803,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -50874,10 +50874,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -50947,10 +50947,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Q24" s="35" t="s">
         <v>1801</v>
-      </c>
-      <c r="Q24" s="35" t="s">
-        <v>1802</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -51021,10 +51021,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>933</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2132">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8941,14 +8941,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>财神商铺</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9018,6 +9010,42 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--18元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--28元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--98元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11892,11 +11920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H309" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H335" sqref="H335"/>
+      <selection pane="bottomRight" activeCell="G569" sqref="G569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15690,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -47337,7 +47365,7 @@
         <v>2091</v>
       </c>
       <c r="W553" s="67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47405,7 +47433,7 @@
         <v>2095</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47473,7 +47501,7 @@
         <v>2099</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47541,7 +47569,7 @@
         <v>2104</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47579,13 +47607,13 @@
         <v>1</v>
       </c>
       <c r="G557" s="19" t="s">
-        <v>2106</v>
+        <v>2123</v>
       </c>
       <c r="I557" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J557" s="19" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47606,7 +47634,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47645,13 +47673,13 @@
         <v>1</v>
       </c>
       <c r="G558" s="19" t="s">
-        <v>518</v>
+        <v>2124</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47711,13 +47739,13 @@
         <v>1</v>
       </c>
       <c r="G559" s="19" t="s">
-        <v>266</v>
+        <v>2125</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47738,7 +47766,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47777,13 +47805,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="19" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I560" s="19" t="s">
         <v>2105</v>
       </c>
-      <c r="I560" s="19" t="s">
-        <v>2107</v>
-      </c>
       <c r="J560" s="19" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47843,13 +47871,13 @@
         <v>1</v>
       </c>
       <c r="G561" s="19" t="s">
-        <v>519</v>
+        <v>2127</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47909,13 +47937,13 @@
         <v>1</v>
       </c>
       <c r="G562" s="19" t="s">
-        <v>66</v>
+        <v>2128</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47936,7 +47964,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47975,13 +48003,13 @@
         <v>1</v>
       </c>
       <c r="G563" s="19" t="s">
-        <v>2105</v>
+        <v>2129</v>
       </c>
       <c r="I563" s="19" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J563" s="19" t="s">
         <v>2108</v>
-      </c>
-      <c r="J563" s="19" t="s">
-        <v>2110</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -48041,13 +48069,13 @@
         <v>1</v>
       </c>
       <c r="G564" s="19" t="s">
-        <v>266</v>
+        <v>2130</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48068,7 +48096,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48107,13 +48135,13 @@
         <v>1</v>
       </c>
       <c r="G565" s="19" t="s">
-        <v>70</v>
+        <v>2131</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48134,7 +48162,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
@@ -48174,7 +48202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -49176,7 +49204,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49190,7 +49218,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49204,7 +49232,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8941,6 +8941,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>财神商铺</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8997,6 +9005,179 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9010,42 +9191,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--18元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--28元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--98元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9124,7 +9269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9185,24 +9330,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9246,7 +9373,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9442,29 +9569,14 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9927,10 +10039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9938,32 +10050,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9983,85 +10095,88 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -10078,72 +10193,73 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>600</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
       <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
+      <c r="R2" s="11">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>1014</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
       <c r="AD2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -10160,72 +10276,73 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>1500</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="45">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="11">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>1016</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="11">
-        <v>1</v>
-      </c>
       <c r="AD3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -10242,72 +10359,73 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>3000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="45">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>1038</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -10324,72 +10442,75 @@
       <c r="F5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>5000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
       <c r="AD5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -10406,72 +10527,75 @@
       <c r="F6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9800</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="45">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>1040</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="11">
-        <v>1</v>
-      </c>
       <c r="AD6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -10488,72 +10612,75 @@
       <c r="F7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>49800</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
       <c r="AD7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -10570,72 +10697,73 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="45">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
       <c r="Q8" s="11">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1</v>
-      </c>
       <c r="AD8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -10652,71 +10780,74 @@
       <c r="F9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>99800</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1030</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
+      <c r="R9" s="11">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>1044</v>
       </c>
       <c r="U9" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="V9" s="33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11">
-        <v>1</v>
-      </c>
       <c r="AD9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10733,71 +10864,74 @@
       <c r="F10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="U10" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10816,71 +10950,72 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>1</v>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>400</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10897,71 +11032,72 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>1</v>
+      <c r="R12" s="2">
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>2000</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10978,71 +11114,72 @@
         <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9800</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <v>1</v>
+      <c r="R13" s="2">
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>6700</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
       <c r="AD13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11059,71 +11196,72 @@
         <v>67</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19800</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
+      <c r="R14" s="2">
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11140,71 +11278,72 @@
         <v>71</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>29800</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <v>1</v>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11221,71 +11360,72 @@
         <v>75</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>66</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11295,71 +11435,72 @@
       <c r="C17" s="11"/>
       <c r="E17" s="46"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="2">
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1835</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="V17" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11369,71 +11510,72 @@
       <c r="C18" s="11"/>
       <c r="E18" s="46"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>1873</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>1873</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
       <c r="AD18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11443,71 +11585,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="46"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1051</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
+      <c r="R19" s="2">
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>1874</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1874</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="V19" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11517,71 +11660,72 @@
       <c r="C20" s="11"/>
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="11">
-        <v>0</v>
+      <c r="R20" s="2">
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>1875</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
       <c r="AD20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11591,71 +11735,72 @@
       <c r="C21" s="11"/>
       <c r="E21" s="46"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9800</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="11">
-        <v>0</v>
+      <c r="R21" s="2">
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1876</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="V21" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11665,71 +11810,72 @@
       <c r="C22" s="11"/>
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>49800</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1054</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>1877</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>1877</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="V22" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11739,71 +11885,72 @@
       <c r="C23" s="11"/>
       <c r="E23" s="46"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>100000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>1878</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>1878</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11820,92 +11967,95 @@
       <c r="F24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="11">
-        <v>1</v>
+      <c r="R24" s="2">
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>1061</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="V24" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X24" s="33" t="s">
         <v>1024</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E32" s="46"/>
     </row>
   </sheetData>
@@ -11918,13 +12068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H540" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G569" sqref="G569"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15718,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2119</v>
+        <v>2169</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -45177,7 +45327,7 @@
         <v>10437</v>
       </c>
       <c r="F521" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>1969</v>
@@ -45245,7 +45395,7 @@
         <v>10438</v>
       </c>
       <c r="F522" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522" s="19" t="s">
         <v>1975</v>
@@ -45313,7 +45463,7 @@
         <v>10439</v>
       </c>
       <c r="F523" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="19" t="s">
         <v>1982</v>
@@ -45381,7 +45531,7 @@
         <v>10440</v>
       </c>
       <c r="F524" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" s="19" t="s">
         <v>1987</v>
@@ -45449,7 +45599,7 @@
         <v>10441</v>
       </c>
       <c r="F525" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" s="19" t="s">
         <v>1968</v>
@@ -45517,7 +45667,7 @@
         <v>10442</v>
       </c>
       <c r="F526" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526" s="19" t="s">
         <v>1974</v>
@@ -45585,7 +45735,7 @@
         <v>10443</v>
       </c>
       <c r="F527" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527" s="19" t="s">
         <v>1981</v>
@@ -45653,7 +45803,7 @@
         <v>10444</v>
       </c>
       <c r="F528" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528" s="19" t="s">
         <v>1986</v>
@@ -45721,7 +45871,7 @@
         <v>10445</v>
       </c>
       <c r="F529" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="19" t="s">
         <v>2005</v>
@@ -45789,7 +45939,7 @@
         <v>10446</v>
       </c>
       <c r="F530" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" s="19" t="s">
         <v>1974</v>
@@ -45857,7 +46007,7 @@
         <v>10447</v>
       </c>
       <c r="F531" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531" s="19" t="s">
         <v>1982</v>
@@ -45925,7 +46075,7 @@
         <v>10448</v>
       </c>
       <c r="F532" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" s="19" t="s">
         <v>2013</v>
@@ -45993,7 +46143,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2029</v>
@@ -46061,7 +46211,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>2031</v>
@@ -46129,7 +46279,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2033</v>
@@ -46197,7 +46347,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>2029</v>
@@ -46265,7 +46415,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>2031</v>
@@ -46333,7 +46483,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2033</v>
@@ -46401,7 +46551,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2029</v>
@@ -46469,7 +46619,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>2031</v>
@@ -46537,7 +46687,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>2033</v>
@@ -46597,1596 +46747,2572 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>2052</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2053</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>2056</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>2061</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2062</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2065</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2066</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>2068</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="65">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="65">
-        <v>1</v>
-      </c>
-      <c r="G549" s="65" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="I549" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J549" s="65" t="s">
+      <c r="J549" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="L549" s="65">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="65">
-        <v>0</v>
-      </c>
-      <c r="N549" s="65">
-        <v>0</v>
-      </c>
-      <c r="O549" s="65" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P549" s="65">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="65" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R549" s="66" t="s">
+      <c r="R549" s="10" t="s">
         <v>2076</v>
       </c>
-      <c r="W549" s="65" t="s">
+      <c r="W549" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X549" s="65">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="65">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="65">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="65">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="65">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="65">
-        <v>1</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I550" s="65" t="s">
+      <c r="I550" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="J550" s="65" t="s">
+      <c r="J550" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="L550" s="65">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="65">
-        <v>0</v>
-      </c>
-      <c r="N550" s="65">
-        <v>0</v>
-      </c>
-      <c r="O550" s="65" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P550" s="65">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="65" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R550" s="66" t="s">
+      <c r="R550" s="10" t="s">
         <v>2079</v>
       </c>
-      <c r="W550" s="65" t="s">
+      <c r="W550" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X550" s="65">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="65">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="65">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="65">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="65">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="65">
-        <v>1</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="I551" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J551" s="65" t="s">
+      <c r="J551" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L551" s="65">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="65">
-        <v>0</v>
-      </c>
-      <c r="N551" s="65">
-        <v>0</v>
-      </c>
-      <c r="O551" s="65" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P551" s="65">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="65" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R551" s="66" t="s">
+      <c r="R551" s="10" t="s">
         <v>2083</v>
       </c>
-      <c r="W551" s="65" t="s">
+      <c r="W551" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X551" s="65">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="65">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="65">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="65">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="65">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="65">
-        <v>1</v>
-      </c>
-      <c r="G552" s="65" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I552" s="65" t="s">
+      <c r="I552" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J552" s="65" t="s">
+      <c r="J552" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="L552" s="65">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="65">
-        <v>0</v>
-      </c>
-      <c r="N552" s="65">
-        <v>0</v>
-      </c>
-      <c r="O552" s="65" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P552" s="65">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="65" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R552" s="66" t="s">
+      <c r="R552" s="10" t="s">
         <v>2086</v>
       </c>
-      <c r="W552" s="65" t="s">
+      <c r="W552" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X552" s="65">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="65">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="65">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="65">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="67">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="67">
-        <v>1</v>
-      </c>
-      <c r="G553" s="67" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="I553" s="67" t="s">
+      <c r="I553" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J553" s="67" t="s">
+      <c r="J553" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="L553" s="67">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="67">
-        <v>0</v>
-      </c>
-      <c r="N553" s="67">
-        <v>0</v>
-      </c>
-      <c r="O553" s="67" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P553" s="67">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="67" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2090</v>
       </c>
-      <c r="R553" s="68" t="s">
+      <c r="R553" s="10" t="s">
         <v>2091</v>
       </c>
-      <c r="W553" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X553" s="67">
+      <c r="W553" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="67">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="67">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="67">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="67">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="67">
-        <v>1</v>
-      </c>
-      <c r="G554" s="67" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I554" s="67" t="s">
+      <c r="I554" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="J554" s="67" t="s">
+      <c r="J554" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="L554" s="67">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="67">
-        <v>0</v>
-      </c>
-      <c r="N554" s="67">
-        <v>0</v>
-      </c>
-      <c r="O554" s="67" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P554" s="67">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="67" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R554" s="68" t="s">
+      <c r="R554" s="10" t="s">
         <v>2095</v>
       </c>
-      <c r="W554" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X554" s="67">
+      <c r="W554" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="67">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="67">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="67">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="67">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="67">
-        <v>1</v>
-      </c>
-      <c r="G555" s="67" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="I555" s="67" t="s">
+      <c r="I555" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J555" s="67" t="s">
+      <c r="J555" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="L555" s="67">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="67">
-        <v>0</v>
-      </c>
-      <c r="N555" s="67">
-        <v>0</v>
-      </c>
-      <c r="O555" s="67" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P555" s="67">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="67" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="R555" s="68" t="s">
+      <c r="R555" s="10" t="s">
         <v>2099</v>
       </c>
-      <c r="W555" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X555" s="67">
+      <c r="W555" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="67">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="67">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="67">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="67">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="67">
-        <v>1</v>
-      </c>
-      <c r="G556" s="67" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="I556" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="J556" s="67" t="s">
+      <c r="J556" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="L556" s="67">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="67">
-        <v>0</v>
-      </c>
-      <c r="N556" s="67">
-        <v>0</v>
-      </c>
-      <c r="O556" s="67" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P556" s="67">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="67" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2103</v>
       </c>
-      <c r="R556" s="68" t="s">
+      <c r="R556" s="10" t="s">
         <v>2104</v>
       </c>
-      <c r="W556" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X556" s="67">
+      <c r="W556" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="67">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="67">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="67">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I557" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J557" s="19" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L557" s="19">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I557" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J557" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="72" t="s">
-        <v>2115</v>
-      </c>
-      <c r="W557" s="19" t="s">
+      <c r="R557" s="65" t="s">
+        <v>2117</v>
+      </c>
+      <c r="W557" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I558" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J558" s="19" t="s">
-        <v>2109</v>
-      </c>
-      <c r="L558" s="19">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J558" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="72" t="s">
+      <c r="R558" s="65" t="s">
         <v>654</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I559" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J559" s="19" t="s">
-        <v>2110</v>
-      </c>
-      <c r="L559" s="19">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J559" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="72" t="s">
-        <v>2116</v>
-      </c>
-      <c r="W559" s="19" t="s">
+      <c r="R559" s="65" t="s">
+        <v>2118</v>
+      </c>
+      <c r="W559" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="J560" s="19" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L560" s="19">
+      <c r="I560" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J560" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="72" t="s">
+      <c r="R560" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I561" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J561" s="19" t="s">
-        <v>2111</v>
-      </c>
-      <c r="L561" s="19">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J561" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="72" t="s">
+      <c r="R561" s="65" t="s">
         <v>1617</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
-        <v>2128</v>
-      </c>
-      <c r="I562" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J562" s="19" t="s">
-        <v>2112</v>
-      </c>
-      <c r="L562" s="19">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J562" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="72" t="s">
-        <v>2117</v>
-      </c>
-      <c r="W562" s="19" t="s">
+      <c r="R562" s="65" t="s">
+        <v>2119</v>
+      </c>
+      <c r="W562" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
-        <v>2129</v>
-      </c>
-      <c r="I563" s="19" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="L563" s="19">
+      <c r="J563" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="72" t="s">
+      <c r="R563" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
-        <v>2130</v>
-      </c>
-      <c r="I564" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J564" s="19" t="s">
-        <v>2113</v>
-      </c>
-      <c r="L564" s="19">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J564" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="72" t="s">
-        <v>2116</v>
-      </c>
-      <c r="W564" s="19" t="s">
+      <c r="R564" s="65" t="s">
+        <v>2118</v>
+      </c>
+      <c r="W564" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
-        <v>2131</v>
-      </c>
-      <c r="I565" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J565" s="19" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L565" s="19">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J565" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="72" t="s">
-        <v>2118</v>
-      </c>
-      <c r="W565" s="19" t="s">
+      <c r="R565" s="65" t="s">
+        <v>2120</v>
+      </c>
+      <c r="W565" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>1</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R566" s="66" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>1</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R567" s="66" t="s">
+        <v>1938</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>1</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R568" s="66" t="s">
+        <v>1941</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>1</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R569" s="66" t="s">
+        <v>1944</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>1</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="R570" s="66" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>1</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="R571" s="66" t="s">
+        <v>2132</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>1</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="R572" s="66" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>1</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="R573" s="66" t="s">
+        <v>2138</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="22">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="22"/>
+      <c r="D574" s="22"/>
+      <c r="E574" s="22"/>
+      <c r="F574" s="22">
+        <v>1</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H574" s="22"/>
+      <c r="I574" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J574" s="22"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="22">
+        <v>0</v>
+      </c>
+      <c r="N574" s="22">
+        <v>0</v>
+      </c>
+      <c r="O574" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="P574" s="22">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="22" t="s">
+        <v>2143</v>
+      </c>
+      <c r="R574" s="67" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S574" s="22"/>
+      <c r="T574" s="22"/>
+      <c r="U574" s="22"/>
+      <c r="V574" s="22"/>
+      <c r="W574" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="X574" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="22">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="22"/>
+      <c r="D575" s="22"/>
+      <c r="E575" s="22"/>
+      <c r="F575" s="22">
+        <v>1</v>
+      </c>
+      <c r="G575" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H575" s="22"/>
+      <c r="I575" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J575" s="22"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="22">
+        <v>0</v>
+      </c>
+      <c r="N575" s="22">
+        <v>0</v>
+      </c>
+      <c r="O575" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="P575" s="22">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="R575" s="67" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S575" s="22"/>
+      <c r="T575" s="22"/>
+      <c r="U575" s="22"/>
+      <c r="V575" s="22"/>
+      <c r="W575" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="X575" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="22">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="22"/>
+      <c r="D576" s="22"/>
+      <c r="E576" s="22"/>
+      <c r="F576" s="22">
+        <v>1</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H576" s="22"/>
+      <c r="I576" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J576" s="22"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="22">
+        <v>0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>0</v>
+      </c>
+      <c r="O576" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P576" s="22">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="R576" s="67" t="s">
+        <v>2156</v>
+      </c>
+      <c r="S576" s="22"/>
+      <c r="T576" s="22"/>
+      <c r="U576" s="22"/>
+      <c r="V576" s="22"/>
+      <c r="W576" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="X576" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="22">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="22"/>
+      <c r="D577" s="22"/>
+      <c r="E577" s="22"/>
+      <c r="F577" s="22">
+        <v>1</v>
+      </c>
+      <c r="G577" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H577" s="22"/>
+      <c r="I577" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J577" s="22"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="22">
+        <v>0</v>
+      </c>
+      <c r="N577" s="22">
+        <v>0</v>
+      </c>
+      <c r="O577" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P577" s="22">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="22" t="s">
+        <v>2159</v>
+      </c>
+      <c r="R577" s="67" t="s">
+        <v>2160</v>
+      </c>
+      <c r="S577" s="22"/>
+      <c r="T577" s="22"/>
+      <c r="U577" s="22"/>
+      <c r="V577" s="22"/>
+      <c r="W577" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X577" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="22">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22">
+        <v>1</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="22">
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>0</v>
+      </c>
+      <c r="O578" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P578" s="22">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R578" s="67" t="s">
+        <v>2164</v>
+      </c>
+      <c r="S578" s="22"/>
+      <c r="T578" s="22"/>
+      <c r="U578" s="22"/>
+      <c r="V578" s="22"/>
+      <c r="W578" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X578" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="22">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="22"/>
+      <c r="D579" s="22"/>
+      <c r="E579" s="22"/>
+      <c r="F579" s="22">
+        <v>1</v>
+      </c>
+      <c r="G579" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H579" s="22"/>
+      <c r="I579" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J579" s="22"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="22">
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <v>0</v>
+      </c>
+      <c r="O579" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P579" s="22">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="R579" s="67" t="s">
+        <v>2168</v>
+      </c>
+      <c r="S579" s="22"/>
+      <c r="T579" s="22"/>
+      <c r="U579" s="22"/>
+      <c r="V579" s="22"/>
+      <c r="W579" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X579" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48202,8 +49328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49204,7 +50330,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2120</v>
+        <v>2170</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49218,7 +50344,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2121</v>
+        <v>2171</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49232,7 +50358,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2122</v>
+        <v>2172</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11892,11 +11892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H309" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V537" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H335" sqref="H335"/>
+      <selection pane="bottomRight" activeCell="Y556" sqref="Y556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45188,7 +45188,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z521" s="19">
         <v>1614009599</v>
@@ -45256,7 +45256,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z522" s="19">
         <v>1614009599</v>
@@ -45324,7 +45324,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z523" s="19">
         <v>1614009599</v>
@@ -45392,7 +45392,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z524" s="19">
         <v>1614009599</v>
@@ -45460,7 +45460,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z525" s="19">
         <v>1614009599</v>
@@ -45528,7 +45528,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z526" s="19">
         <v>1614009599</v>
@@ -45596,7 +45596,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z527" s="19">
         <v>1614009599</v>
@@ -45664,7 +45664,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z528" s="19">
         <v>1614009599</v>
@@ -45732,7 +45732,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z529" s="19">
         <v>1614009599</v>
@@ -45800,7 +45800,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z530" s="19">
         <v>1614009599</v>
@@ -45868,7 +45868,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z531" s="19">
         <v>1614009599</v>
@@ -45936,7 +45936,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z532" s="19">
         <v>1614009599</v>
@@ -46616,7 +46616,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46681,7 +46681,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46746,7 +46746,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46811,7 +46811,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46876,7 +46876,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46941,7 +46941,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -47006,7 +47006,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -48174,7 +48174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11892,11 +11892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V537" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y556" sqref="Y556"/>
+      <selection pane="bottomRight" activeCell="H335" sqref="H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45188,7 +45188,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="19">
         <v>1614009599</v>
@@ -45256,7 +45256,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="19">
         <v>1614009599</v>
@@ -45324,7 +45324,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="19">
         <v>1614009599</v>
@@ -45392,7 +45392,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="19">
         <v>1614009599</v>
@@ -45460,7 +45460,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="19">
         <v>1614009599</v>
@@ -45528,7 +45528,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="19">
         <v>1614009599</v>
@@ -45596,7 +45596,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="19">
         <v>1614009599</v>
@@ -45664,7 +45664,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="19">
         <v>1614009599</v>
@@ -45732,7 +45732,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="19">
         <v>1614009599</v>
@@ -45800,7 +45800,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="19">
         <v>1614009599</v>
@@ -45868,7 +45868,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="19">
         <v>1614009599</v>
@@ -45936,7 +45936,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="19">
         <v>1614009599</v>
@@ -46616,7 +46616,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46681,7 +46681,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46746,7 +46746,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46811,7 +46811,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46876,7 +46876,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46941,7 +46941,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -47006,7 +47006,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -48174,7 +48174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_xiaomi.xlsx
+++ b/config_debug/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2179">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9191,6 +9191,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9373,7 +9397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9521,9 +9545,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9576,6 +9597,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12068,13 +12095,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15916,298 +15943,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+    <row r="67" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50">
         <v>66</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <v>85</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>2</v>
       </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>1785</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>-4</v>
       </c>
-      <c r="M67" s="51">
-        <v>0</v>
-      </c>
-      <c r="N67" s="51">
-        <v>0</v>
-      </c>
-      <c r="O67" s="51" t="s">
+      <c r="M67" s="50">
+        <v>0</v>
+      </c>
+      <c r="N67" s="50">
+        <v>0</v>
+      </c>
+      <c r="O67" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="51">
+      <c r="P67" s="50">
         <v>1500</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="51" t="s">
+      <c r="R67" s="50" t="s">
         <v>1361</v>
       </c>
-      <c r="W67" s="51" t="s">
+      <c r="W67" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="52" t="s">
+      <c r="X67" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="51">
+      <c r="Y67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="AH67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50">
         <v>67</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="50">
         <v>86</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>3</v>
       </c>
-      <c r="F68" s="51">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>1786</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L68" s="50">
         <v>-4</v>
       </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
-        <v>0</v>
-      </c>
-      <c r="O68" s="51" t="s">
+      <c r="M68" s="50">
+        <v>0</v>
+      </c>
+      <c r="N68" s="50">
+        <v>0</v>
+      </c>
+      <c r="O68" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="50">
         <v>3000</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="51" t="s">
+      <c r="R68" s="50" t="s">
         <v>1399</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="52" t="s">
+      <c r="X68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="51">
+      <c r="Y68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="AH68" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
         <v>68</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="50">
         <v>87</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>4</v>
       </c>
-      <c r="F69" s="51">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51" t="s">
+      <c r="F69" s="50">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="50">
         <v>-4</v>
       </c>
-      <c r="M69" s="51">
-        <v>0</v>
-      </c>
-      <c r="N69" s="51">
-        <v>0</v>
-      </c>
-      <c r="O69" s="51" t="s">
+      <c r="M69" s="50">
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <v>0</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="50">
         <v>5000</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="50" t="s">
         <v>1362</v>
       </c>
-      <c r="W69" s="51" t="s">
+      <c r="W69" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="52" t="s">
+      <c r="X69" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="51">
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="AH69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
         <v>69</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="50">
         <v>88</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>5</v>
       </c>
-      <c r="F70" s="51">
-        <v>1</v>
-      </c>
-      <c r="G70" s="51" t="s">
+      <c r="F70" s="50">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>1788</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="50">
         <v>-4</v>
       </c>
-      <c r="M70" s="51">
-        <v>0</v>
-      </c>
-      <c r="N70" s="51">
-        <v>0</v>
-      </c>
-      <c r="O70" s="51" t="s">
+      <c r="M70" s="50">
+        <v>0</v>
+      </c>
+      <c r="N70" s="50">
+        <v>0</v>
+      </c>
+      <c r="O70" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="51">
+      <c r="P70" s="50">
         <v>9800</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="51" t="s">
+      <c r="R70" s="50" t="s">
         <v>1363</v>
       </c>
-      <c r="W70" s="51" t="s">
+      <c r="W70" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="51">
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="AH70" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>70</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="50">
         <v>89</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="50">
         <v>6</v>
       </c>
-      <c r="F71" s="51">
-        <v>1</v>
-      </c>
-      <c r="G71" s="51" t="s">
+      <c r="F71" s="50">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>1789</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L71" s="50">
         <v>-4</v>
       </c>
-      <c r="M71" s="51">
-        <v>0</v>
-      </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51" t="s">
+      <c r="M71" s="50">
+        <v>0</v>
+      </c>
+      <c r="N71" s="50">
+        <v>0</v>
+      </c>
+      <c r="O71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="50">
         <v>49800</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="51" t="s">
+      <c r="R71" s="50" t="s">
         <v>1364</v>
       </c>
-      <c r="W71" s="51" t="s">
+      <c r="W71" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="51">
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="51">
+      <c r="AH71" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17503,56 +17530,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51">
+    <row r="94" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="50">
         <v>109</v>
       </c>
-      <c r="F94" s="51">
-        <v>1</v>
-      </c>
-      <c r="G94" s="51" t="s">
+      <c r="F94" s="50">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="51">
+      <c r="L94" s="50">
         <v>-4</v>
       </c>
-      <c r="M94" s="51">
-        <v>0</v>
-      </c>
-      <c r="N94" s="51">
-        <v>0</v>
-      </c>
-      <c r="O94" s="51" t="s">
+      <c r="M94" s="50">
+        <v>0</v>
+      </c>
+      <c r="N94" s="50">
+        <v>0</v>
+      </c>
+      <c r="O94" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="51">
+      <c r="P94" s="50">
         <v>100000</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="51" t="s">
+      <c r="R94" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="51" t="s">
+      <c r="W94" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="52" t="s">
+      <c r="X94" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="51">
+      <c r="Y94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="51">
+      <c r="AH94" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="50">
         <v>1</v>
       </c>
     </row>
@@ -19534,121 +19561,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
+    <row r="128" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="50">
         <v>127</v>
       </c>
-      <c r="B128" s="51">
+      <c r="B128" s="50">
         <v>10044</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="50">
         <v>108</v>
       </c>
-      <c r="F128" s="51">
-        <v>1</v>
-      </c>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="50" t="s">
         <v>1790</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>-10</v>
       </c>
-      <c r="M128" s="51">
-        <v>0</v>
-      </c>
-      <c r="N128" s="51">
-        <v>0</v>
-      </c>
-      <c r="O128" s="51" t="s">
+      <c r="M128" s="50">
+        <v>0</v>
+      </c>
+      <c r="N128" s="50">
+        <v>0</v>
+      </c>
+      <c r="O128" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="51">
+      <c r="P128" s="50">
         <v>99800</v>
       </c>
-      <c r="Q128" s="51" t="s">
+      <c r="Q128" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="51" t="s">
+      <c r="R128" s="50" t="s">
         <v>1366</v>
       </c>
-      <c r="W128" s="51" t="s">
+      <c r="W128" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="52" t="s">
+      <c r="X128" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="51">
+      <c r="Y128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
+      <c r="AH128" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="50">
         <v>128</v>
       </c>
-      <c r="B129" s="51">
+      <c r="B129" s="50">
         <v>10045</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="50">
         <v>110</v>
       </c>
-      <c r="F129" s="51">
-        <v>1</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F129" s="50">
+        <v>1</v>
+      </c>
+      <c r="G129" s="50" t="s">
         <v>1125</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>1791</v>
       </c>
-      <c r="L129" s="51">
+      <c r="L129" s="50">
         <v>-11</v>
       </c>
-      <c r="M129" s="51">
-        <v>0</v>
-      </c>
-      <c r="N129" s="51">
-        <v>0</v>
-      </c>
-      <c r="O129" s="51" t="s">
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+      <c r="N129" s="50">
+        <v>0</v>
+      </c>
+      <c r="O129" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="51">
+      <c r="P129" s="50">
         <v>249800</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="W129" s="51" t="s">
+      <c r="W129" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="52" t="s">
+      <c r="X129" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="51">
+      <c r="Y129" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="51">
+      <c r="AH129" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="50">
         <v>1</v>
       </c>
     </row>
@@ -22256,7 +22283,7 @@
       <c r="Q171" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="R171" s="49" t="s">
         <v>1721</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -22324,7 +22351,7 @@
       <c r="Q172" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="49" t="s">
         <v>1724</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -22392,7 +22419,7 @@
       <c r="Q173" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R173" s="50" t="s">
+      <c r="R173" s="49" t="s">
         <v>1727</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -22460,7 +22487,7 @@
       <c r="Q174" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R174" s="50" t="s">
+      <c r="R174" s="49" t="s">
         <v>1730</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22528,7 +22555,7 @@
       <c r="Q175" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R175" s="50" t="s">
+      <c r="R175" s="49" t="s">
         <v>1734</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22596,7 +22623,7 @@
       <c r="Q176" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R176" s="50" t="s">
+      <c r="R176" s="49" t="s">
         <v>1737</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22664,7 +22691,7 @@
       <c r="Q177" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R177" s="50" t="s">
+      <c r="R177" s="49" t="s">
         <v>1740</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22732,7 +22759,7 @@
       <c r="Q178" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R178" s="50" t="s">
+      <c r="R178" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22800,7 +22827,7 @@
       <c r="Q179" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R179" s="50" t="s">
+      <c r="R179" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22868,7 +22895,7 @@
       <c r="Q180" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R180" s="50" t="s">
+      <c r="R180" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22936,7 +22963,7 @@
       <c r="Q181" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R181" s="50" t="s">
+      <c r="R181" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -23004,7 +23031,7 @@
       <c r="Q182" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R182" s="50" t="s">
+      <c r="R182" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -23072,7 +23099,7 @@
       <c r="Q183" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R183" s="50" t="s">
+      <c r="R183" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -23140,7 +23167,7 @@
       <c r="Q184" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R184" s="50" t="s">
+      <c r="R184" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -23208,7 +23235,7 @@
       <c r="Q185" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R185" s="50" t="s">
+      <c r="R185" s="49" t="s">
         <v>1756</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28896,62 +28923,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="51">
+    <row r="273" spans="1:40" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="50">
         <v>272</v>
       </c>
-      <c r="B273" s="51">
+      <c r="B273" s="50">
         <v>10189</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="53">
         <v>111</v>
       </c>
-      <c r="F273" s="51">
-        <v>1</v>
-      </c>
-      <c r="G273" s="51" t="s">
+      <c r="F273" s="50">
+        <v>1</v>
+      </c>
+      <c r="G273" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="55" t="s">
+      <c r="H273" s="54" t="s">
         <v>1864</v>
       </c>
-      <c r="L273" s="51">
+      <c r="L273" s="50">
         <v>-10</v>
       </c>
-      <c r="M273" s="51">
-        <v>0</v>
-      </c>
-      <c r="N273" s="51">
-        <v>0</v>
-      </c>
-      <c r="O273" s="51" t="s">
+      <c r="M273" s="50">
+        <v>0</v>
+      </c>
+      <c r="N273" s="50">
+        <v>0</v>
+      </c>
+      <c r="O273" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="51">
+      <c r="P273" s="50">
         <v>19800</v>
       </c>
-      <c r="Q273" s="51" t="s">
+      <c r="Q273" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="51" t="s">
+      <c r="R273" s="50" t="s">
         <v>1367</v>
       </c>
-      <c r="W273" s="51" t="s">
+      <c r="W273" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="52" t="s">
+      <c r="X273" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="51">
+      <c r="Y273" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="51">
+      <c r="AH273" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="50">
         <v>1</v>
       </c>
     </row>
@@ -32060,7 +32087,7 @@
       <c r="Q323" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="R323" s="49" t="s">
         <v>1760</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -32125,7 +32152,7 @@
       <c r="Q324" s="43" t="s">
         <v>1764</v>
       </c>
-      <c r="R324" s="50" t="s">
+      <c r="R324" s="49" t="s">
         <v>1765</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -32190,7 +32217,7 @@
       <c r="Q325" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R325" s="50" t="s">
+      <c r="R325" s="49" t="s">
         <v>1768</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -32382,7 +32409,7 @@
       <c r="Q328" s="43" t="s">
         <v>1641</v>
       </c>
-      <c r="R328" s="50" t="s">
+      <c r="R328" s="49" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -32465,7 +32492,7 @@
       <c r="Q329" s="43" t="s">
         <v>1644</v>
       </c>
-      <c r="R329" s="50" t="s">
+      <c r="R329" s="49" t="s">
         <v>1645</v>
       </c>
       <c r="S329" s="43"/>
@@ -32548,7 +32575,7 @@
       <c r="Q330" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R330" s="50" t="s">
+      <c r="R330" s="49" t="s">
         <v>1648</v>
       </c>
       <c r="S330" s="43"/>
@@ -32631,7 +32658,7 @@
       <c r="Q331" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R331" s="50" t="s">
+      <c r="R331" s="49" t="s">
         <v>1650</v>
       </c>
       <c r="S331" s="43"/>
@@ -32714,7 +32741,7 @@
       <c r="Q332" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R332" s="50" t="s">
+      <c r="R332" s="49" t="s">
         <v>1652</v>
       </c>
       <c r="S332" s="43"/>
@@ -32797,7 +32824,7 @@
       <c r="Q333" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R333" s="50" t="s">
+      <c r="R333" s="49" t="s">
         <v>1653</v>
       </c>
       <c r="S333" s="43"/>
@@ -32880,7 +32907,7 @@
       <c r="Q334" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R334" s="50" t="s">
+      <c r="R334" s="49" t="s">
         <v>1656</v>
       </c>
       <c r="S334" s="43"/>
@@ -32963,7 +32990,7 @@
       <c r="Q335" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R335" s="50" t="s">
+      <c r="R335" s="49" t="s">
         <v>1659</v>
       </c>
       <c r="S335" s="43"/>
@@ -33046,7 +33073,7 @@
       <c r="Q336" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R336" s="50" t="s">
+      <c r="R336" s="49" t="s">
         <v>1661</v>
       </c>
       <c r="S336" s="43"/>
@@ -33129,7 +33156,7 @@
       <c r="Q337" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R337" s="50" t="s">
+      <c r="R337" s="49" t="s">
         <v>1664</v>
       </c>
       <c r="S337" s="43"/>
@@ -35106,7 +35133,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1192</v>
@@ -35171,7 +35198,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1195</v>
@@ -35236,7 +35263,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1198</v>
@@ -35301,7 +35328,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1200</v>
@@ -35366,7 +35393,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1202</v>
@@ -35431,7 +35458,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1117</v>
@@ -35493,7 +35520,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1205</v>
@@ -35555,7 +35582,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1119</v>
@@ -35617,7 +35644,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1120</v>
@@ -35679,7 +35706,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1121</v>
@@ -35747,7 +35774,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1226</v>
@@ -35815,7 +35842,7 @@
         <v>10292</v>
       </c>
       <c r="F376" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1234</v>
@@ -35883,7 +35910,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1234</v>
@@ -35951,7 +35978,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1234</v>
@@ -36019,7 +36046,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1233</v>
@@ -36087,7 +36114,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1233</v>
@@ -36155,7 +36182,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1234</v>
@@ -36223,7 +36250,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1233</v>
@@ -36291,7 +36318,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1234</v>
@@ -36359,7 +36386,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1233</v>
@@ -36427,7 +36454,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1234</v>
@@ -36487,624 +36514,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="19">
+    <row r="386" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
         <v>385</v>
       </c>
-      <c r="B386" s="19">
+      <c r="B386" s="22">
         <v>10302</v>
       </c>
-      <c r="F386" s="19">
-        <v>1</v>
-      </c>
-      <c r="G386" s="19" t="s">
+      <c r="F386" s="22">
+        <v>1</v>
+      </c>
+      <c r="G386" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H386" s="47"/>
-      <c r="I386" s="19" t="s">
+      <c r="I386" s="22" t="s">
         <v>1260</v>
       </c>
-      <c r="J386" s="19" t="s">
+      <c r="J386" s="22" t="s">
         <v>1261</v>
       </c>
-      <c r="L386" s="19">
+      <c r="L386" s="22">
         <v>-31</v>
       </c>
-      <c r="M386" s="19">
-        <v>0</v>
-      </c>
-      <c r="N386" s="19">
-        <v>0</v>
-      </c>
-      <c r="O386" s="19" t="s">
+      <c r="M386" s="22">
+        <v>0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P386" s="19">
+      <c r="P386" s="22">
         <v>1800</v>
       </c>
-      <c r="Q386" s="19" t="s">
+      <c r="Q386" s="22" t="s">
         <v>1262</v>
       </c>
-      <c r="R386" s="39" t="s">
+      <c r="R386" s="67" t="s">
         <v>1263</v>
       </c>
-      <c r="W386" s="19" t="s">
+      <c r="W386" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X386" s="19">
+      <c r="X386" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="19">
+      <c r="Y386" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="22">
         <v>44</v>
       </c>
-      <c r="AH386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="19">
+      <c r="AH386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
         <v>386</v>
       </c>
-      <c r="B387" s="19">
+      <c r="B387" s="22">
         <v>10303</v>
       </c>
-      <c r="F387" s="19">
-        <v>1</v>
-      </c>
-      <c r="G387" s="19" t="s">
+      <c r="F387" s="22">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H387" s="47"/>
-      <c r="I387" s="19" t="s">
+      <c r="I387" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="J387" s="19" t="s">
+      <c r="J387" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="L387" s="19">
+      <c r="L387" s="22">
         <v>-31</v>
       </c>
-      <c r="M387" s="19">
-        <v>0</v>
-      </c>
-      <c r="N387" s="19">
-        <v>0</v>
-      </c>
-      <c r="O387" s="19" t="s">
+      <c r="M387" s="22">
+        <v>0</v>
+      </c>
+      <c r="N387" s="22">
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="s">
         <v>1267</v>
       </c>
-      <c r="P387" s="19">
+      <c r="P387" s="22">
         <v>3000</v>
       </c>
-      <c r="Q387" s="19" t="s">
+      <c r="Q387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="R387" s="39" t="s">
+      <c r="R387" s="67" t="s">
         <v>1269</v>
       </c>
-      <c r="W387" s="19" t="s">
+      <c r="W387" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X387" s="19">
+      <c r="X387" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="19">
+      <c r="Y387" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="22">
         <v>44</v>
       </c>
-      <c r="AH387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="19">
+      <c r="AH387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
         <v>387</v>
       </c>
-      <c r="B388" s="19">
+      <c r="B388" s="22">
         <v>10304</v>
       </c>
-      <c r="F388" s="19">
-        <v>1</v>
-      </c>
-      <c r="G388" s="19" t="s">
+      <c r="F388" s="22">
+        <v>1</v>
+      </c>
+      <c r="G388" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H388" s="47"/>
-      <c r="I388" s="19" t="s">
+      <c r="I388" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="J388" s="19" t="s">
+      <c r="J388" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="L388" s="19">
+      <c r="L388" s="22">
         <v>-31</v>
       </c>
-      <c r="M388" s="19">
-        <v>0</v>
-      </c>
-      <c r="N388" s="19">
-        <v>0</v>
-      </c>
-      <c r="O388" s="19" t="s">
+      <c r="M388" s="22">
+        <v>0</v>
+      </c>
+      <c r="N388" s="22">
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="s">
         <v>1273</v>
       </c>
-      <c r="P388" s="19">
+      <c r="P388" s="22">
         <v>4800</v>
       </c>
-      <c r="Q388" s="19" t="s">
+      <c r="Q388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="R388" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W388" s="19" t="s">
+      <c r="W388" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="X388" s="19">
+      <c r="X388" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="19">
+      <c r="Y388" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="22">
         <v>44</v>
       </c>
-      <c r="AH388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="19">
+      <c r="AH388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
         <v>388</v>
       </c>
-      <c r="B389" s="19">
+      <c r="B389" s="22">
         <v>10305</v>
       </c>
-      <c r="F389" s="19">
-        <v>1</v>
-      </c>
-      <c r="G389" s="19" t="s">
+      <c r="F389" s="22">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="H389" s="49"/>
-      <c r="I389" s="19" t="s">
+      <c r="I389" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J389" s="19" t="s">
+      <c r="J389" s="22" t="s">
         <v>1279</v>
       </c>
-      <c r="L389" s="19">
+      <c r="L389" s="22">
         <v>-31</v>
       </c>
-      <c r="M389" s="19">
-        <v>0</v>
-      </c>
-      <c r="N389" s="19">
-        <v>0</v>
-      </c>
-      <c r="O389" s="19" t="s">
+      <c r="M389" s="22">
+        <v>0</v>
+      </c>
+      <c r="N389" s="22">
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="P389" s="19">
+      <c r="P389" s="22">
         <v>4800</v>
       </c>
-      <c r="Q389" s="19" t="s">
+      <c r="Q389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="R389" s="39" t="s">
+      <c r="R389" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W389" s="19" t="s">
+      <c r="W389" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X389" s="19">
+      <c r="X389" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="19">
+      <c r="Y389" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="22">
         <v>45</v>
       </c>
-      <c r="AH389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="19">
+      <c r="AH389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22">
         <v>389</v>
       </c>
-      <c r="B390" s="19">
+      <c r="B390" s="22">
         <v>10306</v>
       </c>
-      <c r="F390" s="19">
-        <v>1</v>
-      </c>
-      <c r="G390" s="19" t="s">
+      <c r="F390" s="22">
+        <v>1</v>
+      </c>
+      <c r="G390" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H390" s="49"/>
-      <c r="I390" s="19" t="s">
+      <c r="I390" s="22" t="s">
         <v>1109</v>
       </c>
-      <c r="J390" s="19" t="s">
+      <c r="J390" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="L390" s="19">
+      <c r="L390" s="22">
         <v>-31</v>
       </c>
-      <c r="M390" s="19">
-        <v>0</v>
-      </c>
-      <c r="N390" s="19">
-        <v>0</v>
-      </c>
-      <c r="O390" s="19" t="s">
+      <c r="M390" s="22">
+        <v>0</v>
+      </c>
+      <c r="N390" s="22">
+        <v>0</v>
+      </c>
+      <c r="O390" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P390" s="19">
+      <c r="P390" s="22">
         <v>9800</v>
       </c>
-      <c r="Q390" s="19" t="s">
+      <c r="Q390" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="R390" s="39" t="s">
+      <c r="R390" s="67" t="s">
         <v>1284</v>
       </c>
-      <c r="W390" s="19" t="s">
+      <c r="W390" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X390" s="19">
+      <c r="X390" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="19">
+      <c r="Y390" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="22">
         <v>45</v>
       </c>
-      <c r="AH390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="19">
+      <c r="AH390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22">
         <v>390</v>
       </c>
-      <c r="B391" s="19">
+      <c r="B391" s="22">
         <v>10307</v>
       </c>
-      <c r="F391" s="19">
-        <v>1</v>
-      </c>
-      <c r="G391" s="19" t="s">
+      <c r="F391" s="22">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="H391" s="49"/>
-      <c r="I391" s="19" t="s">
+      <c r="I391" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J391" s="19" t="s">
+      <c r="J391" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="L391" s="19">
+      <c r="L391" s="22">
         <v>-31</v>
       </c>
-      <c r="M391" s="19">
-        <v>0</v>
-      </c>
-      <c r="N391" s="19">
-        <v>0</v>
-      </c>
-      <c r="O391" s="19" t="s">
+      <c r="M391" s="22">
+        <v>0</v>
+      </c>
+      <c r="N391" s="22">
+        <v>0</v>
+      </c>
+      <c r="O391" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P391" s="19">
+      <c r="P391" s="22">
         <v>19800</v>
       </c>
-      <c r="Q391" s="19" t="s">
+      <c r="Q391" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R391" s="39" t="s">
+      <c r="R391" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W391" s="19" t="s">
+      <c r="W391" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X391" s="19">
+      <c r="X391" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="19">
+      <c r="Y391" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="22">
         <v>45</v>
       </c>
-      <c r="AH391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="19">
+      <c r="AH391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22">
         <v>391</v>
       </c>
-      <c r="B392" s="19">
+      <c r="B392" s="22">
         <v>10308</v>
       </c>
-      <c r="F392" s="19">
-        <v>1</v>
-      </c>
-      <c r="G392" s="19" t="s">
+      <c r="F392" s="22">
+        <v>1</v>
+      </c>
+      <c r="G392" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H392" s="47"/>
-      <c r="I392" s="19" t="s">
+      <c r="I392" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="J392" s="19" t="s">
+      <c r="J392" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="L392" s="19">
+      <c r="L392" s="22">
         <v>-31</v>
       </c>
-      <c r="M392" s="19">
-        <v>0</v>
-      </c>
-      <c r="N392" s="19">
-        <v>0</v>
-      </c>
-      <c r="O392" s="19" t="s">
+      <c r="M392" s="22">
+        <v>0</v>
+      </c>
+      <c r="N392" s="22">
+        <v>0</v>
+      </c>
+      <c r="O392" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P392" s="19">
+      <c r="P392" s="22">
         <v>9800</v>
       </c>
-      <c r="Q392" s="19" t="s">
+      <c r="Q392" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R392" s="39" t="s">
+      <c r="R392" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W392" s="19" t="s">
+      <c r="W392" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X392" s="19">
+      <c r="X392" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="19">
+      <c r="Y392" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="22">
         <v>46</v>
       </c>
-      <c r="AH392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="19">
+      <c r="AH392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22">
         <v>392</v>
       </c>
-      <c r="B393" s="19">
+      <c r="B393" s="22">
         <v>10309</v>
       </c>
-      <c r="F393" s="19">
-        <v>1</v>
-      </c>
-      <c r="G393" s="19" t="s">
+      <c r="F393" s="22">
+        <v>1</v>
+      </c>
+      <c r="G393" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H393" s="47"/>
-      <c r="I393" s="19" t="s">
+      <c r="I393" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="J393" s="19" t="s">
+      <c r="J393" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="L393" s="19">
+      <c r="L393" s="22">
         <v>-31</v>
       </c>
-      <c r="M393" s="19">
-        <v>0</v>
-      </c>
-      <c r="N393" s="19">
-        <v>0</v>
-      </c>
-      <c r="O393" s="19" t="s">
+      <c r="M393" s="22">
+        <v>0</v>
+      </c>
+      <c r="N393" s="22">
+        <v>0</v>
+      </c>
+      <c r="O393" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P393" s="19">
+      <c r="P393" s="22">
         <v>19800</v>
       </c>
-      <c r="Q393" s="19" t="s">
+      <c r="Q393" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R393" s="39" t="s">
+      <c r="R393" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W393" s="19" t="s">
+      <c r="W393" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X393" s="19">
+      <c r="X393" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="19">
+      <c r="Y393" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="22">
         <v>46</v>
       </c>
-      <c r="AH393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="19">
+      <c r="AH393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22">
         <v>393</v>
       </c>
-      <c r="B394" s="19">
+      <c r="B394" s="22">
         <v>10310</v>
       </c>
-      <c r="F394" s="19">
-        <v>1</v>
-      </c>
-      <c r="G394" s="19" t="s">
+      <c r="F394" s="22">
+        <v>1</v>
+      </c>
+      <c r="G394" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H394" s="47"/>
-      <c r="I394" s="19" t="s">
+      <c r="I394" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="J394" s="19" t="s">
+      <c r="J394" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="L394" s="19">
+      <c r="L394" s="22">
         <v>-31</v>
       </c>
-      <c r="M394" s="19">
-        <v>0</v>
-      </c>
-      <c r="N394" s="19">
-        <v>0</v>
-      </c>
-      <c r="O394" s="19" t="s">
+      <c r="M394" s="22">
+        <v>0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>0</v>
+      </c>
+      <c r="O394" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="P394" s="19">
+      <c r="P394" s="22">
         <v>49800</v>
       </c>
-      <c r="Q394" s="19" t="s">
+      <c r="Q394" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R394" s="39" t="s">
+      <c r="R394" s="67" t="s">
         <v>1300</v>
       </c>
-      <c r="W394" s="19" t="s">
+      <c r="W394" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X394" s="19">
+      <c r="X394" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="19">
+      <c r="Y394" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="22">
         <v>46</v>
       </c>
-      <c r="AH394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="19">
+      <c r="AH394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="22">
         <v>1</v>
       </c>
     </row>
@@ -37116,7 +37134,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1309</v>
@@ -37178,7 +37196,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1315</v>
@@ -37240,7 +37258,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>288</v>
@@ -37302,7 +37320,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>291</v>
@@ -37364,7 +37382,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1322</v>
@@ -37426,7 +37444,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1325</v>
@@ -38325,62 +38343,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="51">
+    <row r="414" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
         <v>413</v>
       </c>
-      <c r="B414" s="51">
+      <c r="B414" s="50">
         <v>10330</v>
       </c>
-      <c r="D414" s="51">
-        <v>1</v>
-      </c>
-      <c r="F414" s="51">
-        <v>1</v>
-      </c>
-      <c r="G414" s="51" t="s">
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
         <v>1374</v>
       </c>
-      <c r="H414" s="51" t="s">
+      <c r="H414" s="50" t="s">
         <v>1792</v>
       </c>
-      <c r="L414" s="51">
+      <c r="L414" s="50">
         <v>-4</v>
       </c>
-      <c r="M414" s="51">
-        <v>0</v>
-      </c>
-      <c r="N414" s="51">
-        <v>0</v>
-      </c>
-      <c r="O414" s="51" t="s">
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50">
+        <v>0</v>
+      </c>
+      <c r="O414" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="51">
+      <c r="P414" s="50">
         <v>600</v>
       </c>
-      <c r="Q414" s="51" t="s">
+      <c r="Q414" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="56" t="s">
+      <c r="R414" s="55" t="s">
         <v>1375</v>
       </c>
-      <c r="W414" s="51" t="s">
+      <c r="W414" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="52" t="s">
+      <c r="X414" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="51">
+      <c r="Y414" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="51">
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="50">
         <v>1</v>
       </c>
     </row>
@@ -38792,827 +38810,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="59">
+    <row r="421" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="58">
         <v>420</v>
       </c>
-      <c r="B421" s="59">
+      <c r="B421" s="58">
         <v>10337</v>
       </c>
-      <c r="F421" s="59">
-        <v>1</v>
-      </c>
-      <c r="G421" s="59" t="s">
+      <c r="F421" s="58">
+        <v>1</v>
+      </c>
+      <c r="G421" s="58" t="s">
         <v>1420</v>
       </c>
-      <c r="J421" s="59" t="s">
+      <c r="J421" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="L421" s="59">
+      <c r="L421" s="58">
         <v>-31</v>
       </c>
-      <c r="M421" s="59">
-        <v>0</v>
-      </c>
-      <c r="N421" s="59">
-        <v>0</v>
-      </c>
-      <c r="O421" s="59" t="s">
+      <c r="M421" s="58">
+        <v>0</v>
+      </c>
+      <c r="N421" s="58">
+        <v>0</v>
+      </c>
+      <c r="O421" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="P421" s="59">
+      <c r="P421" s="58">
         <v>1000</v>
       </c>
-      <c r="Q421" s="59" t="s">
+      <c r="Q421" s="58" t="s">
         <v>1423</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="R421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="W421" s="59" t="s">
+      <c r="W421" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X421" s="59">
+      <c r="X421" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="59">
+      <c r="Y421" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="59">
+      <c r="Z421" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="59" t="s">
+      <c r="AB421" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="AC421" s="59" t="s">
+      <c r="AC421" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="AH421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="59">
+      <c r="AH421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="58">
         <v>421</v>
       </c>
-      <c r="B422" s="59">
+      <c r="B422" s="58">
         <v>10338</v>
       </c>
-      <c r="F422" s="59">
-        <v>1</v>
-      </c>
-      <c r="G422" s="59" t="s">
+      <c r="F422" s="58">
+        <v>1</v>
+      </c>
+      <c r="G422" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="I422" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J422" s="59" t="s">
+      <c r="J422" s="58" t="s">
         <v>1448</v>
       </c>
-      <c r="L422" s="59">
+      <c r="L422" s="58">
         <v>-31</v>
       </c>
-      <c r="M422" s="59">
-        <v>0</v>
-      </c>
-      <c r="N422" s="59">
-        <v>0</v>
-      </c>
-      <c r="O422" s="59" t="s">
+      <c r="M422" s="58">
+        <v>0</v>
+      </c>
+      <c r="N422" s="58">
+        <v>0</v>
+      </c>
+      <c r="O422" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="59">
+      <c r="P422" s="58">
         <v>2000</v>
       </c>
-      <c r="Q422" s="59" t="s">
+      <c r="Q422" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="R422" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="W422" s="59" t="s">
+      <c r="W422" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="59">
+      <c r="X422" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="59">
+      <c r="Y422" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="59">
+      <c r="Z422" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="59">
+      <c r="AA422" s="58">
         <v>51</v>
       </c>
-      <c r="AH422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="59">
+      <c r="AH422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="58">
         <v>422</v>
       </c>
-      <c r="B423" s="59">
+      <c r="B423" s="58">
         <v>10339</v>
       </c>
-      <c r="F423" s="59">
-        <v>1</v>
-      </c>
-      <c r="G423" s="59" t="s">
+      <c r="F423" s="58">
+        <v>1</v>
+      </c>
+      <c r="G423" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="I423" s="59" t="s">
+      <c r="I423" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J423" s="59" t="s">
+      <c r="J423" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="L423" s="59">
+      <c r="L423" s="58">
         <v>-31</v>
       </c>
-      <c r="M423" s="59">
-        <v>0</v>
-      </c>
-      <c r="N423" s="59">
-        <v>0</v>
-      </c>
-      <c r="O423" s="59" t="s">
+      <c r="M423" s="58">
+        <v>0</v>
+      </c>
+      <c r="N423" s="58">
+        <v>0</v>
+      </c>
+      <c r="O423" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="59">
+      <c r="P423" s="58">
         <v>5800</v>
       </c>
-      <c r="Q423" s="59" t="s">
+      <c r="Q423" s="58" t="s">
         <v>1452</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="R423" s="59" t="s">
         <v>1453</v>
       </c>
-      <c r="W423" s="59" t="s">
+      <c r="W423" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X423" s="59">
+      <c r="X423" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="59">
+      <c r="Y423" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="59">
+      <c r="Z423" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="59">
+      <c r="AA423" s="58">
         <v>51</v>
       </c>
-      <c r="AH423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="59">
+      <c r="AH423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="58">
         <v>423</v>
       </c>
-      <c r="B424" s="59">
+      <c r="B424" s="58">
         <v>10340</v>
       </c>
-      <c r="F424" s="59">
-        <v>1</v>
-      </c>
-      <c r="G424" s="59" t="s">
+      <c r="F424" s="58">
+        <v>1</v>
+      </c>
+      <c r="G424" s="58" t="s">
         <v>1455</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="I424" s="58" t="s">
         <v>1456</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="58" t="s">
         <v>1457</v>
       </c>
-      <c r="L424" s="59">
+      <c r="L424" s="58">
         <v>-31</v>
       </c>
-      <c r="M424" s="59">
-        <v>0</v>
-      </c>
-      <c r="N424" s="59">
-        <v>0</v>
-      </c>
-      <c r="O424" s="59" t="s">
+      <c r="M424" s="58">
+        <v>0</v>
+      </c>
+      <c r="N424" s="58">
+        <v>0</v>
+      </c>
+      <c r="O424" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="59">
+      <c r="P424" s="58">
         <v>12800</v>
       </c>
-      <c r="Q424" s="59" t="s">
+      <c r="Q424" s="58" t="s">
         <v>1458</v>
       </c>
-      <c r="R424" s="60" t="s">
+      <c r="R424" s="59" t="s">
         <v>1459</v>
       </c>
-      <c r="W424" s="59" t="s">
+      <c r="W424" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X424" s="59">
+      <c r="X424" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="59">
+      <c r="Y424" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="59">
+      <c r="Z424" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="59">
+      <c r="AA424" s="58">
         <v>51</v>
       </c>
-      <c r="AH424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="59">
+      <c r="AH424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="58">
         <v>424</v>
       </c>
-      <c r="B425" s="59">
+      <c r="B425" s="58">
         <v>10341</v>
       </c>
-      <c r="F425" s="59">
-        <v>1</v>
-      </c>
-      <c r="G425" s="59" t="s">
+      <c r="F425" s="58">
+        <v>1</v>
+      </c>
+      <c r="G425" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="J425" s="59" t="s">
+      <c r="J425" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="L425" s="59">
+      <c r="L425" s="58">
         <v>-31</v>
       </c>
-      <c r="M425" s="59">
-        <v>0</v>
-      </c>
-      <c r="N425" s="59">
-        <v>0</v>
-      </c>
-      <c r="O425" s="59" t="s">
+      <c r="M425" s="58">
+        <v>0</v>
+      </c>
+      <c r="N425" s="58">
+        <v>0</v>
+      </c>
+      <c r="O425" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="59">
+      <c r="P425" s="58">
         <v>49800</v>
       </c>
-      <c r="Q425" s="59" t="s">
+      <c r="Q425" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="R425" s="60" t="s">
+      <c r="R425" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W425" s="59" t="s">
+      <c r="W425" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X425" s="59">
+      <c r="X425" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="59">
+      <c r="Y425" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="59">
+      <c r="Z425" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="59">
+      <c r="AH425" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="58">
         <v>425</v>
       </c>
-      <c r="B426" s="59">
+      <c r="B426" s="58">
         <v>10342</v>
       </c>
-      <c r="F426" s="59">
-        <v>1</v>
-      </c>
-      <c r="G426" s="59" t="s">
+      <c r="F426" s="58">
+        <v>1</v>
+      </c>
+      <c r="G426" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="J426" s="59" t="s">
+      <c r="J426" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="L426" s="59">
+      <c r="L426" s="58">
         <v>-31</v>
       </c>
-      <c r="M426" s="59">
-        <v>0</v>
-      </c>
-      <c r="N426" s="59">
-        <v>0</v>
-      </c>
-      <c r="O426" s="59" t="s">
+      <c r="M426" s="58">
+        <v>0</v>
+      </c>
+      <c r="N426" s="58">
+        <v>0</v>
+      </c>
+      <c r="O426" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="59">
+      <c r="P426" s="58">
         <v>19800</v>
       </c>
-      <c r="Q426" s="59" t="s">
+      <c r="Q426" s="58" t="s">
         <v>1436</v>
       </c>
-      <c r="R426" s="60" t="s">
+      <c r="R426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W426" s="59" t="s">
+      <c r="W426" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X426" s="59">
+      <c r="X426" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="59">
+      <c r="Y426" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="59">
+      <c r="Z426" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="59">
+      <c r="AH426" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="58">
         <v>426</v>
       </c>
-      <c r="B427" s="59">
+      <c r="B427" s="58">
         <v>10343</v>
       </c>
-      <c r="F427" s="59">
-        <v>1</v>
-      </c>
-      <c r="G427" s="59" t="s">
+      <c r="F427" s="58">
+        <v>1</v>
+      </c>
+      <c r="G427" s="58" t="s">
         <v>1437</v>
       </c>
-      <c r="J427" s="59" t="s">
+      <c r="J427" s="58" t="s">
         <v>1438</v>
       </c>
-      <c r="L427" s="59">
+      <c r="L427" s="58">
         <v>-31</v>
       </c>
-      <c r="M427" s="59">
-        <v>0</v>
-      </c>
-      <c r="N427" s="59">
-        <v>0</v>
-      </c>
-      <c r="O427" s="59" t="s">
+      <c r="M427" s="58">
+        <v>0</v>
+      </c>
+      <c r="N427" s="58">
+        <v>0</v>
+      </c>
+      <c r="O427" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="59">
+      <c r="P427" s="58">
         <v>9800</v>
       </c>
-      <c r="Q427" s="59" t="s">
+      <c r="Q427" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="R427" s="60" t="s">
+      <c r="R427" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="59" t="s">
+      <c r="W427" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X427" s="59">
+      <c r="X427" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="59">
+      <c r="Y427" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="59">
+      <c r="Z427" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="59">
+      <c r="AH427" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="58">
         <v>427</v>
       </c>
-      <c r="B428" s="59">
+      <c r="B428" s="58">
         <v>10344</v>
       </c>
-      <c r="F428" s="59">
-        <v>1</v>
-      </c>
-      <c r="G428" s="59" t="s">
+      <c r="F428" s="58">
+        <v>1</v>
+      </c>
+      <c r="G428" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="J428" s="59" t="s">
+      <c r="J428" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="L428" s="59">
+      <c r="L428" s="58">
         <v>-31</v>
       </c>
-      <c r="M428" s="59">
-        <v>0</v>
-      </c>
-      <c r="N428" s="59">
-        <v>0</v>
-      </c>
-      <c r="O428" s="59" t="s">
+      <c r="M428" s="58">
+        <v>0</v>
+      </c>
+      <c r="N428" s="58">
+        <v>0</v>
+      </c>
+      <c r="O428" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="59">
+      <c r="P428" s="58">
         <v>9800</v>
       </c>
-      <c r="Q428" s="59" t="s">
+      <c r="Q428" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="R428" s="60" t="s">
+      <c r="R428" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W428" s="59" t="s">
+      <c r="W428" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X428" s="59">
+      <c r="X428" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="59">
+      <c r="Y428" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="59">
+      <c r="Z428" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="59">
+      <c r="AH428" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="58">
         <v>428</v>
       </c>
-      <c r="B429" s="59">
+      <c r="B429" s="58">
         <v>10345</v>
       </c>
-      <c r="F429" s="59">
-        <v>1</v>
-      </c>
-      <c r="G429" s="59" t="s">
+      <c r="F429" s="58">
+        <v>1</v>
+      </c>
+      <c r="G429" s="58" t="s">
         <v>1443</v>
       </c>
-      <c r="J429" s="59" t="s">
+      <c r="J429" s="58" t="s">
         <v>1444</v>
       </c>
-      <c r="L429" s="59">
+      <c r="L429" s="58">
         <v>-31</v>
       </c>
-      <c r="M429" s="59">
-        <v>0</v>
-      </c>
-      <c r="N429" s="59">
-        <v>0</v>
-      </c>
-      <c r="O429" s="59" t="s">
+      <c r="M429" s="58">
+        <v>0</v>
+      </c>
+      <c r="N429" s="58">
+        <v>0</v>
+      </c>
+      <c r="O429" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="59">
+      <c r="P429" s="58">
         <v>4800</v>
       </c>
-      <c r="Q429" s="59" t="s">
+      <c r="Q429" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="R429" s="60" t="s">
+      <c r="R429" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="59" t="s">
+      <c r="W429" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X429" s="59">
+      <c r="X429" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="59">
+      <c r="Y429" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="59">
+      <c r="Z429" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="59">
+      <c r="AH429" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="58">
         <v>429</v>
       </c>
-      <c r="B430" s="59">
+      <c r="B430" s="58">
         <v>10346</v>
       </c>
-      <c r="F430" s="59">
-        <v>1</v>
-      </c>
-      <c r="G430" s="59" t="s">
+      <c r="F430" s="58">
+        <v>1</v>
+      </c>
+      <c r="G430" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="I430" s="58" t="s">
         <v>1770</v>
       </c>
-      <c r="J430" s="59" t="s">
+      <c r="J430" s="58" t="s">
         <v>1771</v>
       </c>
-      <c r="L430" s="59">
+      <c r="L430" s="58">
         <v>-28</v>
       </c>
-      <c r="M430" s="59">
-        <v>0</v>
-      </c>
-      <c r="N430" s="59">
-        <v>0</v>
-      </c>
-      <c r="O430" s="59" t="s">
+      <c r="M430" s="58">
+        <v>0</v>
+      </c>
+      <c r="N430" s="58">
+        <v>0</v>
+      </c>
+      <c r="O430" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="59">
+      <c r="P430" s="58">
         <v>100</v>
       </c>
-      <c r="Q430" s="59" t="s">
+      <c r="Q430" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R430" s="60" t="s">
+      <c r="R430" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="W430" s="59" t="s">
+      <c r="W430" s="58" t="s">
         <v>1773</v>
       </c>
-      <c r="X430" s="59">
+      <c r="X430" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="59">
+      <c r="Y430" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="59">
+      <c r="Z430" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="59">
+      <c r="AA430" s="58">
         <v>14</v>
       </c>
-      <c r="AH430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="59">
+      <c r="AH430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="58">
         <v>430</v>
       </c>
-      <c r="B431" s="59">
+      <c r="B431" s="58">
         <v>10347</v>
       </c>
-      <c r="F431" s="59">
-        <v>1</v>
-      </c>
-      <c r="G431" s="59" t="s">
+      <c r="F431" s="58">
+        <v>1</v>
+      </c>
+      <c r="G431" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I431" s="59" t="s">
+      <c r="I431" s="58" t="s">
         <v>1774</v>
       </c>
-      <c r="J431" s="59" t="s">
+      <c r="J431" s="58" t="s">
         <v>1775</v>
       </c>
-      <c r="L431" s="59">
+      <c r="L431" s="58">
         <v>-28</v>
       </c>
-      <c r="M431" s="59">
-        <v>0</v>
-      </c>
-      <c r="N431" s="59">
-        <v>0</v>
-      </c>
-      <c r="O431" s="59" t="s">
+      <c r="M431" s="58">
+        <v>0</v>
+      </c>
+      <c r="N431" s="58">
+        <v>0</v>
+      </c>
+      <c r="O431" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="59">
+      <c r="P431" s="58">
         <v>300</v>
       </c>
-      <c r="Q431" s="59" t="s">
+      <c r="Q431" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R431" s="60" t="s">
+      <c r="R431" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="W431" s="59" t="s">
+      <c r="W431" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="59">
+      <c r="X431" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="59">
+      <c r="Y431" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="59">
+      <c r="Z431" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="59">
+      <c r="AA431" s="58">
         <v>14</v>
       </c>
-      <c r="AH431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="59">
+      <c r="AH431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="58">
         <v>431</v>
       </c>
-      <c r="B432" s="59">
+      <c r="B432" s="58">
         <v>10348</v>
       </c>
-      <c r="F432" s="59">
-        <v>1</v>
-      </c>
-      <c r="G432" s="59" t="s">
+      <c r="F432" s="58">
+        <v>1</v>
+      </c>
+      <c r="G432" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I432" s="59" t="s">
+      <c r="I432" s="58" t="s">
         <v>1777</v>
       </c>
-      <c r="J432" s="59" t="s">
+      <c r="J432" s="58" t="s">
         <v>1778</v>
       </c>
-      <c r="L432" s="59">
+      <c r="L432" s="58">
         <v>-28</v>
       </c>
-      <c r="M432" s="59">
-        <v>0</v>
-      </c>
-      <c r="N432" s="59">
-        <v>0</v>
-      </c>
-      <c r="O432" s="59" t="s">
+      <c r="M432" s="58">
+        <v>0</v>
+      </c>
+      <c r="N432" s="58">
+        <v>0</v>
+      </c>
+      <c r="O432" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="59">
+      <c r="P432" s="58">
         <v>600</v>
       </c>
-      <c r="Q432" s="59" t="s">
+      <c r="Q432" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R432" s="60" t="s">
+      <c r="R432" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="W432" s="59" t="s">
+      <c r="W432" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="59">
+      <c r="X432" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="59">
+      <c r="Y432" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="59">
+      <c r="Z432" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="59">
+      <c r="AA432" s="58">
         <v>14</v>
       </c>
-      <c r="AH432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="59">
+      <c r="AH432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="58">
         <v>432</v>
       </c>
-      <c r="B433" s="59">
+      <c r="B433" s="58">
         <v>10349</v>
       </c>
-      <c r="F433" s="59">
-        <v>1</v>
-      </c>
-      <c r="G433" s="59" t="s">
+      <c r="F433" s="58">
+        <v>1</v>
+      </c>
+      <c r="G433" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I433" s="59" t="s">
+      <c r="I433" s="58" t="s">
         <v>1780</v>
       </c>
-      <c r="J433" s="59" t="s">
+      <c r="J433" s="58" t="s">
         <v>1781</v>
       </c>
-      <c r="L433" s="59">
+      <c r="L433" s="58">
         <v>-28</v>
       </c>
-      <c r="M433" s="59">
-        <v>0</v>
-      </c>
-      <c r="N433" s="59">
-        <v>0</v>
-      </c>
-      <c r="O433" s="59" t="s">
+      <c r="M433" s="58">
+        <v>0</v>
+      </c>
+      <c r="N433" s="58">
+        <v>0</v>
+      </c>
+      <c r="O433" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="59">
+      <c r="P433" s="58">
         <v>600</v>
       </c>
-      <c r="Q433" s="59" t="s">
+      <c r="Q433" s="58" t="s">
         <v>1782</v>
       </c>
-      <c r="R433" s="60" t="s">
+      <c r="R433" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="W433" s="59" t="s">
+      <c r="W433" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="59">
+      <c r="X433" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="59">
+      <c r="Y433" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="59">
+      <c r="Z433" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="59">
+      <c r="AA433" s="58">
         <v>14</v>
       </c>
-      <c r="AH433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="59">
+      <c r="AH433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="58">
         <v>1</v>
       </c>
     </row>
@@ -40443,1930 +40461,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="59">
+    <row r="447" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="58">
         <v>446</v>
       </c>
-      <c r="B447" s="59">
+      <c r="B447" s="58">
         <v>10363</v>
       </c>
-      <c r="F447" s="59">
-        <v>1</v>
-      </c>
-      <c r="G447" s="59" t="s">
+      <c r="F447" s="58">
+        <v>1</v>
+      </c>
+      <c r="G447" s="58" t="s">
         <v>1524</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="I447" s="58" t="s">
         <v>1525</v>
       </c>
-      <c r="J447" s="59" t="s">
+      <c r="J447" s="58" t="s">
         <v>1526</v>
       </c>
-      <c r="L447" s="59">
+      <c r="L447" s="58">
         <v>-31</v>
       </c>
-      <c r="M447" s="59">
-        <v>0</v>
-      </c>
-      <c r="N447" s="59">
-        <v>0</v>
-      </c>
-      <c r="O447" s="59" t="s">
+      <c r="M447" s="58">
+        <v>0</v>
+      </c>
+      <c r="N447" s="58">
+        <v>0</v>
+      </c>
+      <c r="O447" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="59">
+      <c r="P447" s="58">
         <v>800</v>
       </c>
-      <c r="Q447" s="59" t="s">
+      <c r="Q447" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="R447" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="W447" s="59" t="s">
+      <c r="W447" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X447" s="59">
+      <c r="X447" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="59">
+      <c r="Y447" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="59">
+      <c r="Z447" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="59">
+      <c r="AA447" s="58">
         <v>52</v>
       </c>
-      <c r="AH447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="59">
+      <c r="AH447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="58">
         <v>447</v>
       </c>
-      <c r="B448" s="59">
+      <c r="B448" s="58">
         <v>10364</v>
       </c>
-      <c r="F448" s="59">
-        <v>1</v>
-      </c>
-      <c r="G448" s="59" t="s">
+      <c r="F448" s="58">
+        <v>1</v>
+      </c>
+      <c r="G448" s="58" t="s">
         <v>1530</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="I448" s="58" t="s">
         <v>1531</v>
       </c>
-      <c r="J448" s="59" t="s">
+      <c r="J448" s="58" t="s">
         <v>1532</v>
       </c>
-      <c r="L448" s="59">
+      <c r="L448" s="58">
         <v>-31</v>
       </c>
-      <c r="M448" s="59">
-        <v>0</v>
-      </c>
-      <c r="N448" s="59">
-        <v>0</v>
-      </c>
-      <c r="O448" s="59" t="s">
+      <c r="M448" s="58">
+        <v>0</v>
+      </c>
+      <c r="N448" s="58">
+        <v>0</v>
+      </c>
+      <c r="O448" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="59">
+      <c r="P448" s="58">
         <v>800</v>
       </c>
-      <c r="Q448" s="59" t="s">
+      <c r="Q448" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="60" t="s">
+      <c r="R448" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="W448" s="59" t="s">
+      <c r="W448" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X448" s="59">
+      <c r="X448" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="59">
+      <c r="Y448" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="59">
+      <c r="Z448" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="59">
+      <c r="AH448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="58">
         <v>448</v>
       </c>
-      <c r="B449" s="59">
+      <c r="B449" s="58">
         <v>10365</v>
       </c>
-      <c r="F449" s="59">
-        <v>1</v>
-      </c>
-      <c r="G449" s="59" t="s">
+      <c r="F449" s="58">
+        <v>1</v>
+      </c>
+      <c r="G449" s="58" t="s">
         <v>1534</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="I449" s="58" t="s">
         <v>1535</v>
       </c>
-      <c r="J449" s="59" t="s">
+      <c r="J449" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="L449" s="59">
+      <c r="L449" s="58">
         <v>-31</v>
       </c>
-      <c r="M449" s="59">
-        <v>0</v>
-      </c>
-      <c r="N449" s="59">
-        <v>0</v>
-      </c>
-      <c r="O449" s="59" t="s">
+      <c r="M449" s="58">
+        <v>0</v>
+      </c>
+      <c r="N449" s="58">
+        <v>0</v>
+      </c>
+      <c r="O449" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="59">
+      <c r="P449" s="58">
         <v>800</v>
       </c>
-      <c r="Q449" s="59" t="s">
+      <c r="Q449" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R449" s="60" t="s">
+      <c r="R449" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="W449" s="59" t="s">
+      <c r="W449" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="59">
+      <c r="X449" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="59">
+      <c r="Y449" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="59">
+      <c r="Z449" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="59">
+      <c r="AA449" s="58">
         <v>53</v>
       </c>
-      <c r="AH449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="59">
+      <c r="AH449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="58">
         <v>449</v>
       </c>
-      <c r="B450" s="59">
+      <c r="B450" s="58">
         <v>10366</v>
       </c>
-      <c r="F450" s="59">
-        <v>1</v>
-      </c>
-      <c r="G450" s="59" t="s">
+      <c r="F450" s="58">
+        <v>1</v>
+      </c>
+      <c r="G450" s="58" t="s">
         <v>1538</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="I450" s="58" t="s">
         <v>1539</v>
       </c>
-      <c r="J450" s="59" t="s">
+      <c r="J450" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="L450" s="59">
+      <c r="L450" s="58">
         <v>-31</v>
       </c>
-      <c r="M450" s="59">
-        <v>0</v>
-      </c>
-      <c r="N450" s="59">
-        <v>0</v>
-      </c>
-      <c r="O450" s="59" t="s">
+      <c r="M450" s="58">
+        <v>0</v>
+      </c>
+      <c r="N450" s="58">
+        <v>0</v>
+      </c>
+      <c r="O450" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="59">
+      <c r="P450" s="58">
         <v>3800</v>
       </c>
-      <c r="Q450" s="59" t="s">
+      <c r="Q450" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R450" s="60" t="s">
+      <c r="R450" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="W450" s="59" t="s">
+      <c r="W450" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="59">
+      <c r="X450" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="59">
+      <c r="Y450" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="59">
+      <c r="Z450" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="59">
+      <c r="AA450" s="58">
         <v>54</v>
       </c>
-      <c r="AH450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="59">
+      <c r="AH450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="58">
         <v>450</v>
       </c>
-      <c r="B451" s="59">
+      <c r="B451" s="58">
         <v>10367</v>
       </c>
-      <c r="F451" s="59">
-        <v>1</v>
-      </c>
-      <c r="G451" s="59" t="s">
+      <c r="F451" s="58">
+        <v>1</v>
+      </c>
+      <c r="G451" s="58" t="s">
         <v>1542</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="I451" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="J451" s="59" t="s">
+      <c r="J451" s="58" t="s">
         <v>1544</v>
       </c>
-      <c r="L451" s="59">
+      <c r="L451" s="58">
         <v>-31</v>
       </c>
-      <c r="M451" s="59">
-        <v>0</v>
-      </c>
-      <c r="N451" s="59">
-        <v>0</v>
-      </c>
-      <c r="O451" s="59" t="s">
+      <c r="M451" s="58">
+        <v>0</v>
+      </c>
+      <c r="N451" s="58">
+        <v>0</v>
+      </c>
+      <c r="O451" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="59">
+      <c r="P451" s="58">
         <v>3800</v>
       </c>
-      <c r="Q451" s="59" t="s">
+      <c r="Q451" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R451" s="60" t="s">
+      <c r="R451" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="W451" s="59" t="s">
+      <c r="W451" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="59">
+      <c r="X451" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="59">
+      <c r="Y451" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="59">
+      <c r="Z451" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="59">
+      <c r="AH451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="58">
         <v>451</v>
       </c>
-      <c r="B452" s="59">
+      <c r="B452" s="58">
         <v>10368</v>
       </c>
-      <c r="F452" s="59">
-        <v>1</v>
-      </c>
-      <c r="G452" s="59" t="s">
+      <c r="F452" s="58">
+        <v>1</v>
+      </c>
+      <c r="G452" s="58" t="s">
         <v>1546</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="I452" s="58" t="s">
         <v>1547</v>
       </c>
-      <c r="J452" s="59" t="s">
+      <c r="J452" s="58" t="s">
         <v>1548</v>
       </c>
-      <c r="L452" s="59">
+      <c r="L452" s="58">
         <v>-31</v>
       </c>
-      <c r="M452" s="59">
-        <v>0</v>
-      </c>
-      <c r="N452" s="59">
-        <v>0</v>
-      </c>
-      <c r="O452" s="59" t="s">
+      <c r="M452" s="58">
+        <v>0</v>
+      </c>
+      <c r="N452" s="58">
+        <v>0</v>
+      </c>
+      <c r="O452" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="59">
+      <c r="P452" s="58">
         <v>3800</v>
       </c>
-      <c r="Q452" s="59" t="s">
+      <c r="Q452" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R452" s="60" t="s">
+      <c r="R452" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="W452" s="59" t="s">
+      <c r="W452" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="59">
+      <c r="X452" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="59">
+      <c r="Y452" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="59">
+      <c r="Z452" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="59">
+      <c r="AA452" s="58">
         <v>55</v>
       </c>
-      <c r="AH452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="59">
+      <c r="AH452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="58">
         <v>452</v>
       </c>
-      <c r="B453" s="59">
+      <c r="B453" s="58">
         <v>10369</v>
       </c>
-      <c r="F453" s="59">
-        <v>1</v>
-      </c>
-      <c r="G453" s="59" t="s">
+      <c r="F453" s="58">
+        <v>1</v>
+      </c>
+      <c r="G453" s="58" t="s">
         <v>1550</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="I453" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="J453" s="59" t="s">
+      <c r="J453" s="58" t="s">
         <v>1552</v>
       </c>
-      <c r="L453" s="59">
+      <c r="L453" s="58">
         <v>-31</v>
       </c>
-      <c r="M453" s="59">
-        <v>0</v>
-      </c>
-      <c r="N453" s="59">
-        <v>0</v>
-      </c>
-      <c r="O453" s="59" t="s">
+      <c r="M453" s="58">
+        <v>0</v>
+      </c>
+      <c r="N453" s="58">
+        <v>0</v>
+      </c>
+      <c r="O453" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="59">
+      <c r="P453" s="58">
         <v>9800</v>
       </c>
-      <c r="Q453" s="59" t="s">
+      <c r="Q453" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R453" s="60" t="s">
+      <c r="R453" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="W453" s="59" t="s">
+      <c r="W453" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="59">
+      <c r="X453" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="59">
+      <c r="Y453" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="59">
+      <c r="Z453" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="59">
+      <c r="AA453" s="58">
         <v>56</v>
       </c>
-      <c r="AH453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="59">
+      <c r="AH453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="58">
         <v>453</v>
       </c>
-      <c r="B454" s="59">
+      <c r="B454" s="58">
         <v>10370</v>
       </c>
-      <c r="F454" s="59">
-        <v>1</v>
-      </c>
-      <c r="G454" s="59" t="s">
+      <c r="F454" s="58">
+        <v>1</v>
+      </c>
+      <c r="G454" s="58" t="s">
         <v>1554</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="I454" s="58" t="s">
         <v>1555</v>
       </c>
-      <c r="J454" s="59" t="s">
+      <c r="J454" s="58" t="s">
         <v>1556</v>
       </c>
-      <c r="L454" s="59">
+      <c r="L454" s="58">
         <v>-31</v>
       </c>
-      <c r="M454" s="59">
-        <v>0</v>
-      </c>
-      <c r="N454" s="59">
-        <v>0</v>
-      </c>
-      <c r="O454" s="59" t="s">
+      <c r="M454" s="58">
+        <v>0</v>
+      </c>
+      <c r="N454" s="58">
+        <v>0</v>
+      </c>
+      <c r="O454" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="59">
+      <c r="P454" s="58">
         <v>9800</v>
       </c>
-      <c r="Q454" s="59" t="s">
+      <c r="Q454" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R454" s="60" t="s">
+      <c r="R454" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="W454" s="59" t="s">
+      <c r="W454" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="59">
+      <c r="X454" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="59">
+      <c r="Y454" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="59">
+      <c r="Z454" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="59">
+      <c r="AH454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="58">
         <v>454</v>
       </c>
-      <c r="B455" s="59">
+      <c r="B455" s="58">
         <v>10371</v>
       </c>
-      <c r="F455" s="59">
-        <v>1</v>
-      </c>
-      <c r="G455" s="59" t="s">
+      <c r="F455" s="58">
+        <v>1</v>
+      </c>
+      <c r="G455" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="I455" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="J455" s="59" t="s">
+      <c r="J455" s="58" t="s">
         <v>1560</v>
       </c>
-      <c r="L455" s="59">
+      <c r="L455" s="58">
         <v>-31</v>
       </c>
-      <c r="M455" s="59">
-        <v>0</v>
-      </c>
-      <c r="N455" s="59">
-        <v>0</v>
-      </c>
-      <c r="O455" s="59" t="s">
+      <c r="M455" s="58">
+        <v>0</v>
+      </c>
+      <c r="N455" s="58">
+        <v>0</v>
+      </c>
+      <c r="O455" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="59">
+      <c r="P455" s="58">
         <v>9800</v>
       </c>
-      <c r="Q455" s="59" t="s">
+      <c r="Q455" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R455" s="60" t="s">
+      <c r="R455" s="59" t="s">
         <v>1686</v>
       </c>
-      <c r="W455" s="59" t="s">
+      <c r="W455" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="59">
+      <c r="X455" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="59">
+      <c r="Y455" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="59">
+      <c r="Z455" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="59">
+      <c r="AA455" s="58">
         <v>57</v>
       </c>
-      <c r="AH455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="59">
+      <c r="AH455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="58">
         <v>455</v>
       </c>
-      <c r="B456" s="59">
+      <c r="B456" s="58">
         <v>10372</v>
       </c>
-      <c r="F456" s="59">
-        <v>1</v>
-      </c>
-      <c r="G456" s="59" t="s">
+      <c r="F456" s="58">
+        <v>1</v>
+      </c>
+      <c r="G456" s="58" t="s">
         <v>1561</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="I456" s="58" t="s">
         <v>1562</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="58" t="s">
         <v>1563</v>
       </c>
-      <c r="L456" s="59">
+      <c r="L456" s="58">
         <v>-31</v>
       </c>
-      <c r="M456" s="59">
-        <v>0</v>
-      </c>
-      <c r="N456" s="59">
-        <v>0</v>
-      </c>
-      <c r="O456" s="59" t="s">
+      <c r="M456" s="58">
+        <v>0</v>
+      </c>
+      <c r="N456" s="58">
+        <v>0</v>
+      </c>
+      <c r="O456" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="59">
+      <c r="P456" s="58">
         <v>19800</v>
       </c>
-      <c r="Q456" s="59" t="s">
+      <c r="Q456" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R456" s="60" t="s">
+      <c r="R456" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="W456" s="59" t="s">
+      <c r="W456" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="59">
+      <c r="X456" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="59">
+      <c r="Y456" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="59">
+      <c r="Z456" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="59">
+      <c r="AA456" s="58">
         <v>58</v>
       </c>
-      <c r="AH456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="59">
+      <c r="AH456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="58">
         <v>456</v>
       </c>
-      <c r="B457" s="59">
+      <c r="B457" s="58">
         <v>10373</v>
       </c>
-      <c r="F457" s="59">
-        <v>1</v>
-      </c>
-      <c r="G457" s="59" t="s">
+      <c r="F457" s="58">
+        <v>1</v>
+      </c>
+      <c r="G457" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="I457" s="58" t="s">
         <v>1566</v>
       </c>
-      <c r="J457" s="59" t="s">
+      <c r="J457" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="L457" s="59">
+      <c r="L457" s="58">
         <v>-31</v>
       </c>
-      <c r="M457" s="59">
-        <v>0</v>
-      </c>
-      <c r="N457" s="59">
-        <v>0</v>
-      </c>
-      <c r="O457" s="59" t="s">
+      <c r="M457" s="58">
+        <v>0</v>
+      </c>
+      <c r="N457" s="58">
+        <v>0</v>
+      </c>
+      <c r="O457" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="59">
+      <c r="P457" s="58">
         <v>19800</v>
       </c>
-      <c r="Q457" s="59" t="s">
+      <c r="Q457" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R457" s="60" t="s">
+      <c r="R457" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="W457" s="59" t="s">
+      <c r="W457" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="59">
+      <c r="X457" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="59">
+      <c r="Y457" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="59">
+      <c r="Z457" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="59">
+      <c r="AH457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="58">
         <v>457</v>
       </c>
-      <c r="B458" s="59">
+      <c r="B458" s="58">
         <v>10374</v>
       </c>
-      <c r="F458" s="59">
-        <v>1</v>
-      </c>
-      <c r="G458" s="59" t="s">
+      <c r="F458" s="58">
+        <v>1</v>
+      </c>
+      <c r="G458" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="I458" s="58" t="s">
         <v>1570</v>
       </c>
-      <c r="J458" s="59" t="s">
+      <c r="J458" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="L458" s="59">
+      <c r="L458" s="58">
         <v>-31</v>
       </c>
-      <c r="M458" s="59">
-        <v>0</v>
-      </c>
-      <c r="N458" s="59">
-        <v>0</v>
-      </c>
-      <c r="O458" s="59" t="s">
+      <c r="M458" s="58">
+        <v>0</v>
+      </c>
+      <c r="N458" s="58">
+        <v>0</v>
+      </c>
+      <c r="O458" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="59">
+      <c r="P458" s="58">
         <v>19800</v>
       </c>
-      <c r="Q458" s="59" t="s">
+      <c r="Q458" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R458" s="60" t="s">
+      <c r="R458" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="W458" s="59" t="s">
+      <c r="W458" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="59">
+      <c r="X458" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="59">
+      <c r="Y458" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="59">
+      <c r="Z458" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="59">
+      <c r="AA458" s="58">
         <v>59</v>
       </c>
-      <c r="AH458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="59">
+      <c r="AH458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="58">
         <v>458</v>
       </c>
-      <c r="B459" s="59">
+      <c r="B459" s="58">
         <v>10375</v>
       </c>
-      <c r="F459" s="59">
-        <v>1</v>
-      </c>
-      <c r="G459" s="59" t="s">
+      <c r="F459" s="58">
+        <v>1</v>
+      </c>
+      <c r="G459" s="58" t="s">
         <v>1573</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="I459" s="58" t="s">
         <v>1574</v>
       </c>
-      <c r="J459" s="59" t="s">
+      <c r="J459" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="L459" s="59">
+      <c r="L459" s="58">
         <v>-31</v>
       </c>
-      <c r="M459" s="59">
-        <v>0</v>
-      </c>
-      <c r="N459" s="59">
-        <v>0</v>
-      </c>
-      <c r="O459" s="59" t="s">
+      <c r="M459" s="58">
+        <v>0</v>
+      </c>
+      <c r="N459" s="58">
+        <v>0</v>
+      </c>
+      <c r="O459" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="59">
+      <c r="P459" s="58">
         <v>49800</v>
       </c>
-      <c r="Q459" s="59" t="s">
+      <c r="Q459" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R459" s="60" t="s">
+      <c r="R459" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="W459" s="59" t="s">
+      <c r="W459" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="59">
+      <c r="X459" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="59">
+      <c r="Y459" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="59">
+      <c r="Z459" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="59">
+      <c r="AA459" s="58">
         <v>60</v>
       </c>
-      <c r="AH459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="59">
+      <c r="AH459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="58">
         <v>459</v>
       </c>
-      <c r="B460" s="59">
+      <c r="B460" s="58">
         <v>10376</v>
       </c>
-      <c r="F460" s="59">
-        <v>1</v>
-      </c>
-      <c r="G460" s="59" t="s">
+      <c r="F460" s="58">
+        <v>1</v>
+      </c>
+      <c r="G460" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="I460" s="58" t="s">
         <v>1578</v>
       </c>
-      <c r="J460" s="59" t="s">
+      <c r="J460" s="58" t="s">
         <v>1579</v>
       </c>
-      <c r="L460" s="59">
+      <c r="L460" s="58">
         <v>-31</v>
       </c>
-      <c r="M460" s="59">
-        <v>0</v>
-      </c>
-      <c r="N460" s="59">
-        <v>0</v>
-      </c>
-      <c r="O460" s="59" t="s">
+      <c r="M460" s="58">
+        <v>0</v>
+      </c>
+      <c r="N460" s="58">
+        <v>0</v>
+      </c>
+      <c r="O460" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="59">
+      <c r="P460" s="58">
         <v>49800</v>
       </c>
-      <c r="Q460" s="59" t="s">
+      <c r="Q460" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="60" t="s">
+      <c r="R460" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="W460" s="59" t="s">
+      <c r="W460" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="59">
+      <c r="X460" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="59">
+      <c r="Y460" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="59">
+      <c r="Z460" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="59">
+      <c r="AH460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="58">
         <v>460</v>
       </c>
-      <c r="B461" s="59">
+      <c r="B461" s="58">
         <v>10377</v>
       </c>
-      <c r="F461" s="59">
-        <v>1</v>
-      </c>
-      <c r="G461" s="59" t="s">
+      <c r="F461" s="58">
+        <v>1</v>
+      </c>
+      <c r="G461" s="58" t="s">
         <v>1581</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="I461" s="58" t="s">
         <v>1582</v>
       </c>
-      <c r="J461" s="59" t="s">
+      <c r="J461" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="L461" s="59">
+      <c r="L461" s="58">
         <v>-31</v>
       </c>
-      <c r="M461" s="59">
-        <v>0</v>
-      </c>
-      <c r="N461" s="59">
-        <v>0</v>
-      </c>
-      <c r="O461" s="59" t="s">
+      <c r="M461" s="58">
+        <v>0</v>
+      </c>
+      <c r="N461" s="58">
+        <v>0</v>
+      </c>
+      <c r="O461" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="59">
+      <c r="P461" s="58">
         <v>49800</v>
       </c>
-      <c r="Q461" s="59" t="s">
+      <c r="Q461" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R461" s="60" t="s">
+      <c r="R461" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="W461" s="59" t="s">
+      <c r="W461" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="59">
+      <c r="X461" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="59">
+      <c r="Y461" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="59">
+      <c r="Z461" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="59">
+      <c r="AA461" s="58">
         <v>61</v>
       </c>
-      <c r="AH461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="59">
+      <c r="AH461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="58">
         <v>461</v>
       </c>
-      <c r="B462" s="59">
+      <c r="B462" s="58">
         <v>10378</v>
       </c>
-      <c r="F462" s="59">
-        <v>1</v>
-      </c>
-      <c r="G462" s="59" t="s">
+      <c r="F462" s="58">
+        <v>1</v>
+      </c>
+      <c r="G462" s="58" t="s">
         <v>1585</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="I462" s="58" t="s">
         <v>1586</v>
       </c>
-      <c r="J462" s="59" t="s">
+      <c r="J462" s="58" t="s">
         <v>1587</v>
       </c>
-      <c r="L462" s="59">
+      <c r="L462" s="58">
         <v>-31</v>
       </c>
-      <c r="M462" s="59">
-        <v>0</v>
-      </c>
-      <c r="N462" s="59">
-        <v>0</v>
-      </c>
-      <c r="O462" s="59" t="s">
+      <c r="M462" s="58">
+        <v>0</v>
+      </c>
+      <c r="N462" s="58">
+        <v>0</v>
+      </c>
+      <c r="O462" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="59">
+      <c r="P462" s="58">
         <v>99800</v>
       </c>
-      <c r="Q462" s="59" t="s">
+      <c r="Q462" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R462" s="60" t="s">
+      <c r="R462" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="W462" s="59" t="s">
+      <c r="W462" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="59">
+      <c r="X462" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="59">
+      <c r="Y462" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="59">
+      <c r="Z462" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="59">
+      <c r="AA462" s="58">
         <v>62</v>
       </c>
-      <c r="AH462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="59">
+      <c r="AH462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="58">
         <v>462</v>
       </c>
-      <c r="B463" s="59">
+      <c r="B463" s="58">
         <v>10379</v>
       </c>
-      <c r="F463" s="59">
-        <v>1</v>
-      </c>
-      <c r="G463" s="59" t="s">
+      <c r="F463" s="58">
+        <v>1</v>
+      </c>
+      <c r="G463" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="I463" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J463" s="59" t="s">
+      <c r="J463" s="58" t="s">
         <v>1591</v>
       </c>
-      <c r="L463" s="59">
+      <c r="L463" s="58">
         <v>-31</v>
       </c>
-      <c r="M463" s="59">
-        <v>0</v>
-      </c>
-      <c r="N463" s="59">
-        <v>0</v>
-      </c>
-      <c r="O463" s="59" t="s">
+      <c r="M463" s="58">
+        <v>0</v>
+      </c>
+      <c r="N463" s="58">
+        <v>0</v>
+      </c>
+      <c r="O463" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="59">
+      <c r="P463" s="58">
         <v>99800</v>
       </c>
-      <c r="Q463" s="59" t="s">
+      <c r="Q463" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R463" s="60" t="s">
+      <c r="R463" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="W463" s="59" t="s">
+      <c r="W463" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="59">
+      <c r="X463" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="59">
+      <c r="Y463" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="59">
+      <c r="Z463" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="59">
+      <c r="AH463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="58">
         <v>463</v>
       </c>
-      <c r="B464" s="59">
+      <c r="B464" s="58">
         <v>10380</v>
       </c>
-      <c r="F464" s="59">
-        <v>1</v>
-      </c>
-      <c r="G464" s="59" t="s">
+      <c r="F464" s="58">
+        <v>1</v>
+      </c>
+      <c r="G464" s="58" t="s">
         <v>1593</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="I464" s="58" t="s">
         <v>1594</v>
       </c>
-      <c r="J464" s="59" t="s">
+      <c r="J464" s="58" t="s">
         <v>1595</v>
       </c>
-      <c r="L464" s="59">
+      <c r="L464" s="58">
         <v>-31</v>
       </c>
-      <c r="M464" s="59">
-        <v>0</v>
-      </c>
-      <c r="N464" s="59">
-        <v>0</v>
-      </c>
-      <c r="O464" s="59" t="s">
+      <c r="M464" s="58">
+        <v>0</v>
+      </c>
+      <c r="N464" s="58">
+        <v>0</v>
+      </c>
+      <c r="O464" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="59">
+      <c r="P464" s="58">
         <v>99800</v>
       </c>
-      <c r="Q464" s="59" t="s">
+      <c r="Q464" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="60" t="s">
+      <c r="R464" s="59" t="s">
         <v>1596</v>
       </c>
-      <c r="W464" s="59" t="s">
+      <c r="W464" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="59">
+      <c r="X464" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="59">
+      <c r="Y464" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="59">
+      <c r="Z464" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="59">
+      <c r="AA464" s="58">
         <v>63</v>
       </c>
-      <c r="AH464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="59">
+      <c r="AH464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="58">
         <v>464</v>
       </c>
-      <c r="B465" s="59">
+      <c r="B465" s="58">
         <v>10381</v>
       </c>
-      <c r="F465" s="59">
-        <v>1</v>
-      </c>
-      <c r="G465" s="59" t="s">
+      <c r="F465" s="58">
+        <v>1</v>
+      </c>
+      <c r="G465" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="I465" s="58" t="s">
         <v>1598</v>
       </c>
-      <c r="J465" s="59" t="s">
+      <c r="J465" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="L465" s="59">
+      <c r="L465" s="58">
         <v>-31</v>
       </c>
-      <c r="M465" s="59">
-        <v>0</v>
-      </c>
-      <c r="N465" s="59">
-        <v>0</v>
-      </c>
-      <c r="O465" s="59" t="s">
+      <c r="M465" s="58">
+        <v>0</v>
+      </c>
+      <c r="N465" s="58">
+        <v>0</v>
+      </c>
+      <c r="O465" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="59">
+      <c r="P465" s="58">
         <v>249800</v>
       </c>
-      <c r="Q465" s="59" t="s">
+      <c r="Q465" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R465" s="60" t="s">
+      <c r="R465" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="W465" s="59" t="s">
+      <c r="W465" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="59">
+      <c r="X465" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="59">
+      <c r="Y465" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="59">
+      <c r="Z465" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="59">
+      <c r="AA465" s="58">
         <v>64</v>
       </c>
-      <c r="AH465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="59">
+      <c r="AH465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="58">
         <v>465</v>
       </c>
-      <c r="B466" s="59">
+      <c r="B466" s="58">
         <v>10382</v>
       </c>
-      <c r="F466" s="59">
-        <v>1</v>
-      </c>
-      <c r="G466" s="59" t="s">
+      <c r="F466" s="58">
+        <v>1</v>
+      </c>
+      <c r="G466" s="58" t="s">
         <v>1601</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="I466" s="58" t="s">
         <v>1602</v>
       </c>
-      <c r="J466" s="59" t="s">
+      <c r="J466" s="58" t="s">
         <v>1603</v>
       </c>
-      <c r="L466" s="59">
+      <c r="L466" s="58">
         <v>-31</v>
       </c>
-      <c r="M466" s="59">
-        <v>0</v>
-      </c>
-      <c r="N466" s="59">
-        <v>0</v>
-      </c>
-      <c r="O466" s="59" t="s">
+      <c r="M466" s="58">
+        <v>0</v>
+      </c>
+      <c r="N466" s="58">
+        <v>0</v>
+      </c>
+      <c r="O466" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="59">
+      <c r="P466" s="58">
         <v>249800</v>
       </c>
-      <c r="Q466" s="59" t="s">
+      <c r="Q466" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="60" t="s">
+      <c r="R466" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="W466" s="59" t="s">
+      <c r="W466" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="59">
+      <c r="X466" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="59">
+      <c r="Y466" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="59">
+      <c r="Z466" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="59">
+      <c r="AH466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="58">
         <v>466</v>
       </c>
-      <c r="B467" s="59">
+      <c r="B467" s="58">
         <v>10383</v>
       </c>
-      <c r="F467" s="59">
-        <v>1</v>
-      </c>
-      <c r="G467" s="59" t="s">
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="58" t="s">
         <v>1605</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="I467" s="58" t="s">
         <v>1606</v>
       </c>
-      <c r="J467" s="59" t="s">
+      <c r="J467" s="58" t="s">
         <v>1607</v>
       </c>
-      <c r="L467" s="59">
+      <c r="L467" s="58">
         <v>-31</v>
       </c>
-      <c r="M467" s="59">
-        <v>0</v>
-      </c>
-      <c r="N467" s="59">
-        <v>0</v>
-      </c>
-      <c r="O467" s="59" t="s">
+      <c r="M467" s="58">
+        <v>0</v>
+      </c>
+      <c r="N467" s="58">
+        <v>0</v>
+      </c>
+      <c r="O467" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="59">
+      <c r="P467" s="58">
         <v>249800</v>
       </c>
-      <c r="Q467" s="59" t="s">
+      <c r="Q467" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="60" t="s">
+      <c r="R467" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="W467" s="59" t="s">
+      <c r="W467" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="59">
+      <c r="X467" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="59">
+      <c r="Y467" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="59">
+      <c r="Z467" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="59">
+      <c r="AA467" s="58">
         <v>65</v>
       </c>
-      <c r="AH467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="59">
+      <c r="AH467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="59">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="59">
-        <v>1</v>
-      </c>
-      <c r="G468" s="59" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
         <v>1609</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="I468" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J468" s="59" t="s">
+      <c r="J468" s="58" t="s">
         <v>1612</v>
       </c>
-      <c r="L468" s="59">
+      <c r="L468" s="58">
         <v>-31</v>
       </c>
-      <c r="M468" s="59">
-        <v>0</v>
-      </c>
-      <c r="N468" s="59">
-        <v>0</v>
-      </c>
-      <c r="O468" s="59" t="s">
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58">
+        <v>0</v>
+      </c>
+      <c r="O468" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="59">
+      <c r="P468" s="58">
         <v>600</v>
       </c>
-      <c r="Q468" s="59" t="s">
+      <c r="Q468" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R468" s="60" t="s">
+      <c r="R468" s="59" t="s">
         <v>1613</v>
       </c>
-      <c r="W468" s="59" t="s">
+      <c r="W468" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X468" s="59">
+      <c r="X468" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="59">
+      <c r="Y468" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="59">
+      <c r="Z468" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="59">
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
         <v>468</v>
       </c>
-      <c r="B469" s="59">
+      <c r="B469" s="58">
         <v>10385</v>
       </c>
-      <c r="F469" s="59">
-        <v>1</v>
-      </c>
-      <c r="G469" s="59" t="s">
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1615</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="I469" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J469" s="59" t="s">
+      <c r="J469" s="58" t="s">
         <v>1616</v>
       </c>
-      <c r="L469" s="59">
+      <c r="L469" s="58">
         <v>-31</v>
       </c>
-      <c r="M469" s="59">
-        <v>0</v>
-      </c>
-      <c r="N469" s="59">
-        <v>0</v>
-      </c>
-      <c r="O469" s="59" t="s">
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58">
+        <v>0</v>
+      </c>
+      <c r="O469" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="59">
+      <c r="P469" s="58">
         <v>3000</v>
       </c>
-      <c r="Q469" s="59" t="s">
+      <c r="Q469" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R469" s="60" t="s">
+      <c r="R469" s="59" t="s">
         <v>1617</v>
       </c>
-      <c r="W469" s="59" t="s">
+      <c r="W469" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X469" s="59">
+      <c r="X469" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="59">
+      <c r="Y469" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="59">
+      <c r="Z469" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="59">
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
         <v>469</v>
       </c>
-      <c r="B470" s="59">
+      <c r="B470" s="58">
         <v>10386</v>
       </c>
-      <c r="F470" s="59">
-        <v>1</v>
-      </c>
-      <c r="G470" s="59" t="s">
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
         <v>1618</v>
       </c>
-      <c r="I470" s="59" t="s">
+      <c r="I470" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J470" s="59" t="s">
+      <c r="J470" s="58" t="s">
         <v>1619</v>
       </c>
-      <c r="L470" s="59">
+      <c r="L470" s="58">
         <v>-31</v>
       </c>
-      <c r="M470" s="59">
-        <v>0</v>
-      </c>
-      <c r="N470" s="59">
-        <v>0</v>
-      </c>
-      <c r="O470" s="59" t="s">
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58">
+        <v>0</v>
+      </c>
+      <c r="O470" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="59">
+      <c r="P470" s="58">
         <v>6800</v>
       </c>
-      <c r="Q470" s="59" t="s">
+      <c r="Q470" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R470" s="60" t="s">
+      <c r="R470" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="W470" s="59" t="s">
+      <c r="W470" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X470" s="59">
+      <c r="X470" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="59">
+      <c r="Y470" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="59">
+      <c r="Z470" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="59">
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
         <v>470</v>
       </c>
-      <c r="B471" s="59">
+      <c r="B471" s="58">
         <v>10387</v>
       </c>
-      <c r="F471" s="59">
-        <v>1</v>
-      </c>
-      <c r="G471" s="59" t="s">
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
         <v>1621</v>
       </c>
-      <c r="I471" s="59" t="s">
+      <c r="I471" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J471" s="59" t="s">
+      <c r="J471" s="58" t="s">
         <v>1622</v>
       </c>
-      <c r="L471" s="59">
+      <c r="L471" s="58">
         <v>-31</v>
       </c>
-      <c r="M471" s="59">
-        <v>0</v>
-      </c>
-      <c r="N471" s="59">
-        <v>0</v>
-      </c>
-      <c r="O471" s="59" t="s">
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58">
+        <v>0</v>
+      </c>
+      <c r="O471" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="59">
+      <c r="P471" s="58">
         <v>9800</v>
       </c>
-      <c r="Q471" s="59" t="s">
+      <c r="Q471" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R471" s="60" t="s">
+      <c r="R471" s="59" t="s">
         <v>1623</v>
       </c>
-      <c r="W471" s="59" t="s">
+      <c r="W471" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X471" s="59">
+      <c r="X471" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="59">
+      <c r="Y471" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="59">
+      <c r="Z471" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="59">
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
         <v>471</v>
       </c>
-      <c r="B472" s="59">
+      <c r="B472" s="58">
         <v>10388</v>
       </c>
-      <c r="F472" s="59">
-        <v>1</v>
-      </c>
-      <c r="G472" s="59" t="s">
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
         <v>1625</v>
       </c>
-      <c r="I472" s="59" t="s">
+      <c r="I472" s="58" t="s">
         <v>1610</v>
       </c>
-      <c r="J472" s="59" t="s">
+      <c r="J472" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="L472" s="59">
+      <c r="L472" s="58">
         <v>-31</v>
       </c>
-      <c r="M472" s="59">
-        <v>0</v>
-      </c>
-      <c r="N472" s="59">
-        <v>0</v>
-      </c>
-      <c r="O472" s="59" t="s">
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58">
+        <v>0</v>
+      </c>
+      <c r="O472" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="59">
+      <c r="P472" s="58">
         <v>19800</v>
       </c>
-      <c r="Q472" s="59" t="s">
+      <c r="Q472" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R472" s="60" t="s">
+      <c r="R472" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="W472" s="59" t="s">
+      <c r="W472" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X472" s="59">
+      <c r="X472" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="59">
+      <c r="Y472" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="59">
+      <c r="Z472" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="59">
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
         <v>472</v>
       </c>
-      <c r="B473" s="59">
+      <c r="B473" s="58">
         <v>10389</v>
       </c>
-      <c r="F473" s="59">
-        <v>1</v>
-      </c>
-      <c r="G473" s="59" t="s">
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
         <v>1628</v>
       </c>
-      <c r="I473" s="59" t="s">
+      <c r="I473" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J473" s="59" t="s">
+      <c r="J473" s="58" t="s">
         <v>1629</v>
       </c>
-      <c r="L473" s="59">
+      <c r="L473" s="58">
         <v>-31</v>
       </c>
-      <c r="M473" s="59">
-        <v>0</v>
-      </c>
-      <c r="N473" s="59">
-        <v>0</v>
-      </c>
-      <c r="O473" s="59" t="s">
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58">
+        <v>0</v>
+      </c>
+      <c r="O473" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="59">
+      <c r="P473" s="58">
         <v>49800</v>
       </c>
-      <c r="Q473" s="59" t="s">
+      <c r="Q473" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R473" s="60" t="s">
+      <c r="R473" s="59" t="s">
         <v>1630</v>
       </c>
-      <c r="W473" s="59" t="s">
+      <c r="W473" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X473" s="59">
+      <c r="X473" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="59">
+      <c r="Y473" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="59">
+      <c r="Z473" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="59">
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
         <v>473</v>
       </c>
-      <c r="B474" s="59">
+      <c r="B474" s="58">
         <v>10390</v>
       </c>
-      <c r="F474" s="59">
-        <v>1</v>
-      </c>
-      <c r="G474" s="59" t="s">
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
         <v>1631</v>
       </c>
-      <c r="I474" s="59" t="s">
+      <c r="I474" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J474" s="59" t="s">
+      <c r="J474" s="58" t="s">
         <v>1632</v>
       </c>
-      <c r="L474" s="59">
+      <c r="L474" s="58">
         <v>-31</v>
       </c>
-      <c r="M474" s="59">
-        <v>0</v>
-      </c>
-      <c r="N474" s="59">
-        <v>0</v>
-      </c>
-      <c r="O474" s="59" t="s">
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58">
+        <v>0</v>
+      </c>
+      <c r="O474" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="59">
+      <c r="P474" s="58">
         <v>99800</v>
       </c>
-      <c r="Q474" s="59" t="s">
+      <c r="Q474" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R474" s="60" t="s">
+      <c r="R474" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="W474" s="59" t="s">
+      <c r="W474" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X474" s="59">
+      <c r="X474" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="59">
+      <c r="Y474" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="59">
+      <c r="Z474" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="59">
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
         <v>474</v>
       </c>
-      <c r="B475" s="59">
+      <c r="B475" s="58">
         <v>10391</v>
       </c>
-      <c r="F475" s="59">
-        <v>1</v>
-      </c>
-      <c r="G475" s="59" t="s">
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
         <v>1634</v>
       </c>
-      <c r="I475" s="59" t="s">
+      <c r="I475" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J475" s="59" t="s">
+      <c r="J475" s="58" t="s">
         <v>1688</v>
       </c>
-      <c r="L475" s="59">
+      <c r="L475" s="58">
         <v>-31</v>
       </c>
-      <c r="M475" s="59">
-        <v>0</v>
-      </c>
-      <c r="N475" s="59">
-        <v>0</v>
-      </c>
-      <c r="O475" s="59" t="s">
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58">
+        <v>0</v>
+      </c>
+      <c r="O475" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="59">
+      <c r="P475" s="58">
         <v>249800</v>
       </c>
-      <c r="Q475" s="59" t="s">
+      <c r="Q475" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R475" s="60" t="s">
+      <c r="R475" s="59" t="s">
         <v>1687</v>
       </c>
-      <c r="W475" s="59" t="s">
+      <c r="W475" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X475" s="59">
+      <c r="X475" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="59">
+      <c r="Y475" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="59">
+      <c r="Z475" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="59">
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43457,263 +43475,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="59">
+    <row r="493" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="58">
         <v>492</v>
       </c>
-      <c r="B493" s="59">
+      <c r="B493" s="58">
         <v>10409</v>
       </c>
-      <c r="F493" s="59">
-        <v>1</v>
-      </c>
-      <c r="G493" s="59" t="s">
+      <c r="F493" s="58">
+        <v>1</v>
+      </c>
+      <c r="G493" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="I493" s="58" t="s">
         <v>1866</v>
       </c>
-      <c r="J493" s="59" t="s">
+      <c r="J493" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L493" s="59">
+      <c r="L493" s="58">
         <v>-31</v>
       </c>
-      <c r="M493" s="59">
-        <v>0</v>
-      </c>
-      <c r="N493" s="59">
-        <v>0</v>
-      </c>
-      <c r="O493" s="59" t="s">
+      <c r="M493" s="58">
+        <v>0</v>
+      </c>
+      <c r="N493" s="58">
+        <v>0</v>
+      </c>
+      <c r="O493" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="59">
+      <c r="P493" s="58">
         <v>49800</v>
       </c>
-      <c r="Q493" s="59" t="s">
+      <c r="Q493" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R493" s="60" t="s">
+      <c r="R493" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W493" s="59" t="s">
+      <c r="W493" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="59">
+      <c r="X493" s="58">
         <v>200</v>
       </c>
-      <c r="Y493" s="59">
+      <c r="Y493" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="59">
+      <c r="Z493" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="59">
+      <c r="AH493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="58">
         <v>493</v>
       </c>
-      <c r="B494" s="59">
+      <c r="B494" s="58">
         <v>10410</v>
       </c>
-      <c r="F494" s="59">
-        <v>1</v>
-      </c>
-      <c r="G494" s="59" t="s">
+      <c r="F494" s="58">
+        <v>1</v>
+      </c>
+      <c r="G494" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I494" s="59" t="s">
+      <c r="I494" s="58" t="s">
         <v>1869</v>
       </c>
-      <c r="J494" s="59" t="s">
+      <c r="J494" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L494" s="59">
+      <c r="L494" s="58">
         <v>-31</v>
       </c>
-      <c r="M494" s="59">
-        <v>0</v>
-      </c>
-      <c r="N494" s="59">
-        <v>0</v>
-      </c>
-      <c r="O494" s="59" t="s">
+      <c r="M494" s="58">
+        <v>0</v>
+      </c>
+      <c r="N494" s="58">
+        <v>0</v>
+      </c>
+      <c r="O494" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="59">
+      <c r="P494" s="58">
         <v>99800</v>
       </c>
-      <c r="Q494" s="59" t="s">
+      <c r="Q494" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R494" s="60" t="s">
+      <c r="R494" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W494" s="59" t="s">
+      <c r="W494" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="59">
+      <c r="X494" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="59">
+      <c r="Y494" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="59">
+      <c r="Z494" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="59">
+      <c r="AH494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="58">
         <v>494</v>
       </c>
-      <c r="B495" s="59">
+      <c r="B495" s="58">
         <v>10411</v>
       </c>
-      <c r="F495" s="59">
-        <v>1</v>
-      </c>
-      <c r="G495" s="59" t="s">
+      <c r="F495" s="58">
+        <v>1</v>
+      </c>
+      <c r="G495" s="58" t="s">
         <v>1886</v>
       </c>
-      <c r="J495" s="59" t="s">
+      <c r="J495" s="58" t="s">
         <v>1887</v>
       </c>
-      <c r="L495" s="59">
+      <c r="L495" s="58">
         <v>-31</v>
       </c>
-      <c r="M495" s="59">
-        <v>0</v>
-      </c>
-      <c r="N495" s="59">
-        <v>0</v>
-      </c>
-      <c r="O495" s="59" t="s">
+      <c r="M495" s="58">
+        <v>0</v>
+      </c>
+      <c r="N495" s="58">
+        <v>0</v>
+      </c>
+      <c r="O495" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="59">
+      <c r="P495" s="58">
         <v>79800</v>
       </c>
-      <c r="Q495" s="59" t="s">
+      <c r="Q495" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R495" s="60" t="s">
+      <c r="R495" s="59" t="s">
         <v>1888</v>
       </c>
-      <c r="W495" s="59" t="s">
+      <c r="W495" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="59">
+      <c r="X495" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="59">
+      <c r="Y495" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="59">
+      <c r="Z495" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="59">
+      <c r="AA495" s="58">
         <v>14</v>
       </c>
-      <c r="AH495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="59">
+      <c r="AH495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="58">
         <v>495</v>
       </c>
-      <c r="B496" s="59">
+      <c r="B496" s="58">
         <v>10412</v>
       </c>
-      <c r="F496" s="59">
-        <v>1</v>
-      </c>
-      <c r="G496" s="59" t="s">
+      <c r="F496" s="58">
+        <v>1</v>
+      </c>
+      <c r="G496" s="58" t="s">
         <v>1889</v>
       </c>
-      <c r="J496" s="59" t="s">
+      <c r="J496" s="58" t="s">
         <v>1890</v>
       </c>
-      <c r="L496" s="59">
+      <c r="L496" s="58">
         <v>-31</v>
       </c>
-      <c r="M496" s="59">
-        <v>0</v>
-      </c>
-      <c r="N496" s="59">
-        <v>0</v>
-      </c>
-      <c r="O496" s="59" t="s">
+      <c r="M496" s="58">
+        <v>0</v>
+      </c>
+      <c r="N496" s="58">
+        <v>0</v>
+      </c>
+      <c r="O496" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="59">
+      <c r="P496" s="58">
         <v>89800</v>
       </c>
-      <c r="Q496" s="59" t="s">
+      <c r="Q496" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="R496" s="59" t="s">
         <v>1891</v>
       </c>
-      <c r="W496" s="59" t="s">
+      <c r="W496" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="59">
+      <c r="X496" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="59">
+      <c r="Y496" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="59">
+      <c r="Z496" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="59">
+      <c r="AA496" s="58">
         <v>14</v>
       </c>
-      <c r="AH496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="59">
+      <c r="AH496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43754,7 +43772,7 @@
       <c r="Q497" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R497" s="63" t="s">
+      <c r="R497" s="62" t="s">
         <v>2016</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43822,7 +43840,7 @@
       <c r="Q498" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R498" s="63" t="s">
+      <c r="R498" s="62" t="s">
         <v>2017</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43890,7 +43908,7 @@
       <c r="Q499" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R499" s="63" t="s">
+      <c r="R499" s="62" t="s">
         <v>2018</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43958,7 +43976,7 @@
       <c r="Q500" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R500" s="63" t="s">
+      <c r="R500" s="62" t="s">
         <v>2019</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -44026,7 +44044,7 @@
       <c r="Q501" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R501" s="63" t="s">
+      <c r="R501" s="62" t="s">
         <v>2020</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -44094,7 +44112,7 @@
       <c r="Q502" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R502" s="63" t="s">
+      <c r="R502" s="62" t="s">
         <v>2021</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -44162,7 +44180,7 @@
       <c r="Q503" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R503" s="64" t="s">
+      <c r="R503" s="63" t="s">
         <v>2022</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -44230,7 +44248,7 @@
       <c r="Q504" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R504" s="64" t="s">
+      <c r="R504" s="63" t="s">
         <v>2017</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -44298,7 +44316,7 @@
       <c r="Q505" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R505" s="64" t="s">
+      <c r="R505" s="63" t="s">
         <v>2023</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -44366,7 +44384,7 @@
       <c r="Q506" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R506" s="64" t="s">
+      <c r="R506" s="63" t="s">
         <v>2024</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -44434,7 +44452,7 @@
       <c r="Q507" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R507" s="64" t="s">
+      <c r="R507" s="63" t="s">
         <v>2025</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -44502,7 +44520,7 @@
       <c r="Q508" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R508" s="64" t="s">
+      <c r="R508" s="63" t="s">
         <v>2026</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -44533,183 +44551,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="59">
+    <row r="509" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="58">
         <v>508</v>
       </c>
-      <c r="B509" s="59">
+      <c r="B509" s="58">
         <v>10425</v>
       </c>
-      <c r="F509" s="59">
-        <v>1</v>
-      </c>
-      <c r="G509" s="59" t="s">
+      <c r="F509" s="58">
+        <v>1</v>
+      </c>
+      <c r="G509" s="58" t="s">
         <v>1918</v>
       </c>
-      <c r="J509" s="59" t="s">
+      <c r="J509" s="58" t="s">
         <v>1919</v>
       </c>
-      <c r="L509" s="59">
+      <c r="L509" s="58">
         <v>-4</v>
       </c>
-      <c r="M509" s="59">
-        <v>1</v>
-      </c>
-      <c r="N509" s="59">
-        <v>0</v>
-      </c>
-      <c r="O509" s="59" t="s">
+      <c r="M509" s="58">
+        <v>1</v>
+      </c>
+      <c r="N509" s="58">
+        <v>0</v>
+      </c>
+      <c r="O509" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="59">
+      <c r="P509" s="58">
         <v>1800</v>
       </c>
-      <c r="R509" s="60"/>
-      <c r="W509" s="59" t="s">
+      <c r="R509" s="59"/>
+      <c r="W509" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="61" t="s">
+      <c r="X509" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="59">
+      <c r="Y509" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="59" t="s">
+      <c r="AB509" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="59" t="s">
+      <c r="AC509" s="58" t="s">
         <v>1920</v>
       </c>
-      <c r="AD509" s="60" t="s">
+      <c r="AD509" s="59" t="s">
         <v>1921</v>
       </c>
-      <c r="AH509" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="59">
+      <c r="AH509" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="58">
         <v>509</v>
       </c>
-      <c r="B510" s="59">
+      <c r="B510" s="58">
         <v>10426</v>
       </c>
-      <c r="F510" s="59">
-        <v>1</v>
-      </c>
-      <c r="G510" s="59" t="s">
+      <c r="F510" s="58">
+        <v>1</v>
+      </c>
+      <c r="G510" s="58" t="s">
         <v>1922</v>
       </c>
-      <c r="J510" s="59" t="s">
+      <c r="J510" s="58" t="s">
         <v>1923</v>
       </c>
-      <c r="L510" s="59">
+      <c r="L510" s="58">
         <v>-4</v>
       </c>
-      <c r="M510" s="59">
-        <v>1</v>
-      </c>
-      <c r="N510" s="59">
-        <v>0</v>
-      </c>
-      <c r="O510" s="59" t="s">
+      <c r="M510" s="58">
+        <v>1</v>
+      </c>
+      <c r="N510" s="58">
+        <v>0</v>
+      </c>
+      <c r="O510" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="59">
+      <c r="P510" s="58">
         <v>4800</v>
       </c>
-      <c r="R510" s="60"/>
-      <c r="W510" s="59" t="s">
+      <c r="R510" s="59"/>
+      <c r="W510" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="61" t="s">
+      <c r="X510" s="60" t="s">
         <v>108</v>
       </c>
-      <c